--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,17 +402,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Bilanco Ä°ci Yukumlulukler</t>
+          <t>Bilanco Ici Yukumlulukler</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Bilanco Ä°ci Doviz Yukumlulugu</t>
+          <t>Bilanco Ici Doviz Yukumlulugu</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Bilanco Ä°ci Altin Yukumlulugu</t>
+          <t>Bilanco Ici Altin Yukumlulugu</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -599,64 +599,64 @@
         <v>93206.00000000002</v>
       </c>
       <c r="C2">
-        <v>48437.08593222559</v>
+        <v>48432.21042132787</v>
       </c>
       <c r="D2">
         <v>43241</v>
       </c>
       <c r="E2">
-        <v>1527.914067774408</v>
+        <v>1532.78957867213</v>
       </c>
       <c r="F2">
-        <v>8756.630559278254</v>
+        <v>8784.572606949349</v>
       </c>
       <c r="G2">
-        <v>39680.45537294734</v>
+        <v>39647.63781437853</v>
       </c>
       <c r="H2">
-        <v>78566.74412121333</v>
+        <v>78817.44736771168</v>
       </c>
       <c r="I2">
-        <v>68102.9203655747</v>
+        <v>68320.23398118447</v>
       </c>
       <c r="J2">
-        <v>10463.82375563863</v>
+        <v>10497.21338652721</v>
       </c>
       <c r="K2">
-        <v>345.9195292268316</v>
+        <v>347.0233442057309</v>
       </c>
       <c r="L2">
-        <v>1527.914067774408</v>
+        <v>1532.78957867213</v>
       </c>
       <c r="M2">
-        <v>3513.074905197113</v>
+        <v>3524.284982613149</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>73179.83561901498</v>
+        <v>73413.34946222066</v>
       </c>
       <c r="P2">
-        <v>42802.73999657399</v>
+        <v>42939.32177804135</v>
       </c>
       <c r="Q2">
-        <v>32552.30936138625</v>
+        <v>32656.18244062862</v>
       </c>
       <c r="R2">
-        <v>10250.43076954081</v>
+        <v>10283.13947219452</v>
       </c>
       <c r="S2">
-        <v>30377.09562244099</v>
+        <v>30474.02768417931</v>
       </c>
       <c r="T2">
-        <v>25453.12656395374</v>
+        <v>25534.34644310861</v>
       </c>
       <c r="U2">
-        <v>4710.575938036363</v>
+        <v>4725.607191956223</v>
       </c>
       <c r="V2">
-        <v>213.3929860978157</v>
+        <v>214.0739143326954</v>
       </c>
       <c r="W2">
         <v>60658</v>
@@ -692,28 +692,28 @@
         <v>5559</v>
       </c>
       <c r="AH2">
-        <v>14639.25587878669</v>
+        <v>14388.55263228834</v>
       </c>
       <c r="AI2">
-        <v>-18137.9203655747</v>
+        <v>-18355.23398118447</v>
       </c>
       <c r="AJ2">
-        <v>32777.17624436137</v>
+        <v>32743.78661347279</v>
       </c>
       <c r="AK2">
-        <v>-44621.74412121331</v>
+        <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-71839.9203655747</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>27218.17624436137</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-73236.9203655747</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
-        <v>139224.7441212133</v>
+        <v>139475.4473677117</v>
       </c>
       <c r="AP2">
         <v>263769.22</v>
@@ -725,7 +725,7 @@
         <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
-        <v>7.443075</v>
+        <v>7.4194</v>
       </c>
     </row>
     <row r="3">
@@ -733,67 +733,67 @@
         <v>44246</v>
       </c>
       <c r="B3">
-        <v>94047.99999999999</v>
+        <v>94048</v>
       </c>
       <c r="C3">
-        <v>52325.95127408542</v>
+        <v>52321.66853164957</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1538.048725914579</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="F3">
-        <v>8851.981050077022</v>
+        <v>8876.629654666533</v>
       </c>
       <c r="G3">
-        <v>43473.9702240084</v>
+        <v>43445.03887698304</v>
       </c>
       <c r="H3">
-        <v>81812.04206504246</v>
+        <v>82039.85013016526</v>
       </c>
       <c r="I3">
-        <v>70079.10803980459</v>
+        <v>70274.24540106722</v>
       </c>
       <c r="J3">
-        <v>11732.93416866751</v>
+        <v>11765.60487292706</v>
       </c>
       <c r="K3">
-        <v>341.5379385719572</v>
+        <v>342.488961123017</v>
       </c>
       <c r="L3">
-        <v>1538.048725914579</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="M3">
-        <v>4899.740535795733</v>
+        <v>4913.384009089994</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75032.7148647602</v>
+        <v>75241.64569160182</v>
       </c>
       <c r="P3">
-        <v>45783.82572725994</v>
+        <v>45911.31215211357</v>
       </c>
       <c r="Q3">
-        <v>34839.70562502331</v>
+        <v>34936.71782185338</v>
       </c>
       <c r="R3">
-        <v>10944.12024566627</v>
+        <v>10974.5944740892</v>
       </c>
       <c r="S3">
-        <v>29248.88899407062</v>
+        <v>29330.33339565924</v>
       </c>
       <c r="T3">
-        <v>25427.13889438702</v>
+        <v>25497.94151912207</v>
       </c>
       <c r="U3">
-        <v>3032.93632011199</v>
+        <v>3041.381621528327</v>
       </c>
       <c r="V3">
-        <v>788.8139230012363</v>
+        <v>791.0103988378615</v>
       </c>
       <c r="W3">
         <v>58285</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>12235.95793495752</v>
+        <v>12008.14986983474</v>
       </c>
       <c r="AI3">
-        <v>-16215.10803980459</v>
+        <v>-16410.24540106722</v>
       </c>
       <c r="AJ3">
-        <v>28451.06583133249</v>
+        <v>28418.39512707294</v>
       </c>
       <c r="AK3">
-        <v>-44764.04206504248</v>
+        <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-67995.10803980459</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>23231.06583133249</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-69280.10803980459</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>140097.0420650425</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.972060000000001</v>
+        <v>6.9527</v>
       </c>
     </row>
     <row r="4">
@@ -870,67 +870,67 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213</v>
+        <v>95213.00000000002</v>
       </c>
       <c r="C4">
-        <v>52914.45725533512</v>
+        <v>52943.16064178856</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1579.542744664883</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="F4">
-        <v>9111.329708143932</v>
+        <v>8945.758995606473</v>
       </c>
       <c r="G4">
-        <v>43803.12754719119</v>
+        <v>43997.40164618209</v>
       </c>
       <c r="H4">
-        <v>82959.91007830975</v>
+        <v>81452.36596963462</v>
       </c>
       <c r="I4">
-        <v>71346.47124630047</v>
+        <v>70049.96607530171</v>
       </c>
       <c r="J4">
-        <v>11613.43883200929</v>
+        <v>11402.39989433291</v>
       </c>
       <c r="K4">
-        <v>377.2226234476118</v>
+        <v>370.3677492909181</v>
       </c>
       <c r="L4">
-        <v>1579.542744664883</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="M4">
-        <v>5023.583556367447</v>
+        <v>4932.295200489405</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>75979.56115382981</v>
+        <v>74598.86366164284</v>
       </c>
       <c r="P4">
-        <v>47025.93384029342</v>
+        <v>46171.38048495634</v>
       </c>
       <c r="Q4">
-        <v>35789.90979509184</v>
+        <v>35139.53701128969</v>
       </c>
       <c r="R4">
-        <v>11236.02404520158</v>
+        <v>11031.84347366665</v>
       </c>
       <c r="S4">
-        <v>28953.6273135364</v>
+        <v>28427.4831766865</v>
       </c>
       <c r="T4">
-        <v>25349.92239828936</v>
+        <v>24889.26464045381</v>
       </c>
       <c r="U4">
-        <v>3226.290128439328</v>
+        <v>3167.662115566431</v>
       </c>
       <c r="V4">
-        <v>377.4147868077092</v>
+        <v>370.5564206662588</v>
       </c>
       <c r="W4">
         <v>59426</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>12253.08992169025</v>
+        <v>13760.6340303654</v>
       </c>
       <c r="AI4">
-        <v>-16852.47124630047</v>
+        <v>-15555.96607530171</v>
       </c>
       <c r="AJ4">
-        <v>29105.56116799071</v>
+        <v>29316.60010566709</v>
       </c>
       <c r="AK4">
-        <v>-45746.91007830975</v>
+        <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-69677.47124630047</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>23930.56116799071</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-71103.47124630047</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>142385.9100783098</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262228.93</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953851</v>
+        <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
         <v>0.1540219074989171</v>
       </c>
       <c r="AS4">
-        <v>7.0617</v>
+        <v>7.1924</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51686.43508017261</v>
+        <v>51706.75148945306</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1560.564919827392</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="F5">
-        <v>8986.385475665433</v>
+        <v>8869.395094197842</v>
       </c>
       <c r="G5">
-        <v>42700.04960450718</v>
+        <v>42837.35639525522</v>
       </c>
       <c r="H5">
-        <v>81281.87625928233</v>
+        <v>80223.69800332779</v>
       </c>
       <c r="I5">
-        <v>69361.73467584272</v>
+        <v>68458.74027159036</v>
       </c>
       <c r="J5">
-        <v>11920.14171939451</v>
+        <v>11764.95786592239</v>
       </c>
       <c r="K5">
-        <v>345.956021306853</v>
+        <v>341.452149643068</v>
       </c>
       <c r="L5">
-        <v>1560.564919827392</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="M5">
-        <v>4977.977752339105</v>
+        <v>4913.17132735763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>74397.37756580899</v>
+        <v>73428.82601578016</v>
       </c>
       <c r="P5">
-        <v>45465.72223324968</v>
+        <v>44873.82105093661</v>
       </c>
       <c r="Q5">
-        <v>34043.23189284578</v>
+        <v>33600.03582738447</v>
       </c>
       <c r="R5">
-        <v>11422.4904763588</v>
+        <v>11273.78535773711</v>
       </c>
       <c r="S5">
-        <v>28931.6553325593</v>
+        <v>28555.00496484354</v>
       </c>
       <c r="T5">
-        <v>25621.4785639899</v>
+        <v>25287.92214588589</v>
       </c>
       <c r="U5">
-        <v>2812.525525533692</v>
+        <v>2775.910310772369</v>
       </c>
       <c r="V5">
-        <v>497.65124303571</v>
+        <v>491.1725081852826</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>10381.12374071767</v>
+        <v>11439.30199667221</v>
       </c>
       <c r="AI5">
-        <v>-16114.73467584272</v>
+        <v>-15211.74027159036</v>
       </c>
       <c r="AJ5">
-        <v>26495.85828060549</v>
+        <v>26651.04213407761</v>
       </c>
       <c r="AK5">
-        <v>-47318.87625928233</v>
+        <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-68618.73467584272</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>21299.85828060549</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-69604.73467584272</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
-        <v>139967.8762592824</v>
+        <v>138909.6980033278</v>
       </c>
       <c r="AP5">
         <v>259573.94</v>
@@ -1136,7 +1136,7 @@
         <v>0.155273676548578</v>
       </c>
       <c r="AS5">
-        <v>7.355379999999999</v>
+        <v>7.4524</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51152.24489990366</v>
+        <v>51129.47699003304</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1511.755100096338</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="F6">
-        <v>8543.853020887369</v>
+        <v>8672.528409854122</v>
       </c>
       <c r="G6">
-        <v>42608.39187901629</v>
+        <v>42456.94858017892</v>
       </c>
       <c r="H6">
-        <v>79593.72915762394</v>
+        <v>80792.45694866077</v>
       </c>
       <c r="I6">
-        <v>67836.01747848274</v>
+        <v>68857.66730247428</v>
       </c>
       <c r="J6">
-        <v>11757.71167914122</v>
+        <v>11934.7896461865</v>
       </c>
       <c r="K6">
-        <v>333.8500037053113</v>
+        <v>338.8779786691025</v>
       </c>
       <c r="L6">
-        <v>1511.755100096338</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="M6">
-        <v>4829.753517399083</v>
+        <v>4902.492410606345</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>72918.3705364232</v>
+        <v>74016.56354941837</v>
       </c>
       <c r="P6">
-        <v>44262.20476608899</v>
+        <v>44928.81927840313</v>
       </c>
       <c r="Q6">
-        <v>32984.87558093988</v>
+        <v>33481.6469655858</v>
       </c>
       <c r="R6">
-        <v>11277.32918514911</v>
+        <v>11447.17231281734</v>
       </c>
       <c r="S6">
-        <v>28656.16577033422</v>
+        <v>29087.74427101523</v>
       </c>
       <c r="T6">
-        <v>26013.64877883526</v>
+        <v>26405.42943878784</v>
       </c>
       <c r="U6">
-        <v>2162.134497506855</v>
+        <v>2194.697498858233</v>
       </c>
       <c r="V6">
-        <v>480.3824939921024</v>
+        <v>487.6173333691535</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>12017.27084237606</v>
+        <v>10818.54305133924</v>
       </c>
       <c r="AI6">
-        <v>-15172.01747848274</v>
+        <v>-16193.66730247428</v>
       </c>
       <c r="AJ6">
-        <v>27189.28832085879</v>
+        <v>27012.21035381351</v>
       </c>
       <c r="AK6">
-        <v>-45582.72915762394</v>
+        <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-67597.01747848274</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>22014.28832085879</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-68583.01747848274</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
-        <v>138179.729157624</v>
+        <v>139378.4569486608</v>
       </c>
       <c r="AP6">
         <v>259407.88</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548526590634024</v>
       </c>
       <c r="AS6">
-        <v>7.55672</v>
+        <v>7.4446</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52375.78876534896</v>
+        <v>52364.30885172918</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1522.211234651043</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="F7">
-        <v>8631.087609835044</v>
+        <v>8696.179850616174</v>
       </c>
       <c r="G7">
-        <v>43744.70115551392</v>
+        <v>43668.129001113</v>
       </c>
       <c r="H7">
-        <v>79026.24435352707</v>
+        <v>79622.22895686104</v>
       </c>
       <c r="I7">
-        <v>67021.39391019412</v>
+        <v>67526.84269105439</v>
       </c>
       <c r="J7">
-        <v>12004.85044333297</v>
+        <v>12095.38626580666</v>
       </c>
       <c r="K7">
-        <v>335.7731508716264</v>
+        <v>338.3054188513269</v>
       </c>
       <c r="L7">
-        <v>1522.211234651043</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="M7">
-        <v>4865.173406942666</v>
+        <v>4901.864615879742</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72303.08656106175</v>
+        <v>72848.36777385917</v>
       </c>
       <c r="P7">
-        <v>44126.80720406093</v>
+        <v>44459.59408901345</v>
       </c>
       <c r="Q7">
-        <v>33019.94958435038</v>
+        <v>33268.97295267724</v>
       </c>
       <c r="R7">
-        <v>11106.85761971055</v>
+        <v>11190.62113633621</v>
       </c>
       <c r="S7">
-        <v>28176.27935700083</v>
+        <v>28388.77368484572</v>
       </c>
       <c r="T7">
-        <v>25240.34023908836</v>
+        <v>25430.69287811943</v>
       </c>
       <c r="U7">
-        <v>2037.946294290042</v>
+        <v>2053.315677255843</v>
       </c>
       <c r="V7">
-        <v>897.9928236224203</v>
+        <v>904.7651294704517</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>14134.75564647293</v>
+        <v>13538.77104313896</v>
       </c>
       <c r="AI7">
-        <v>-13123.39391019412</v>
+        <v>-13628.84269105439</v>
       </c>
       <c r="AJ7">
-        <v>27258.14955666703</v>
+        <v>27167.61373419334</v>
       </c>
       <c r="AK7">
-        <v>-47965.24435352707</v>
+        <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-69974.39391019412</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>22009.14955666703</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-70960.39391019412</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
-        <v>142112.2443535271</v>
+        <v>142708.228956861</v>
       </c>
       <c r="AP7">
         <v>261709.16</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711288974371398</v>
       </c>
       <c r="AS7">
-        <v>7.513540000000001</v>
+        <v>7.4573</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49336.54727966117</v>
+        <v>49368.60578775706</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1556.45272033883</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="F8">
-        <v>8815.464284704025</v>
+        <v>8633.890742862901</v>
       </c>
       <c r="G8">
-        <v>40521.08299495715</v>
+        <v>40734.71504489415</v>
       </c>
       <c r="H8">
-        <v>79628.80444985046</v>
+        <v>77988.67710209171</v>
       </c>
       <c r="I8">
-        <v>68109.8099093006</v>
+        <v>66706.94115276607</v>
       </c>
       <c r="J8">
-        <v>11518.99454054986</v>
+        <v>11281.73594932564</v>
       </c>
       <c r="K8">
-        <v>341.1647169854989</v>
+        <v>334.1376922011359</v>
       </c>
       <c r="L8">
-        <v>1556.45272033883</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="M8">
-        <v>4988.185163564921</v>
+        <v>4885.44270800539</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>72743.00184896121</v>
+        <v>71244.70248964224</v>
       </c>
       <c r="P8">
-        <v>45169.46153826373</v>
+        <v>44239.09884270045</v>
       </c>
       <c r="Q8">
-        <v>33775.78400841419</v>
+        <v>33080.09872936317</v>
       </c>
       <c r="R8">
-        <v>11393.67740127087</v>
+        <v>11158.99998740697</v>
       </c>
       <c r="S8">
-        <v>27573.54031069749</v>
+        <v>27005.60364694179</v>
       </c>
       <c r="T8">
-        <v>25707.50719397635</v>
+        <v>25178.00551574759</v>
       </c>
       <c r="U8">
-        <v>1740.716106020825</v>
+        <v>1704.862295205833</v>
       </c>
       <c r="V8">
-        <v>125.3171392789823</v>
+        <v>122.7359619186742</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>11009.19555014954</v>
+        <v>12649.32289790829</v>
       </c>
       <c r="AI8">
-        <v>-17216.8099093006</v>
+        <v>-15813.94115276607</v>
       </c>
       <c r="AJ8">
-        <v>28226.00545945015</v>
+        <v>28463.26405067436</v>
       </c>
       <c r="AK8">
-        <v>-48990.80444985046</v>
+        <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-72080.8099093006</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>23090.00545945015</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-73066.8099093006</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
-        <v>140614.8044498505</v>
+        <v>138974.6771020917</v>
       </c>
       <c r="AP8">
         <v>252444.5</v>
@@ -1547,7 +1547,7 @@
         <v>0.1694590296084882</v>
       </c>
       <c r="AS8">
-        <v>7.77734</v>
+        <v>7.9409</v>
       </c>
     </row>
     <row r="9">
@@ -1555,67 +1555,67 @@
         <v>44288</v>
       </c>
       <c r="B9">
-        <v>87446.00000000002</v>
+        <v>87446</v>
       </c>
       <c r="C9">
-        <v>46568.42368864675</v>
+        <v>46565.54670958425</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1516.576311353253</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="F9">
-        <v>8624.164569641593</v>
+        <v>8640.524802036545</v>
       </c>
       <c r="G9">
-        <v>37944.25911900515</v>
+        <v>37925.0219075477</v>
       </c>
       <c r="H9">
-        <v>76758.05660746135</v>
+        <v>76903.66835154883</v>
       </c>
       <c r="I9">
-        <v>65682.18501869</v>
+        <v>65806.78558752616</v>
       </c>
       <c r="J9">
-        <v>11075.87158877135</v>
+        <v>11096.88276402267</v>
       </c>
       <c r="K9">
-        <v>331.1337372651536</v>
+        <v>331.7619053447073</v>
       </c>
       <c r="L9">
-        <v>1516.576311353253</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="M9">
-        <v>4868.253402066894</v>
+        <v>4877.488587269145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70042.09315677604</v>
+        <v>70174.96456851922</v>
       </c>
       <c r="P9">
-        <v>44218.66152793726</v>
+        <v>44302.54531435495</v>
       </c>
       <c r="Q9">
-        <v>33154.44687400747</v>
+        <v>33217.34159863904</v>
       </c>
       <c r="R9">
-        <v>11064.21465392979</v>
+        <v>11085.20371571591</v>
       </c>
       <c r="S9">
-        <v>25823.43150668198</v>
+        <v>25872.41913177574</v>
       </c>
       <c r="T9">
-        <v>24553.83743372994</v>
+        <v>24600.41661057192</v>
       </c>
       <c r="U9">
-        <v>1257.937260267279</v>
+        <v>1260.323595285594</v>
       </c>
       <c r="V9">
-        <v>11.65693484156263</v>
+        <v>11.67904830675462</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1651,40 +1651,40 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10687.94339253867</v>
+        <v>10542.33164845117</v>
       </c>
       <c r="AI9">
-        <v>-17597.18501869</v>
+        <v>-17721.78558752616</v>
       </c>
       <c r="AJ9">
-        <v>28285.12841122865</v>
+        <v>28264.11723597733</v>
       </c>
       <c r="AK9">
-        <v>-49212.05660746133</v>
+        <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72309.18501869</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>23097.12841122865</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-73149.18501869</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
-        <v>137498.0566074614</v>
+        <v>137643.6683515488</v>
       </c>
       <c r="AP9">
         <v>249666.34</v>
       </c>
       <c r="AQ9">
-        <v>0.6849941678292888</v>
+        <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
         <v>0.1711123734180587</v>
       </c>
       <c r="AS9">
-        <v>8.1862</v>
+        <v>8.1707</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47845.62141765686</v>
+        <v>47850.0811599892</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1531.378582343142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="F10">
-        <v>8689.945202176166</v>
+        <v>8664.637994062661</v>
       </c>
       <c r="G10">
-        <v>39155.67621548069</v>
+        <v>39185.44316592654</v>
       </c>
       <c r="H10">
-        <v>79763.25999069889</v>
+        <v>79530.97021516721</v>
       </c>
       <c r="I10">
-        <v>68453.32625497352</v>
+        <v>68253.9737235948</v>
       </c>
       <c r="J10">
-        <v>11309.93385875596</v>
+        <v>11276.99661424471</v>
       </c>
       <c r="K10">
-        <v>336.2230347709048</v>
+        <v>335.2438725189529</v>
       </c>
       <c r="L10">
-        <v>1531.378582343142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="M10">
-        <v>4908.037957396969</v>
+        <v>4893.744571751025</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72987.62041618787</v>
+        <v>72775.06293088643</v>
       </c>
       <c r="P10">
-        <v>44802.01597921275</v>
+        <v>44671.54174538139</v>
       </c>
       <c r="Q10">
-        <v>33503.98557589388</v>
+        <v>33406.41392085184</v>
       </c>
       <c r="R10">
-        <v>11298.03052634946</v>
+        <v>11265.12794720185</v>
       </c>
       <c r="S10">
-        <v>28185.60443697512</v>
+        <v>28103.52118550504</v>
       </c>
       <c r="T10">
-        <v>26514.02782459775</v>
+        <v>26436.81260580486</v>
       </c>
       <c r="U10">
-        <v>1659.673279970866</v>
+        <v>1654.839912657327</v>
       </c>
       <c r="V10">
-        <v>11.90333240650291</v>
+        <v>11.8686670428617</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9556.740009301109</v>
+        <v>9789.02978483279</v>
       </c>
       <c r="AI10">
-        <v>-19076.32625497352</v>
+        <v>-18876.9737235948</v>
       </c>
       <c r="AJ10">
-        <v>28633.06614124404</v>
+        <v>28666.00338575529</v>
       </c>
       <c r="AK10">
-        <v>-49543.25999069889</v>
+        <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72974.32625497352</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>23431.06614124404</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-73814.32625497352</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
-        <v>139703.2599906989</v>
+        <v>139470.9702151672</v>
       </c>
       <c r="AP10">
         <v>251474.43</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668599069893508</v>
       </c>
       <c r="AS10">
-        <v>8.12806</v>
+        <v>8.1518</v>
       </c>
     </row>
     <row r="11">
@@ -1829,67 +1829,67 @@
         <v>44302</v>
       </c>
       <c r="B11">
-        <v>89539.99999999999</v>
+        <v>89540</v>
       </c>
       <c r="C11">
-        <v>48163.47430516361</v>
+        <v>48152.49065994762</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1521.525694836387</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="F11">
-        <v>8136.161806858036</v>
+        <v>8194.895428649448</v>
       </c>
       <c r="G11">
-        <v>40027.31249830558</v>
+        <v>39957.59523129818</v>
       </c>
       <c r="H11">
-        <v>78526.57384107672</v>
+        <v>79093.44433825265</v>
       </c>
       <c r="I11">
-        <v>67658.67766048951</v>
+        <v>68147.09459207865</v>
       </c>
       <c r="J11">
-        <v>10867.89618058722</v>
+        <v>10946.34974617399</v>
       </c>
       <c r="K11">
-        <v>335.4117014957744</v>
+        <v>337.8329837278291</v>
       </c>
       <c r="L11">
-        <v>1521.525694836387</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="M11">
-        <v>4870.037067799074</v>
+        <v>4905.193069122594</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>71799.59937694549</v>
+        <v>72317.90894534985</v>
       </c>
       <c r="P11">
-        <v>42807.31029247578</v>
+        <v>43116.32926632493</v>
       </c>
       <c r="Q11">
-        <v>32072.64389034438</v>
+        <v>32304.17106259387</v>
       </c>
       <c r="R11">
-        <v>10734.6664021314</v>
+        <v>10812.15820373106</v>
       </c>
       <c r="S11">
-        <v>28992.28908446973</v>
+        <v>29201.57967902492</v>
       </c>
       <c r="T11">
-        <v>26644.03859093071</v>
+        <v>26836.37754912061</v>
       </c>
       <c r="U11">
-        <v>2215.020715083193</v>
+        <v>2231.010587461368</v>
       </c>
       <c r="V11">
-        <v>133.2297784558205</v>
+        <v>134.1915424429357</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1925,40 +1925,40 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>11013.42615892326</v>
+        <v>10446.55566174735</v>
       </c>
       <c r="AI11">
-        <v>-17973.67766048951</v>
+        <v>-18462.09459207865</v>
       </c>
       <c r="AJ11">
-        <v>28987.10381941278</v>
+        <v>28908.65025382601</v>
       </c>
       <c r="AK11">
-        <v>-48586.57384107674</v>
+        <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72304.67766048951</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>23718.10381941278</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-73144.67766048951</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
-        <v>138966.5738410767</v>
+        <v>139533.4443382527</v>
       </c>
       <c r="AP11">
         <v>254225.31</v>
       </c>
       <c r="AQ11">
-        <v>0.6656243019879384</v>
+        <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
         <v>0.1664979777190556</v>
       </c>
       <c r="AS11">
-        <v>8.11486</v>
+        <v>8.056699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1966,67 +1966,67 @@
         <v>44308</v>
       </c>
       <c r="B12">
-        <v>88676</v>
+        <v>87850</v>
       </c>
       <c r="C12">
-        <v>46398.51053991568</v>
+        <v>45372.41632722959</v>
       </c>
       <c r="D12">
-        <v>40730</v>
+        <v>40936</v>
       </c>
       <c r="E12">
-        <v>1547.489460084319</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="F12">
-        <v>8724.667853566261</v>
+        <v>8708.262326764767</v>
       </c>
       <c r="G12">
-        <v>37673.84268634942</v>
+        <v>36664.15400046482</v>
       </c>
       <c r="H12">
-        <v>77946.94793714378</v>
+        <v>76028.17046469243</v>
       </c>
       <c r="I12">
-        <v>66579.83173225525</v>
+        <v>64989.21739874988</v>
       </c>
       <c r="J12">
-        <v>11367.11620488854</v>
+        <v>11038.9531882622</v>
       </c>
       <c r="K12">
-        <v>340.88028386682</v>
+        <v>341.3249666678898</v>
       </c>
       <c r="L12">
-        <v>1547.489460084319</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="M12">
-        <v>4943.021648554084</v>
+        <v>4924.54845693736</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>71115.55654463854</v>
+        <v>69220.71336831676</v>
       </c>
       <c r="P12">
-        <v>43665.74632493849</v>
+        <v>43670.82602473304</v>
       </c>
       <c r="Q12">
-        <v>32574.24699875128</v>
+        <v>32748.90242559906</v>
       </c>
       <c r="R12">
-        <v>11091.49932618721</v>
+        <v>10921.92372145365</v>
       </c>
       <c r="S12">
-        <v>27449.81021970006</v>
+        <v>25549.88734358372</v>
       </c>
       <c r="T12">
-        <v>25519.63329747908</v>
+        <v>24342.51256834612</v>
       </c>
       <c r="U12">
-        <v>1654.560043519652</v>
+        <v>1090.345308429048</v>
       </c>
       <c r="V12">
-        <v>275.616878701334</v>
+        <v>117.0294668085575</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,40 +2062,40 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>10729.05206285622</v>
+        <v>11821.82953530757</v>
       </c>
       <c r="AI12">
-        <v>-18633.83173225525</v>
+        <v>-18075.21739874988</v>
       </c>
       <c r="AJ12">
-        <v>29362.88379511146</v>
+        <v>29897.0468117378</v>
       </c>
       <c r="AK12">
-        <v>-49070.94793714378</v>
+        <v>-47978.17046469243</v>
       </c>
       <c r="AL12">
-        <v>-73281.83173225525</v>
+        <v>-72723.21739874988</v>
       </c>
       <c r="AM12">
-        <v>24210.88379511146</v>
+        <v>24745.0468117378</v>
       </c>
       <c r="AN12">
-        <v>-74121.83173225525</v>
+        <v>-73563.21739874988</v>
       </c>
       <c r="AO12">
-        <v>138586.9479371438</v>
+        <v>136668.1704646924</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
       </c>
       <c r="AQ12">
-        <v>0.6743651044250981</v>
+        <v>0.6807057484348321</v>
       </c>
       <c r="AR12">
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.0883</v>
+        <v>8.1753</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45384.19399774709</v>
+        <v>45372.41632722959</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1529.806002252909</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="F13">
-        <v>8641.731364951738</v>
+        <v>8708.262326764767</v>
       </c>
       <c r="G13">
-        <v>36742.46263279535</v>
+        <v>36664.15400046482</v>
       </c>
       <c r="H13">
-        <v>75447.31665986912</v>
+        <v>76028.17046469243</v>
       </c>
       <c r="I13">
-        <v>64492.70098953175</v>
+        <v>64989.21739874988</v>
       </c>
       <c r="J13">
-        <v>10954.61579172251</v>
+        <v>11038.9531882622</v>
       </c>
       <c r="K13">
-        <v>338.717250286469</v>
+        <v>341.3249666678898</v>
       </c>
       <c r="L13">
-        <v>1529.806002252909</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="M13">
-        <v>4886.924998543378</v>
+        <v>4924.54845693736</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>68691.86840878635</v>
+        <v>69220.71336831676</v>
       </c>
       <c r="P13">
-        <v>43337.18172813611</v>
+        <v>43670.82602473304</v>
       </c>
       <c r="Q13">
-        <v>32498.70142166288</v>
+        <v>32748.90242559906</v>
       </c>
       <c r="R13">
-        <v>10838.48042785838</v>
+        <v>10921.92372145365</v>
       </c>
       <c r="S13">
-        <v>25354.68668065024</v>
+        <v>25549.88734358372</v>
       </c>
       <c r="T13">
-        <v>24156.53622618424</v>
+        <v>24342.51256834612</v>
       </c>
       <c r="U13">
-        <v>1082.015090601876</v>
+        <v>1090.345308429048</v>
       </c>
       <c r="V13">
-        <v>116.1353638641263</v>
+        <v>117.0294668085575</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>12402.68334013088</v>
+        <v>11821.82953530757</v>
       </c>
       <c r="AI13">
-        <v>-17578.70098953175</v>
+        <v>-18075.21739874988</v>
       </c>
       <c r="AJ13">
-        <v>29981.38420827749</v>
+        <v>29897.0468117378</v>
       </c>
       <c r="AK13">
-        <v>-48297.31665986912</v>
+        <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-72694.70098953175</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>24397.38420827749</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-73612.70098953175</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
-        <v>137065.3166598691</v>
+        <v>137646.1704646924</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.238239999999999</v>
+        <v>8.1753</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90326</v>
+        <v>90325.99999999999</v>
       </c>
       <c r="C14">
-        <v>47318.80815557013</v>
+        <v>47320.75757867617</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1539.191844429872</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="F14">
-        <v>8731.253134161394</v>
+        <v>8720.194794250077</v>
       </c>
       <c r="G14">
-        <v>38587.55502140873</v>
+        <v>38600.56278442609</v>
       </c>
       <c r="H14">
-        <v>78486.53311120971</v>
+        <v>78387.12804892729</v>
       </c>
       <c r="I14">
-        <v>67023.25475428175</v>
+        <v>66938.3682068816</v>
       </c>
       <c r="J14">
-        <v>11463.27835692794</v>
+        <v>11448.7598420457</v>
       </c>
       <c r="K14">
-        <v>339.2358432340688</v>
+        <v>338.8061929642917</v>
       </c>
       <c r="L14">
-        <v>1539.191844429872</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="M14">
-        <v>4919.5686188474</v>
+        <v>4913.337868098529</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71688.53680469835</v>
+        <v>71597.74156654064</v>
       </c>
       <c r="P14">
-        <v>43728.8929900864</v>
+        <v>43673.50930630131</v>
       </c>
       <c r="Q14">
-        <v>32679.11792643882</v>
+        <v>32637.72904577303</v>
       </c>
       <c r="R14">
-        <v>11049.77506364759</v>
+        <v>11035.78026052828</v>
       </c>
       <c r="S14">
-        <v>27959.64369406727</v>
+        <v>27924.23213984734</v>
       </c>
       <c r="T14">
-        <v>25672.36031283753</v>
+        <v>25639.84565746069</v>
       </c>
       <c r="U14">
-        <v>1873.78020849406</v>
+        <v>1871.407021261226</v>
       </c>
       <c r="V14">
-        <v>413.503293280358</v>
+        <v>412.9795815174207</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11839.4668887903</v>
+        <v>11938.8719510727</v>
       </c>
       <c r="AI14">
-        <v>-18165.25475428175</v>
+        <v>-18080.3682068816</v>
       </c>
       <c r="AJ14">
-        <v>30004.72164307206</v>
+        <v>30019.2401579543</v>
       </c>
       <c r="AK14">
-        <v>-47960.53311120971</v>
+        <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72399.25475428175</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>24438.72164307206</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-72958.25475428175</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
-        <v>138845.5331112097</v>
+        <v>138746.1280489273</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875961</v>
+        <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.295680000000001</v>
+        <v>8.306200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91974</v>
+        <v>92447</v>
       </c>
       <c r="C15">
-        <v>48041.62433986148</v>
+        <v>47651.06276810572</v>
       </c>
       <c r="D15">
-        <v>42383</v>
+        <v>43249</v>
       </c>
       <c r="E15">
-        <v>1549.375660138518</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="F15">
-        <v>8797.006619526394</v>
+        <v>8776.414104601561</v>
       </c>
       <c r="G15">
-        <v>39244.61772033509</v>
+        <v>38874.64866350417</v>
       </c>
       <c r="H15">
-        <v>79577.9215815911</v>
+        <v>79031.71719102869</v>
       </c>
       <c r="I15">
-        <v>67822.36823433607</v>
+        <v>67486.30058908578</v>
       </c>
       <c r="J15">
-        <v>11755.55334725503</v>
+        <v>11545.41660194291</v>
       </c>
       <c r="K15">
-        <v>342.7773388052601</v>
+        <v>342.3820334811027</v>
       </c>
       <c r="L15">
-        <v>1549.375660138518</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="M15">
-        <v>4938.088238851217</v>
+        <v>4931.586946910586</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72747.68034379611</v>
+        <v>72210.81097874272</v>
       </c>
       <c r="P15">
-        <v>44198.53471421545</v>
+        <v>43959.06044999941</v>
       </c>
       <c r="Q15">
-        <v>32867.02746176236</v>
+        <v>32580.01995483278</v>
       </c>
       <c r="R15">
-        <v>11331.50713151169</v>
+        <v>11379.04049516663</v>
       </c>
       <c r="S15">
-        <v>28549.14562958065</v>
+        <v>28251.75052874332</v>
       </c>
       <c r="T15">
-        <v>26517.67187789755</v>
+        <v>26293.68793987262</v>
       </c>
       <c r="U15">
-        <v>1607.427656881163</v>
+        <v>1791.686482094421</v>
       </c>
       <c r="V15">
-        <v>424.0462157433462</v>
+        <v>166.3761067762789</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,40 +2473,40 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12396.0784184089</v>
+        <v>13415.28280897132</v>
       </c>
       <c r="AI15">
-        <v>-18231.36823433607</v>
+        <v>-18288.30058908578</v>
       </c>
       <c r="AJ15">
-        <v>30627.44665274497</v>
+        <v>31703.58339805709</v>
       </c>
       <c r="AK15">
-        <v>-47503.9215815911</v>
+        <v>-46484.71719102869</v>
       </c>
       <c r="AL15">
-        <v>-72555.36823433607</v>
+        <v>-72612.30058908578</v>
       </c>
       <c r="AM15">
-        <v>25051.44665274497</v>
+        <v>26127.58339805709</v>
       </c>
       <c r="AN15">
-        <v>-73114.36823433607</v>
+        <v>-73171.30058908578</v>
       </c>
       <c r="AO15">
-        <v>140036.9215815911</v>
+        <v>139490.7171910287</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
       </c>
       <c r="AQ15">
-        <v>0.6512710113727793</v>
+        <v>0.647938818998994</v>
       </c>
       <c r="AR15">
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.268466666666667</v>
+        <v>8.3689</v>
       </c>
     </row>
     <row r="16">
@@ -2517,64 +2517,64 @@
         <v>92447</v>
       </c>
       <c r="C16">
-        <v>47644.33303930923</v>
+        <v>47651.06276810572</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1553.666960690777</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="F16">
-        <v>8814.594636760216</v>
+        <v>8776.414104601561</v>
       </c>
       <c r="G16">
-        <v>38829.73840254901</v>
+        <v>38874.64866350417</v>
       </c>
       <c r="H16">
-        <v>79375.53335373501</v>
+        <v>79031.71719102869</v>
       </c>
       <c r="I16">
-        <v>67779.89007098581</v>
+        <v>67486.30058908578</v>
       </c>
       <c r="J16">
-        <v>11595.64328274919</v>
+        <v>11545.41660194291</v>
       </c>
       <c r="K16">
-        <v>343.8715174644321</v>
+        <v>342.3820334811027</v>
       </c>
       <c r="L16">
-        <v>1553.666960690777</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="M16">
-        <v>4953.041109370969</v>
+        <v>4931.586946910586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72524.95376620883</v>
+        <v>72210.81097874272</v>
       </c>
       <c r="P16">
-        <v>44150.29804443965</v>
+        <v>43959.06044999941</v>
       </c>
       <c r="Q16">
-        <v>32721.75466388244</v>
+        <v>32580.01995483278</v>
       </c>
       <c r="R16">
-        <v>11428.54338055721</v>
+        <v>11379.04049516663</v>
       </c>
       <c r="S16">
-        <v>28374.65572176919</v>
+        <v>28251.75052874332</v>
       </c>
       <c r="T16">
-        <v>26408.0748621387</v>
+        <v>26293.68793987262</v>
       </c>
       <c r="U16">
-        <v>1799.48095743851</v>
+        <v>1791.686482094421</v>
       </c>
       <c r="V16">
-        <v>167.0999021919797</v>
+        <v>166.3761067762789</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,28 +2610,28 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13071.46664626499</v>
+        <v>13415.28280897132</v>
       </c>
       <c r="AI16">
-        <v>-18581.89007098581</v>
+        <v>-18288.30058908578</v>
       </c>
       <c r="AJ16">
-        <v>31653.35671725081</v>
+        <v>31703.58339805709</v>
       </c>
       <c r="AK16">
-        <v>-47128.53335373501</v>
+        <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-73105.89007098581</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>25977.35671725081</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-73664.89007098581</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
-        <v>140134.533353735</v>
+        <v>139790.7171910287</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
@@ -2643,7 +2643,7 @@
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.332649999999999</v>
+        <v>8.3689</v>
       </c>
     </row>
     <row r="17">
@@ -2651,67 +2651,67 @@
         <v>44344</v>
       </c>
       <c r="B17">
-        <v>92604.00000000002</v>
+        <v>92604</v>
       </c>
       <c r="C17">
-        <v>47166.33270629696</v>
+        <v>47172.41693250951</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1554.667293703046</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="F17">
-        <v>8832.259354946244</v>
+        <v>8797.694104811262</v>
       </c>
       <c r="G17">
-        <v>38334.07335135072</v>
+        <v>38374.72282769825</v>
       </c>
       <c r="H17">
-        <v>80714.79230412058</v>
+        <v>80398.91310793025</v>
       </c>
       <c r="I17">
-        <v>69067.76540902216</v>
+        <v>68797.46712047723</v>
       </c>
       <c r="J17">
-        <v>11647.0268950984</v>
+        <v>11601.44598745301</v>
       </c>
       <c r="K17">
-        <v>423.4224280594811</v>
+        <v>421.765354648198</v>
       </c>
       <c r="L17">
-        <v>1554.667293703046</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="M17">
-        <v>4890.138225804531</v>
+        <v>4871.000557380549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73846.56435655351</v>
+        <v>73557.564128411</v>
       </c>
       <c r="P17">
-        <v>44255.37866250758</v>
+        <v>44082.1842202009</v>
       </c>
       <c r="Q17">
-        <v>32803.8480587668</v>
+        <v>32675.4694448727</v>
       </c>
       <c r="R17">
-        <v>11451.53060374079</v>
+        <v>11406.7147753282</v>
       </c>
       <c r="S17">
-        <v>29591.18569404593</v>
+        <v>29475.3799082101</v>
       </c>
       <c r="T17">
-        <v>27399.2611289036</v>
+        <v>27292.03349026956</v>
       </c>
       <c r="U17">
-        <v>1996.42827378472</v>
+        <v>1988.615205815733</v>
       </c>
       <c r="V17">
-        <v>195.4962913576131</v>
+        <v>194.7312121248058</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>11889.20769587944</v>
+        <v>12205.08689206975</v>
       </c>
       <c r="AI17">
-        <v>-20346.76540902216</v>
+        <v>-20076.46712047723</v>
       </c>
       <c r="AJ17">
-        <v>32235.9731049016</v>
+        <v>32281.55401254699</v>
       </c>
       <c r="AK17">
-        <v>-48110.79230412057</v>
+        <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74501.76540902216</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>26390.9731049016</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-75060.76540902216</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
-        <v>141273.7923041206</v>
+        <v>140957.9131079303</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.3993</v>
+        <v>8.4323</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686</v>
+        <v>93686.00000000002</v>
       </c>
       <c r="C18">
-        <v>48078.41595081987</v>
+        <v>48090.49747770523</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1559.584049180136</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="F18">
-        <v>8873.784229164474</v>
+        <v>8805.042270181257</v>
       </c>
       <c r="G18">
-        <v>39204.63172165539</v>
+        <v>39285.45520752398</v>
       </c>
       <c r="H18">
-        <v>79766.07458831504</v>
+        <v>79148.15599958252</v>
       </c>
       <c r="I18">
-        <v>67864.39220223695</v>
+        <v>67338.67159142304</v>
       </c>
       <c r="J18">
-        <v>11901.68226920515</v>
+        <v>11809.4842921919</v>
       </c>
       <c r="K18">
-        <v>343.7686850624685</v>
+        <v>341.1056348644919</v>
       </c>
       <c r="L18">
-        <v>1559.584049180136</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="M18">
-        <v>4910.108224349309</v>
+        <v>4872.071412832972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72952.61362972311</v>
+        <v>72387.47642959029</v>
       </c>
       <c r="P18">
-        <v>44395.71964517373</v>
+        <v>44051.80225209031</v>
       </c>
       <c r="Q18">
-        <v>32917.54333064525</v>
+        <v>32662.54316892997</v>
       </c>
       <c r="R18">
-        <v>11478.17631452848</v>
+        <v>11389.25908316035</v>
       </c>
       <c r="S18">
-        <v>28556.89386767645</v>
+        <v>28335.67406153239</v>
       </c>
       <c r="T18">
-        <v>26613.24544487687</v>
+        <v>26407.08237176885</v>
       </c>
       <c r="U18">
-        <v>1520.142468122903</v>
+        <v>1508.366480731987</v>
       </c>
       <c r="V18">
-        <v>423.5059546766709</v>
+        <v>420.2252090315548</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>13919.92541168496</v>
+        <v>14537.84400041749</v>
       </c>
       <c r="AI18">
-        <v>-18226.39220223695</v>
+        <v>-17700.67159142304</v>
       </c>
       <c r="AJ18">
-        <v>32146.31773079485</v>
+        <v>32238.5157078081</v>
       </c>
       <c r="AK18">
-        <v>-48180.07458831504</v>
+        <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-74457.39220223695</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>26277.31773079485</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-74763.39220223695</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
-        <v>142172.074588315</v>
+        <v>141554.1559995825</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.6628525073116581</v>
+        <v>0.662852507311658</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.5563</v>
+        <v>8.623100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50178.90371533229</v>
+        <v>50166.64000797065</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1534.096284667713</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="F19">
-        <v>8726.796209081924</v>
+        <v>8796.559023829897</v>
       </c>
       <c r="G19">
-        <v>41452.10750625037</v>
+        <v>41370.08098414075</v>
       </c>
       <c r="H19">
-        <v>79459.53322867608</v>
+        <v>80094.74007478345</v>
       </c>
       <c r="I19">
-        <v>67977.7638234781</v>
+        <v>68521.18434470714</v>
       </c>
       <c r="J19">
-        <v>11481.76940519798</v>
+        <v>11573.55573007631</v>
       </c>
       <c r="K19">
-        <v>336.3189720332578</v>
+        <v>339.0075369521644</v>
       </c>
       <c r="L19">
-        <v>1534.096284667713</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="M19">
-        <v>4831.29205186348</v>
+        <v>4869.913846658775</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>72757.82592011163</v>
+        <v>73339.45869914316</v>
       </c>
       <c r="P19">
-        <v>43296.59701145416</v>
+        <v>43642.71400607177</v>
       </c>
       <c r="Q19">
-        <v>32608.56212570498</v>
+        <v>32869.23798248802</v>
       </c>
       <c r="R19">
-        <v>10688.03488574917</v>
+        <v>10773.47602358375</v>
       </c>
       <c r="S19">
-        <v>29461.22890865748</v>
+        <v>29696.7446930714</v>
       </c>
       <c r="T19">
-        <v>27109.49311006454</v>
+        <v>27326.20890133977</v>
       </c>
       <c r="U19">
-        <v>1558.001279144136</v>
+        <v>1570.456085239061</v>
       </c>
       <c r="V19">
-        <v>793.7345194488051</v>
+        <v>800.0797064925628</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>15406.46677132392</v>
+        <v>14771.25992521655</v>
       </c>
       <c r="AI19">
-        <v>-16264.7638234781</v>
+        <v>-16808.18434470714</v>
       </c>
       <c r="AJ19">
-        <v>31671.23059480202</v>
+        <v>31579.44426992369</v>
       </c>
       <c r="AK19">
-        <v>-47499.53322867608</v>
+        <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73209.7638234781</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>25710.23059480202</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-73515.7638234781</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
-        <v>142671.5332286761</v>
+        <v>143306.7400747835</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.599500000000001</v>
+        <v>8.5313</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54463.53559699521</v>
+        <v>54490.16606565171</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1560.464403004794</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="F20">
-        <v>8871.568645955231</v>
+        <v>8720.168825295967</v>
       </c>
       <c r="G20">
-        <v>45591.96695103998</v>
+        <v>45769.99724035574</v>
       </c>
       <c r="H20">
-        <v>80384.96836189649</v>
+        <v>79013.13996498268</v>
       </c>
       <c r="I20">
-        <v>69224.70320108716</v>
+        <v>68043.33290817805</v>
       </c>
       <c r="J20">
-        <v>11160.26504284474</v>
+        <v>10969.80694085317</v>
       </c>
       <c r="K20">
-        <v>339.6867096372353</v>
+        <v>333.8897069907123</v>
       </c>
       <c r="L20">
-        <v>1560.464403004794</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="M20">
-        <v>4929.679773319241</v>
+        <v>4845.551175167841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>73555.13747593523</v>
+        <v>72299.86514847583</v>
       </c>
       <c r="P20">
-        <v>43671.1632016534</v>
+        <v>42925.88279628492</v>
       </c>
       <c r="Q20">
-        <v>33148.88405496207</v>
+        <v>32583.17405470589</v>
       </c>
       <c r="R20">
-        <v>10522.27914669133</v>
+        <v>10342.70874157903</v>
       </c>
       <c r="S20">
-        <v>29883.97427428183</v>
+        <v>29373.98235219091</v>
       </c>
       <c r="T20">
-        <v>27147.24765014534</v>
+        <v>26683.95997356307</v>
       </c>
       <c r="U20">
-        <v>2098.740610018497</v>
+        <v>2062.924063402247</v>
       </c>
       <c r="V20">
-        <v>637.9858961534106</v>
+        <v>627.098199274144</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>16937.03163810351</v>
+        <v>18308.86003501732</v>
       </c>
       <c r="AI20">
-        <v>-13200.70320108716</v>
+        <v>-12019.33290817805</v>
       </c>
       <c r="AJ20">
-        <v>30137.73495715526</v>
+        <v>30328.19305914683</v>
       </c>
       <c r="AK20">
-        <v>-49474.96836189649</v>
+        <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-73687.70320108716</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>24212.73495715526</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-73993.70320108716</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
-        <v>147102.9683618965</v>
+        <v>145731.1399649827</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.477119999999999</v>
+        <v>8.6243</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57712.02166896657</v>
+        <v>57708.09730578684</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1527.978331033434</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="F21">
-        <v>8679.227418176959</v>
+        <v>8701.518598501034</v>
       </c>
       <c r="G21">
-        <v>49032.79425078961</v>
+        <v>49006.57870728581</v>
       </c>
       <c r="H21">
-        <v>79183.34846121771</v>
+        <v>79386.71797951337</v>
       </c>
       <c r="I21">
-        <v>67992.79102555537</v>
+        <v>68167.41942189324</v>
       </c>
       <c r="J21">
-        <v>11190.55743566234</v>
+        <v>11219.29855762013</v>
       </c>
       <c r="K21">
-        <v>330.9297659171069</v>
+        <v>331.7797050569908</v>
       </c>
       <c r="L21">
-        <v>1527.978331033434</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="M21">
-        <v>4889.745022196522</v>
+        <v>4902.303534927766</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72434.69534207064</v>
+        <v>72620.73204531545</v>
       </c>
       <c r="P21">
-        <v>42994.50350974596</v>
+        <v>43104.92788100655</v>
       </c>
       <c r="Q21">
-        <v>32815.80572110478</v>
+        <v>32900.08776690957</v>
       </c>
       <c r="R21">
-        <v>10178.69778864118</v>
+        <v>10204.84011409698</v>
       </c>
       <c r="S21">
-        <v>29440.19183232468</v>
+        <v>29515.8041643089</v>
       </c>
       <c r="T21">
-        <v>26272.12936875255</v>
+        <v>26339.60504890696</v>
       </c>
       <c r="U21">
-        <v>2156.202816550981</v>
+        <v>2161.740671878789</v>
       </c>
       <c r="V21">
-        <v>1011.859647021151</v>
+        <v>1014.458443523149</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20974.65153878229</v>
+        <v>20771.28202048663</v>
       </c>
       <c r="AI21">
-        <v>-8752.791025555373</v>
+        <v>-8927.419421893239</v>
       </c>
       <c r="AJ21">
-        <v>29727.44256433767</v>
+        <v>29698.70144237987</v>
       </c>
       <c r="AK21">
-        <v>-45266.34846121771</v>
+        <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69377.79102555537</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>24111.44256433767</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-69683.79102555537</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
-        <v>145730.3484612177</v>
+        <v>145933.7179795134</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.68154</v>
+        <v>8.6593</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58093.89401169774</v>
+        <v>58091.17490319011</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1524.105988302264</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="F22">
-        <v>8361.180840930112</v>
+        <v>8376.097754932694</v>
       </c>
       <c r="G22">
-        <v>49732.71317076763</v>
+        <v>49715.07714825742</v>
       </c>
       <c r="H22">
-        <v>79783.90364783462</v>
+        <v>79926.24354600777</v>
       </c>
       <c r="I22">
-        <v>68857.48135126803</v>
+        <v>68980.32777060669</v>
       </c>
       <c r="J22">
-        <v>10926.42195143277</v>
+        <v>10945.91542965148</v>
       </c>
       <c r="K22">
-        <v>328.4531791428716</v>
+        <v>329.0391619030057</v>
       </c>
       <c r="L22">
-        <v>1524.105988302264</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="M22">
-        <v>4886.125044292176</v>
+        <v>4894.842222939333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73045.21943609731</v>
+        <v>73175.53706435554</v>
       </c>
       <c r="P22">
-        <v>42888.04870528791</v>
+        <v>42964.56389452333</v>
       </c>
       <c r="Q22">
-        <v>32736.85994928833</v>
+        <v>32795.26472893233</v>
       </c>
       <c r="R22">
-        <v>10151.18864095496</v>
+        <v>10169.29905034114</v>
       </c>
       <c r="S22">
-        <v>30157.17061576479</v>
+        <v>30210.97305458234</v>
       </c>
       <c r="T22">
-        <v>27640.38572158283</v>
+        <v>27689.69804536235</v>
       </c>
       <c r="U22">
-        <v>1741.551468659546</v>
+        <v>1744.658514659783</v>
       </c>
       <c r="V22">
-        <v>775.2333104778032</v>
+        <v>776.6163793103449</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20429.09635216538</v>
+        <v>20286.75645399223</v>
       </c>
       <c r="AI22">
-        <v>-9239.481351268027</v>
+        <v>-9362.327770606687</v>
       </c>
       <c r="AJ22">
-        <v>29668.57804856724</v>
+        <v>29649.08457034852</v>
       </c>
       <c r="AK22">
-        <v>-44814.90364783462</v>
+        <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-68922.48135126803</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>24107.57804856724</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-69156.48135126803</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
-        <v>145261.9036478346</v>
+        <v>145404.2435460078</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.69228</v>
+        <v>8.6768</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61052.67990661752</v>
+        <v>61055.66928753151</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1529.320093382485</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="F23">
-        <v>8375.694832128374</v>
+        <v>8359.322757779133</v>
       </c>
       <c r="G23">
-        <v>52676.98507448915</v>
+        <v>52696.34652975238</v>
       </c>
       <c r="H23">
-        <v>81121.20633653684</v>
+        <v>80962.63771052298</v>
       </c>
       <c r="I23">
-        <v>69558.98206631817</v>
+        <v>69423.01426318394</v>
       </c>
       <c r="J23">
-        <v>11562.22415487467</v>
+        <v>11539.62333222052</v>
       </c>
       <c r="K23">
-        <v>325.4190446750299</v>
+        <v>324.7829440408901</v>
       </c>
       <c r="L23">
-        <v>1529.320093382485</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="M23">
-        <v>4900.324577956382</v>
+        <v>4890.745852855514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74366.14262052294</v>
+        <v>74220.77820115809</v>
       </c>
       <c r="P23">
-        <v>43792.98870090384</v>
+        <v>43707.386003891</v>
       </c>
       <c r="Q23">
-        <v>33081.250028836</v>
+        <v>33016.58569997812</v>
       </c>
       <c r="R23">
-        <v>10711.73855672386</v>
+        <v>10690.80018879436</v>
       </c>
       <c r="S23">
-        <v>30573.15391961909</v>
+        <v>30513.39219726708</v>
       </c>
       <c r="T23">
-        <v>28133.37997074877</v>
+        <v>28078.38730473022</v>
       </c>
       <c r="U23">
-        <v>1589.288350719516</v>
+        <v>1586.181749110709</v>
       </c>
       <c r="V23">
-        <v>850.4855981508053</v>
+        <v>848.8231434261571</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>22946.79366346316</v>
+        <v>23105.36228947702</v>
       </c>
       <c r="AI23">
-        <v>-6976.982066318175</v>
+        <v>-6841.014263183941</v>
       </c>
       <c r="AJ23">
-        <v>29923.77584512533</v>
+        <v>29946.37666777948</v>
       </c>
       <c r="AK23">
-        <v>-42359.20633653684</v>
+        <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66774.98206631817</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>24415.77584512533</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-67008.98206631817</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
-        <v>146661.2063365369</v>
+        <v>146502.637710523</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.66972</v>
+        <v>8.6867</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61356.71175294765</v>
+        <v>61353.62733532274</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1522.288247052348</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="F24">
-        <v>8371.637648831078</v>
+        <v>8388.600025544862</v>
       </c>
       <c r="G24">
-        <v>52985.07410411658</v>
+        <v>52965.02730977788</v>
       </c>
       <c r="H24">
-        <v>80732.84023291522</v>
+        <v>80896.41884281785</v>
       </c>
       <c r="I24">
-        <v>68975.37599582839</v>
+        <v>69115.13196242585</v>
       </c>
       <c r="J24">
-        <v>11757.46423708682</v>
+        <v>11781.286880392</v>
       </c>
       <c r="K24">
-        <v>321.865870969611</v>
+        <v>322.5180265434321</v>
       </c>
       <c r="L24">
-        <v>1522.288247052348</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="M24">
-        <v>4872.049479996524</v>
+        <v>4881.921089604403</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74016.63663489673</v>
+        <v>74166.60706199273</v>
       </c>
       <c r="P24">
-        <v>43702.2839595585</v>
+        <v>43790.83229799241</v>
       </c>
       <c r="Q24">
-        <v>32904.91207740665</v>
+        <v>32971.58308465799</v>
       </c>
       <c r="R24">
-        <v>10797.37199803007</v>
+        <v>10819.24932944742</v>
       </c>
       <c r="S24">
-        <v>30314.35255946001</v>
+        <v>30375.77464788733</v>
       </c>
       <c r="T24">
-        <v>27799.1115617486</v>
+        <v>27855.43733961892</v>
       </c>
       <c r="U24">
-        <v>1555.148758654654</v>
+        <v>1558.299757323828</v>
       </c>
       <c r="V24">
-        <v>960.0922390567514</v>
+        <v>962.0375509445794</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>24153.15976708478</v>
+        <v>23989.58115718215</v>
       </c>
       <c r="AI24">
-        <v>-6096.375995828392</v>
+        <v>-6236.131962425847</v>
       </c>
       <c r="AJ24">
-        <v>30249.53576291318</v>
+        <v>30225.713119608</v>
       </c>
       <c r="AK24">
-        <v>-41400.84023291522</v>
+        <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66125.37599582839</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>24724.53576291318</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-66359.37599582839</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
-        <v>146520.8402329152</v>
+        <v>146684.4188428178</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.62975</v>
+        <v>8.612299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3747,67 +3747,67 @@
         <v>44396</v>
       </c>
       <c r="B25">
-        <v>104439</v>
+        <v>105720</v>
       </c>
       <c r="C25">
-        <v>61134.82190154996</v>
+        <v>62597.62800823772</v>
       </c>
       <c r="D25">
-        <v>41778</v>
+        <v>41592</v>
       </c>
       <c r="E25">
-        <v>1526.178098450041</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="F25">
-        <v>8386.232858200448</v>
+        <v>8429.860076493087</v>
       </c>
       <c r="G25">
-        <v>52748.58904334951</v>
+        <v>54167.76793174463</v>
       </c>
       <c r="H25">
-        <v>80789.41221400957</v>
+        <v>81248.54380700206</v>
       </c>
       <c r="I25">
-        <v>69072.43363611795</v>
+        <v>69741.54068843779</v>
       </c>
       <c r="J25">
-        <v>11716.97857789163</v>
+        <v>11507.00300088261</v>
       </c>
       <c r="K25">
-        <v>322.8921608949577</v>
+        <v>322.2072374227714</v>
       </c>
       <c r="L25">
-        <v>1526.178098450041</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="M25">
-        <v>4883.624836954606</v>
+        <v>4813.754516034128</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74056.71711770997</v>
+        <v>74582.21006178288</v>
       </c>
       <c r="P25">
-        <v>43752.91789562745</v>
+        <v>44053.77228596646</v>
       </c>
       <c r="Q25">
-        <v>32992.72564895005</v>
+        <v>33348.15063253899</v>
       </c>
       <c r="R25">
-        <v>10760.1922466774</v>
+        <v>10705.62165342748</v>
       </c>
       <c r="S25">
-        <v>30303.79910457233</v>
+        <v>30528.43765813475</v>
       </c>
       <c r="T25">
-        <v>27845.76387501616</v>
+        <v>27826.40600176523</v>
       </c>
       <c r="U25">
-        <v>1501.249015852125</v>
+        <v>1900.650308914387</v>
       </c>
       <c r="V25">
-        <v>956.7863312142329</v>
+        <v>801.3813474551339</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,40 +3843,40 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23649.58778599043</v>
+        <v>24471.45619299794</v>
       </c>
       <c r="AI25">
-        <v>-6411.433636117945</v>
+        <v>-5613.540688437788</v>
       </c>
       <c r="AJ25">
-        <v>30061.02142210837</v>
+        <v>30084.99699911739</v>
       </c>
       <c r="AK25">
-        <v>-41750.41221400957</v>
+        <v>-40928.54380700206</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-65488.54068843779</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>24559.99699911739</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-65722.54068843779</v>
       </c>
       <c r="AO25">
-        <v>146423.4122140096</v>
+        <v>146882.5438070021</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
       </c>
       <c r="AQ25">
-        <v>0.6262028552552208</v>
+        <v>0.6186152099886493</v>
       </c>
       <c r="AR25">
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5099</v>
+        <v>8.497500000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62604.72318872495</v>
+        <v>62597.62800823772</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1523.27681127505</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="F26">
-        <v>8390.777174396866</v>
+        <v>8429.860076493087</v>
       </c>
       <c r="G26">
-        <v>54213.94601432809</v>
+        <v>54167.76793174463</v>
       </c>
       <c r="H26">
-        <v>80871.85559933842</v>
+        <v>81248.54380700206</v>
       </c>
       <c r="I26">
-        <v>69418.20177390864</v>
+        <v>69741.54068843779</v>
       </c>
       <c r="J26">
-        <v>11453.6537082937</v>
+        <v>11507.00300088261</v>
       </c>
       <c r="K26">
-        <v>320.7134055203887</v>
+        <v>322.2072374227714</v>
       </c>
       <c r="L26">
-        <v>1523.27681127505</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="M26">
-        <v>4791.436767606723</v>
+        <v>4813.754516034128</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74236.42861493626</v>
+        <v>74582.21006178288</v>
       </c>
       <c r="P26">
-        <v>43849.52817591027</v>
+        <v>44053.77228596646</v>
       </c>
       <c r="Q26">
-        <v>33193.54041428685</v>
+        <v>33348.15063253899</v>
       </c>
       <c r="R26">
-        <v>10655.98776162341</v>
+        <v>10705.62165342748</v>
       </c>
       <c r="S26">
-        <v>30386.90032188992</v>
+        <v>30528.43765813475</v>
       </c>
       <c r="T26">
-        <v>27697.39594802907</v>
+        <v>27826.40600176523</v>
       </c>
       <c r="U26">
-        <v>1891.838427190562</v>
+        <v>1900.650308914387</v>
       </c>
       <c r="V26">
-        <v>797.6659466702901</v>
+        <v>801.3813474551339</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24848.14440066158</v>
+        <v>24471.45619299794</v>
       </c>
       <c r="AI26">
-        <v>-5290.201773908644</v>
+        <v>-5613.540688437788</v>
       </c>
       <c r="AJ26">
-        <v>30138.3462917063</v>
+        <v>30084.99699911739</v>
       </c>
       <c r="AK26">
-        <v>-41148.85559933842</v>
+        <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-65750.20177390864</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>24601.3462917063</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-65984.20177390864</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
-        <v>147102.8555993384</v>
+        <v>147479.5438070021</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.53708</v>
+        <v>8.497500000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66185.2158446109</v>
+        <v>66205.7082873965</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1549.784155389103</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="F27">
-        <v>8443.731829710961</v>
+        <v>8332.08228753724</v>
       </c>
       <c r="G27">
-        <v>57741.48401489994</v>
+        <v>57873.62599985926</v>
       </c>
       <c r="H27">
-        <v>85096.92564058068</v>
+        <v>83971.70838122495</v>
       </c>
       <c r="I27">
-        <v>73544.60329044174</v>
+        <v>72572.13975745351</v>
       </c>
       <c r="J27">
-        <v>11552.32235013894</v>
+        <v>11399.56862377143</v>
       </c>
       <c r="K27">
-        <v>321.8812474297138</v>
+        <v>317.625085032019</v>
       </c>
       <c r="L27">
-        <v>1549.784155389103</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="M27">
-        <v>4875.280443479852</v>
+        <v>4810.815720954236</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>78349.97979428202</v>
+        <v>77313.97586263518</v>
       </c>
       <c r="P27">
-        <v>47828.21241201598</v>
+        <v>47195.79085641904</v>
       </c>
       <c r="Q27">
-        <v>36815.52262683842</v>
+        <v>36328.71935915179</v>
       </c>
       <c r="R27">
-        <v>11012.6896663204</v>
+        <v>10867.0713799817</v>
       </c>
       <c r="S27">
-        <v>30521.7675011232</v>
+        <v>30118.18512350168</v>
       </c>
       <c r="T27">
-        <v>28420.31316485726</v>
+        <v>28044.51783913115</v>
       </c>
       <c r="U27">
-        <v>1561.821652447388</v>
+        <v>1541.170040580798</v>
       </c>
       <c r="V27">
-        <v>539.6326838185479</v>
+        <v>532.4972437897305</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4117,28 +4117,28 @@
         <v>5525</v>
       </c>
       <c r="AH27">
-        <v>23912.07435941932</v>
+        <v>25037.29161877505</v>
       </c>
       <c r="AI27">
-        <v>-5809.603290441737</v>
+        <v>-4837.139757453508</v>
       </c>
       <c r="AJ27">
-        <v>29721.67764986106</v>
+        <v>29874.43137622857</v>
       </c>
       <c r="AK27">
-        <v>-42484.92564058068</v>
+        <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-66681.60329044174</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>24196.67764986106</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-66833.60329044174</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
-        <v>151645.9256405807</v>
+        <v>150520.708381225</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.413460000000001</v>
+        <v>8.526199999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65838.46733625124</v>
+        <v>65832.79537580346</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1517.53266374876</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="F28">
-        <v>8220.116127442665</v>
+        <v>8250.839797953873</v>
       </c>
       <c r="G28">
-        <v>57618.35120880858</v>
+        <v>57581.95557784959</v>
       </c>
       <c r="H28">
-        <v>82815.38165623396</v>
+        <v>83124.91408373482</v>
       </c>
       <c r="I28">
-        <v>71963.49388796819</v>
+        <v>72232.46608261493</v>
       </c>
       <c r="J28">
-        <v>10851.8878844862</v>
+        <v>10892.44811777469</v>
       </c>
       <c r="K28">
-        <v>311.4979184922958</v>
+        <v>312.6621793450999</v>
       </c>
       <c r="L28">
-        <v>1517.53266374876</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="M28">
-        <v>4863.445191612605</v>
+        <v>4881.622901671663</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76122.90588238031</v>
+        <v>76407.42437852151</v>
       </c>
       <c r="P28">
-        <v>46542.5646824742</v>
+        <v>46716.52310348448</v>
       </c>
       <c r="Q28">
-        <v>36048.91054979232</v>
+        <v>36183.64767915262</v>
       </c>
       <c r="R28">
-        <v>10493.65413268188</v>
+        <v>10532.87542433186</v>
       </c>
       <c r="S28">
-        <v>29580.34131612652</v>
+        <v>29690.90139169184</v>
       </c>
       <c r="T28">
-        <v>27664.66643577544</v>
+        <v>27768.06644657793</v>
       </c>
       <c r="U28">
-        <v>1557.441128546757</v>
+        <v>1563.26225167108</v>
       </c>
       <c r="V28">
-        <v>358.2337518043221</v>
+        <v>359.5726934428333</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>24282.61834376604</v>
+        <v>23973.08591626518</v>
       </c>
       <c r="AI28">
-        <v>-4607.493887968187</v>
+        <v>-4876.466082614934</v>
       </c>
       <c r="AJ28">
-        <v>28890.1121155138</v>
+        <v>28849.55188222531</v>
       </c>
       <c r="AK28">
-        <v>-41175.38165623396</v>
+        <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64637.49388796819</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>23462.1121155138</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-64789.49388796819</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
-        <v>148425.381656234</v>
+        <v>148734.9140837348</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.604339999999999</v>
+        <v>8.5723</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66643.26920863174</v>
+        <v>66649.11678866422</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1525.730791368264</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="F29">
-        <v>8245.684132061406</v>
+        <v>8214.081376085347</v>
       </c>
       <c r="G29">
-        <v>58397.58507657034</v>
+        <v>58435.03541257887</v>
       </c>
       <c r="H29">
-        <v>83240.64466744037</v>
+        <v>82921.61306999096</v>
       </c>
       <c r="I29">
-        <v>72028.75503628007</v>
+        <v>71752.69459881801</v>
       </c>
       <c r="J29">
-        <v>11211.8896311603</v>
+        <v>11168.91847117294</v>
       </c>
       <c r="K29">
-        <v>308.1447382077919</v>
+        <v>306.9637297176628</v>
       </c>
       <c r="L29">
-        <v>1525.730791368264</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="M29">
-        <v>4894.27232239741</v>
+        <v>4875.514328347687</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76512.4968154669</v>
+        <v>76219.25180058982</v>
       </c>
       <c r="P29">
-        <v>47406.93143110557</v>
+        <v>47225.23763085852</v>
       </c>
       <c r="Q29">
-        <v>36541.84169804021</v>
+        <v>36401.78989789804</v>
       </c>
       <c r="R29">
-        <v>10865.08973306536</v>
+        <v>10823.44773296049</v>
       </c>
       <c r="S29">
-        <v>29105.56550230701</v>
+        <v>28994.01428722492</v>
       </c>
       <c r="T29">
-        <v>26955.56219982827</v>
+        <v>26852.2511778736</v>
       </c>
       <c r="U29">
-        <v>1803.203286438135</v>
+        <v>1796.29225364524</v>
       </c>
       <c r="V29">
-        <v>346.7998980949415</v>
+        <v>345.470738212452</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25314.35533255963</v>
+        <v>25633.38693000905</v>
       </c>
       <c r="AI29">
-        <v>-3859.755036280069</v>
+        <v>-3583.694598818009</v>
       </c>
       <c r="AJ29">
-        <v>29174.1103688397</v>
+        <v>29217.08152882706</v>
       </c>
       <c r="AK29">
-        <v>-41098.64466744037</v>
+        <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-65059.75503628007</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>23961.1103688397</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-65211.75503628007</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
-        <v>149805.6446674404</v>
+        <v>149486.6130699909</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4424,7 +4424,7 @@
         <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.478480000000001</v>
+        <v>8.511100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70147.91233537368</v>
+        <v>70083.58142094809</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7808.087664626317</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="F30">
-        <v>8173.616118367182</v>
+        <v>8240.958625475605</v>
       </c>
       <c r="G30">
-        <v>61974.2962170065</v>
+        <v>61842.62279547248</v>
       </c>
       <c r="H30">
-        <v>91206.7505986951</v>
+        <v>91958.20395319343</v>
       </c>
       <c r="I30">
-        <v>80190.31680404811</v>
+        <v>80851.00564741917</v>
       </c>
       <c r="J30">
-        <v>11016.43379464699</v>
+        <v>11107.19830577425</v>
       </c>
       <c r="K30">
-        <v>304.0619889730925</v>
+        <v>306.5671588216995</v>
       </c>
       <c r="L30">
-        <v>7808.087664626317</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="M30">
-        <v>4844.781206314246</v>
+        <v>4884.697408408912</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78249.81973878144</v>
+        <v>78894.52080691092</v>
       </c>
       <c r="P30">
-        <v>46923.44202803958</v>
+        <v>47310.04474861806</v>
       </c>
       <c r="Q30">
-        <v>36214.85440257469</v>
+        <v>36513.2289597741</v>
       </c>
       <c r="R30">
-        <v>10708.58762546489</v>
+        <v>10796.81578884396</v>
       </c>
       <c r="S30">
-        <v>31326.37771074186</v>
+        <v>31584.47605829285</v>
       </c>
       <c r="T30">
-        <v>29137.67233993065</v>
+        <v>29377.73792146259</v>
       </c>
       <c r="U30">
-        <v>1880.859201629115</v>
+        <v>1896.355619899974</v>
       </c>
       <c r="V30">
-        <v>307.8461691820959</v>
+        <v>310.3825169302927</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>27057.2494013049</v>
+        <v>26305.79604680657</v>
       </c>
       <c r="AI30">
-        <v>-2234.316804048111</v>
+        <v>-2895.005647419166</v>
       </c>
       <c r="AJ30">
-        <v>29291.56620535301</v>
+        <v>29200.80169422575</v>
       </c>
       <c r="AK30">
-        <v>-39770.7505986951</v>
+        <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-63817.31680404811</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>24046.56620535301</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-63969.31680404811</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
-        <v>158186.7505986951</v>
+        <v>158938.2039531934</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.42666</v>
+        <v>8.357799999999999</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70192.14405440785</v>
+        <v>70150.01534495903</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7853.855945592152</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="F31">
-        <v>8229.025985164231</v>
+        <v>8273.167136616123</v>
       </c>
       <c r="G31">
-        <v>61963.11806924362</v>
+        <v>61876.8482083429</v>
       </c>
       <c r="H31">
-        <v>91000.24074269121</v>
+        <v>91488.3732891218</v>
       </c>
       <c r="I31">
-        <v>79582.18588345045</v>
+        <v>80009.07107330005</v>
       </c>
       <c r="J31">
-        <v>11418.05485924076</v>
+        <v>11479.30221582177</v>
       </c>
       <c r="K31">
-        <v>304.6699869096162</v>
+        <v>306.3042610095241</v>
       </c>
       <c r="L31">
-        <v>7853.855945592152</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="M31">
-        <v>4870.008335715683</v>
+        <v>4896.131448694832</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>77971.70647447376</v>
+        <v>78389.95292437647</v>
       </c>
       <c r="P31">
-        <v>47680.8525902409</v>
+        <v>47936.61648493943</v>
       </c>
       <c r="Q31">
-        <v>36611.60403845865</v>
+        <v>36807.99160141833</v>
       </c>
       <c r="R31">
-        <v>11069.24855178225</v>
+        <v>11128.62488352111</v>
       </c>
       <c r="S31">
-        <v>30290.85388423286</v>
+        <v>30453.33643943703</v>
       </c>
       <c r="T31">
-        <v>27840.80335836054</v>
+        <v>27990.14364721116</v>
       </c>
       <c r="U31">
-        <v>2101.244218413807</v>
+        <v>2112.515459925212</v>
       </c>
       <c r="V31">
-        <v>348.8063074585095</v>
+        <v>350.6773323006547</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>28196.75925730879</v>
+        <v>27708.62671087821</v>
       </c>
       <c r="AI31">
-        <v>-1536.185883450453</v>
+        <v>-1963.071073300045</v>
       </c>
       <c r="AJ31">
-        <v>29732.94514075924</v>
+        <v>29671.69778417824</v>
       </c>
       <c r="AK31">
-        <v>-39213.24074269121</v>
+        <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-63749.18588345045</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>24535.94514075924</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-63792.18588345045</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
-        <v>158453.2407426912</v>
+        <v>158941.3732891218</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.307625</v>
+        <v>8.263299999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4709,70 +4709,70 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71656.75579278226</v>
+        <v>71767.55106018546</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>8004.24420721774</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="F32">
-        <v>8382.520914387565</v>
+        <v>8266.489516271928</v>
       </c>
       <c r="G32">
-        <v>63274.2348783947</v>
+        <v>63501.06154391354</v>
       </c>
       <c r="H32">
-        <v>92706.45171723174</v>
+        <v>91423.20300041344</v>
       </c>
       <c r="I32">
-        <v>81076.5192278207</v>
+        <v>79954.25279073889</v>
       </c>
       <c r="J32">
-        <v>11629.93260919562</v>
+        <v>11468.95032780108</v>
       </c>
       <c r="K32">
-        <v>308.4214548555877</v>
+        <v>304.1522650758963</v>
       </c>
       <c r="L32">
-        <v>8004.24420721774</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="M32">
-        <v>4962.53461774345</v>
+        <v>4893.84289173705</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>79431.25143741496</v>
+        <v>78331.75890378596</v>
       </c>
       <c r="P32">
-        <v>48457.91488586926</v>
+        <v>47787.15728545272</v>
       </c>
       <c r="Q32">
-        <v>37296.18162696208</v>
+        <v>36779.92546216999</v>
       </c>
       <c r="R32">
-        <v>11161.73325890718</v>
+        <v>11007.23182328274</v>
       </c>
       <c r="S32">
-        <v>30973.33667133028</v>
+        <v>30544.60173645975</v>
       </c>
       <c r="T32">
-        <v>28210.78791900646</v>
+        <v>27820.2923631209</v>
       </c>
       <c r="U32">
-        <v>2294.34940203538</v>
+        <v>2262.590868820507</v>
       </c>
       <c r="V32">
-        <v>468.1993502884413</v>
+        <v>461.7185045183392</v>
       </c>
       <c r="W32">
-        <v>68093</v>
+        <v>68089</v>
       </c>
       <c r="X32">
-        <v>63002</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
         <v>5091</v>
@@ -4790,52 +4790,52 @@
         <v>5091</v>
       </c>
       <c r="AD32">
-        <v>20801</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
-        <v>68050</v>
+        <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62959</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>27434.54828276826</v>
+        <v>28717.79699958656</v>
       </c>
       <c r="AI32">
-        <v>-1415.519227820696</v>
+        <v>-293.2527907388867</v>
       </c>
       <c r="AJ32">
-        <v>28850.06739080438</v>
+        <v>29011.04967219893</v>
       </c>
       <c r="AK32">
-        <v>-40615.45171723174</v>
+        <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-64374.5192278207</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>23759.06739080438</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-64417.5192278207</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
-        <v>160799.4517172317</v>
+        <v>159512.2030004134</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
       </c>
       <c r="AQ32">
-        <v>0.5664177924272313</v>
+        <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.348319999999999</v>
+        <v>8.465500000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73521.75237085176</v>
+        <v>73531.80147389873</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7897.247629148248</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="F33">
-        <v>8266.745438023312</v>
+        <v>8256.226155778299</v>
       </c>
       <c r="G33">
-        <v>65255.00693282844</v>
+        <v>65275.57531812043</v>
       </c>
       <c r="H33">
-        <v>92660.74220649958</v>
+        <v>92542.83310822018</v>
       </c>
       <c r="I33">
-        <v>81338.2184623926</v>
+        <v>81234.71706831591</v>
       </c>
       <c r="J33">
-        <v>11322.52374410698</v>
+        <v>11308.11603990427</v>
       </c>
       <c r="K33">
-        <v>301.5983230242507</v>
+        <v>301.214544679036</v>
       </c>
       <c r="L33">
-        <v>7897.247629148248</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="M33">
-        <v>4892.438305656589</v>
+        <v>4886.212767469965</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79569.45794867049</v>
+        <v>79468.20726996991</v>
       </c>
       <c r="P33">
-        <v>48316.35964818623</v>
+        <v>48254.87796497713</v>
       </c>
       <c r="Q33">
-        <v>37308.66484923114</v>
+        <v>37261.19025615507</v>
       </c>
       <c r="R33">
-        <v>11007.69479895509</v>
+        <v>10993.68770882206</v>
       </c>
       <c r="S33">
-        <v>31253.09830048425</v>
+        <v>31213.32930499277</v>
       </c>
       <c r="T33">
-        <v>28830.55332132782</v>
+        <v>28793.86696997701</v>
       </c>
       <c r="U33">
-        <v>2107.716034004551</v>
+        <v>2105.034003933556</v>
       </c>
       <c r="V33">
-        <v>314.8289451518839</v>
+        <v>314.4283310822018</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28125.25779350042</v>
+        <v>28243.16689177982</v>
       </c>
       <c r="AI33">
-        <v>80.78153760739951</v>
+        <v>184.2829316840944</v>
       </c>
       <c r="AJ33">
-        <v>28044.47625589302</v>
+        <v>28058.88396009574</v>
       </c>
       <c r="AK33">
-        <v>-40427.74220649958</v>
+        <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-63055.2184623926</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>22627.47625589302</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-63098.2184623926</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
-        <v>161256.7422064996</v>
+        <v>161138.8331082202</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.429460000000001</v>
+        <v>8.440200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74951.48123088331</v>
+        <v>74976.2595398688</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7887.518769116694</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="F34">
-        <v>8256.581587728242</v>
+        <v>8230.643883396471</v>
       </c>
       <c r="G34">
-        <v>66694.89964315506</v>
+        <v>66745.61565647234</v>
       </c>
       <c r="H34">
-        <v>92046.97492816759</v>
+        <v>91757.81322184237</v>
       </c>
       <c r="I34">
-        <v>80820.59794698305</v>
+        <v>80566.70343250486</v>
       </c>
       <c r="J34">
-        <v>11226.3768653258</v>
+        <v>11191.10967384274</v>
       </c>
       <c r="K34">
-        <v>298.7907822782464</v>
+        <v>297.85214358311</v>
       </c>
       <c r="L34">
-        <v>7887.518769116694</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="M34">
-        <v>4894.86699416072</v>
+        <v>4879.489975053128</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78965.79838261193</v>
+        <v>78717.73064307493</v>
       </c>
       <c r="P34">
-        <v>48259.64106960794</v>
+        <v>48108.0354337984</v>
       </c>
       <c r="Q34">
-        <v>37295.69109741404</v>
+        <v>37178.5282500231</v>
       </c>
       <c r="R34">
-        <v>10963.9499721939</v>
+        <v>10929.50718377529</v>
       </c>
       <c r="S34">
-        <v>30706.15731300399</v>
+        <v>30609.69520927654</v>
       </c>
       <c r="T34">
-        <v>28406.89788210215</v>
+        <v>28317.658805322</v>
       </c>
       <c r="U34">
-        <v>2036.832421911206</v>
+        <v>2030.433798392313</v>
       </c>
       <c r="V34">
-        <v>262.4268931318936</v>
+        <v>261.602490067449</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>29996.02507183241</v>
+        <v>30285.18677815763</v>
       </c>
       <c r="AI34">
-        <v>2018.402053016951</v>
+        <v>2272.296567495141</v>
       </c>
       <c r="AJ34">
-        <v>27977.62313467421</v>
+        <v>28012.89032615726</v>
       </c>
       <c r="AK34">
-        <v>-37782.97492816759</v>
+        <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60367.59794698305</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>22584.62313467421</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-60410.59794698305</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
-        <v>159868.9749281676</v>
+        <v>159579.8132218424</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,144 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6312</v>
+        <v>8.6584</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B35">
+        <v>121721</v>
+      </c>
+      <c r="C35">
+        <v>75390.01317790167</v>
+      </c>
+      <c r="D35">
+        <v>38517</v>
+      </c>
+      <c r="E35">
+        <v>7813.986822098327</v>
+      </c>
+      <c r="F35">
+        <v>8185.418482851833</v>
+      </c>
+      <c r="G35">
+        <v>67204.59469504983</v>
+      </c>
+      <c r="H35">
+        <v>92577.27307540689</v>
+      </c>
+      <c r="I35">
+        <v>81179.31812806218</v>
+      </c>
+      <c r="J35">
+        <v>11397.95505997635</v>
+      </c>
+      <c r="K35">
+        <v>292.406037055809</v>
+      </c>
+      <c r="L35">
+        <v>7813.986822098327</v>
+      </c>
+      <c r="M35">
+        <v>4866.59784873571</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>79604.28236751704</v>
+      </c>
+      <c r="P35">
+        <v>51463.73317564904</v>
+      </c>
+      <c r="Q35">
+        <v>40321.45756603029</v>
+      </c>
+      <c r="R35">
+        <v>11142.27572225038</v>
+      </c>
+      <c r="S35">
+        <v>28140.549191868</v>
+      </c>
+      <c r="T35">
+        <v>26252.57487188151</v>
+      </c>
+      <c r="U35">
+        <v>1632.294982260517</v>
+      </c>
+      <c r="V35">
+        <v>255.6793377259672</v>
+      </c>
+      <c r="W35">
+        <v>66633</v>
+      </c>
+      <c r="X35">
+        <v>61558</v>
+      </c>
+      <c r="Y35">
+        <v>5075</v>
+      </c>
+      <c r="Z35">
+        <v>17</v>
+      </c>
+      <c r="AA35">
+        <v>45884</v>
+      </c>
+      <c r="AB35">
+        <v>40809</v>
+      </c>
+      <c r="AC35">
+        <v>5075</v>
+      </c>
+      <c r="AD35">
+        <v>20732</v>
+      </c>
+      <c r="AE35">
+        <v>66616</v>
+      </c>
+      <c r="AF35">
+        <v>61541</v>
+      </c>
+      <c r="AG35">
+        <v>5075</v>
+      </c>
+      <c r="AH35">
+        <v>29143.72692459311</v>
+      </c>
+      <c r="AI35">
+        <v>2024.681871937821</v>
+      </c>
+      <c r="AJ35">
+        <v>27119.04494002365</v>
+      </c>
+      <c r="AK35">
+        <v>-37472.27307540689</v>
+      </c>
+      <c r="AL35">
+        <v>-59516.31812806218</v>
+      </c>
+      <c r="AM35">
+        <v>22044.04494002365</v>
+      </c>
+      <c r="AN35">
+        <v>-59533.31812806218</v>
+      </c>
+      <c r="AO35">
+        <v>159210.2730754069</v>
+      </c>
+      <c r="AP35">
+        <v>260269.29</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5472843634212666</v>
+      </c>
+      <c r="AR35">
+        <v>0.1762943296152996</v>
+      </c>
+      <c r="AS35">
+        <v>8.878500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>BankalarÄ±n YP MevduatlarÄ±</t>
+          <t>Bankaların YP Mevduatları</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS35"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1966,67 +1966,67 @@
         <v>44308</v>
       </c>
       <c r="B12">
-        <v>87850</v>
+        <v>88676</v>
       </c>
       <c r="C12">
-        <v>45372.41632722959</v>
+        <v>46432.40058529035</v>
       </c>
       <c r="D12">
-        <v>40936</v>
+        <v>40730</v>
       </c>
       <c r="E12">
-        <v>1541.583672770418</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="F12">
-        <v>8708.262326764767</v>
+        <v>8533.597479865528</v>
       </c>
       <c r="G12">
-        <v>36664.15400046482</v>
+        <v>37898.80310542482</v>
       </c>
       <c r="H12">
-        <v>76028.17046469243</v>
+        <v>76239.90845768737</v>
       </c>
       <c r="I12">
-        <v>64989.21739874988</v>
+        <v>65121.73229012988</v>
       </c>
       <c r="J12">
-        <v>11038.9531882622</v>
+        <v>11118.1761675575</v>
       </c>
       <c r="K12">
-        <v>341.3249666678898</v>
+        <v>333.4149998790722</v>
       </c>
       <c r="L12">
-        <v>1541.583672770418</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="M12">
-        <v>4924.54845693736</v>
+        <v>4834.769390765957</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69220.71336831676</v>
+        <v>69558.1246523327</v>
       </c>
       <c r="P12">
-        <v>43670.82602473304</v>
+        <v>42709.46574116623</v>
       </c>
       <c r="Q12">
-        <v>32748.90242559906</v>
+        <v>31860.87043800034</v>
       </c>
       <c r="R12">
-        <v>10921.92372145365</v>
+        <v>10848.59530316589</v>
       </c>
       <c r="S12">
-        <v>25549.88734358372</v>
+        <v>26848.65891116647</v>
       </c>
       <c r="T12">
-        <v>24342.51256834612</v>
+        <v>24960.7528962198</v>
       </c>
       <c r="U12">
-        <v>1090.345308429048</v>
+        <v>1618.325150555058</v>
       </c>
       <c r="V12">
-        <v>117.0294668085575</v>
+        <v>269.5808643916125</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,40 +2062,40 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>11821.82953530757</v>
+        <v>12436.09154231263</v>
       </c>
       <c r="AI12">
-        <v>-18075.21739874988</v>
+        <v>-17175.73229012988</v>
       </c>
       <c r="AJ12">
-        <v>29897.0468117378</v>
+        <v>29611.8238324425</v>
       </c>
       <c r="AK12">
-        <v>-47978.17046469243</v>
+        <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-72723.21739874988</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>24745.0468117378</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-73563.21739874988</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
-        <v>136668.1704646924</v>
+        <v>136879.9084576874</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
       </c>
       <c r="AQ12">
-        <v>0.6807057484348321</v>
+        <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.1753</v>
+        <v>8.269399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>92447</v>
+        <v>91973.99999999999</v>
       </c>
       <c r="C15">
-        <v>47651.06276810572</v>
+        <v>48045.03345119287</v>
       </c>
       <c r="D15">
-        <v>43249</v>
+        <v>42383</v>
       </c>
       <c r="E15">
-        <v>1546.937231894275</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="F15">
-        <v>8776.414104601561</v>
+        <v>8777.650451928996</v>
       </c>
       <c r="G15">
-        <v>38874.64866350417</v>
+        <v>39267.38299926388</v>
       </c>
       <c r="H15">
-        <v>79031.71719102869</v>
+        <v>79402.82525009957</v>
       </c>
       <c r="I15">
-        <v>67486.30058908578</v>
+        <v>67673.1377991239</v>
       </c>
       <c r="J15">
-        <v>11545.41660194291</v>
+        <v>11729.68745097566</v>
       </c>
       <c r="K15">
-        <v>342.3820334811027</v>
+        <v>342.0231213872833</v>
       </c>
       <c r="L15">
-        <v>1546.937231894275</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="M15">
-        <v>4931.586946910586</v>
+        <v>4927.222899344733</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72210.81097874272</v>
+        <v>72587.61268056043</v>
       </c>
       <c r="P15">
-        <v>43959.06044999941</v>
+        <v>44101.28410585638</v>
       </c>
       <c r="Q15">
-        <v>32580.01995483278</v>
+        <v>32794.70971556832</v>
       </c>
       <c r="R15">
-        <v>11379.04049516663</v>
+        <v>11306.57426961276</v>
       </c>
       <c r="S15">
-        <v>28251.75052874332</v>
+        <v>28486.32857470405</v>
       </c>
       <c r="T15">
-        <v>26293.68793987262</v>
+        <v>26459.32470102695</v>
       </c>
       <c r="U15">
-        <v>1791.686482094421</v>
+        <v>1603.890812989489</v>
       </c>
       <c r="V15">
-        <v>166.3761067762789</v>
+        <v>423.1131813629069</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,40 +2473,40 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>13415.28280897132</v>
+        <v>12571.17474990041</v>
       </c>
       <c r="AI15">
-        <v>-18288.30058908578</v>
+        <v>-18082.1377991239</v>
       </c>
       <c r="AJ15">
-        <v>31703.58339805709</v>
+        <v>30653.31254902434</v>
       </c>
       <c r="AK15">
-        <v>-46484.71719102869</v>
+        <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72612.30058908578</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>26127.58339805709</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-73171.30058908578</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
-        <v>139490.7171910287</v>
+        <v>139861.8252500996</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
       </c>
       <c r="AQ15">
-        <v>0.647938818998994</v>
+        <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.3689</v>
+        <v>8.2867</v>
       </c>
     </row>
     <row r="16">
@@ -3747,67 +3747,67 @@
         <v>44396</v>
       </c>
       <c r="B25">
-        <v>105720</v>
+        <v>104439</v>
       </c>
       <c r="C25">
-        <v>62597.62800823772</v>
+        <v>61134.82190154996</v>
       </c>
       <c r="D25">
-        <v>41592</v>
+        <v>41778</v>
       </c>
       <c r="E25">
-        <v>1530.371991762283</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="F25">
-        <v>8429.860076493087</v>
+        <v>8386.232858200448</v>
       </c>
       <c r="G25">
-        <v>54167.76793174463</v>
+        <v>52748.58904334951</v>
       </c>
       <c r="H25">
-        <v>81248.54380700206</v>
+        <v>80789.41221400957</v>
       </c>
       <c r="I25">
-        <v>69741.54068843779</v>
+        <v>69072.43363611795</v>
       </c>
       <c r="J25">
-        <v>11507.00300088261</v>
+        <v>11716.97857789163</v>
       </c>
       <c r="K25">
-        <v>322.2072374227714</v>
+        <v>322.8921608949577</v>
       </c>
       <c r="L25">
-        <v>1530.371991762283</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="M25">
-        <v>4813.754516034128</v>
+        <v>4883.624836954606</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74582.21006178288</v>
+        <v>74056.71711770997</v>
       </c>
       <c r="P25">
-        <v>44053.77228596646</v>
+        <v>43752.91789562745</v>
       </c>
       <c r="Q25">
-        <v>33348.15063253899</v>
+        <v>32992.72564895005</v>
       </c>
       <c r="R25">
-        <v>10705.62165342748</v>
+        <v>10760.1922466774</v>
       </c>
       <c r="S25">
-        <v>30528.43765813475</v>
+        <v>30303.79910457233</v>
       </c>
       <c r="T25">
-        <v>27826.40600176523</v>
+        <v>27845.76387501616</v>
       </c>
       <c r="U25">
-        <v>1900.650308914387</v>
+        <v>1501.249015852125</v>
       </c>
       <c r="V25">
-        <v>801.3813474551339</v>
+        <v>956.7863312142329</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,40 +3843,40 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>24471.45619299794</v>
+        <v>23649.58778599043</v>
       </c>
       <c r="AI25">
-        <v>-5613.540688437788</v>
+        <v>-6411.433636117945</v>
       </c>
       <c r="AJ25">
-        <v>30084.99699911739</v>
+        <v>30061.02142210837</v>
       </c>
       <c r="AK25">
-        <v>-40928.54380700206</v>
+        <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-65488.54068843779</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>24559.99699911739</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-65722.54068843779</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
-        <v>146882.5438070021</v>
+        <v>146423.4122140096</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
       </c>
       <c r="AQ25">
-        <v>0.6186152099886493</v>
+        <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.497500000000001</v>
+        <v>8.5099</v>
       </c>
     </row>
     <row r="26">
@@ -5247,6 +5247,143 @@
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B36">
+        <v>123783</v>
+      </c>
+      <c r="C36">
+        <v>76275.17951124845</v>
+      </c>
+      <c r="D36">
+        <v>39678</v>
+      </c>
+      <c r="E36">
+        <v>7829.820488751543</v>
+      </c>
+      <c r="F36">
+        <v>8143.895668315527</v>
+      </c>
+      <c r="G36">
+        <v>68131.28384293293</v>
+      </c>
+      <c r="H36">
+        <v>91286.49024922743</v>
+      </c>
+      <c r="I36">
+        <v>79444.46647611614</v>
+      </c>
+      <c r="J36">
+        <v>11842.02377311128</v>
+      </c>
+      <c r="K36">
+        <v>286.7190153249027</v>
+      </c>
+      <c r="L36">
+        <v>7829.820488751543</v>
+      </c>
+      <c r="M36">
+        <v>4867.811481547889</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>78302.13926360309</v>
+      </c>
+      <c r="P36">
+        <v>51242.08610633564</v>
+      </c>
+      <c r="Q36">
+        <v>39858.99960975816</v>
+      </c>
+      <c r="R36">
+        <v>11383.08639110671</v>
+      </c>
+      <c r="S36">
+        <v>27060.05315726747</v>
+      </c>
+      <c r="T36">
+        <v>24553.85274171264</v>
+      </c>
+      <c r="U36">
+        <v>2047.26313902102</v>
+      </c>
+      <c r="V36">
+        <v>458.9373820045774</v>
+      </c>
+      <c r="W36">
+        <v>68337</v>
+      </c>
+      <c r="X36">
+        <v>63201</v>
+      </c>
+      <c r="Y36">
+        <v>5136</v>
+      </c>
+      <c r="Z36">
+        <v>8</v>
+      </c>
+      <c r="AA36">
+        <v>47381</v>
+      </c>
+      <c r="AB36">
+        <v>42245</v>
+      </c>
+      <c r="AC36">
+        <v>5136</v>
+      </c>
+      <c r="AD36">
+        <v>20948</v>
+      </c>
+      <c r="AE36">
+        <v>68329</v>
+      </c>
+      <c r="AF36">
+        <v>63193</v>
+      </c>
+      <c r="AG36">
+        <v>5136</v>
+      </c>
+      <c r="AH36">
+        <v>32496.50975077257</v>
+      </c>
+      <c r="AI36">
+        <v>4660.53352388386</v>
+      </c>
+      <c r="AJ36">
+        <v>27835.97622688872</v>
+      </c>
+      <c r="AK36">
+        <v>-35832.49024922743</v>
+      </c>
+      <c r="AL36">
+        <v>-58532.46647611614</v>
+      </c>
+      <c r="AM36">
+        <v>22699.97622688872</v>
+      </c>
+      <c r="AN36">
+        <v>-58540.46647611614</v>
+      </c>
+      <c r="AO36">
+        <v>159623.4902492274</v>
+      </c>
+      <c r="AP36">
+        <v>260322.05</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5520063336645581</v>
+      </c>
+      <c r="AR36">
+        <v>0.1820091690273644</v>
+      </c>
+      <c r="AS36">
+        <v>9.481299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5251,138 +5251,549 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>44497</v>
+        <v>44477</v>
       </c>
       <c r="B36">
-        <v>123783</v>
+        <v>123462</v>
       </c>
       <c r="C36">
-        <v>76275.17951124845</v>
+        <v>77534.92732115249</v>
       </c>
       <c r="D36">
-        <v>39678</v>
+        <v>38107</v>
       </c>
       <c r="E36">
-        <v>7829.820488751543</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="F36">
-        <v>8143.895668315527</v>
+        <v>8199.385276890607</v>
       </c>
       <c r="G36">
-        <v>68131.28384293293</v>
+        <v>69335.54204426188</v>
       </c>
       <c r="H36">
-        <v>91286.49024922743</v>
+        <v>93998.08371610107</v>
       </c>
       <c r="I36">
-        <v>79444.46647611614</v>
+        <v>82280.86921193104</v>
       </c>
       <c r="J36">
-        <v>11842.02377311128</v>
+        <v>11717.21439131465</v>
       </c>
       <c r="K36">
-        <v>286.7190153249027</v>
+        <v>290.0222325045988</v>
       </c>
       <c r="L36">
-        <v>7829.820488751543</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="M36">
-        <v>4867.811481547889</v>
+        <v>4863.149567199719</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
+        <v>81024.83923754923</v>
+      </c>
+      <c r="P36">
+        <v>51596.9286415601</v>
+      </c>
+      <c r="Q36">
+        <v>40276.98935774017</v>
+      </c>
+      <c r="R36">
+        <v>11319.93928381993</v>
+      </c>
+      <c r="S36">
+        <v>29427.91048313376</v>
+      </c>
+      <c r="T36">
+        <v>26789.53165028383</v>
+      </c>
+      <c r="U36">
+        <v>2241.103725355212</v>
+      </c>
+      <c r="V36">
+        <v>397.275107494724</v>
+      </c>
+      <c r="W36">
+        <v>66994</v>
+      </c>
+      <c r="X36">
+        <v>61914</v>
+      </c>
+      <c r="Y36">
+        <v>5080</v>
+      </c>
+      <c r="Z36">
+        <v>17</v>
+      </c>
+      <c r="AA36">
+        <v>46150</v>
+      </c>
+      <c r="AB36">
+        <v>41070</v>
+      </c>
+      <c r="AC36">
+        <v>5080</v>
+      </c>
+      <c r="AD36">
+        <v>20827</v>
+      </c>
+      <c r="AE36">
+        <v>66977</v>
+      </c>
+      <c r="AF36">
+        <v>61897</v>
+      </c>
+      <c r="AG36">
+        <v>5080</v>
+      </c>
+      <c r="AH36">
+        <v>29463.91628389893</v>
+      </c>
+      <c r="AI36">
+        <v>3074.130788068957</v>
+      </c>
+      <c r="AJ36">
+        <v>26389.78560868535</v>
+      </c>
+      <c r="AK36">
+        <v>-37513.08371610107</v>
+      </c>
+      <c r="AL36">
+        <v>-58822.86921193104</v>
+      </c>
+      <c r="AM36">
+        <v>21309.78560868535</v>
+      </c>
+      <c r="AN36">
+        <v>-58839.86921193104</v>
+      </c>
+      <c r="AO36">
+        <v>160992.0837161011</v>
+      </c>
+      <c r="AP36">
+        <v>261753.66</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5424908068879494</v>
+      </c>
+      <c r="AR36">
+        <v>0.1763108107065246</v>
+      </c>
+      <c r="AS36">
+        <v>8.860900000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B37">
+        <v>125727</v>
+      </c>
+      <c r="C37">
+        <v>78129.22529972871</v>
+      </c>
+      <c r="D37">
+        <v>39772</v>
+      </c>
+      <c r="E37">
+        <v>7825.774700271287</v>
+      </c>
+      <c r="F37">
+        <v>8164.211188413407</v>
+      </c>
+      <c r="G37">
+        <v>69965.01411131531</v>
+      </c>
+      <c r="H37">
+        <v>93756.88807210991</v>
+      </c>
+      <c r="I37">
+        <v>81955.57747002711</v>
+      </c>
+      <c r="J37">
+        <v>11801.31060208279</v>
+      </c>
+      <c r="K37">
+        <v>288.9190076135469</v>
+      </c>
+      <c r="L37">
+        <v>7825.774700271287</v>
+      </c>
+      <c r="M37">
+        <v>4868.356086461889</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>80773.83827776319</v>
+      </c>
+      <c r="P37">
+        <v>51340.25334733526</v>
+      </c>
+      <c r="Q37">
+        <v>39872.2970814737</v>
+      </c>
+      <c r="R37">
+        <v>11467.95626586156</v>
+      </c>
+      <c r="S37">
+        <v>29433.58493042793</v>
+      </c>
+      <c r="T37">
+        <v>26897.0337796447</v>
+      </c>
+      <c r="U37">
+        <v>2203.196814562002</v>
+      </c>
+      <c r="V37">
+        <v>333.3543362212304</v>
+      </c>
+      <c r="W37">
+        <v>68067</v>
+      </c>
+      <c r="X37">
+        <v>62836</v>
+      </c>
+      <c r="Y37">
+        <v>5231</v>
+      </c>
+      <c r="Z37">
+        <v>17</v>
+      </c>
+      <c r="AA37">
+        <v>47076</v>
+      </c>
+      <c r="AB37">
+        <v>41845</v>
+      </c>
+      <c r="AC37">
+        <v>5231</v>
+      </c>
+      <c r="AD37">
+        <v>20974</v>
+      </c>
+      <c r="AE37">
+        <v>68050</v>
+      </c>
+      <c r="AF37">
+        <v>62819</v>
+      </c>
+      <c r="AG37">
+        <v>5231</v>
+      </c>
+      <c r="AH37">
+        <v>31970.11192789009</v>
+      </c>
+      <c r="AI37">
+        <v>3999.422529972886</v>
+      </c>
+      <c r="AJ37">
+        <v>27970.68939791721</v>
+      </c>
+      <c r="AK37">
+        <v>-36079.88807210991</v>
+      </c>
+      <c r="AL37">
+        <v>-58819.57747002711</v>
+      </c>
+      <c r="AM37">
+        <v>22739.68939791721</v>
+      </c>
+      <c r="AN37">
+        <v>-58836.57747002711</v>
+      </c>
+      <c r="AO37">
+        <v>161823.8880721099</v>
+      </c>
+      <c r="AP37">
+        <v>262219.59</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5412520779148472</v>
+      </c>
+      <c r="AR37">
+        <v>0.1795289207797175</v>
+      </c>
+      <c r="AS37">
+        <v>9.1416</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B38">
+        <v>125141</v>
+      </c>
+      <c r="C38">
+        <v>77606.26621579418</v>
+      </c>
+      <c r="D38">
+        <v>39695</v>
+      </c>
+      <c r="E38">
+        <v>7839.733784205821</v>
+      </c>
+      <c r="F38">
+        <v>8258.089104752467</v>
+      </c>
+      <c r="G38">
+        <v>69348.17711104172</v>
+      </c>
+      <c r="H38">
+        <v>92868.56553625465</v>
+      </c>
+      <c r="I38">
+        <v>81145.07016164642</v>
+      </c>
+      <c r="J38">
+        <v>11723.49548230074</v>
+      </c>
+      <c r="K38">
+        <v>288.8957213780329</v>
+      </c>
+      <c r="L38">
+        <v>7839.733784205821</v>
+      </c>
+      <c r="M38">
+        <v>4871.227048041612</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>79868.70898262919</v>
+      </c>
+      <c r="P38">
+        <v>51315.95539377753</v>
+      </c>
+      <c r="Q38">
+        <v>39923.61620556339</v>
+      </c>
+      <c r="R38">
+        <v>11392.33918821414</v>
+      </c>
+      <c r="S38">
+        <v>28552.75358885167</v>
+      </c>
+      <c r="T38">
+        <v>25784.97442303757</v>
+      </c>
+      <c r="U38">
+        <v>2436.622979419968</v>
+      </c>
+      <c r="V38">
+        <v>331.1562940866062</v>
+      </c>
+      <c r="W38">
+        <v>68272</v>
+      </c>
+      <c r="X38">
+        <v>62970</v>
+      </c>
+      <c r="Y38">
+        <v>5302</v>
+      </c>
+      <c r="Z38">
+        <v>17</v>
+      </c>
+      <c r="AA38">
+        <v>47365</v>
+      </c>
+      <c r="AB38">
+        <v>42063</v>
+      </c>
+      <c r="AC38">
+        <v>5302</v>
+      </c>
+      <c r="AD38">
+        <v>20890</v>
+      </c>
+      <c r="AE38">
+        <v>68255</v>
+      </c>
+      <c r="AF38">
+        <v>62953</v>
+      </c>
+      <c r="AG38">
+        <v>5302</v>
+      </c>
+      <c r="AH38">
+        <v>32272.43446374535</v>
+      </c>
+      <c r="AI38">
+        <v>4300.929838353579</v>
+      </c>
+      <c r="AJ38">
+        <v>27971.50451769926</v>
+      </c>
+      <c r="AK38">
+        <v>-35982.56553625465</v>
+      </c>
+      <c r="AL38">
+        <v>-58652.07016164642</v>
+      </c>
+      <c r="AM38">
+        <v>22669.50451769926</v>
+      </c>
+      <c r="AN38">
+        <v>-58669.07016164642</v>
+      </c>
+      <c r="AO38">
+        <v>161140.5655362547</v>
+      </c>
+      <c r="AP38">
+        <v>262439.61</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5454247608697389</v>
+      </c>
+      <c r="AR38">
+        <v>0.1804796158628646</v>
+      </c>
+      <c r="AS38">
+        <v>9.2857</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B39">
+        <v>123783</v>
+      </c>
+      <c r="C39">
+        <v>76275.17951124845</v>
+      </c>
+      <c r="D39">
+        <v>39678</v>
+      </c>
+      <c r="E39">
+        <v>7829.820488751543</v>
+      </c>
+      <c r="F39">
+        <v>8143.895668315527</v>
+      </c>
+      <c r="G39">
+        <v>68131.28384293293</v>
+      </c>
+      <c r="H39">
+        <v>91286.49024922743</v>
+      </c>
+      <c r="I39">
+        <v>79444.46647611614</v>
+      </c>
+      <c r="J39">
+        <v>11842.02377311128</v>
+      </c>
+      <c r="K39">
+        <v>286.7190153249027</v>
+      </c>
+      <c r="L39">
+        <v>7829.820488751543</v>
+      </c>
+      <c r="M39">
+        <v>4867.811481547889</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>78302.13926360309</v>
       </c>
-      <c r="P36">
+      <c r="P39">
         <v>51242.08610633564</v>
       </c>
-      <c r="Q36">
+      <c r="Q39">
         <v>39858.99960975816</v>
       </c>
-      <c r="R36">
+      <c r="R39">
         <v>11383.08639110671</v>
       </c>
-      <c r="S36">
+      <c r="S39">
         <v>27060.05315726747</v>
       </c>
-      <c r="T36">
+      <c r="T39">
         <v>24553.85274171264</v>
       </c>
-      <c r="U36">
+      <c r="U39">
         <v>2047.26313902102</v>
       </c>
-      <c r="V36">
+      <c r="V39">
         <v>458.9373820045774</v>
       </c>
-      <c r="W36">
+      <c r="W39">
         <v>68337</v>
       </c>
-      <c r="X36">
+      <c r="X39">
         <v>63201</v>
       </c>
-      <c r="Y36">
+      <c r="Y39">
         <v>5136</v>
       </c>
-      <c r="Z36">
+      <c r="Z39">
         <v>8</v>
       </c>
-      <c r="AA36">
+      <c r="AA39">
         <v>47381</v>
       </c>
-      <c r="AB36">
+      <c r="AB39">
         <v>42245</v>
       </c>
-      <c r="AC36">
+      <c r="AC39">
         <v>5136</v>
       </c>
-      <c r="AD36">
+      <c r="AD39">
         <v>20948</v>
       </c>
-      <c r="AE36">
+      <c r="AE39">
         <v>68329</v>
       </c>
-      <c r="AF36">
+      <c r="AF39">
         <v>63193</v>
       </c>
-      <c r="AG36">
+      <c r="AG39">
         <v>5136</v>
       </c>
-      <c r="AH36">
+      <c r="AH39">
         <v>32496.50975077257</v>
       </c>
-      <c r="AI36">
+      <c r="AI39">
         <v>4660.53352388386</v>
       </c>
-      <c r="AJ36">
+      <c r="AJ39">
         <v>27835.97622688872</v>
       </c>
-      <c r="AK36">
+      <c r="AK39">
         <v>-35832.49024922743</v>
       </c>
-      <c r="AL36">
+      <c r="AL39">
         <v>-58532.46647611614</v>
       </c>
-      <c r="AM36">
+      <c r="AM39">
         <v>22699.97622688872</v>
       </c>
-      <c r="AN36">
+      <c r="AN39">
         <v>-58540.46647611614</v>
       </c>
-      <c r="AO36">
+      <c r="AO39">
         <v>159623.4902492274</v>
       </c>
-      <c r="AP36">
+      <c r="AP39">
         <v>260322.05</v>
       </c>
-      <c r="AQ36">
+      <c r="AQ39">
         <v>0.5520063336645581</v>
       </c>
-      <c r="AR36">
+      <c r="AR39">
         <v>0.1820091690273644</v>
       </c>
-      <c r="AS36">
+      <c r="AS39">
         <v>9.481299999999999</v>
       </c>
     </row>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -5785,13 +5785,13 @@
         <v>159623.4902492274</v>
       </c>
       <c r="AP39">
-        <v>260322.05</v>
+        <v>260333.71</v>
       </c>
       <c r="AQ39">
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820091690273644</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-77610.67498118448</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>32738.22761347279</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-79007.67498118448</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -799,34 +799,34 @@
         <v>58285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>58279.78</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
         <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-74690.02540106722</v>
       </c>
       <c r="AO3">
         <v>140324.8501301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>59426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>59420.825</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
         <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-74976.79107530171</v>
       </c>
       <c r="AO4">
         <v>140878.3659696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540219074989171</v>
+        <v>0.0001540219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.155273676548578</v>
+        <v>0.000155273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548526590634024</v>
+        <v>0.0001548526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711288974371398</v>
+        <v>0.0001711288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.1694590296084882</v>
+        <v>0.0001694590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711123734180587</v>
+        <v>0.0001711123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668599069893508</v>
+        <v>0.0001668599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664979777190556</v>
+        <v>0.0001664979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,10 +5791,421 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B40">
+        <v>125443</v>
+      </c>
+      <c r="C40">
+        <v>77975.71735271046</v>
+      </c>
+      <c r="D40">
+        <v>39653</v>
+      </c>
+      <c r="E40">
+        <v>7814.282647289542</v>
+      </c>
+      <c r="F40">
+        <v>8176.334172825234</v>
+      </c>
+      <c r="G40">
+        <v>69799.38317988522</v>
+      </c>
+      <c r="H40">
+        <v>93735.14739275834</v>
+      </c>
+      <c r="I40">
+        <v>82217.67908013707</v>
+      </c>
+      <c r="J40">
+        <v>11517.4684158375</v>
+      </c>
+      <c r="K40">
+        <v>285.0104248379506</v>
+      </c>
+      <c r="L40">
+        <v>7814.282647289542</v>
+      </c>
+      <c r="M40">
+        <v>4863.052103546509</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>80772.80221708435</v>
+      </c>
+      <c r="P40">
+        <v>52897.34837537674</v>
+      </c>
+      <c r="Q40">
+        <v>41856.10895503902</v>
+      </c>
+      <c r="R40">
+        <v>11041.23952355394</v>
+      </c>
+      <c r="S40">
+        <v>27875.45384170761</v>
+      </c>
+      <c r="T40">
+        <v>24873.5701457413</v>
+      </c>
+      <c r="U40">
+        <v>2525.654803682755</v>
+      </c>
+      <c r="V40">
+        <v>476.2288922835556</v>
+      </c>
+      <c r="W40">
+        <v>67061</v>
+      </c>
+      <c r="X40">
+        <v>67055.73000000001</v>
+      </c>
+      <c r="Y40">
+        <v>5.27</v>
+      </c>
+      <c r="Z40">
+        <v>8</v>
+      </c>
+      <c r="AA40">
+        <v>46.196</v>
+      </c>
+      <c r="AB40">
+        <v>40.926</v>
+      </c>
+      <c r="AC40">
+        <v>5.27</v>
+      </c>
+      <c r="AD40">
+        <v>67006.804</v>
+      </c>
+      <c r="AE40">
+        <v>67053</v>
+      </c>
+      <c r="AF40">
+        <v>67047.73</v>
+      </c>
+      <c r="AG40">
+        <v>5.27</v>
+      </c>
+      <c r="AH40">
+        <v>31707.85260724166</v>
+      </c>
+      <c r="AI40">
+        <v>3572.320919862934</v>
+      </c>
+      <c r="AJ40">
+        <v>28135.53158416251</v>
+      </c>
+      <c r="AK40">
+        <v>-35345.14739275834</v>
+      </c>
+      <c r="AL40">
+        <v>-63475.40908013706</v>
+      </c>
+      <c r="AM40">
+        <v>28130.26158416251</v>
+      </c>
+      <c r="AN40">
+        <v>-63483.40908013708</v>
+      </c>
+      <c r="AO40">
+        <v>160796.1473927583</v>
+      </c>
+      <c r="AP40">
+        <v>260708.52</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5345296270019052</v>
+      </c>
+      <c r="AR40">
+        <v>0.0001771940556449786</v>
+      </c>
+      <c r="AS40">
+        <v>9.6884</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B41">
+        <v>127690</v>
+      </c>
+      <c r="C41">
+        <v>78912.40233941717</v>
+      </c>
+      <c r="D41">
+        <v>40995</v>
+      </c>
+      <c r="E41">
+        <v>7782.597660582837</v>
+      </c>
+      <c r="F41">
+        <v>8210.443279217505</v>
+      </c>
+      <c r="G41">
+        <v>70701.95906019966</v>
+      </c>
+      <c r="H41">
+        <v>99236.83160229906</v>
+      </c>
+      <c r="I41">
+        <v>89812.61802964604</v>
+      </c>
+      <c r="J41">
+        <v>9424.21357265302</v>
+      </c>
+      <c r="K41">
+        <v>281.1380457799738</v>
+      </c>
+      <c r="L41">
+        <v>7782.597660582837</v>
+      </c>
+      <c r="M41">
+        <v>4852.308561056771</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>86320.7873348795</v>
+      </c>
+      <c r="P41">
+        <v>55671.92538065947</v>
+      </c>
+      <c r="Q41">
+        <v>47422.94363214682</v>
+      </c>
+      <c r="R41">
+        <v>8248.981748512655</v>
+      </c>
+      <c r="S41">
+        <v>30648.86205505697</v>
+      </c>
+      <c r="T41">
+        <v>27357.73237874357</v>
+      </c>
+      <c r="U41">
+        <v>2115.89775133609</v>
+      </c>
+      <c r="V41">
+        <v>1175.231824140365</v>
+      </c>
+      <c r="W41">
+        <v>63655</v>
+      </c>
+      <c r="X41">
+        <v>63647.65</v>
+      </c>
+      <c r="Y41">
+        <v>7.35</v>
+      </c>
+      <c r="Z41">
+        <v>8</v>
+      </c>
+      <c r="AA41">
+        <v>42.52</v>
+      </c>
+      <c r="AB41">
+        <v>35.17</v>
+      </c>
+      <c r="AC41">
+        <v>7.35</v>
+      </c>
+      <c r="AD41">
+        <v>63604.48</v>
+      </c>
+      <c r="AE41">
+        <v>63647</v>
+      </c>
+      <c r="AF41">
+        <v>63639.65</v>
+      </c>
+      <c r="AG41">
+        <v>7.35</v>
+      </c>
+      <c r="AH41">
+        <v>28453.16839770094</v>
+      </c>
+      <c r="AI41">
+        <v>-3117.618029646037</v>
+      </c>
+      <c r="AJ41">
+        <v>31570.78642734698</v>
+      </c>
+      <c r="AK41">
+        <v>-35193.83160229906</v>
+      </c>
+      <c r="AL41">
+        <v>-66757.26802964605</v>
+      </c>
+      <c r="AM41">
+        <v>31563.43642734698</v>
+      </c>
+      <c r="AN41">
+        <v>-66765.26802964605</v>
+      </c>
+      <c r="AO41">
+        <v>162891.8316022991</v>
+      </c>
+      <c r="AP41">
+        <v>262418.4</v>
+      </c>
+      <c r="AQ41">
+        <v>0.4984493695669199</v>
+      </c>
+      <c r="AR41">
+        <v>0.0001620313209744439</v>
+      </c>
+      <c r="AS41">
+        <v>9.917</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B42">
+        <v>128403</v>
+      </c>
+      <c r="C42">
+        <v>80160.59462617914</v>
+      </c>
+      <c r="D42">
+        <v>40482</v>
+      </c>
+      <c r="E42">
+        <v>7760.405373820853</v>
+      </c>
+      <c r="F42">
+        <v>8192.588091209109</v>
+      </c>
+      <c r="G42">
+        <v>71968.00653497003</v>
+      </c>
+      <c r="H42">
+        <v>103376.9288445537</v>
+      </c>
+      <c r="I42">
+        <v>92353.93126595175</v>
+      </c>
+      <c r="J42">
+        <v>11022.99767209222</v>
+      </c>
+      <c r="K42">
+        <v>277.714349821901</v>
+      </c>
+      <c r="L42">
+        <v>7760.405373820853</v>
+      </c>
+      <c r="M42">
+        <v>4836.394080195955</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>90502.415040715</v>
+      </c>
+      <c r="P42">
+        <v>55426.49551714143</v>
+      </c>
+      <c r="Q42">
+        <v>47171.96787674242</v>
+      </c>
+      <c r="R42">
+        <v>8254.527640399016</v>
+      </c>
+      <c r="S42">
+        <v>35075.91961706384</v>
+      </c>
+      <c r="T42">
+        <v>29852.1977693221</v>
+      </c>
+      <c r="U42">
+        <v>2455.25181604854</v>
+      </c>
+      <c r="V42">
+        <v>2768.470031693202</v>
+      </c>
+      <c r="W42">
+        <v>60524</v>
+      </c>
+      <c r="X42">
+        <v>60518.789</v>
+      </c>
+      <c r="Y42">
+        <v>5.211</v>
+      </c>
+      <c r="Z42">
+        <v>8</v>
+      </c>
+      <c r="AA42">
+        <v>39.48200000000001</v>
+      </c>
+      <c r="AB42">
+        <v>34.27100000000001</v>
+      </c>
+      <c r="AC42">
+        <v>5.211</v>
+      </c>
+      <c r="AD42">
+        <v>60476.518</v>
+      </c>
+      <c r="AE42">
+        <v>60516</v>
+      </c>
+      <c r="AF42">
+        <v>60510.789</v>
+      </c>
+      <c r="AG42">
+        <v>5.211</v>
+      </c>
+      <c r="AH42">
+        <v>25026.07115544631</v>
+      </c>
+      <c r="AI42">
+        <v>-4432.931265951745</v>
+      </c>
+      <c r="AJ42">
+        <v>29459.00232790778</v>
+      </c>
+      <c r="AK42">
+        <v>-35489.9288445537</v>
+      </c>
+      <c r="AL42">
+        <v>-64943.72026595174</v>
+      </c>
+      <c r="AM42">
+        <v>29453.79132790778</v>
+      </c>
+      <c r="AN42">
+        <v>-64951.72026595174</v>
+      </c>
+      <c r="AO42">
+        <v>163900.9288445537</v>
+      </c>
+      <c r="AP42">
+        <v>262156.84</v>
+      </c>
+      <c r="AQ42">
+        <v>0.4712973995934675</v>
+      </c>
+      <c r="AR42">
+        <v>0.0001506045007255962</v>
+      </c>
+      <c r="AS42">
+        <v>10.6963</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039.00000000001</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480.00000000001</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15221.99999999999</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-77610.67498118448</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>32738.22761347279</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-79007.67498118448</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -799,34 +799,34 @@
         <v>58285</v>
       </c>
       <c r="X3">
-        <v>58279.78</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
         <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-74690.02540106722</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
         <v>140324.8501301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>59426</v>
       </c>
       <c r="X4">
-        <v>59420.825</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
         <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389.00000000001</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214.00000000001</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17610.99999999999</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-74976.79107530171</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
         <v>140878.3659696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540219074989171</v>
+        <v>0.1540219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.000155273676548578</v>
+        <v>0.155273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170.00000000001</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995.00000000001</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17429.99999999999</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548526590634024</v>
+        <v>0.1548526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711288974371398</v>
+        <v>0.1711288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.0001694590296084882</v>
+        <v>0.1694590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42720.99999999999</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37532.99999999999</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179.00000000001</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711123734180587</v>
+        <v>0.1711123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668599069893508</v>
+        <v>0.1668599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328.00000000001</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059.00000000001</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17271.99999999999</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664979777190556</v>
+        <v>0.1664979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43216.99999999999</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37632.99999999999</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483.00000000001</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45848.99999999999</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40635.99999999999</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564.00000000001</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195908</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42.52</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35.17</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63604.48</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001620313209744439</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>60518.789</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39.48200000000001</v>
+        <v>39482.00000000001</v>
       </c>
       <c r="AB42">
-        <v>34.27100000000001</v>
+        <v>34271.00000000001</v>
       </c>
       <c r="AC42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>60476.518</v>
+        <v>21033.99999999999</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>60510.789</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-64943.72026595174</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>29453.79132790778</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-64951.72026595174</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.0001506045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS42"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,16 +671,16 @@
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039.00000000001</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38480.00000000001</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
         <v>5559</v>
       </c>
       <c r="AD2">
-        <v>15221.99999999999</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
@@ -945,16 +945,16 @@
         <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40389.00000000001</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35214.00000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
         <v>5175</v>
       </c>
       <c r="AD4">
-        <v>17610.99999999999</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
@@ -990,13 +990,13 @@
         <v>140878.3659696346</v>
       </c>
       <c r="AP4">
-        <v>262228.93</v>
+        <v>262229.34</v>
       </c>
       <c r="AQ4">
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540219074989171</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1127,13 +1127,13 @@
         <v>138909.6980033278</v>
       </c>
       <c r="AP5">
-        <v>259573.94</v>
+        <v>259574.43</v>
       </c>
       <c r="AQ5">
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.155273676548578</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1219,16 +1219,16 @@
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170.00000000001</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34995.00000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
         <v>5175</v>
       </c>
       <c r="AD6">
-        <v>17429.99999999999</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
@@ -1264,13 +1264,13 @@
         <v>139378.4569486608</v>
       </c>
       <c r="AP6">
-        <v>259407.88</v>
+        <v>259408.34</v>
       </c>
       <c r="AQ6">
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548526590634024</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1401,13 +1401,13 @@
         <v>142708.228956861</v>
       </c>
       <c r="AP7">
-        <v>261709.16</v>
+        <v>261709.55</v>
       </c>
       <c r="AQ7">
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711288974371398</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1538,13 +1538,13 @@
         <v>138974.6771020917</v>
       </c>
       <c r="AP8">
-        <v>252444.5</v>
+        <v>252444.9</v>
       </c>
       <c r="AQ8">
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.1694590296084882</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1630,16 +1630,16 @@
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42720.99999999999</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37532.99999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
         <v>5188</v>
       </c>
       <c r="AD9">
-        <v>17179.00000000001</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
@@ -1675,13 +1675,13 @@
         <v>137643.6683515488</v>
       </c>
       <c r="AP9">
-        <v>249666.34</v>
+        <v>249666.78</v>
       </c>
       <c r="AQ9">
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711123734180587</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1812,13 +1812,13 @@
         <v>139470.9702151672</v>
       </c>
       <c r="AP10">
-        <v>251474.43</v>
+        <v>251474.86</v>
       </c>
       <c r="AQ10">
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668599069893508</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1904,16 +1904,16 @@
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328.00000000001</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37059.00000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
         <v>5269</v>
       </c>
       <c r="AD11">
-        <v>17271.99999999999</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
@@ -1949,13 +1949,13 @@
         <v>139533.4443382527</v>
       </c>
       <c r="AP11">
-        <v>254225.31</v>
+        <v>254225.71</v>
       </c>
       <c r="AQ11">
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664979777190556</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2178,16 +2178,16 @@
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43216.99999999999</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37632.99999999999</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
         <v>5584</v>
       </c>
       <c r="AD13">
-        <v>17483.00000000001</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
@@ -4090,7 +4090,7 @@
         <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
@@ -4102,7 +4102,7 @@
         <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
         <v>20791</v>
@@ -4114,7 +4114,7 @@
         <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4370,16 +4370,16 @@
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45848.99999999999</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40635.99999999999</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
         <v>5213</v>
       </c>
       <c r="AD29">
-        <v>20564.00000000001</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195908</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -6151,16 +6151,16 @@
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482.00000000001</v>
+        <v>39482</v>
       </c>
       <c r="AB42">
-        <v>34271.00000000001</v>
+        <v>34271</v>
       </c>
       <c r="AC42">
         <v>5211</v>
       </c>
       <c r="AD42">
-        <v>21033.99999999999</v>
+        <v>21034</v>
       </c>
       <c r="AE42">
         <v>60516</v>
@@ -6206,6 +6206,417 @@
       </c>
       <c r="AS42">
         <v>10.6963</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B43">
+        <v>126145</v>
+      </c>
+      <c r="C43">
+        <v>79302.32518062349</v>
+      </c>
+      <c r="D43">
+        <v>39121</v>
+      </c>
+      <c r="E43">
+        <v>7721.674819376505</v>
+      </c>
+      <c r="F43">
+        <v>8156.410363246972</v>
+      </c>
+      <c r="G43">
+        <v>71145.91481737651</v>
+      </c>
+      <c r="H43">
+        <v>101628.7020941492</v>
+      </c>
+      <c r="I43">
+        <v>92820.26808109933</v>
+      </c>
+      <c r="J43">
+        <v>8808.434096382529</v>
+      </c>
+      <c r="K43">
+        <v>274.1440487995934</v>
+      </c>
+      <c r="L43">
+        <v>7721.674819376505</v>
+      </c>
+      <c r="M43">
+        <v>4823.07072441063</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>88809.81250156248</v>
+      </c>
+      <c r="P43">
+        <v>54025.32070566079</v>
+      </c>
+      <c r="Q43">
+        <v>46403.91405071625</v>
+      </c>
+      <c r="R43">
+        <v>7621.406654944542</v>
+      </c>
+      <c r="S43">
+        <v>34784.4917959017</v>
+      </c>
+      <c r="T43">
+        <v>31135.30487245939</v>
+      </c>
+      <c r="U43">
+        <v>2462.159565336955</v>
+      </c>
+      <c r="V43">
+        <v>1187.027441437988</v>
+      </c>
+      <c r="W43">
+        <v>60829</v>
+      </c>
+      <c r="X43">
+        <v>53951</v>
+      </c>
+      <c r="Y43">
+        <v>6878</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>39980</v>
+      </c>
+      <c r="AB43">
+        <v>33102</v>
+      </c>
+      <c r="AC43">
+        <v>6878</v>
+      </c>
+      <c r="AD43">
+        <v>20841</v>
+      </c>
+      <c r="AE43">
+        <v>60821</v>
+      </c>
+      <c r="AF43">
+        <v>53943</v>
+      </c>
+      <c r="AG43">
+        <v>6878</v>
+      </c>
+      <c r="AH43">
+        <v>24516.29790585078</v>
+      </c>
+      <c r="AI43">
+        <v>-5796.268081099333</v>
+      </c>
+      <c r="AJ43">
+        <v>30312.56590361747</v>
+      </c>
+      <c r="AK43">
+        <v>-36304.70209414922</v>
+      </c>
+      <c r="AL43">
+        <v>-59739.26808109933</v>
+      </c>
+      <c r="AM43">
+        <v>23434.56590361747</v>
+      </c>
+      <c r="AN43">
+        <v>-59747.26808109933</v>
+      </c>
+      <c r="AO43">
+        <v>162457.7020941492</v>
+      </c>
+      <c r="AP43">
+        <v>259475.37</v>
+      </c>
+      <c r="AQ43">
+        <v>0.4821514923302548</v>
+      </c>
+      <c r="AR43">
+        <v>0.154080134850564</v>
+      </c>
+      <c r="AS43">
+        <v>12.0001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B44">
+        <v>124025</v>
+      </c>
+      <c r="C44">
+        <v>77251.88611664317</v>
+      </c>
+      <c r="D44">
+        <v>39017</v>
+      </c>
+      <c r="E44">
+        <v>7756.113883356828</v>
+      </c>
+      <c r="F44">
+        <v>8329.857906867461</v>
+      </c>
+      <c r="G44">
+        <v>68922.02820977572</v>
+      </c>
+      <c r="H44">
+        <v>101703.8873100763</v>
+      </c>
+      <c r="I44">
+        <v>92940.77692497036</v>
+      </c>
+      <c r="J44">
+        <v>8763.110385105954</v>
+      </c>
+      <c r="K44">
+        <v>274.3460359372552</v>
+      </c>
+      <c r="L44">
+        <v>7756.113883356828</v>
+      </c>
+      <c r="M44">
+        <v>4837.432328611813</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>88835.99506217041</v>
+      </c>
+      <c r="P44">
+        <v>54159.16825169505</v>
+      </c>
+      <c r="Q44">
+        <v>46601.39213975102</v>
+      </c>
+      <c r="R44">
+        <v>7557.776111944027</v>
+      </c>
+      <c r="S44">
+        <v>34676.82681047536</v>
+      </c>
+      <c r="T44">
+        <v>31209.39388514698</v>
+      </c>
+      <c r="U44">
+        <v>2262.098652166454</v>
+      </c>
+      <c r="V44">
+        <v>1205.334273161926</v>
+      </c>
+      <c r="W44">
+        <v>60792</v>
+      </c>
+      <c r="X44">
+        <v>54067</v>
+      </c>
+      <c r="Y44">
+        <v>6725</v>
+      </c>
+      <c r="Z44">
+        <v>392</v>
+      </c>
+      <c r="AA44">
+        <v>39533</v>
+      </c>
+      <c r="AB44">
+        <v>32808</v>
+      </c>
+      <c r="AC44">
+        <v>6725</v>
+      </c>
+      <c r="AD44">
+        <v>20867</v>
+      </c>
+      <c r="AE44">
+        <v>60400</v>
+      </c>
+      <c r="AF44">
+        <v>53675</v>
+      </c>
+      <c r="AG44">
+        <v>6725</v>
+      </c>
+      <c r="AH44">
+        <v>22321.1126899237</v>
+      </c>
+      <c r="AI44">
+        <v>-7932.776924970356</v>
+      </c>
+      <c r="AJ44">
+        <v>30253.88961489405</v>
+      </c>
+      <c r="AK44">
+        <v>-38078.8873100763</v>
+      </c>
+      <c r="AL44">
+        <v>-61607.77692497036</v>
+      </c>
+      <c r="AM44">
+        <v>23528.88961489405</v>
+      </c>
+      <c r="AN44">
+        <v>-61999.77692497036</v>
+      </c>
+      <c r="AO44">
+        <v>162495.8873100763</v>
+      </c>
+      <c r="AP44">
+        <v>257626.49</v>
+      </c>
+      <c r="AQ44">
+        <v>0.4869985889941544</v>
+      </c>
+      <c r="AR44">
+        <v>0.153450834966544</v>
+      </c>
+      <c r="AS44">
+        <v>13.4067</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B45">
+        <v>122890</v>
+      </c>
+      <c r="C45">
+        <v>76402.00801851097</v>
+      </c>
+      <c r="D45">
+        <v>38737</v>
+      </c>
+      <c r="E45">
+        <v>7750.991981489027</v>
+      </c>
+      <c r="F45">
+        <v>8297.574145759358</v>
+      </c>
+      <c r="G45">
+        <v>68104.43387275162</v>
+      </c>
+      <c r="H45">
+        <v>101863.0975318703</v>
+      </c>
+      <c r="I45">
+        <v>94226.7577420106</v>
+      </c>
+      <c r="J45">
+        <v>7636.339862622969</v>
+      </c>
+      <c r="K45">
+        <v>273.816578380581</v>
+      </c>
+      <c r="L45">
+        <v>7750.991981489027</v>
+      </c>
+      <c r="M45">
+        <v>4836.816170906339</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>89001.47280109435</v>
+      </c>
+      <c r="P45">
+        <v>53546.49834099773</v>
+      </c>
+      <c r="Q45">
+        <v>46337.41050119331</v>
+      </c>
+      <c r="R45">
+        <v>7209.087912567669</v>
+      </c>
+      <c r="S45">
+        <v>35454.97446009663</v>
+      </c>
+      <c r="T45">
+        <v>33099.86735258164</v>
+      </c>
+      <c r="U45">
+        <v>1927.855157459689</v>
+      </c>
+      <c r="V45">
+        <v>427.2519500553</v>
+      </c>
+      <c r="W45">
+        <v>60348</v>
+      </c>
+      <c r="X45">
+        <v>53121</v>
+      </c>
+      <c r="Y45">
+        <v>7227</v>
+      </c>
+      <c r="Z45">
+        <v>392</v>
+      </c>
+      <c r="AA45">
+        <v>38991</v>
+      </c>
+      <c r="AB45">
+        <v>31764</v>
+      </c>
+      <c r="AC45">
+        <v>7227</v>
+      </c>
+      <c r="AD45">
+        <v>20965</v>
+      </c>
+      <c r="AE45">
+        <v>59956</v>
+      </c>
+      <c r="AF45">
+        <v>52729</v>
+      </c>
+      <c r="AG45">
+        <v>7227</v>
+      </c>
+      <c r="AH45">
+        <v>21026.9024681297</v>
+      </c>
+      <c r="AI45">
+        <v>-10073.7577420106</v>
+      </c>
+      <c r="AJ45">
+        <v>31100.66013737703</v>
+      </c>
+      <c r="AK45">
+        <v>-38929.0975318703</v>
+      </c>
+      <c r="AL45">
+        <v>-62802.7577420106</v>
+      </c>
+      <c r="AM45">
+        <v>23873.66013737703</v>
+      </c>
+      <c r="AN45">
+        <v>-63194.7577420106</v>
+      </c>
+      <c r="AO45">
+        <v>162211.0975318703</v>
+      </c>
+      <c r="AP45">
+        <v>258126.08</v>
+      </c>
+      <c r="AQ45">
+        <v>0.4878834730246562</v>
+      </c>
+      <c r="AR45">
+        <v>0.1510540895364002</v>
+      </c>
+      <c r="AS45">
+        <v>13.7432</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS45"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,67 +596,67 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>93206.00000000002</v>
+        <v>93206</v>
       </c>
       <c r="C2">
-        <v>48432.21042132787</v>
+        <v>48431.13538884842</v>
       </c>
       <c r="D2">
         <v>43241</v>
       </c>
       <c r="E2">
-        <v>1532.78957867213</v>
+        <v>1533.864611151574</v>
       </c>
       <c r="F2">
-        <v>8784.572606949349</v>
+        <v>8790.733727172183</v>
       </c>
       <c r="G2">
-        <v>39647.63781437853</v>
+        <v>39640.40166167624</v>
       </c>
       <c r="H2">
-        <v>78817.44736771168</v>
+        <v>78872.72652477678</v>
       </c>
       <c r="I2">
-        <v>68320.23398118447</v>
+        <v>68368.15084567452</v>
       </c>
       <c r="J2">
-        <v>10497.21338652721</v>
+        <v>10504.57567910227</v>
       </c>
       <c r="K2">
-        <v>347.0233442057309</v>
+        <v>347.2667314072995</v>
       </c>
       <c r="L2">
-        <v>1532.78957867213</v>
+        <v>1533.864611151574</v>
       </c>
       <c r="M2">
-        <v>3524.284982613149</v>
+        <v>3526.756764047369</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>73413.34946222066</v>
+        <v>73464.83841817053</v>
       </c>
       <c r="P2">
-        <v>42939.32177804135</v>
+        <v>42969.4375657522</v>
       </c>
       <c r="Q2">
-        <v>32656.18244062862</v>
+        <v>32679.08607806642</v>
       </c>
       <c r="R2">
-        <v>10283.13947219452</v>
+        <v>10290.35162256211</v>
       </c>
       <c r="S2">
-        <v>30474.02768417931</v>
+        <v>30495.40085241833</v>
       </c>
       <c r="T2">
-        <v>25534.34644310861</v>
+        <v>25552.25513204392</v>
       </c>
       <c r="U2">
-        <v>4725.607191956223</v>
+        <v>4728.921528957946</v>
       </c>
       <c r="V2">
-        <v>214.0739143326954</v>
+        <v>214.2240565401527</v>
       </c>
       <c r="W2">
         <v>60658</v>
@@ -692,40 +692,40 @@
         <v>5559</v>
       </c>
       <c r="AH2">
-        <v>14388.55263228834</v>
+        <v>14333.27347522322</v>
       </c>
       <c r="AI2">
-        <v>-18355.23398118447</v>
+        <v>-18403.15084567452</v>
       </c>
       <c r="AJ2">
-        <v>32743.78661347279</v>
+        <v>32736.42432089774</v>
       </c>
       <c r="AK2">
-        <v>-44872.44736771166</v>
+        <v>-44927.72652477678</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-72105.15084567452</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>27177.42432089774</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-73502.15084567452</v>
       </c>
       <c r="AO2">
-        <v>139475.4473677117</v>
+        <v>139530.7265247768</v>
       </c>
       <c r="AP2">
         <v>263769.22</v>
       </c>
       <c r="AQ2">
-        <v>0.6358067077226787</v>
+        <v>0.6358067077226788</v>
       </c>
       <c r="AR2">
         <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
-        <v>7.4194</v>
+        <v>7.4142</v>
       </c>
     </row>
     <row r="3">
@@ -736,64 +736,64 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52321.66853164957</v>
+        <v>52320.58078816316</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="F3">
-        <v>8876.629654666533</v>
+        <v>8882.889979561876</v>
       </c>
       <c r="G3">
-        <v>43445.03887698304</v>
+        <v>43437.69080860129</v>
       </c>
       <c r="H3">
-        <v>82039.85013016526</v>
+        <v>82097.70949077405</v>
       </c>
       <c r="I3">
-        <v>70274.24540106722</v>
+        <v>70323.80696047669</v>
       </c>
       <c r="J3">
-        <v>11765.60487292706</v>
+        <v>11773.90267422781</v>
       </c>
       <c r="K3">
-        <v>342.488961123017</v>
+        <v>342.7305046201676</v>
       </c>
       <c r="L3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="M3">
-        <v>4913.384009089994</v>
+        <v>4916.849218457641</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75241.64569160182</v>
+        <v>75294.71055585941</v>
       </c>
       <c r="P3">
-        <v>45911.31215211357</v>
+        <v>45943.69152825355</v>
       </c>
       <c r="Q3">
-        <v>34936.71782185338</v>
+        <v>34961.35726416995</v>
       </c>
       <c r="R3">
-        <v>10974.5944740892</v>
+        <v>10982.33440801405</v>
       </c>
       <c r="S3">
-        <v>29330.33339565924</v>
+        <v>29351.01888367541</v>
       </c>
       <c r="T3">
-        <v>25497.94151912207</v>
+        <v>25515.92417743746</v>
       </c>
       <c r="U3">
-        <v>3041.381621528327</v>
+        <v>3043.526583954633</v>
       </c>
       <c r="V3">
-        <v>791.0103988378615</v>
+        <v>791.5682662137655</v>
       </c>
       <c r="W3">
         <v>58285</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>12008.14986983474</v>
+        <v>11950.29050922595</v>
       </c>
       <c r="AI3">
-        <v>-16410.24540106722</v>
+        <v>-16459.80696047669</v>
       </c>
       <c r="AJ3">
-        <v>28418.39512707294</v>
+        <v>28410.09732577219</v>
       </c>
       <c r="AK3">
-        <v>-44991.85013016526</v>
+        <v>-45049.70949077405</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-68239.80696047669</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>23190.09732577219</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-69524.80696047669</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>140382.7094907741</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9527</v>
+        <v>6.9478</v>
       </c>
     </row>
     <row r="4">
@@ -870,67 +870,67 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213.00000000002</v>
+        <v>95213</v>
       </c>
       <c r="C4">
-        <v>52943.16064178856</v>
+        <v>52942.0817820074</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="F4">
-        <v>8945.758995606473</v>
+        <v>8951.982218883044</v>
       </c>
       <c r="G4">
-        <v>43997.40164618209</v>
+        <v>43990.09956312436</v>
       </c>
       <c r="H4">
-        <v>81452.36596963462</v>
+        <v>81509.02927345075</v>
       </c>
       <c r="I4">
-        <v>70049.96607530171</v>
+        <v>70098.69716448228</v>
       </c>
       <c r="J4">
-        <v>11402.39989433291</v>
+        <v>11410.33210896847</v>
       </c>
       <c r="K4">
-        <v>370.3677492909181</v>
+        <v>370.6254000055653</v>
       </c>
       <c r="L4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="M4">
-        <v>4932.295200489405</v>
+        <v>4935.726410106575</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74598.86366164284</v>
+        <v>74650.75924534601</v>
       </c>
       <c r="P4">
-        <v>46171.38048495634</v>
+        <v>46203.50015304561</v>
       </c>
       <c r="Q4">
-        <v>35139.53701128969</v>
+        <v>35163.98224670952</v>
       </c>
       <c r="R4">
-        <v>11031.84347366665</v>
+        <v>11039.51790633609</v>
       </c>
       <c r="S4">
-        <v>28427.4831766865</v>
+        <v>28447.25909230041</v>
       </c>
       <c r="T4">
-        <v>24889.26464045381</v>
+        <v>24906.5791524056</v>
       </c>
       <c r="U4">
-        <v>3167.662115566431</v>
+        <v>3169.865737262431</v>
       </c>
       <c r="V4">
-        <v>370.5564206662588</v>
+        <v>370.8142026323844</v>
       </c>
       <c r="W4">
         <v>59426</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>13760.6340303654</v>
+        <v>13703.97072654925</v>
       </c>
       <c r="AI4">
-        <v>-15555.96607530171</v>
+        <v>-15604.69716448228</v>
       </c>
       <c r="AJ4">
-        <v>29316.60010566709</v>
+        <v>29308.66789103153</v>
       </c>
       <c r="AK4">
-        <v>-44239.3659696346</v>
+        <v>-44296.02927345075</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-68429.69716448228</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>24133.66789103153</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-69855.69716448228</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>140935.0292734508</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953849</v>
+        <v>0.6091605137953851</v>
       </c>
       <c r="AR4">
         <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1924</v>
+        <v>7.1874</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51706.75148945306</v>
+        <v>51705.67601246106</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="F5">
-        <v>8869.395094197842</v>
+        <v>8875.588140509184</v>
       </c>
       <c r="G5">
-        <v>42837.35639525522</v>
+        <v>42830.08787195187</v>
       </c>
       <c r="H5">
-        <v>80223.69800332779</v>
+        <v>80279.71412074337</v>
       </c>
       <c r="I5">
-        <v>68458.74027159036</v>
+        <v>68506.54151896015</v>
       </c>
       <c r="J5">
-        <v>11764.95786592239</v>
+        <v>11773.17273606188</v>
       </c>
       <c r="K5">
-        <v>341.452149643068</v>
+        <v>341.6905682672683</v>
       </c>
       <c r="L5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="M5">
-        <v>4913.17132735763</v>
+        <v>4916.601944354926</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73428.82601578016</v>
+        <v>73480.09762058224</v>
       </c>
       <c r="P5">
-        <v>44873.82105093661</v>
+        <v>44905.15415189602</v>
       </c>
       <c r="Q5">
-        <v>33600.03582738447</v>
+        <v>33623.49701901386</v>
       </c>
       <c r="R5">
-        <v>11273.78535773711</v>
+        <v>11281.65726716081</v>
       </c>
       <c r="S5">
-        <v>28555.00496484354</v>
+        <v>28574.94346868622</v>
       </c>
       <c r="T5">
-        <v>25287.92214588589</v>
+        <v>25305.5794123966</v>
       </c>
       <c r="U5">
-        <v>2775.910310772369</v>
+        <v>2777.848587388549</v>
       </c>
       <c r="V5">
-        <v>491.1725081852826</v>
+        <v>491.5154689010635</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>11439.30199667221</v>
+        <v>11383.28587925663</v>
       </c>
       <c r="AI5">
-        <v>-15211.74027159036</v>
+        <v>-15259.54151896015</v>
       </c>
       <c r="AJ5">
-        <v>26651.04213407761</v>
+        <v>26642.82726393813</v>
       </c>
       <c r="AK5">
-        <v>-46260.69800332779</v>
+        <v>-46316.71412074337</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-67763.54151896015</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>21446.82726393813</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-68749.54151896015</v>
       </c>
       <c r="AO5">
-        <v>138909.6980033278</v>
+        <v>138965.7141207434</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1136,7 +1136,7 @@
         <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4524</v>
+        <v>7.4472</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51129.47699003304</v>
+        <v>51128.4043874506</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="F6">
-        <v>8672.528409854122</v>
+        <v>8678.590343307256</v>
       </c>
       <c r="G6">
-        <v>42456.94858017892</v>
+        <v>42449.81404414335</v>
       </c>
       <c r="H6">
-        <v>80792.45694866077</v>
+        <v>80848.92934914106</v>
       </c>
       <c r="I6">
-        <v>68857.66730247428</v>
+        <v>68905.79751055193</v>
       </c>
       <c r="J6">
-        <v>11934.7896461865</v>
+        <v>11943.13183858913</v>
       </c>
       <c r="K6">
-        <v>338.8779786691025</v>
+        <v>339.1148479716106</v>
       </c>
       <c r="L6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="M6">
-        <v>4902.492410606345</v>
+        <v>4905.919160147324</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74016.56354941837</v>
+        <v>74068.29972847273</v>
       </c>
       <c r="P6">
-        <v>44928.81927840313</v>
+        <v>44960.22367395221</v>
       </c>
       <c r="Q6">
-        <v>33481.6469655858</v>
+        <v>33505.05000403259</v>
       </c>
       <c r="R6">
-        <v>11447.17231281734</v>
+        <v>11455.17366991962</v>
       </c>
       <c r="S6">
-        <v>29087.74427101523</v>
+        <v>29108.07605452053</v>
       </c>
       <c r="T6">
-        <v>26405.42943878784</v>
+        <v>26423.88633491948</v>
       </c>
       <c r="U6">
-        <v>2194.697498858233</v>
+        <v>2196.231550931527</v>
       </c>
       <c r="V6">
-        <v>487.6173333691535</v>
+        <v>487.9581686695164</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10818.54305133924</v>
+        <v>10762.07065085894</v>
       </c>
       <c r="AI6">
-        <v>-16193.66730247428</v>
+        <v>-16241.79751055193</v>
       </c>
       <c r="AJ6">
-        <v>27012.21035381351</v>
+        <v>27003.86816141087</v>
       </c>
       <c r="AK6">
-        <v>-46781.45694866077</v>
+        <v>-46837.92934914106</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-68666.79751055193</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>21828.86816141087</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-69652.79751055193</v>
       </c>
       <c r="AO6">
-        <v>139378.4569486608</v>
+        <v>139434.9293491411</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4446</v>
+        <v>7.4394</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52364.30885172918</v>
+        <v>52363.23865755962</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="F7">
-        <v>8696.179850616174</v>
+        <v>8702.247956951733</v>
       </c>
       <c r="G7">
-        <v>43668.129001113</v>
+        <v>43660.99070060789</v>
       </c>
       <c r="H7">
-        <v>79622.22895686104</v>
+        <v>79677.78854282686</v>
       </c>
       <c r="I7">
-        <v>67526.84269105439</v>
+        <v>67573.962238832</v>
       </c>
       <c r="J7">
-        <v>12095.38626580666</v>
+        <v>12103.82630399485</v>
       </c>
       <c r="K7">
-        <v>338.3054188513269</v>
+        <v>338.5414849505509</v>
       </c>
       <c r="L7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="M7">
-        <v>4901.864615879742</v>
+        <v>4905.285087425022</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72848.36777385917</v>
+        <v>72899.20062801091</v>
       </c>
       <c r="P7">
-        <v>44459.59408901345</v>
+        <v>44490.61754404799</v>
       </c>
       <c r="Q7">
-        <v>33268.97295267724</v>
+        <v>33292.187705479</v>
       </c>
       <c r="R7">
-        <v>11190.62113633621</v>
+        <v>11198.42983856899</v>
       </c>
       <c r="S7">
-        <v>28388.77368484572</v>
+        <v>28408.58308396291</v>
       </c>
       <c r="T7">
-        <v>25430.69287811943</v>
+        <v>25448.43815837147</v>
       </c>
       <c r="U7">
-        <v>2053.315677255843</v>
+        <v>2054.748460165591</v>
       </c>
       <c r="V7">
-        <v>904.7651294704517</v>
+        <v>905.3964654258532</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>13538.77104313896</v>
+        <v>13483.21145717314</v>
       </c>
       <c r="AI7">
-        <v>-13628.84269105439</v>
+        <v>-13675.962238832</v>
       </c>
       <c r="AJ7">
-        <v>27167.61373419334</v>
+        <v>27159.17369600515</v>
       </c>
       <c r="AK7">
-        <v>-48561.22895686104</v>
+        <v>-48616.78854282686</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-70526.962238832</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>21910.17369600515</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-71512.962238832</v>
       </c>
       <c r="AO7">
-        <v>142708.228956861</v>
+        <v>142763.7885428269</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4573</v>
+        <v>7.4521</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49368.60578775706</v>
+        <v>49367.53001146775</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="F8">
-        <v>8633.890742862901</v>
+        <v>8639.983743525765</v>
       </c>
       <c r="G8">
-        <v>40734.71504489415</v>
+        <v>40727.54626794198</v>
       </c>
       <c r="H8">
-        <v>77988.67710209171</v>
+        <v>78043.71428931483</v>
       </c>
       <c r="I8">
-        <v>66706.94115276607</v>
+        <v>66754.0167353471</v>
       </c>
       <c r="J8">
-        <v>11281.73594932564</v>
+        <v>11289.69755396772</v>
       </c>
       <c r="K8">
-        <v>334.1376922011359</v>
+        <v>334.3734956460373</v>
       </c>
       <c r="L8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="M8">
-        <v>4885.44270800539</v>
+        <v>4888.89040111905</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71244.70248964224</v>
+        <v>71294.98040401749</v>
       </c>
       <c r="P8">
-        <v>44239.09884270045</v>
+        <v>44270.31870250652</v>
       </c>
       <c r="Q8">
-        <v>33080.09872936317</v>
+        <v>33103.44360011593</v>
       </c>
       <c r="R8">
-        <v>11158.99998740697</v>
+        <v>11166.8749763714</v>
       </c>
       <c r="S8">
-        <v>27005.60364694179</v>
+        <v>27024.66170151097</v>
       </c>
       <c r="T8">
-        <v>25178.00551574759</v>
+        <v>25195.77382077552</v>
       </c>
       <c r="U8">
-        <v>1704.862295205833</v>
+        <v>1706.065429158318</v>
       </c>
       <c r="V8">
-        <v>122.7359619186742</v>
+        <v>122.8225775963102</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>12649.32289790829</v>
+        <v>12594.28571068517</v>
       </c>
       <c r="AI8">
-        <v>-15813.94115276607</v>
+        <v>-15861.0167353471</v>
       </c>
       <c r="AJ8">
-        <v>28463.26405067436</v>
+        <v>28455.30244603229</v>
       </c>
       <c r="AK8">
-        <v>-47350.67710209171</v>
+        <v>-47405.71428931483</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-70725.0167353471</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>23319.30244603229</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-71711.0167353471</v>
       </c>
       <c r="AO8">
-        <v>138974.6771020917</v>
+        <v>139029.7142893148</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1547,7 +1547,7 @@
         <v>0.169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9409</v>
+        <v>7.9353</v>
       </c>
     </row>
     <row r="9">
@@ -1558,64 +1558,64 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46565.54670958425</v>
+        <v>46564.48597672994</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="F9">
-        <v>8640.524802036545</v>
+        <v>8646.556766687079</v>
       </c>
       <c r="G9">
-        <v>37925.0219075477</v>
+        <v>37917.92921004287</v>
       </c>
       <c r="H9">
-        <v>76903.66835154883</v>
+        <v>76957.35492957747</v>
       </c>
       <c r="I9">
-        <v>65806.78558752616</v>
+        <v>65852.72541334966</v>
       </c>
       <c r="J9">
-        <v>11096.88276402267</v>
+        <v>11104.6295162278</v>
       </c>
       <c r="K9">
-        <v>331.7619053447073</v>
+        <v>331.9935088793632</v>
       </c>
       <c r="L9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="M9">
-        <v>4877.488587269145</v>
+        <v>4880.893570116351</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70174.96456851922</v>
+        <v>70223.95382731171</v>
       </c>
       <c r="P9">
-        <v>44302.54531435495</v>
+        <v>44333.47299448868</v>
       </c>
       <c r="Q9">
-        <v>33217.34159863904</v>
+        <v>33240.53067973056</v>
       </c>
       <c r="R9">
-        <v>11085.20371571591</v>
+        <v>11092.94231475812</v>
       </c>
       <c r="S9">
-        <v>25872.41913177574</v>
+        <v>25890.48071034905</v>
       </c>
       <c r="T9">
-        <v>24600.41661057192</v>
+        <v>24617.59020208206</v>
       </c>
       <c r="U9">
-        <v>1260.323595285594</v>
+        <v>1261.20342927128</v>
       </c>
       <c r="V9">
-        <v>11.67904830675462</v>
+        <v>11.68720146968769</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1651,28 +1651,28 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10542.33164845117</v>
+        <v>10488.64507042253</v>
       </c>
       <c r="AI9">
-        <v>-17721.78558752616</v>
+        <v>-17767.72541334966</v>
       </c>
       <c r="AJ9">
-        <v>28264.11723597733</v>
+        <v>28256.3704837722</v>
       </c>
       <c r="AK9">
-        <v>-49357.66835154883</v>
+        <v>-49411.35492957747</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-72479.72541334966</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>23068.3704837722</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-73319.72541334966</v>
       </c>
       <c r="AO9">
-        <v>137643.6683515488</v>
+        <v>137697.3549295775</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1684,7 +1684,7 @@
         <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.1707</v>
+        <v>8.164999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47850.0811599892</v>
+        <v>47849.01274229386</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="F10">
-        <v>8664.637994062661</v>
+        <v>8670.700826162212</v>
       </c>
       <c r="G10">
-        <v>39185.44316592654</v>
+        <v>39178.31191613165</v>
       </c>
       <c r="H10">
-        <v>79530.97021516721</v>
+        <v>79586.61973214177</v>
       </c>
       <c r="I10">
-        <v>68253.9737235948</v>
+        <v>68301.73248548387</v>
       </c>
       <c r="J10">
-        <v>11276.99661424471</v>
+        <v>11284.88736941604</v>
       </c>
       <c r="K10">
-        <v>335.2438725189529</v>
+        <v>335.4784498103387</v>
       </c>
       <c r="L10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="M10">
-        <v>4893.744571751025</v>
+        <v>4897.168829255717</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72775.06293088643</v>
+        <v>72825.98519536956</v>
       </c>
       <c r="P10">
-        <v>44671.54174538139</v>
+        <v>44702.7993763887</v>
       </c>
       <c r="Q10">
-        <v>33406.41392085184</v>
+        <v>33429.78910153325</v>
       </c>
       <c r="R10">
-        <v>11265.12794720185</v>
+        <v>11273.01039761358</v>
       </c>
       <c r="S10">
-        <v>28103.52118550504</v>
+        <v>28123.18581898086</v>
       </c>
       <c r="T10">
-        <v>26436.81260580486</v>
+        <v>26455.31100772148</v>
       </c>
       <c r="U10">
-        <v>1654.839912657327</v>
+        <v>1655.997839456918</v>
       </c>
       <c r="V10">
-        <v>11.8686670428617</v>
+        <v>11.87697180245762</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9789.02978483279</v>
+        <v>9733.380267858229</v>
       </c>
       <c r="AI10">
-        <v>-18876.9737235948</v>
+        <v>-18924.73248548387</v>
       </c>
       <c r="AJ10">
-        <v>28666.00338575529</v>
+        <v>28658.11263058396</v>
       </c>
       <c r="AK10">
-        <v>-49310.97021516721</v>
+        <v>-49366.61973214177</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-72822.73248548387</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>23456.11263058396</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-73662.73248548387</v>
       </c>
       <c r="AO10">
-        <v>139470.9702151672</v>
+        <v>139526.6197321418</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.1518</v>
+        <v>8.146100000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1832,64 +1832,64 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48152.49065994762</v>
+        <v>48151.40566389269</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="F11">
-        <v>8194.895428649448</v>
+        <v>8200.697304682648</v>
       </c>
       <c r="G11">
-        <v>39957.59523129818</v>
+        <v>39950.70835921004</v>
       </c>
       <c r="H11">
-        <v>79093.44433825265</v>
+        <v>79149.44143584647</v>
       </c>
       <c r="I11">
-        <v>68147.09459207865</v>
+        <v>68195.3418208918</v>
       </c>
       <c r="J11">
-        <v>10946.34974617399</v>
+        <v>10954.09961495467</v>
       </c>
       <c r="K11">
-        <v>337.8329837278291</v>
+        <v>338.0721649484536</v>
       </c>
       <c r="L11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="M11">
-        <v>4905.193069122594</v>
+        <v>4908.665880014905</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72317.90894534985</v>
+        <v>72369.10905477581</v>
       </c>
       <c r="P11">
-        <v>43116.32926632493</v>
+        <v>43146.85504906223</v>
       </c>
       <c r="Q11">
-        <v>32304.17106259387</v>
+        <v>32327.04198236244</v>
       </c>
       <c r="R11">
-        <v>10812.15820373106</v>
+        <v>10819.81306669979</v>
       </c>
       <c r="S11">
-        <v>29201.57967902492</v>
+        <v>29222.25400571358</v>
       </c>
       <c r="T11">
-        <v>26836.37754912061</v>
+        <v>26855.37734442926</v>
       </c>
       <c r="U11">
-        <v>2231.010587461368</v>
+        <v>2232.590113029437</v>
       </c>
       <c r="V11">
-        <v>134.1915424429357</v>
+        <v>134.2865482548752</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1925,28 +1925,28 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>10446.55566174735</v>
+        <v>10390.55856415353</v>
       </c>
       <c r="AI11">
-        <v>-18462.09459207865</v>
+        <v>-18510.3418208918</v>
       </c>
       <c r="AJ11">
-        <v>28908.65025382601</v>
+        <v>28900.90038504534</v>
       </c>
       <c r="AK11">
-        <v>-49153.44433825265</v>
+        <v>-49209.44143584647</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-72841.3418208918</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>23631.90038504534</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-73681.3418208918</v>
       </c>
       <c r="AO11">
-        <v>139533.4443382527</v>
+        <v>139589.4414358465</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1958,7 +1958,7 @@
         <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.056699999999999</v>
+        <v>8.051</v>
       </c>
     </row>
     <row r="12">
@@ -1969,64 +1969,64 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46432.40058529035</v>
+        <v>46431.33823031125</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="F12">
-        <v>8533.597479865528</v>
+        <v>8539.586983881118</v>
       </c>
       <c r="G12">
-        <v>37898.80310542482</v>
+        <v>37891.75124643013</v>
       </c>
       <c r="H12">
-        <v>76239.90845768737</v>
+        <v>76293.41921196572</v>
       </c>
       <c r="I12">
-        <v>65121.73229012988</v>
+        <v>65167.43949368314</v>
       </c>
       <c r="J12">
-        <v>11118.1761675575</v>
+        <v>11125.97971828259</v>
       </c>
       <c r="K12">
-        <v>333.4149998790722</v>
+        <v>333.6490149571615</v>
       </c>
       <c r="L12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="M12">
-        <v>4834.769390765957</v>
+        <v>4838.162786194878</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69558.1246523327</v>
+        <v>69606.94564112493</v>
       </c>
       <c r="P12">
-        <v>42709.46574116623</v>
+        <v>42739.44237378382</v>
       </c>
       <c r="Q12">
-        <v>31860.87043800034</v>
+        <v>31883.23273149717</v>
       </c>
       <c r="R12">
-        <v>10848.59530316589</v>
+        <v>10856.20964228665</v>
       </c>
       <c r="S12">
-        <v>26848.65891116647</v>
+        <v>26867.50326734111</v>
       </c>
       <c r="T12">
-        <v>24960.7528962198</v>
+        <v>24978.27218161576</v>
       </c>
       <c r="U12">
-        <v>1618.325150555058</v>
+        <v>1619.461009729416</v>
       </c>
       <c r="V12">
-        <v>269.5808643916125</v>
+        <v>269.770075995934</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,28 +2062,28 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12436.09154231263</v>
+        <v>12382.58078803428</v>
       </c>
       <c r="AI12">
-        <v>-17175.73229012988</v>
+        <v>-17221.43949368314</v>
       </c>
       <c r="AJ12">
-        <v>29611.8238324425</v>
+        <v>29604.02028171741</v>
       </c>
       <c r="AK12">
-        <v>-47363.90845768737</v>
+        <v>-47417.41921196572</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-71869.43949368314</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>24452.02028171741</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-72709.43949368314</v>
       </c>
       <c r="AO12">
-        <v>136879.9084576874</v>
+        <v>136933.4192119657</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2095,7 +2095,7 @@
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.269399999999999</v>
+        <v>8.2636</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45372.41632722959</v>
+        <v>45371.34075107717</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="F13">
-        <v>8708.262326764767</v>
+        <v>8714.338156090873</v>
       </c>
       <c r="G13">
-        <v>36664.15400046482</v>
+        <v>36657.00259498629</v>
       </c>
       <c r="H13">
-        <v>76028.17046469243</v>
+        <v>76081.21597140617</v>
       </c>
       <c r="I13">
-        <v>64989.21739874988</v>
+        <v>65034.56093321581</v>
       </c>
       <c r="J13">
-        <v>11038.9531882622</v>
+        <v>11046.65516059538</v>
       </c>
       <c r="K13">
-        <v>341.3249666678898</v>
+        <v>341.5631120250685</v>
       </c>
       <c r="L13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="M13">
-        <v>4924.54845693736</v>
+        <v>4927.984356639247</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69220.71336831676</v>
+        <v>69269.00925381902</v>
       </c>
       <c r="P13">
-        <v>43670.82602473304</v>
+        <v>43701.29553466509</v>
       </c>
       <c r="Q13">
-        <v>32748.90242559906</v>
+        <v>32771.75161574617</v>
       </c>
       <c r="R13">
-        <v>10921.92372145365</v>
+        <v>10929.54404132393</v>
       </c>
       <c r="S13">
-        <v>25549.88734358372</v>
+        <v>25567.71371915393</v>
       </c>
       <c r="T13">
-        <v>24342.51256834612</v>
+        <v>24359.49654817861</v>
       </c>
       <c r="U13">
-        <v>1090.345308429048</v>
+        <v>1091.106051703878</v>
       </c>
       <c r="V13">
-        <v>117.0294668085575</v>
+        <v>117.1111192714454</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>11821.82953530757</v>
+        <v>11768.78402859383</v>
       </c>
       <c r="AI13">
-        <v>-18075.21739874988</v>
+        <v>-18120.56093321581</v>
       </c>
       <c r="AJ13">
-        <v>29897.0468117378</v>
+        <v>29889.34483940463</v>
       </c>
       <c r="AK13">
-        <v>-48878.17046469243</v>
+        <v>-48931.21597140617</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-73236.56093321581</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>24305.34483940463</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-74154.56093321581</v>
       </c>
       <c r="AO13">
-        <v>137646.1704646924</v>
+        <v>137699.2159714062</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.1753</v>
+        <v>8.169600000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90325.99999999999</v>
+        <v>90326</v>
       </c>
       <c r="C14">
-        <v>47320.75757867617</v>
+        <v>47319.68341284758</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="F14">
-        <v>8720.194794250077</v>
+        <v>8726.288130692497</v>
       </c>
       <c r="G14">
-        <v>38600.56278442609</v>
+        <v>38593.39528215508</v>
       </c>
       <c r="H14">
-        <v>78387.12804892729</v>
+        <v>78441.90195653221</v>
       </c>
       <c r="I14">
-        <v>66938.3682068816</v>
+        <v>66985.14216182353</v>
       </c>
       <c r="J14">
-        <v>11448.7598420457</v>
+        <v>11456.75979470869</v>
       </c>
       <c r="K14">
-        <v>338.8061929642917</v>
+        <v>339.0429376897499</v>
       </c>
       <c r="L14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="M14">
-        <v>4913.337868098529</v>
+        <v>4916.771119464122</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71597.74156654064</v>
+        <v>71647.77131222592</v>
       </c>
       <c r="P14">
-        <v>43673.50930630131</v>
+        <v>43704.02667341333</v>
       </c>
       <c r="Q14">
-        <v>32637.72904577303</v>
+        <v>32660.53503445617</v>
       </c>
       <c r="R14">
-        <v>11035.78026052828</v>
+        <v>11043.49163895716</v>
       </c>
       <c r="S14">
-        <v>27924.23213984734</v>
+        <v>27943.74451833647</v>
       </c>
       <c r="T14">
-        <v>25639.84565746069</v>
+        <v>25657.76179461231</v>
       </c>
       <c r="U14">
-        <v>1871.407021261226</v>
+        <v>1872.71468844875</v>
       </c>
       <c r="V14">
-        <v>412.9795815174207</v>
+        <v>413.2681557515301</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11938.8719510727</v>
+        <v>11884.09804346779</v>
       </c>
       <c r="AI14">
-        <v>-18080.3682068816</v>
+        <v>-18127.14216182353</v>
       </c>
       <c r="AJ14">
-        <v>30019.2401579543</v>
+        <v>30011.24020529131</v>
       </c>
       <c r="AK14">
-        <v>-47861.12804892731</v>
+        <v>-47915.90195653221</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-72361.14216182353</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>24445.24020529131</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-72920.14216182353</v>
       </c>
       <c r="AO14">
-        <v>138746.1280489273</v>
+        <v>138800.9019565322</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875962</v>
+        <v>0.6620463653875961</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.306200000000001</v>
+        <v>8.3004</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91973.99999999999</v>
+        <v>91974</v>
       </c>
       <c r="C15">
-        <v>48045.03345119287</v>
+        <v>48043.95064546124</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="F15">
-        <v>8777.650451928996</v>
+        <v>8783.798379403204</v>
       </c>
       <c r="G15">
-        <v>39267.38299926388</v>
+        <v>39260.15226605804</v>
       </c>
       <c r="H15">
-        <v>79402.82525009957</v>
+        <v>79458.4395415957</v>
       </c>
       <c r="I15">
-        <v>67673.1377991239</v>
+        <v>67720.53653588376</v>
       </c>
       <c r="J15">
-        <v>11729.68745097566</v>
+        <v>11737.90300571194</v>
       </c>
       <c r="K15">
-        <v>342.0231213872833</v>
+        <v>342.2626767621877</v>
       </c>
       <c r="L15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="M15">
-        <v>4927.222899344733</v>
+        <v>4930.673960559841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72587.61268056043</v>
+        <v>72638.45354973491</v>
       </c>
       <c r="P15">
-        <v>44101.28410585638</v>
+        <v>44132.17295221533</v>
       </c>
       <c r="Q15">
-        <v>32794.70971556832</v>
+        <v>32817.67935852383</v>
       </c>
       <c r="R15">
-        <v>11306.57426961276</v>
+        <v>11314.49347293169</v>
       </c>
       <c r="S15">
-        <v>28486.32857470405</v>
+        <v>28506.28059751959</v>
       </c>
       <c r="T15">
-        <v>26459.32470102695</v>
+        <v>26477.85699622021</v>
       </c>
       <c r="U15">
-        <v>1603.890812989489</v>
+        <v>1605.014189278943</v>
       </c>
       <c r="V15">
-        <v>423.1131813629069</v>
+        <v>423.4095327802533</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,28 +2473,28 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12571.17474990041</v>
+        <v>12515.5604584043</v>
       </c>
       <c r="AI15">
-        <v>-18082.1377991239</v>
+        <v>-18129.53653588376</v>
       </c>
       <c r="AJ15">
-        <v>30653.31254902434</v>
+        <v>30645.09699428806</v>
       </c>
       <c r="AK15">
-        <v>-47328.82525009959</v>
+        <v>-47384.4395415957</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-72453.53653588376</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>25069.09699428806</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-73012.53653588376</v>
       </c>
       <c r="AO15">
-        <v>139861.8252500996</v>
+        <v>139917.4395415957</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2506,7 +2506,7 @@
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.2867</v>
+        <v>8.280900000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2514,67 +2514,67 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447</v>
+        <v>92447.00000000002</v>
       </c>
       <c r="C16">
-        <v>47651.06276810572</v>
+        <v>47649.97142173861</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="F16">
-        <v>8776.414104601561</v>
+        <v>8782.605763482005</v>
       </c>
       <c r="G16">
-        <v>38874.64866350417</v>
+        <v>38867.36565825661</v>
       </c>
       <c r="H16">
-        <v>79031.71719102869</v>
+        <v>79087.4731555662</v>
       </c>
       <c r="I16">
-        <v>67486.30058908578</v>
+        <v>67533.91139543227</v>
       </c>
       <c r="J16">
-        <v>11545.41660194291</v>
+        <v>11553.56176013392</v>
       </c>
       <c r="K16">
-        <v>342.3820334811027</v>
+        <v>342.6235800550042</v>
       </c>
       <c r="L16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="M16">
-        <v>4931.586946910586</v>
+        <v>4935.066124596437</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72210.81097874272</v>
+        <v>72261.75487265336</v>
       </c>
       <c r="P16">
-        <v>43959.06044999941</v>
+        <v>43990.07305990673</v>
       </c>
       <c r="Q16">
-        <v>32580.01995483278</v>
+        <v>32603.00478297262</v>
       </c>
       <c r="R16">
-        <v>11379.04049516663</v>
+        <v>11387.06827693412</v>
       </c>
       <c r="S16">
-        <v>28251.75052874332</v>
+        <v>28271.68181274662</v>
       </c>
       <c r="T16">
-        <v>26293.68793987262</v>
+        <v>26312.2378333134</v>
       </c>
       <c r="U16">
-        <v>1791.686482094421</v>
+        <v>1792.950496233409</v>
       </c>
       <c r="V16">
-        <v>166.3761067762789</v>
+        <v>166.4934831998087</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,40 +2610,40 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13415.28280897132</v>
+        <v>13359.52684443381</v>
       </c>
       <c r="AI16">
-        <v>-18288.30058908578</v>
+        <v>-18335.91139543227</v>
       </c>
       <c r="AJ16">
-        <v>31703.58339805709</v>
+        <v>31695.43823986608</v>
       </c>
       <c r="AK16">
-        <v>-46784.71719102869</v>
+        <v>-46840.47315556619</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-72859.91139543227</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>26019.43823986608</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-73418.91139543227</v>
       </c>
       <c r="AO16">
-        <v>139790.7171910287</v>
+        <v>139846.4731555662</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983212</v>
+        <v>0.6511839215983211</v>
       </c>
       <c r="AR16">
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.3689</v>
+        <v>8.363</v>
       </c>
     </row>
     <row r="17">
@@ -2654,64 +2654,64 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47172.41693250951</v>
+        <v>47171.33264502041</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="F17">
-        <v>8797.694104811262</v>
+        <v>8803.854077660686</v>
       </c>
       <c r="G17">
-        <v>38374.72282769825</v>
+        <v>38367.47856735972</v>
       </c>
       <c r="H17">
-        <v>80398.91310793025</v>
+        <v>80455.20684990031</v>
       </c>
       <c r="I17">
-        <v>68797.46712047723</v>
+        <v>68845.63775752396</v>
       </c>
       <c r="J17">
-        <v>11601.44598745301</v>
+        <v>11609.56909237634</v>
       </c>
       <c r="K17">
-        <v>421.765354648198</v>
+        <v>422.0606664767873</v>
       </c>
       <c r="L17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="M17">
-        <v>4871.000557380549</v>
+        <v>4874.411136428368</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73557.564128411</v>
+        <v>73609.06769201557</v>
       </c>
       <c r="P17">
-        <v>44082.1842202009</v>
+        <v>44113.0497009399</v>
       </c>
       <c r="Q17">
-        <v>32675.4694448727</v>
+        <v>32698.34816766354</v>
       </c>
       <c r="R17">
-        <v>11406.7147753282</v>
+        <v>11414.70153327637</v>
       </c>
       <c r="S17">
-        <v>29475.3799082101</v>
+        <v>29496.01799107567</v>
       </c>
       <c r="T17">
-        <v>27292.03349026956</v>
+        <v>27311.14283679863</v>
       </c>
       <c r="U17">
-        <v>1988.615205815733</v>
+        <v>1990.007595177063</v>
       </c>
       <c r="V17">
-        <v>194.7312121248058</v>
+        <v>194.8675590999715</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>12205.08689206975</v>
+        <v>12148.79315009969</v>
       </c>
       <c r="AI17">
-        <v>-20076.46712047723</v>
+        <v>-20124.63775752396</v>
       </c>
       <c r="AJ17">
-        <v>32281.55401254699</v>
+        <v>32273.43090762366</v>
       </c>
       <c r="AK17">
-        <v>-47794.91310793025</v>
+        <v>-47851.20684990031</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-74279.63775752396</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>26428.43090762366</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-74838.63775752396</v>
       </c>
       <c r="AO17">
-        <v>140957.9131079303</v>
+        <v>141014.2068499003</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.4323</v>
+        <v>8.426399999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686.00000000002</v>
+        <v>93686</v>
       </c>
       <c r="C18">
-        <v>48090.49747770523</v>
+        <v>48089.41996727437</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="F18">
-        <v>8805.042270181257</v>
+        <v>8811.173132492369</v>
       </c>
       <c r="G18">
-        <v>39285.45520752398</v>
+        <v>39278.246834782</v>
       </c>
       <c r="H18">
-        <v>79148.15599958252</v>
+        <v>79203.26606398904</v>
       </c>
       <c r="I18">
-        <v>67338.67159142304</v>
+        <v>67385.55883069709</v>
       </c>
       <c r="J18">
-        <v>11809.4842921919</v>
+        <v>11817.70711724362</v>
       </c>
       <c r="K18">
-        <v>341.1056348644919</v>
+        <v>341.3431432848638</v>
       </c>
       <c r="L18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="M18">
-        <v>4872.071412832972</v>
+        <v>4875.463787120957</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72387.47642959029</v>
+        <v>72437.87910085759</v>
       </c>
       <c r="P18">
-        <v>44051.80225209031</v>
+        <v>44082.47507862274</v>
       </c>
       <c r="Q18">
-        <v>32662.54316892997</v>
+        <v>32685.28576899421</v>
       </c>
       <c r="R18">
-        <v>11389.25908316035</v>
+        <v>11397.18930962853</v>
       </c>
       <c r="S18">
-        <v>28335.67406153239</v>
+        <v>28355.40390618653</v>
       </c>
       <c r="T18">
-        <v>26407.08237176885</v>
+        <v>26425.46935744044</v>
       </c>
       <c r="U18">
-        <v>1508.366480731987</v>
+        <v>1509.416741131007</v>
       </c>
       <c r="V18">
-        <v>420.2252090315548</v>
+        <v>420.5178076150909</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>14537.84400041749</v>
+        <v>14482.73393601096</v>
       </c>
       <c r="AI18">
-        <v>-17700.67159142304</v>
+        <v>-17747.55883069709</v>
       </c>
       <c r="AJ18">
-        <v>32238.5157078081</v>
+        <v>32230.29288275638</v>
       </c>
       <c r="AK18">
-        <v>-47562.15599958251</v>
+        <v>-47617.26606398904</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-73978.55883069709</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>26361.29288275638</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-74284.55883069709</v>
       </c>
       <c r="AO18">
-        <v>141554.1559995825</v>
+        <v>141609.266063989</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.662852507311658</v>
+        <v>0.6628525073116581</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.623100000000001</v>
+        <v>8.617100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50166.64000797065</v>
+        <v>50165.56985009501</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="F19">
-        <v>8796.559023829897</v>
+        <v>8802.646679334694</v>
       </c>
       <c r="G19">
-        <v>41370.08098414075</v>
+        <v>41362.92317076032</v>
       </c>
       <c r="H19">
-        <v>80094.74007478345</v>
+        <v>80150.16961081006</v>
       </c>
       <c r="I19">
-        <v>68521.18434470714</v>
+        <v>68568.60440565839</v>
       </c>
       <c r="J19">
-        <v>11573.55573007631</v>
+        <v>11581.56520515166</v>
       </c>
       <c r="K19">
-        <v>339.0075369521644</v>
+        <v>339.2421469960354</v>
       </c>
       <c r="L19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="M19">
-        <v>4869.913846658775</v>
+        <v>4873.284068782697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73339.45869914316</v>
+        <v>73390.21324512633</v>
       </c>
       <c r="P19">
-        <v>43642.71400607177</v>
+        <v>43672.9169305839</v>
       </c>
       <c r="Q19">
-        <v>32869.23798248802</v>
+        <v>32891.98512679757</v>
       </c>
       <c r="R19">
-        <v>10773.47602358375</v>
+        <v>10780.93180378633</v>
       </c>
       <c r="S19">
-        <v>29696.7446930714</v>
+        <v>29717.29631454243</v>
       </c>
       <c r="T19">
-        <v>27326.20890133977</v>
+        <v>27345.11999436977</v>
       </c>
       <c r="U19">
-        <v>1570.456085239061</v>
+        <v>1571.542918807329</v>
       </c>
       <c r="V19">
-        <v>800.0797064925628</v>
+        <v>800.6334013653319</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>14771.25992521655</v>
+        <v>14715.83038918994</v>
       </c>
       <c r="AI19">
-        <v>-16808.18434470714</v>
+        <v>-16855.60440565839</v>
       </c>
       <c r="AJ19">
-        <v>31579.44426992369</v>
+        <v>31571.43479484833</v>
       </c>
       <c r="AK19">
-        <v>-48134.74007478345</v>
+        <v>-48190.16961081006</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-73800.60440565839</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>25610.43479484833</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-74106.60440565839</v>
       </c>
       <c r="AO19">
-        <v>143306.7400747835</v>
+        <v>143362.1696108101</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.5313</v>
+        <v>8.525399999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54490.16606565171</v>
+        <v>54489.08041122276</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="F20">
-        <v>8720.168825295967</v>
+        <v>8726.340999280592</v>
       </c>
       <c r="G20">
-        <v>45769.99724035574</v>
+        <v>45762.73941194217</v>
       </c>
       <c r="H20">
-        <v>79013.13996498268</v>
+        <v>79069.06581420713</v>
       </c>
       <c r="I20">
-        <v>68043.33290817805</v>
+        <v>68091.49427954792</v>
       </c>
       <c r="J20">
-        <v>10969.80694085317</v>
+        <v>10977.5714186257</v>
       </c>
       <c r="K20">
-        <v>333.8897069907123</v>
+        <v>334.126035599081</v>
       </c>
       <c r="L20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="M20">
-        <v>4845.551175167841</v>
+        <v>4848.980877677473</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72299.86514847583</v>
+        <v>72351.03931215334</v>
       </c>
       <c r="P20">
-        <v>42925.88279628492</v>
+        <v>42956.26592559931</v>
       </c>
       <c r="Q20">
-        <v>32583.17405470589</v>
+        <v>32606.23656912116</v>
       </c>
       <c r="R20">
-        <v>10342.70874157903</v>
+        <v>10350.02935647815</v>
       </c>
       <c r="S20">
-        <v>29373.98235219091</v>
+        <v>29394.77338655404</v>
       </c>
       <c r="T20">
-        <v>26683.95997356307</v>
+        <v>26702.84699821308</v>
       </c>
       <c r="U20">
-        <v>2062.924063402247</v>
+        <v>2064.384210159894</v>
       </c>
       <c r="V20">
-        <v>627.098199274144</v>
+        <v>627.5420621475481</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>18308.86003501732</v>
+        <v>18252.93418579287</v>
       </c>
       <c r="AI20">
-        <v>-12019.33290817805</v>
+        <v>-12067.49427954792</v>
       </c>
       <c r="AJ20">
-        <v>30328.19305914683</v>
+        <v>30320.4285813743</v>
       </c>
       <c r="AK20">
-        <v>-48103.13996498268</v>
+        <v>-48159.06581420713</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-72554.49427954792</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>24395.4285813743</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-72860.49427954792</v>
       </c>
       <c r="AO20">
-        <v>145731.1399649827</v>
+        <v>145787.0658142071</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6243</v>
+        <v>8.6182</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57708.09730578684</v>
+        <v>57707.03511954976</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="F21">
-        <v>8701.518598501034</v>
+        <v>8707.552032172698</v>
       </c>
       <c r="G21">
-        <v>49006.57870728581</v>
+        <v>48999.48308737707</v>
       </c>
       <c r="H21">
-        <v>79386.71797951337</v>
+        <v>79441.7629112593</v>
       </c>
       <c r="I21">
-        <v>68167.41942189324</v>
+        <v>68214.6851490183</v>
       </c>
       <c r="J21">
-        <v>11219.29855762013</v>
+        <v>11227.077762241</v>
       </c>
       <c r="K21">
-        <v>331.7797050569908</v>
+        <v>332.0097535044434</v>
       </c>
       <c r="L21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="M21">
-        <v>4902.303534927766</v>
+        <v>4905.702679902465</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72620.73204531545</v>
+        <v>72671.08559740215</v>
       </c>
       <c r="P21">
-        <v>43104.92788100655</v>
+        <v>43134.81585060035</v>
       </c>
       <c r="Q21">
-        <v>32900.08776690957</v>
+        <v>32922.89993412918</v>
       </c>
       <c r="R21">
-        <v>10204.84011409698</v>
+        <v>10211.91591647118</v>
       </c>
       <c r="S21">
-        <v>29515.8041643089</v>
+        <v>29536.2697468018</v>
       </c>
       <c r="T21">
-        <v>26339.60504890696</v>
+        <v>26357.86832769002</v>
       </c>
       <c r="U21">
-        <v>2161.740671878789</v>
+        <v>2163.239573341962</v>
       </c>
       <c r="V21">
-        <v>1014.458443523149</v>
+        <v>1015.161845769822</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20771.28202048663</v>
+        <v>20716.2370887407</v>
       </c>
       <c r="AI21">
-        <v>-8927.419421893239</v>
+        <v>-8974.685149018304</v>
       </c>
       <c r="AJ21">
-        <v>29698.70144237987</v>
+        <v>29690.92223775901</v>
       </c>
       <c r="AK21">
-        <v>-45469.71797951337</v>
+        <v>-45524.7629112593</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-69599.6851490183</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>24074.92223775901</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-69905.6851490183</v>
       </c>
       <c r="AO21">
-        <v>145933.7179795134</v>
+        <v>145988.7629112593</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6593</v>
+        <v>8.6533</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58091.17490319011</v>
+        <v>58090.10075311105</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="F22">
-        <v>8376.097754932694</v>
+        <v>8381.990496730366</v>
       </c>
       <c r="G22">
-        <v>49715.07714825742</v>
+        <v>49708.11025638069</v>
       </c>
       <c r="H22">
-        <v>79926.24354600777</v>
+        <v>79982.47315672321</v>
       </c>
       <c r="I22">
-        <v>68980.32777060669</v>
+        <v>69028.85672437056</v>
       </c>
       <c r="J22">
-        <v>10945.91542965148</v>
+        <v>10953.61608635981</v>
       </c>
       <c r="K22">
-        <v>329.0391619030057</v>
+        <v>329.2706471219163</v>
       </c>
       <c r="L22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="M22">
-        <v>4894.842222939333</v>
+        <v>4898.285836206996</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73175.53706435554</v>
+        <v>73227.01742650535</v>
       </c>
       <c r="P22">
-        <v>42964.56389452333</v>
+        <v>42994.79027068172</v>
       </c>
       <c r="Q22">
-        <v>32795.26472893233</v>
+        <v>32818.33681248342</v>
       </c>
       <c r="R22">
-        <v>10169.29905034114</v>
+        <v>10176.45334286736</v>
       </c>
       <c r="S22">
-        <v>30210.97305458234</v>
+        <v>30232.22704049269</v>
       </c>
       <c r="T22">
-        <v>27689.69804536235</v>
+        <v>27709.17826703726</v>
       </c>
       <c r="U22">
-        <v>1744.658514659783</v>
+        <v>1745.885914632037</v>
       </c>
       <c r="V22">
-        <v>776.6163793103449</v>
+        <v>777.1627434924516</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20286.75645399223</v>
+        <v>20230.52684327679</v>
       </c>
       <c r="AI22">
-        <v>-9362.327770606687</v>
+        <v>-9410.856724370562</v>
       </c>
       <c r="AJ22">
-        <v>29649.08457034852</v>
+        <v>29641.38391364019</v>
       </c>
       <c r="AK22">
-        <v>-44957.24354600777</v>
+        <v>-45013.47315672321</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-69093.85672437056</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>24080.38391364019</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-69327.85672437056</v>
       </c>
       <c r="AO22">
-        <v>145404.2435460078</v>
+        <v>145460.4731567232</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6768</v>
+        <v>8.6707</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61055.66928753151</v>
+        <v>61054.61430529796</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="F23">
-        <v>8359.322757779133</v>
+        <v>8365.100625525591</v>
       </c>
       <c r="G23">
-        <v>52696.34652975238</v>
+        <v>52689.51367977237</v>
       </c>
       <c r="H23">
-        <v>80962.63771052298</v>
+        <v>81018.59815452668</v>
       </c>
       <c r="I23">
-        <v>69423.01426318394</v>
+        <v>69470.99865218242</v>
       </c>
       <c r="J23">
-        <v>11539.62333222052</v>
+        <v>11547.5993871462</v>
       </c>
       <c r="K23">
-        <v>324.7829440408901</v>
+        <v>325.0074302763602</v>
       </c>
       <c r="L23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="M23">
-        <v>4890.745852855514</v>
+        <v>4894.126280138698</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74220.77820115809</v>
+        <v>74272.0787494096</v>
       </c>
       <c r="P23">
-        <v>43707.386003891</v>
+        <v>43737.59604640178</v>
       </c>
       <c r="Q23">
-        <v>33016.58569997812</v>
+        <v>33039.40638427776</v>
       </c>
       <c r="R23">
-        <v>10690.80018879436</v>
+        <v>10698.18954692594</v>
       </c>
       <c r="S23">
-        <v>30513.39219726708</v>
+        <v>30534.48270300782</v>
       </c>
       <c r="T23">
-        <v>28078.38730473022</v>
+        <v>28097.79476309514</v>
       </c>
       <c r="U23">
-        <v>1586.181749110709</v>
+        <v>1587.278099692421</v>
       </c>
       <c r="V23">
-        <v>848.8231434261571</v>
+        <v>849.4098402202586</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>23105.36228947702</v>
+        <v>23049.40184547332</v>
       </c>
       <c r="AI23">
-        <v>-6841.014263183941</v>
+        <v>-6888.998652182418</v>
       </c>
       <c r="AJ23">
-        <v>29946.37666777948</v>
+        <v>29938.4006128538</v>
       </c>
       <c r="AK23">
-        <v>-42200.63771052298</v>
+        <v>-42256.59815452668</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-66686.99865218242</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>24430.4006128538</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-66920.99865218242</v>
       </c>
       <c r="AO23">
-        <v>146502.637710523</v>
+        <v>146558.5981545267</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6867</v>
+        <v>8.6807</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61353.62733532274</v>
+        <v>61352.56390086332</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="F24">
-        <v>8388.600025544862</v>
+        <v>8394.448253023948</v>
       </c>
       <c r="G24">
-        <v>52965.02730977788</v>
+        <v>52958.11564783938</v>
       </c>
       <c r="H24">
-        <v>80896.41884281785</v>
+        <v>80952.81688995272</v>
       </c>
       <c r="I24">
-        <v>69115.13196242585</v>
+        <v>69163.31652394177</v>
       </c>
       <c r="J24">
-        <v>11781.286880392</v>
+        <v>11789.50036601095</v>
       </c>
       <c r="K24">
-        <v>322.5180265434321</v>
+        <v>322.7428744059585</v>
       </c>
       <c r="L24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="M24">
-        <v>4881.921089604403</v>
+        <v>4885.32458780196</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74166.60706199273</v>
+        <v>74218.31332860811</v>
       </c>
       <c r="P24">
-        <v>43790.83229799241</v>
+        <v>43821.3616769111</v>
       </c>
       <c r="Q24">
-        <v>32971.58308465799</v>
+        <v>32994.56967570269</v>
       </c>
       <c r="R24">
-        <v>10819.24932944742</v>
+        <v>10826.79211740237</v>
       </c>
       <c r="S24">
-        <v>30375.77464788733</v>
+        <v>30396.95153550306</v>
       </c>
       <c r="T24">
-        <v>27855.43733961892</v>
+        <v>27874.85713953732</v>
       </c>
       <c r="U24">
-        <v>1558.299757323828</v>
+        <v>1559.386147357169</v>
       </c>
       <c r="V24">
-        <v>962.0375509445794</v>
+        <v>962.7082486085775</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>23989.58115718215</v>
+        <v>23933.18311004728</v>
       </c>
       <c r="AI24">
-        <v>-6236.131962425847</v>
+        <v>-6284.316523941772</v>
       </c>
       <c r="AJ24">
-        <v>30225.713119608</v>
+        <v>30217.49963398905</v>
       </c>
       <c r="AK24">
-        <v>-41564.41884281785</v>
+        <v>-41620.81688995272</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-66313.31652394177</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>24692.49963398905</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-66547.31652394177</v>
       </c>
       <c r="AO24">
-        <v>146684.4188428178</v>
+        <v>146740.8168899527</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.612299999999999</v>
+        <v>8.606299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,64 +3750,64 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61134.82190154996</v>
+        <v>61133.74509342772</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="F25">
-        <v>8386.232858200448</v>
+        <v>8392.149837133551</v>
       </c>
       <c r="G25">
-        <v>52748.58904334951</v>
+        <v>52741.59525629417</v>
       </c>
       <c r="H25">
-        <v>80789.41221400957</v>
+        <v>80846.41388069005</v>
       </c>
       <c r="I25">
-        <v>69072.43363611795</v>
+        <v>69121.16828749164</v>
       </c>
       <c r="J25">
-        <v>11716.97857789163</v>
+        <v>11725.24559319842</v>
       </c>
       <c r="K25">
-        <v>322.8921608949577</v>
+        <v>323.1199802443585</v>
       </c>
       <c r="L25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="M25">
-        <v>4883.624836954606</v>
+        <v>4887.070520584673</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74056.71711770997</v>
+        <v>74108.96847328873</v>
       </c>
       <c r="P25">
-        <v>43752.91789562745</v>
+        <v>43783.78814426322</v>
       </c>
       <c r="Q25">
-        <v>32992.72564895005</v>
+        <v>33016.00395112831</v>
       </c>
       <c r="R25">
-        <v>10760.1922466774</v>
+        <v>10767.78419313492</v>
       </c>
       <c r="S25">
-        <v>30303.79910457233</v>
+        <v>30325.1802114324</v>
       </c>
       <c r="T25">
-        <v>27845.76387501616</v>
+        <v>27865.41069391691</v>
       </c>
       <c r="U25">
-        <v>1501.249015852125</v>
+        <v>1502.308235045097</v>
       </c>
       <c r="V25">
-        <v>956.7863312142329</v>
+        <v>957.4614000635003</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,28 +3843,28 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23649.58778599043</v>
+        <v>23592.58611930996</v>
       </c>
       <c r="AI25">
-        <v>-6411.433636117945</v>
+        <v>-6460.168287491644</v>
       </c>
       <c r="AJ25">
-        <v>30061.02142210837</v>
+        <v>30052.75440680159</v>
       </c>
       <c r="AK25">
-        <v>-41750.41221400957</v>
+        <v>-41807.41388069005</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-66335.16828749164</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>24527.75440680159</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-66569.16828749164</v>
       </c>
       <c r="AO25">
-        <v>146423.4122140096</v>
+        <v>146480.4138806901</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3876,7 +3876,7 @@
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5099</v>
+        <v>8.5039</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62597.62800823772</v>
+        <v>62596.56469923219</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="F26">
-        <v>8429.860076493087</v>
+        <v>8435.71717933016</v>
       </c>
       <c r="G26">
-        <v>54167.76793174463</v>
+        <v>54160.84751990203</v>
       </c>
       <c r="H26">
-        <v>81248.54380700206</v>
+        <v>81304.99564275284</v>
       </c>
       <c r="I26">
-        <v>69741.54068843779</v>
+        <v>69789.99740920439</v>
       </c>
       <c r="J26">
-        <v>11507.00300088261</v>
+        <v>11514.99811578501</v>
       </c>
       <c r="K26">
-        <v>322.2072374227714</v>
+        <v>322.4311083894672</v>
       </c>
       <c r="L26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="M26">
-        <v>4813.754516034128</v>
+        <v>4817.099133261105</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74582.21006178288</v>
+        <v>74634.03010033445</v>
       </c>
       <c r="P26">
-        <v>44053.77228596646</v>
+        <v>44084.38103537614</v>
       </c>
       <c r="Q26">
-        <v>33348.15063253899</v>
+        <v>33371.32107023411</v>
       </c>
       <c r="R26">
-        <v>10705.62165342748</v>
+        <v>10713.05996514202</v>
       </c>
       <c r="S26">
-        <v>30528.43765813475</v>
+        <v>30549.64894719487</v>
       </c>
       <c r="T26">
-        <v>27826.40600176523</v>
+        <v>27845.73990767347</v>
       </c>
       <c r="U26">
-        <v>1900.650308914387</v>
+        <v>1901.970888878421</v>
       </c>
       <c r="V26">
-        <v>801.3813474551339</v>
+        <v>801.9381506429884</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24471.45619299794</v>
+        <v>24415.00435724716</v>
       </c>
       <c r="AI26">
-        <v>-5613.540688437788</v>
+        <v>-5661.997409204385</v>
       </c>
       <c r="AJ26">
-        <v>30084.99699911739</v>
+        <v>30077.00188421499</v>
       </c>
       <c r="AK26">
-        <v>-41525.54380700206</v>
+        <v>-41581.99564275284</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-66121.99740920439</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>24540.00188421499</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-66355.99740920439</v>
       </c>
       <c r="AO26">
-        <v>147479.5438070021</v>
+        <v>147535.9956427529</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.497500000000001</v>
+        <v>8.4916</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66205.7082873965</v>
+        <v>66204.631346682</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="F27">
-        <v>8332.08228753724</v>
+        <v>8337.949813384661</v>
       </c>
       <c r="G27">
-        <v>57873.62599985926</v>
+        <v>57866.68153329734</v>
       </c>
       <c r="H27">
-        <v>83971.70838122495</v>
+        <v>84030.8419990141</v>
       </c>
       <c r="I27">
-        <v>72572.13975745351</v>
+        <v>72623.24569845777</v>
       </c>
       <c r="J27">
-        <v>11399.56862377143</v>
+        <v>11407.59630055632</v>
       </c>
       <c r="K27">
-        <v>317.625085032019</v>
+        <v>317.848759418793</v>
       </c>
       <c r="L27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="M27">
-        <v>4810.815720954236</v>
+        <v>4814.203539823008</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77313.97586263518</v>
+        <v>77368.4210464543</v>
       </c>
       <c r="P27">
-        <v>47195.79085641904</v>
+        <v>47229.02654867256</v>
       </c>
       <c r="Q27">
-        <v>36328.71935915179</v>
+        <v>36354.30236379428</v>
       </c>
       <c r="R27">
-        <v>10867.0713799817</v>
+        <v>10874.72406751015</v>
       </c>
       <c r="S27">
-        <v>30118.18512350168</v>
+        <v>30139.39461514988</v>
       </c>
       <c r="T27">
-        <v>28044.51783913115</v>
+        <v>28064.26703598507</v>
       </c>
       <c r="U27">
-        <v>1541.170040580798</v>
+        <v>1542.255346118636</v>
       </c>
       <c r="V27">
-        <v>532.4972437897305</v>
+        <v>532.8722330461726</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4117,28 +4117,28 @@
         <v>5525</v>
       </c>
       <c r="AH27">
-        <v>25037.29161877505</v>
+        <v>24978.1580009859</v>
       </c>
       <c r="AI27">
-        <v>-4837.139757453508</v>
+        <v>-4888.245698457773</v>
       </c>
       <c r="AJ27">
-        <v>29874.43137622857</v>
+        <v>29866.40369944368</v>
       </c>
       <c r="AK27">
-        <v>-41359.70838122495</v>
+        <v>-41418.8419990141</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-65760.24569845777</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>24341.40369944368</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-65912.24569845777</v>
       </c>
       <c r="AO27">
-        <v>150520.708381225</v>
+        <v>150579.8419990141</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.526199999999999</v>
+        <v>8.520200000000001</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65832.79537580346</v>
+        <v>65831.7284942157</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="F28">
-        <v>8250.839797953873</v>
+        <v>8256.618843608092</v>
       </c>
       <c r="G28">
-        <v>57581.95557784959</v>
+        <v>57575.10965060761</v>
       </c>
       <c r="H28">
-        <v>83124.91408373482</v>
+        <v>83183.13635992202</v>
       </c>
       <c r="I28">
-        <v>72232.46608261493</v>
+        <v>72283.05908034975</v>
       </c>
       <c r="J28">
-        <v>10892.44811777469</v>
+        <v>10900.07739630879</v>
       </c>
       <c r="K28">
-        <v>312.6621793450999</v>
+        <v>312.8811739023849</v>
       </c>
       <c r="L28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="M28">
-        <v>4881.622901671663</v>
+        <v>4885.042083513303</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76407.42437852151</v>
+        <v>76460.94159672204</v>
       </c>
       <c r="P28">
-        <v>46716.52310348448</v>
+        <v>46749.24424780827</v>
       </c>
       <c r="Q28">
-        <v>36183.64767915262</v>
+        <v>36208.99139651892</v>
       </c>
       <c r="R28">
-        <v>10532.87542433186</v>
+        <v>10540.25285128936</v>
       </c>
       <c r="S28">
-        <v>29690.90139169184</v>
+        <v>29711.69746565028</v>
       </c>
       <c r="T28">
-        <v>27768.06644657793</v>
+        <v>27787.51573024526</v>
       </c>
       <c r="U28">
-        <v>1563.26225167108</v>
+        <v>1564.357190385581</v>
       </c>
       <c r="V28">
-        <v>359.5726934428333</v>
+        <v>359.8245450194366</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>23973.08591626518</v>
+        <v>23914.86364007798</v>
       </c>
       <c r="AI28">
-        <v>-4876.466082614934</v>
+        <v>-4927.059080349747</v>
       </c>
       <c r="AJ28">
-        <v>28849.55188222531</v>
+        <v>28841.92260369121</v>
       </c>
       <c r="AK28">
-        <v>-41484.91408373482</v>
+        <v>-41543.13635992202</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-64957.05908034975</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>23413.92260369121</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-65109.05908034975</v>
       </c>
       <c r="AO28">
-        <v>148734.9140837348</v>
+        <v>148793.136359922</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5723</v>
+        <v>8.5663</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66649.11678866422</v>
+        <v>66648.04457325605</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="F29">
-        <v>8214.081376085347</v>
+        <v>8219.876074355387</v>
       </c>
       <c r="G29">
-        <v>58435.03541257887</v>
+        <v>58428.16849890066</v>
       </c>
       <c r="H29">
-        <v>82921.61306999096</v>
+        <v>82980.11087465168</v>
       </c>
       <c r="I29">
-        <v>71752.69459881801</v>
+        <v>71803.31318855746</v>
       </c>
       <c r="J29">
-        <v>11168.91847117294</v>
+        <v>11176.79768609423</v>
       </c>
       <c r="K29">
-        <v>306.9637297176628</v>
+        <v>307.1802800672538</v>
       </c>
       <c r="L29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="M29">
-        <v>4875.514328347687</v>
+        <v>4878.953804188075</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76219.25180058982</v>
+        <v>76273.0213636524</v>
       </c>
       <c r="P29">
-        <v>47225.23763085852</v>
+        <v>47258.55310343206</v>
       </c>
       <c r="Q29">
-        <v>36401.78989789804</v>
+        <v>36427.46987101856</v>
       </c>
       <c r="R29">
-        <v>10823.44773296049</v>
+        <v>10831.08323241349</v>
       </c>
       <c r="S29">
-        <v>28994.01428722492</v>
+        <v>29014.46837779685</v>
       </c>
       <c r="T29">
-        <v>26852.2511778736</v>
+        <v>26871.1943422182</v>
       </c>
       <c r="U29">
-        <v>1796.29225364524</v>
+        <v>1797.559464321407</v>
       </c>
       <c r="V29">
-        <v>345.470738212452</v>
+        <v>345.7144536807327</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25633.38693000905</v>
+        <v>25574.88912534832</v>
       </c>
       <c r="AI29">
-        <v>-3583.694598818009</v>
+        <v>-3634.313188557455</v>
       </c>
       <c r="AJ29">
-        <v>29217.08152882706</v>
+        <v>29209.20231390578</v>
       </c>
       <c r="AK29">
-        <v>-40779.61306999096</v>
+        <v>-40838.11087465168</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-64834.31318855746</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>23996.20231390578</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-64986.31318855746</v>
       </c>
       <c r="AO29">
-        <v>149486.6130699909</v>
+        <v>149545.1108746517</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4424,7 +4424,7 @@
         <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.511100000000001</v>
+        <v>8.505100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70083.58142094809</v>
+        <v>70078.11446360154</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="F30">
-        <v>8240.958625475605</v>
+        <v>8246.681513409962</v>
       </c>
       <c r="G30">
-        <v>61842.62279547248</v>
+        <v>61831.43295019158</v>
       </c>
       <c r="H30">
-        <v>91958.20395319343</v>
+        <v>92022.06381704981</v>
       </c>
       <c r="I30">
-        <v>80851.00564741917</v>
+        <v>80907.15217911877</v>
       </c>
       <c r="J30">
-        <v>11107.19830577425</v>
+        <v>11114.91163793103</v>
       </c>
       <c r="K30">
-        <v>306.5671588216995</v>
+        <v>306.7800526819923</v>
       </c>
       <c r="L30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="M30">
-        <v>4884.697408408912</v>
+        <v>4888.089559386974</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78894.52080691092</v>
+        <v>78949.30866858238</v>
       </c>
       <c r="P30">
-        <v>47310.04474861806</v>
+        <v>47342.89894636015</v>
       </c>
       <c r="Q30">
-        <v>36513.2289597741</v>
+        <v>36538.58536877394</v>
       </c>
       <c r="R30">
-        <v>10796.81578884396</v>
+        <v>10804.31357758621</v>
       </c>
       <c r="S30">
-        <v>31584.47605829285</v>
+        <v>31606.40972222222</v>
       </c>
       <c r="T30">
-        <v>29377.73792146259</v>
+        <v>29398.13912835249</v>
       </c>
       <c r="U30">
-        <v>1896.355619899974</v>
+        <v>1897.672533524904</v>
       </c>
       <c r="V30">
-        <v>310.3825169302927</v>
+        <v>310.5980603448276</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>26305.79604680657</v>
+        <v>26241.93618295019</v>
       </c>
       <c r="AI30">
-        <v>-2895.005647419166</v>
+        <v>-2951.15217911877</v>
       </c>
       <c r="AJ30">
-        <v>29200.80169422575</v>
+        <v>29193.08836206896</v>
       </c>
       <c r="AK30">
-        <v>-40522.20395319343</v>
+        <v>-40586.06381704981</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-64534.15217911877</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>23948.08836206896</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-64686.15217911877</v>
       </c>
       <c r="AO30">
-        <v>158938.2039531934</v>
+        <v>159002.0638170498</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.357799999999999</v>
+        <v>8.352</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70150.01534495903</v>
+        <v>70144.56495834141</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="F31">
-        <v>8273.167136616123</v>
+        <v>8278.877882193374</v>
       </c>
       <c r="G31">
-        <v>61876.8482083429</v>
+        <v>61865.68707614803</v>
       </c>
       <c r="H31">
-        <v>91488.3732891218</v>
+        <v>91551.5252615772</v>
       </c>
       <c r="I31">
-        <v>80009.07107330005</v>
+        <v>80064.29919104825</v>
       </c>
       <c r="J31">
-        <v>11479.30221582177</v>
+        <v>11487.22607052897</v>
       </c>
       <c r="K31">
-        <v>306.3042610095241</v>
+        <v>306.5156946328231</v>
       </c>
       <c r="L31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="M31">
-        <v>4896.131448694832</v>
+        <v>4899.511117031583</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78389.95292437647</v>
+        <v>78444.06340825421</v>
       </c>
       <c r="P31">
-        <v>47936.61648493943</v>
+        <v>47969.70584673512</v>
       </c>
       <c r="Q31">
-        <v>36807.99160141833</v>
+        <v>36833.39917167216</v>
       </c>
       <c r="R31">
-        <v>11128.62488352111</v>
+        <v>11136.30667506297</v>
       </c>
       <c r="S31">
-        <v>30453.33643943703</v>
+        <v>30474.35756151909</v>
       </c>
       <c r="T31">
-        <v>27990.14364721116</v>
+        <v>28009.46449331525</v>
       </c>
       <c r="U31">
-        <v>2112.515459925212</v>
+        <v>2113.973672737841</v>
       </c>
       <c r="V31">
-        <v>350.6773323006547</v>
+        <v>350.919395465995</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27708.62671087821</v>
+        <v>27645.4747384228</v>
       </c>
       <c r="AI31">
-        <v>-1963.071073300045</v>
+        <v>-2018.299191048252</v>
       </c>
       <c r="AJ31">
-        <v>29671.69778417824</v>
+        <v>29663.77392947103</v>
       </c>
       <c r="AK31">
-        <v>-39701.3732891218</v>
+        <v>-39764.5252615772</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-64231.29919104825</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>24466.77392947103</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-64274.29919104825</v>
       </c>
       <c r="AO31">
-        <v>158941.3732891218</v>
+        <v>159004.5252615772</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.263299999999999</v>
+        <v>8.2576</v>
       </c>
     </row>
     <row r="32">
@@ -4709,64 +4709,64 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71767.55106018546</v>
+        <v>71762.04591233628</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="F32">
-        <v>8266.489516271928</v>
+        <v>8272.254834743959</v>
       </c>
       <c r="G32">
-        <v>63501.06154391354</v>
+        <v>63489.79107759232</v>
       </c>
       <c r="H32">
-        <v>91423.20300041344</v>
+        <v>91486.96451368858</v>
       </c>
       <c r="I32">
-        <v>79954.25279073889</v>
+        <v>80010.01548536573</v>
       </c>
       <c r="J32">
-        <v>11468.95032780108</v>
+        <v>11476.94914653175</v>
       </c>
       <c r="K32">
-        <v>304.1522650758963</v>
+        <v>304.3643907513358</v>
       </c>
       <c r="L32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="M32">
-        <v>4893.84289173705</v>
+        <v>4897.256016832947</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78331.75890378596</v>
+        <v>78386.39001844058</v>
       </c>
       <c r="P32">
-        <v>47787.15728545272</v>
+        <v>47820.48560215613</v>
       </c>
       <c r="Q32">
-        <v>36779.92546216999</v>
+        <v>36805.57697763488</v>
       </c>
       <c r="R32">
-        <v>11007.23182328274</v>
+        <v>11014.90862452125</v>
       </c>
       <c r="S32">
-        <v>30544.60173645975</v>
+        <v>30565.90453449336</v>
       </c>
       <c r="T32">
-        <v>27820.2923631209</v>
+        <v>27839.69513925008</v>
       </c>
       <c r="U32">
-        <v>2262.590868820507</v>
+        <v>2264.168873232777</v>
       </c>
       <c r="V32">
-        <v>461.7185045183392</v>
+        <v>462.0405220104969</v>
       </c>
       <c r="W32">
         <v>68089</v>
@@ -4802,28 +4802,28 @@
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>28717.79699958656</v>
+        <v>28654.03548631142</v>
       </c>
       <c r="AI32">
-        <v>-293.2527907388867</v>
+        <v>-349.0154853657296</v>
       </c>
       <c r="AJ32">
-        <v>29011.04967219893</v>
+        <v>29003.05085346825</v>
       </c>
       <c r="AK32">
-        <v>-39328.20300041344</v>
+        <v>-39391.96451368858</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-63304.01548536573</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>23912.05085346825</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-63347.01548536573</v>
       </c>
       <c r="AO32">
-        <v>159512.2030004134</v>
+        <v>159575.9645136886</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.465500000000001</v>
+        <v>8.4596</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73531.80147389873</v>
+        <v>73526.28418481676</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="F33">
-        <v>8256.226155778299</v>
+        <v>8262.001588750696</v>
       </c>
       <c r="G33">
-        <v>65275.57531812043</v>
+        <v>65264.28259606606</v>
       </c>
       <c r="H33">
-        <v>92542.83310822018</v>
+        <v>92607.56909287076</v>
       </c>
       <c r="I33">
-        <v>81234.71706831591</v>
+        <v>81291.54274806444</v>
       </c>
       <c r="J33">
-        <v>11308.11603990427</v>
+        <v>11316.02634480633</v>
       </c>
       <c r="K33">
-        <v>301.214544679036</v>
+        <v>301.4252516509965</v>
       </c>
       <c r="L33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="M33">
-        <v>4886.212767469965</v>
+        <v>4889.630793308276</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79468.20726996991</v>
+        <v>79523.79723272825</v>
       </c>
       <c r="P33">
-        <v>48254.87796497713</v>
+        <v>48288.63343727398</v>
       </c>
       <c r="Q33">
-        <v>37261.19025615507</v>
+        <v>37287.25537388994</v>
       </c>
       <c r="R33">
-        <v>10993.68770882206</v>
+        <v>11001.37806338404</v>
       </c>
       <c r="S33">
-        <v>31213.32930499277</v>
+        <v>31235.16379545427</v>
       </c>
       <c r="T33">
-        <v>28793.86696997701</v>
+        <v>28814.00898711215</v>
       </c>
       <c r="U33">
-        <v>2105.034003933556</v>
+        <v>2106.506526919839</v>
       </c>
       <c r="V33">
-        <v>314.4283310822018</v>
+        <v>314.6482814222875</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28243.16689177982</v>
+        <v>28178.43090712924</v>
       </c>
       <c r="AI33">
-        <v>184.2829316840944</v>
+        <v>127.457251935557</v>
       </c>
       <c r="AJ33">
-        <v>28058.88396009574</v>
+        <v>28050.97365519367</v>
       </c>
       <c r="AK33">
-        <v>-40309.83310822018</v>
+        <v>-40374.56909287076</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-63008.54274806444</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>22633.97365519367</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-63051.54274806444</v>
       </c>
       <c r="AO33">
-        <v>161138.8331082202</v>
+        <v>161203.5690928708</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.440200000000001</v>
+        <v>8.4343</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74976.2595398688</v>
+        <v>74970.80712865795</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="F34">
-        <v>8230.643883396471</v>
+        <v>8236.351416947899</v>
       </c>
       <c r="G34">
-        <v>66745.61565647234</v>
+        <v>66734.45571171005</v>
       </c>
       <c r="H34">
-        <v>91757.81322184237</v>
+        <v>91821.44260551986</v>
       </c>
       <c r="I34">
-        <v>80566.70343250486</v>
+        <v>80622.57234986824</v>
       </c>
       <c r="J34">
-        <v>11191.10967384274</v>
+        <v>11198.87014007674</v>
       </c>
       <c r="K34">
-        <v>297.85214358311</v>
+        <v>298.0586889186815</v>
       </c>
       <c r="L34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="M34">
-        <v>4879.489975053128</v>
+        <v>4882.873653552771</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78717.73064307493</v>
+        <v>78772.31739170635</v>
       </c>
       <c r="P34">
-        <v>48108.0354337984</v>
+        <v>48141.39591327262</v>
       </c>
       <c r="Q34">
-        <v>37178.5282500231</v>
+        <v>37204.30967130508</v>
       </c>
       <c r="R34">
-        <v>10929.50718377529</v>
+        <v>10937.08624196755</v>
       </c>
       <c r="S34">
-        <v>30609.69520927654</v>
+        <v>30630.92147843373</v>
       </c>
       <c r="T34">
-        <v>28317.658805322</v>
+        <v>28337.2956636309</v>
       </c>
       <c r="U34">
-        <v>2030.433798392313</v>
+        <v>2031.841801118765</v>
       </c>
       <c r="V34">
-        <v>261.602490067449</v>
+        <v>261.7838981091952</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>30285.18677815763</v>
+        <v>30221.55739448014</v>
       </c>
       <c r="AI34">
-        <v>2272.296567495141</v>
+        <v>2216.427650131765</v>
       </c>
       <c r="AJ34">
-        <v>28012.89032615726</v>
+        <v>28005.12985992326</v>
       </c>
       <c r="AK34">
-        <v>-37493.81322184237</v>
+        <v>-37557.44260551986</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-60169.57234986824</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>22612.12985992326</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-60212.57234986824</v>
       </c>
       <c r="AO34">
-        <v>159579.8132218424</v>
+        <v>159643.4426055198</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,7 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6584</v>
+        <v>8.6524</v>
       </c>
     </row>
     <row r="35">
@@ -5120,64 +5120,64 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75390.01317790167</v>
+        <v>75384.55273153522</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="F35">
-        <v>8185.418482851833</v>
+        <v>8191.138487201741</v>
       </c>
       <c r="G35">
-        <v>67204.59469504983</v>
+        <v>67193.41424433349</v>
       </c>
       <c r="H35">
-        <v>92577.27307540689</v>
+        <v>92641.96645740114</v>
       </c>
       <c r="I35">
-        <v>81179.31812806218</v>
+        <v>81236.04657191483</v>
       </c>
       <c r="J35">
-        <v>11397.95505997635</v>
+        <v>11405.91999819664</v>
       </c>
       <c r="K35">
-        <v>292.406037055809</v>
+        <v>292.6103716060097</v>
       </c>
       <c r="L35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="M35">
-        <v>4866.59784873571</v>
+        <v>4869.998647475853</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79604.28236751704</v>
+        <v>79659.9101698545</v>
       </c>
       <c r="P35">
-        <v>51463.73317564904</v>
+        <v>51499.69624561839</v>
       </c>
       <c r="Q35">
-        <v>40321.45756603029</v>
+        <v>40349.63436763861</v>
       </c>
       <c r="R35">
-        <v>11142.27572225038</v>
+        <v>11150.06199069013</v>
       </c>
       <c r="S35">
-        <v>28140.549191868</v>
+        <v>28160.21392423611</v>
       </c>
       <c r="T35">
-        <v>26252.57487188151</v>
+        <v>26270.9202799725</v>
       </c>
       <c r="U35">
-        <v>1632.294982260517</v>
+        <v>1633.435636757098</v>
       </c>
       <c r="V35">
-        <v>255.6793377259672</v>
+        <v>255.858007506509</v>
       </c>
       <c r="W35">
         <v>66633</v>
@@ -5213,28 +5213,28 @@
         <v>5075</v>
       </c>
       <c r="AH35">
-        <v>29143.72692459311</v>
+        <v>29079.03354259886</v>
       </c>
       <c r="AI35">
-        <v>2024.681871937821</v>
+        <v>1967.953428085166</v>
       </c>
       <c r="AJ35">
-        <v>27119.04494002365</v>
+        <v>27111.08000180336</v>
       </c>
       <c r="AK35">
-        <v>-37472.27307540689</v>
+        <v>-37536.96645740114</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-59573.04657191483</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>22036.08000180336</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-59590.04657191483</v>
       </c>
       <c r="AO35">
-        <v>159210.2730754069</v>
+        <v>159274.9664574011</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5246,7 +5246,7 @@
         <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.878500000000001</v>
+        <v>8.872299999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77534.92732115249</v>
+        <v>77529.45176008222</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="F36">
-        <v>8199.385276890607</v>
+        <v>8205.126430031511</v>
       </c>
       <c r="G36">
-        <v>69335.54204426188</v>
+        <v>69324.32533005071</v>
       </c>
       <c r="H36">
-        <v>93998.08371610107</v>
+        <v>94063.90052740354</v>
       </c>
       <c r="I36">
-        <v>82280.86921193104</v>
+        <v>82338.48171027818</v>
       </c>
       <c r="J36">
-        <v>11717.21439131465</v>
+        <v>11725.418704191</v>
       </c>
       <c r="K36">
-        <v>290.0222325045988</v>
+        <v>290.2253040758016</v>
       </c>
       <c r="L36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="M36">
-        <v>4863.149567199719</v>
+        <v>4866.554711057405</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81024.83923754923</v>
+        <v>81081.57227235254</v>
       </c>
       <c r="P36">
-        <v>51596.9286415601</v>
+        <v>51633.05645589349</v>
       </c>
       <c r="Q36">
-        <v>40276.98935774017</v>
+        <v>40305.19102849335</v>
       </c>
       <c r="R36">
-        <v>11319.93928381993</v>
+        <v>11327.86542740014</v>
       </c>
       <c r="S36">
-        <v>29427.91048313376</v>
+        <v>29448.51570352469</v>
       </c>
       <c r="T36">
-        <v>26789.53165028383</v>
+        <v>26808.28949597389</v>
       </c>
       <c r="U36">
-        <v>2241.103725355212</v>
+        <v>2242.672930759936</v>
       </c>
       <c r="V36">
-        <v>397.275107494724</v>
+        <v>397.5532767908569</v>
       </c>
       <c r="W36">
         <v>66994</v>
@@ -5350,28 +5350,28 @@
         <v>5080</v>
       </c>
       <c r="AH36">
-        <v>29463.91628389893</v>
+        <v>29398.09947259646</v>
       </c>
       <c r="AI36">
-        <v>3074.130788068957</v>
+        <v>3016.518289721818</v>
       </c>
       <c r="AJ36">
-        <v>26389.78560868535</v>
+        <v>26381.581295809</v>
       </c>
       <c r="AK36">
-        <v>-37513.08371610107</v>
+        <v>-37578.90052740354</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-58880.48171027818</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>21301.581295809</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-58897.48171027818</v>
       </c>
       <c r="AO36">
-        <v>160992.0837161011</v>
+        <v>161057.9005274035</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5383,7 +5383,7 @@
         <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.860900000000001</v>
+        <v>8.854699999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5394,64 +5394,64 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78129.22529972871</v>
+        <v>78123.74266573256</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="F37">
-        <v>8164.211188413407</v>
+        <v>8169.930926525966</v>
       </c>
       <c r="G37">
-        <v>69965.01411131531</v>
+        <v>69953.81173920659</v>
       </c>
       <c r="H37">
-        <v>93756.88807210991</v>
+        <v>93822.57290480779</v>
       </c>
       <c r="I37">
-        <v>81955.57747002711</v>
+        <v>82012.99446098608</v>
       </c>
       <c r="J37">
-        <v>11801.31060208279</v>
+        <v>11809.5784438217</v>
       </c>
       <c r="K37">
-        <v>288.9190076135469</v>
+        <v>289.1214204396182</v>
       </c>
       <c r="L37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="M37">
-        <v>4868.356086461889</v>
+        <v>4871.766792188459</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80773.83827776319</v>
+        <v>80830.42735791227</v>
       </c>
       <c r="P37">
-        <v>51340.25334733526</v>
+        <v>51376.22164813032</v>
       </c>
       <c r="Q37">
-        <v>39872.2970814737</v>
+        <v>39900.23108415799</v>
       </c>
       <c r="R37">
-        <v>11467.95626586156</v>
+        <v>11475.99056397233</v>
       </c>
       <c r="S37">
-        <v>29433.58493042793</v>
+        <v>29454.20570978195</v>
       </c>
       <c r="T37">
-        <v>26897.0337796447</v>
+        <v>26915.8774848936</v>
       </c>
       <c r="U37">
-        <v>2203.196814562002</v>
+        <v>2204.74034503897</v>
       </c>
       <c r="V37">
-        <v>333.3543362212304</v>
+        <v>333.5878798493739</v>
       </c>
       <c r="W37">
         <v>68067</v>
@@ -5487,28 +5487,28 @@
         <v>5231</v>
       </c>
       <c r="AH37">
-        <v>31970.11192789009</v>
+        <v>31904.42709519221</v>
       </c>
       <c r="AI37">
-        <v>3999.422529972886</v>
+        <v>3942.005539013917</v>
       </c>
       <c r="AJ37">
-        <v>27970.68939791721</v>
+        <v>27962.4215561783</v>
       </c>
       <c r="AK37">
-        <v>-36079.88807210991</v>
+        <v>-36145.57290480779</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-58876.99446098608</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>22731.4215561783</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-58893.99446098608</v>
       </c>
       <c r="AO37">
-        <v>161823.8880721099</v>
+        <v>161889.5729048078</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5520,7 +5520,7 @@
         <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.1416</v>
+        <v>9.135199999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5531,64 +5531,64 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77606.26621579418</v>
+        <v>77600.77454953014</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="F38">
-        <v>8258.089104752467</v>
+        <v>8263.873825329771</v>
       </c>
       <c r="G38">
-        <v>69348.17711104172</v>
+        <v>69336.90072420036</v>
       </c>
       <c r="H38">
-        <v>92868.56553625465</v>
+        <v>92933.61916975603</v>
       </c>
       <c r="I38">
-        <v>81145.07016164642</v>
+        <v>81201.9115872058</v>
       </c>
       <c r="J38">
-        <v>11723.49548230074</v>
+        <v>11731.70769031813</v>
       </c>
       <c r="K38">
-        <v>288.8957213780329</v>
+        <v>289.0980903526166</v>
       </c>
       <c r="L38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="M38">
-        <v>4871.227048041612</v>
+        <v>4874.639300801794</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79868.70898262919</v>
+        <v>79924.65632813175</v>
       </c>
       <c r="P38">
-        <v>51315.95539377753</v>
+        <v>51351.9017803259</v>
       </c>
       <c r="Q38">
-        <v>39923.61620556339</v>
+        <v>39951.58235623761</v>
       </c>
       <c r="R38">
-        <v>11392.33918821414</v>
+        <v>11400.31942408828</v>
       </c>
       <c r="S38">
-        <v>28552.75358885167</v>
+        <v>28572.75454780585</v>
       </c>
       <c r="T38">
-        <v>25784.97442303757</v>
+        <v>25803.03657642901</v>
       </c>
       <c r="U38">
-        <v>2436.622979419968</v>
+        <v>2438.329812914907</v>
       </c>
       <c r="V38">
-        <v>331.1562940866062</v>
+        <v>331.3882662298474</v>
       </c>
       <c r="W38">
         <v>68272</v>
@@ -5624,28 +5624,28 @@
         <v>5302</v>
       </c>
       <c r="AH38">
-        <v>32272.43446374535</v>
+        <v>32207.38083024397</v>
       </c>
       <c r="AI38">
-        <v>4300.929838353579</v>
+        <v>4244.088412794197</v>
       </c>
       <c r="AJ38">
-        <v>27971.50451769926</v>
+        <v>27963.29230968187</v>
       </c>
       <c r="AK38">
-        <v>-35982.56553625465</v>
+        <v>-36047.61916975603</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-58708.9115872058</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>22661.29230968187</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-58725.9115872058</v>
       </c>
       <c r="AO38">
-        <v>161140.5655362547</v>
+        <v>161205.619169756</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5657,7 +5657,7 @@
         <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.2857</v>
+        <v>9.279199999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5668,64 +5668,64 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76275.17951124845</v>
+        <v>76269.64262343528</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="F39">
-        <v>8143.895668315527</v>
+        <v>8149.654655605514</v>
       </c>
       <c r="G39">
-        <v>68131.28384293293</v>
+        <v>68119.98796782977</v>
       </c>
       <c r="H39">
-        <v>91286.49024922743</v>
+        <v>91351.04384353958</v>
       </c>
       <c r="I39">
-        <v>79444.46647611614</v>
+        <v>79500.64593755937</v>
       </c>
       <c r="J39">
-        <v>11842.02377311128</v>
+        <v>11850.3979059802</v>
       </c>
       <c r="K39">
-        <v>286.7190153249027</v>
+        <v>286.9217697844764</v>
       </c>
       <c r="L39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="M39">
-        <v>4867.811481547889</v>
+        <v>4871.253773246363</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78302.13926360309</v>
+        <v>78357.51092394402</v>
       </c>
       <c r="P39">
-        <v>51242.08610633564</v>
+        <v>51278.32214552593</v>
       </c>
       <c r="Q39">
-        <v>39858.99960975816</v>
+        <v>39887.18605534798</v>
       </c>
       <c r="R39">
-        <v>11383.08639110671</v>
+        <v>11391.1359846326</v>
       </c>
       <c r="S39">
-        <v>27060.05315726747</v>
+        <v>27079.18877841808</v>
       </c>
       <c r="T39">
-        <v>24553.85274171264</v>
+        <v>24571.2160935554</v>
       </c>
       <c r="U39">
-        <v>2047.26313902102</v>
+        <v>2048.710869060435</v>
       </c>
       <c r="V39">
-        <v>458.9373820045774</v>
+        <v>459.2619213476031</v>
       </c>
       <c r="W39">
         <v>68337</v>
@@ -5761,28 +5761,28 @@
         <v>5136</v>
       </c>
       <c r="AH39">
-        <v>32496.50975077257</v>
+        <v>32431.95615646042</v>
       </c>
       <c r="AI39">
-        <v>4660.53352388386</v>
+        <v>4604.354062440631</v>
       </c>
       <c r="AJ39">
-        <v>27835.97622688872</v>
+        <v>27827.6020940198</v>
       </c>
       <c r="AK39">
-        <v>-35832.49024922743</v>
+        <v>-35897.04384353958</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-58588.64593755937</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>22691.6020940198</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-58596.64593755937</v>
       </c>
       <c r="AO39">
-        <v>159623.4902492274</v>
+        <v>159688.0438435396</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5794,7 +5794,7 @@
         <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.481299999999999</v>
+        <v>9.474600000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5805,64 +5805,64 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77975.71735271046</v>
+        <v>77970.22888778715</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="F40">
-        <v>8176.334172825234</v>
+        <v>8182.076929433151</v>
       </c>
       <c r="G40">
-        <v>69799.38317988522</v>
+        <v>69788.15195835399</v>
       </c>
       <c r="H40">
-        <v>93735.14739275834</v>
+        <v>93800.98351512147</v>
       </c>
       <c r="I40">
-        <v>82217.67908013707</v>
+        <v>82275.42575607338</v>
       </c>
       <c r="J40">
-        <v>11517.4684158375</v>
+        <v>11525.5578623368</v>
       </c>
       <c r="K40">
-        <v>285.0104248379506</v>
+        <v>285.2106056850107</v>
       </c>
       <c r="L40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="M40">
-        <v>4863.052103546509</v>
+        <v>4866.467732606181</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80772.80221708435</v>
+        <v>80829.53406461742</v>
       </c>
       <c r="P40">
-        <v>52897.34837537674</v>
+        <v>52934.50152867295</v>
       </c>
       <c r="Q40">
-        <v>41856.10895503902</v>
+        <v>41885.50714757891</v>
       </c>
       <c r="R40">
-        <v>11041.23952355394</v>
+        <v>11048.99448438275</v>
       </c>
       <c r="S40">
-        <v>27875.45384170761</v>
+        <v>27895.03253594447</v>
       </c>
       <c r="T40">
-        <v>24873.5701457413</v>
+        <v>24891.04042720212</v>
       </c>
       <c r="U40">
-        <v>2525.654803682755</v>
+        <v>2527.428730788299</v>
       </c>
       <c r="V40">
-        <v>476.2288922835556</v>
+        <v>476.5633779540572</v>
       </c>
       <c r="W40">
         <v>67061</v>
@@ -5898,28 +5898,28 @@
         <v>5270</v>
       </c>
       <c r="AH40">
-        <v>31707.85260724166</v>
+        <v>31642.01648487854</v>
       </c>
       <c r="AI40">
-        <v>3572.320919862934</v>
+        <v>3514.574243926618</v>
       </c>
       <c r="AJ40">
-        <v>28135.53158416251</v>
+        <v>28127.44213766319</v>
       </c>
       <c r="AK40">
-        <v>-35345.14739275834</v>
+        <v>-35410.98351512147</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-58268.42575607338</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>22857.44213766319</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-58276.42575607338</v>
       </c>
       <c r="AO40">
-        <v>160796.1473927583</v>
+        <v>160861.9835151215</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5931,7 +5931,7 @@
         <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
-        <v>9.6884</v>
+        <v>9.6816</v>
       </c>
     </row>
     <row r="41">
@@ -5942,64 +5942,64 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78912.40233941717</v>
+        <v>78906.98363285941</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="F41">
-        <v>8210.443279217505</v>
+        <v>8216.159877296899</v>
       </c>
       <c r="G41">
-        <v>70701.95906019966</v>
+        <v>70690.82375556251</v>
       </c>
       <c r="H41">
-        <v>99236.83160229906</v>
+        <v>99305.92617632516</v>
       </c>
       <c r="I41">
-        <v>89812.61802964604</v>
+        <v>89875.15090665077</v>
       </c>
       <c r="J41">
-        <v>9424.21357265302</v>
+        <v>9430.775269674374</v>
       </c>
       <c r="K41">
-        <v>281.1380457799738</v>
+        <v>281.3337907791042</v>
       </c>
       <c r="L41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="M41">
-        <v>4852.308561056771</v>
+        <v>4855.68702636704</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86320.7873348795</v>
+        <v>86380.88899203842</v>
       </c>
       <c r="P41">
-        <v>55671.92538065947</v>
+        <v>55710.68748044924</v>
       </c>
       <c r="Q41">
-        <v>47422.94363214682</v>
+        <v>47455.96230108677</v>
       </c>
       <c r="R41">
-        <v>8248.981748512655</v>
+        <v>8254.725179362469</v>
       </c>
       <c r="S41">
-        <v>30648.86205505697</v>
+        <v>30670.20161249634</v>
       </c>
       <c r="T41">
-        <v>27357.73237874357</v>
+        <v>27376.78045630216</v>
       </c>
       <c r="U41">
-        <v>2115.89775133609</v>
+        <v>2117.370964975126</v>
       </c>
       <c r="V41">
-        <v>1175.231824140365</v>
+        <v>1176.050090311904</v>
       </c>
       <c r="W41">
         <v>63655</v>
@@ -6035,28 +6035,28 @@
         <v>7350</v>
       </c>
       <c r="AH41">
-        <v>28453.16839770094</v>
+        <v>28384.07382367484</v>
       </c>
       <c r="AI41">
-        <v>-3117.618029646037</v>
+        <v>-3180.150906650772</v>
       </c>
       <c r="AJ41">
-        <v>31570.78642734698</v>
+        <v>31564.22473032563</v>
       </c>
       <c r="AK41">
-        <v>-35193.83160229906</v>
+        <v>-35262.92617632516</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-59477.15090665077</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>24214.22473032563</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-59485.15090665077</v>
       </c>
       <c r="AO41">
-        <v>162891.8316022991</v>
+        <v>162960.9261763252</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6068,7 +6068,7 @@
         <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
-        <v>9.917</v>
+        <v>9.9101</v>
       </c>
     </row>
     <row r="42">
@@ -6079,64 +6079,64 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80160.59462617914</v>
+        <v>80155.14939001572</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="F42">
-        <v>8192.588091209109</v>
+        <v>8198.336576603548</v>
       </c>
       <c r="G42">
-        <v>71968.00653497003</v>
+        <v>71956.81281341218</v>
       </c>
       <c r="H42">
-        <v>103376.9288445537</v>
+        <v>103449.4652346381</v>
       </c>
       <c r="I42">
-        <v>92353.93126595175</v>
+        <v>92418.73315994309</v>
       </c>
       <c r="J42">
-        <v>11022.99767209222</v>
+        <v>11030.73216825088</v>
       </c>
       <c r="K42">
-        <v>277.714349821901</v>
+        <v>277.9092133822318</v>
       </c>
       <c r="L42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="M42">
-        <v>4836.394080195955</v>
+        <v>4839.787628171544</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90502.415040715</v>
+        <v>90565.91778310006</v>
       </c>
       <c r="P42">
-        <v>55426.49551714143</v>
+        <v>55465.38657286131</v>
       </c>
       <c r="Q42">
-        <v>47171.96787674242</v>
+        <v>47205.06698600404</v>
       </c>
       <c r="R42">
-        <v>8254.527640399016</v>
+        <v>8260.319586857271</v>
       </c>
       <c r="S42">
-        <v>35075.91961706384</v>
+        <v>35100.53130379463</v>
       </c>
       <c r="T42">
-        <v>29852.1977693221</v>
+        <v>29873.14413217573</v>
       </c>
       <c r="U42">
-        <v>2455.25181604854</v>
+        <v>2456.974590225282</v>
       </c>
       <c r="V42">
-        <v>2768.470031693202</v>
+        <v>2770.412581393608</v>
       </c>
       <c r="W42">
         <v>60524</v>
@@ -6172,28 +6172,28 @@
         <v>5211</v>
       </c>
       <c r="AH42">
-        <v>25026.07115544631</v>
+        <v>24953.5347653619</v>
       </c>
       <c r="AI42">
-        <v>-4432.931265951745</v>
+        <v>-4497.733159943091</v>
       </c>
       <c r="AJ42">
-        <v>29459.00232790778</v>
+        <v>29451.26783174912</v>
       </c>
       <c r="AK42">
-        <v>-35489.9288445537</v>
+        <v>-35562.4652346381</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-59802.73315994309</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>24240.26783174912</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-59810.73315994309</v>
       </c>
       <c r="AO42">
-        <v>163900.9288445537</v>
+        <v>163973.4652346381</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6205,7 +6205,7 @@
         <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6963</v>
+        <v>10.6888</v>
       </c>
     </row>
     <row r="43">
@@ -6216,64 +6216,64 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79302.32518062349</v>
+        <v>79296.91626708473</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="F43">
-        <v>8156.410363246972</v>
+        <v>8162.123802296589</v>
       </c>
       <c r="G43">
-        <v>71145.91481737651</v>
+        <v>71134.79246478815</v>
       </c>
       <c r="H43">
-        <v>101628.7020941492</v>
+        <v>101699.8914249022</v>
       </c>
       <c r="I43">
-        <v>92820.26808109933</v>
+        <v>92885.28724034125</v>
       </c>
       <c r="J43">
-        <v>8808.434096382529</v>
+        <v>8814.604267952002</v>
       </c>
       <c r="K43">
-        <v>274.1440487995934</v>
+        <v>274.3360824570328</v>
       </c>
       <c r="L43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="M43">
-        <v>4823.07072441063</v>
+        <v>4826.449210704071</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88809.81250156248</v>
+        <v>88872.02239882587</v>
       </c>
       <c r="P43">
-        <v>54025.32070566079</v>
+        <v>54063.16460551883</v>
       </c>
       <c r="Q43">
-        <v>46403.91405071625</v>
+        <v>46436.41927333073</v>
       </c>
       <c r="R43">
-        <v>7621.406654944542</v>
+        <v>7626.745332188098</v>
       </c>
       <c r="S43">
-        <v>34784.4917959017</v>
+        <v>34808.85779330704</v>
       </c>
       <c r="T43">
-        <v>31135.30487245939</v>
+        <v>31157.11467098077</v>
       </c>
       <c r="U43">
-        <v>2462.159565336955</v>
+        <v>2463.884269953385</v>
       </c>
       <c r="V43">
-        <v>1187.027441437988</v>
+        <v>1187.858935763903</v>
       </c>
       <c r="W43">
         <v>60829</v>
@@ -6309,28 +6309,28 @@
         <v>6878</v>
       </c>
       <c r="AH43">
-        <v>24516.29790585078</v>
+        <v>24445.10857509777</v>
       </c>
       <c r="AI43">
-        <v>-5796.268081099333</v>
+        <v>-5861.287240341248</v>
       </c>
       <c r="AJ43">
-        <v>30312.56590361747</v>
+        <v>30306.395732048</v>
       </c>
       <c r="AK43">
-        <v>-36304.70209414922</v>
+        <v>-36375.89142490224</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-59804.28724034125</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>23428.395732048</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-59812.28724034125</v>
       </c>
       <c r="AO43">
-        <v>162457.7020941492</v>
+        <v>162528.8914249023</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6342,7 +6342,7 @@
         <v>0.154080134850564</v>
       </c>
       <c r="AS43">
-        <v>12.0001</v>
+        <v>11.9917</v>
       </c>
     </row>
     <row r="44">
@@ -6353,64 +6353,64 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77251.88611664317</v>
+        <v>77246.50209742189</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="F44">
-        <v>8329.857906867461</v>
+        <v>8335.640198844552</v>
       </c>
       <c r="G44">
-        <v>68922.02820977572</v>
+        <v>68910.86189857734</v>
       </c>
       <c r="H44">
-        <v>101703.8873100763</v>
+        <v>101774.4865421649</v>
       </c>
       <c r="I44">
-        <v>92940.77692497036</v>
+        <v>93005.29311657486</v>
       </c>
       <c r="J44">
-        <v>8763.110385105954</v>
+        <v>8769.19342559004</v>
       </c>
       <c r="K44">
-        <v>274.3460359372552</v>
+        <v>274.5364772269247</v>
       </c>
       <c r="L44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="M44">
-        <v>4837.432328611813</v>
+        <v>4840.790302596026</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88835.99506217041</v>
+        <v>88897.66185976384</v>
       </c>
       <c r="P44">
-        <v>54159.16825169505</v>
+        <v>54196.76362577813</v>
       </c>
       <c r="Q44">
-        <v>46601.39213975102</v>
+        <v>46633.74117366057</v>
       </c>
       <c r="R44">
-        <v>7557.776111944027</v>
+        <v>7563.022452117575</v>
       </c>
       <c r="S44">
-        <v>34676.82681047536</v>
+        <v>34700.8982339857</v>
       </c>
       <c r="T44">
-        <v>31209.39388514698</v>
+        <v>31231.05833967785</v>
       </c>
       <c r="U44">
-        <v>2262.098652166454</v>
+        <v>2263.668920835386</v>
       </c>
       <c r="V44">
-        <v>1205.334273161926</v>
+        <v>1206.170973472465</v>
       </c>
       <c r="W44">
         <v>60792</v>
@@ -6446,28 +6446,28 @@
         <v>6725</v>
       </c>
       <c r="AH44">
-        <v>22321.1126899237</v>
+        <v>22250.5134578351</v>
       </c>
       <c r="AI44">
-        <v>-7932.776924970356</v>
+        <v>-7997.29311657486</v>
       </c>
       <c r="AJ44">
-        <v>30253.88961489405</v>
+        <v>30247.80657440996</v>
       </c>
       <c r="AK44">
-        <v>-38078.8873100763</v>
+        <v>-38149.4865421649</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-61672.29311657486</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>23522.80657440996</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-62064.29311657486</v>
       </c>
       <c r="AO44">
-        <v>162495.8873100763</v>
+        <v>162566.4865421649</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6479,7 +6479,7 @@
         <v>0.153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.4067</v>
+        <v>13.3974</v>
       </c>
     </row>
     <row r="45">
@@ -6490,64 +6490,64 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76402.00801851097</v>
+        <v>76396.53347653548</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="F45">
-        <v>8297.574145759358</v>
+        <v>8303.434739869661</v>
       </c>
       <c r="G45">
-        <v>68104.43387275162</v>
+        <v>68093.09873666582</v>
       </c>
       <c r="H45">
-        <v>101863.0975318703</v>
+        <v>101935.0436523829</v>
       </c>
       <c r="I45">
-        <v>94226.7577420106</v>
+        <v>94293.3102996323</v>
       </c>
       <c r="J45">
-        <v>7636.339862622969</v>
+        <v>7641.733425565223</v>
       </c>
       <c r="K45">
-        <v>273.816578380581</v>
+        <v>274.0099756070921</v>
       </c>
       <c r="L45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="M45">
-        <v>4836.816170906339</v>
+        <v>4840.232424363782</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89001.47280109435</v>
+        <v>89064.33472894746</v>
       </c>
       <c r="P45">
-        <v>53546.49834099773</v>
+        <v>53584.31834565115</v>
       </c>
       <c r="Q45">
-        <v>46337.41050119331</v>
+        <v>46370.13871190884</v>
       </c>
       <c r="R45">
-        <v>7209.087912567669</v>
+        <v>7214.179706556959</v>
       </c>
       <c r="S45">
-        <v>35454.97446009663</v>
+        <v>35480.01638329632</v>
       </c>
       <c r="T45">
-        <v>33099.86735258164</v>
+        <v>33123.24585866676</v>
       </c>
       <c r="U45">
-        <v>1927.855157459689</v>
+        <v>1929.216805621291</v>
       </c>
       <c r="V45">
-        <v>427.2519500553</v>
+        <v>427.5537190082645</v>
       </c>
       <c r="W45">
         <v>60348</v>
@@ -6583,28 +6583,28 @@
         <v>7227</v>
       </c>
       <c r="AH45">
-        <v>21026.9024681297</v>
+        <v>20954.95634761715</v>
       </c>
       <c r="AI45">
-        <v>-10073.7577420106</v>
+        <v>-10140.3102996323</v>
       </c>
       <c r="AJ45">
-        <v>31100.66013737703</v>
+        <v>31095.26657443478</v>
       </c>
       <c r="AK45">
-        <v>-38929.0975318703</v>
+        <v>-39001.04365238285</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-62869.3102996323</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>23868.26657443478</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-63261.3102996323</v>
       </c>
       <c r="AO45">
-        <v>162211.0975318703</v>
+        <v>162283.0436523829</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6616,7 +6616,144 @@
         <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7432</v>
+        <v>13.7335</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B46">
+        <v>116873</v>
+      </c>
+      <c r="C46">
+        <v>70615.72128516169</v>
+      </c>
+      <c r="D46">
+        <v>38506</v>
+      </c>
+      <c r="E46">
+        <v>7751.278714838302</v>
+      </c>
+      <c r="F46">
+        <v>8204.612925295371</v>
+      </c>
+      <c r="G46">
+        <v>62411.10835986632</v>
+      </c>
+      <c r="H46">
+        <v>104932.1988395653</v>
+      </c>
+      <c r="I46">
+        <v>97342.4621740389</v>
+      </c>
+      <c r="J46">
+        <v>7589.736731310686</v>
+      </c>
+      <c r="K46">
+        <v>271.4653448411967</v>
+      </c>
+      <c r="L46">
+        <v>7751.278714838302</v>
+      </c>
+      <c r="M46">
+        <v>4836.989316632898</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>92072.4654632529</v>
+      </c>
+      <c r="P46">
+        <v>53561.15017235481</v>
+      </c>
+      <c r="Q46">
+        <v>46339.95631923795</v>
+      </c>
+      <c r="R46">
+        <v>7221.193918901139</v>
+      </c>
+      <c r="S46">
+        <v>38511.3152251138</v>
+      </c>
+      <c r="T46">
+        <v>35794.40682314554</v>
+      </c>
+      <c r="U46">
+        <v>2348.365655342999</v>
+      </c>
+      <c r="V46">
+        <v>368.5428124095466</v>
+      </c>
+      <c r="W46">
+        <v>59268</v>
+      </c>
+      <c r="X46">
+        <v>52088</v>
+      </c>
+      <c r="Y46">
+        <v>7180</v>
+      </c>
+      <c r="Z46">
+        <v>401</v>
+      </c>
+      <c r="AA46">
+        <v>37900</v>
+      </c>
+      <c r="AB46">
+        <v>30720</v>
+      </c>
+      <c r="AC46">
+        <v>7180</v>
+      </c>
+      <c r="AD46">
+        <v>20967</v>
+      </c>
+      <c r="AE46">
+        <v>58867</v>
+      </c>
+      <c r="AF46">
+        <v>51687</v>
+      </c>
+      <c r="AG46">
+        <v>7180</v>
+      </c>
+      <c r="AH46">
+        <v>11940.8011604347</v>
+      </c>
+      <c r="AI46">
+        <v>-18975.4621740389</v>
+      </c>
+      <c r="AJ46">
+        <v>30916.26326868931</v>
+      </c>
+      <c r="AK46">
+        <v>-46926.1988395653</v>
+      </c>
+      <c r="AL46">
+        <v>-70662.4621740389</v>
+      </c>
+      <c r="AM46">
+        <v>23736.26326868931</v>
+      </c>
+      <c r="AN46">
+        <v>-71063.4621740389</v>
+      </c>
+      <c r="AO46">
+        <v>164200.1988395653</v>
+      </c>
+      <c r="AP46">
+        <v>264458</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5036834854927998</v>
+      </c>
+      <c r="AR46">
+        <v>0.1433119814866633</v>
+      </c>
+      <c r="AS46">
+        <v>15.2012</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14333.27347522322</v>
@@ -704,13 +704,13 @@
         <v>-44927.72652477678</v>
       </c>
       <c r="AL2">
-        <v>-72105.15084567452</v>
+        <v>-77658.59184567453</v>
       </c>
       <c r="AM2">
-        <v>27177.42432089774</v>
+        <v>32730.86532089773</v>
       </c>
       <c r="AN2">
-        <v>-73502.15084567452</v>
+        <v>-79055.59184567453</v>
       </c>
       <c r="AO2">
         <v>139530.7265247768</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226788</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4142</v>
@@ -736,121 +736,121 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52320.58078816316</v>
+        <v>52321.66853164957</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="F3">
-        <v>8882.889979561876</v>
+        <v>8876.629654666533</v>
       </c>
       <c r="G3">
-        <v>43437.69080860129</v>
+        <v>43445.03887698304</v>
       </c>
       <c r="H3">
-        <v>82097.70949077405</v>
+        <v>82039.85013016526</v>
       </c>
       <c r="I3">
-        <v>70323.80696047669</v>
+        <v>70274.24540106722</v>
       </c>
       <c r="J3">
-        <v>11773.90267422781</v>
+        <v>11765.60487292706</v>
       </c>
       <c r="K3">
-        <v>342.7305046201676</v>
+        <v>342.488961123017</v>
       </c>
       <c r="L3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="M3">
-        <v>4916.849218457641</v>
+        <v>4913.384009089994</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75294.71055585941</v>
+        <v>75241.64569160182</v>
       </c>
       <c r="P3">
-        <v>45943.69152825355</v>
+        <v>45911.31215211357</v>
       </c>
       <c r="Q3">
-        <v>34961.35726416995</v>
+        <v>34936.71782185338</v>
       </c>
       <c r="R3">
-        <v>10982.33440801405</v>
+        <v>10974.5944740892</v>
       </c>
       <c r="S3">
-        <v>29351.01888367541</v>
+        <v>29330.33339565924</v>
       </c>
       <c r="T3">
-        <v>25515.92417743746</v>
+        <v>25497.94151912207</v>
       </c>
       <c r="U3">
-        <v>3043.526583954633</v>
+        <v>3041.381621528327</v>
       </c>
       <c r="V3">
-        <v>791.5682662137655</v>
+        <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>58285</v>
+        <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>56996.065</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
-        <v>1285</v>
+        <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
-        <v>11950.29050922595</v>
+        <v>12008.14986983474</v>
       </c>
       <c r="AI3">
-        <v>-16459.80696047669</v>
+        <v>-16410.24540106722</v>
       </c>
       <c r="AJ3">
-        <v>28410.09732577219</v>
+        <v>28418.39512707294</v>
       </c>
       <c r="AK3">
-        <v>-45049.70949077405</v>
+        <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68239.80696047669</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23190.09732577219</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69524.80696047669</v>
+        <v>-73406.31040106723</v>
       </c>
       <c r="AO3">
-        <v>140382.7094907741</v>
+        <v>139041.1351301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,10 +859,10 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9478</v>
+        <v>6.9527</v>
       </c>
     </row>
     <row r="4">
@@ -870,136 +870,136 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213</v>
+        <v>95213.00000000002</v>
       </c>
       <c r="C4">
-        <v>52942.0817820074</v>
+        <v>52943.16064178856</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="F4">
-        <v>8951.982218883044</v>
+        <v>8945.758995606473</v>
       </c>
       <c r="G4">
-        <v>43990.09956312436</v>
+        <v>43997.40164618209</v>
       </c>
       <c r="H4">
-        <v>81509.02927345075</v>
+        <v>81452.36596963462</v>
       </c>
       <c r="I4">
-        <v>70098.69716448228</v>
+        <v>70049.96607530171</v>
       </c>
       <c r="J4">
-        <v>11410.33210896847</v>
+        <v>11402.39989433291</v>
       </c>
       <c r="K4">
-        <v>370.6254000055653</v>
+        <v>370.3677492909181</v>
       </c>
       <c r="L4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="M4">
-        <v>4935.726410106575</v>
+        <v>4932.295200489405</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74650.75924534601</v>
+        <v>74598.86366164284</v>
       </c>
       <c r="P4">
-        <v>46203.50015304561</v>
+        <v>46171.38048495634</v>
       </c>
       <c r="Q4">
-        <v>35163.98224670952</v>
+        <v>35139.53701128969</v>
       </c>
       <c r="R4">
-        <v>11039.51790633609</v>
+        <v>11031.84347366665</v>
       </c>
       <c r="S4">
-        <v>28447.25909230041</v>
+        <v>28427.4831766865</v>
       </c>
       <c r="T4">
-        <v>24906.5791524056</v>
+        <v>24889.26464045381</v>
       </c>
       <c r="U4">
-        <v>3169.865737262431</v>
+        <v>3167.662115566431</v>
       </c>
       <c r="V4">
-        <v>370.8142026323844</v>
+        <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>59426</v>
+        <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>57996.251</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
-        <v>1426</v>
+        <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
-        <v>13703.97072654925</v>
+        <v>13760.6340303654</v>
       </c>
       <c r="AI4">
-        <v>-15604.69716448228</v>
+        <v>-15555.96607530171</v>
       </c>
       <c r="AJ4">
-        <v>29308.66789103153</v>
+        <v>29316.60010566709</v>
       </c>
       <c r="AK4">
-        <v>-44296.02927345075</v>
+        <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68429.69716448228</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24133.66789103153</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69855.69716448228</v>
+        <v>-73552.21707530171</v>
       </c>
       <c r="AO4">
-        <v>140935.0292734508</v>
+        <v>139453.7919696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953851</v>
+        <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830645</v>
+        <v>0.0001540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1874</v>
+        <v>7.1924</v>
       </c>
     </row>
     <row r="5">
@@ -1010,121 +1010,121 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51705.67601246106</v>
+        <v>51706.75148945306</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="F5">
-        <v>8875.588140509184</v>
+        <v>8869.395094197842</v>
       </c>
       <c r="G5">
-        <v>42830.08787195187</v>
+        <v>42837.35639525522</v>
       </c>
       <c r="H5">
-        <v>80279.71412074337</v>
+        <v>80223.69800332779</v>
       </c>
       <c r="I5">
-        <v>68506.54151896015</v>
+        <v>68458.74027159036</v>
       </c>
       <c r="J5">
-        <v>11773.17273606188</v>
+        <v>11764.95786592239</v>
       </c>
       <c r="K5">
-        <v>341.6905682672683</v>
+        <v>341.452149643068</v>
       </c>
       <c r="L5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="M5">
-        <v>4916.601944354926</v>
+        <v>4913.17132735763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73480.09762058224</v>
+        <v>73428.82601578016</v>
       </c>
       <c r="P5">
-        <v>44905.15415189602</v>
+        <v>44873.82105093661</v>
       </c>
       <c r="Q5">
-        <v>33623.49701901386</v>
+        <v>33600.03582738447</v>
       </c>
       <c r="R5">
-        <v>11281.65726716081</v>
+        <v>11273.78535773711</v>
       </c>
       <c r="S5">
-        <v>28574.94346868622</v>
+        <v>28555.00496484354</v>
       </c>
       <c r="T5">
-        <v>25305.5794123966</v>
+        <v>25287.92214588589</v>
       </c>
       <c r="U5">
-        <v>2777.848587388549</v>
+        <v>2775.910310772369</v>
       </c>
       <c r="V5">
-        <v>491.5154689010635</v>
+        <v>491.1725081852826</v>
       </c>
       <c r="W5">
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
-        <v>11383.28587925663</v>
+        <v>11439.30199667221</v>
       </c>
       <c r="AI5">
-        <v>-15259.54151896015</v>
+        <v>-15211.74027159036</v>
       </c>
       <c r="AJ5">
-        <v>26642.82726393813</v>
+        <v>26651.04213407761</v>
       </c>
       <c r="AK5">
-        <v>-46316.71412074337</v>
+        <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67763.54151896015</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21446.82726393813</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68749.54151896015</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
-        <v>138965.7141207434</v>
+        <v>138909.6980033278</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1133,10 +1133,10 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.1552733834376522</v>
+        <v>0.0001552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4472</v>
+        <v>7.4524</v>
       </c>
     </row>
     <row r="6">
@@ -1147,121 +1147,121 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51128.4043874506</v>
+        <v>51129.47699003304</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="F6">
-        <v>8678.590343307256</v>
+        <v>8672.528409854122</v>
       </c>
       <c r="G6">
-        <v>42449.81404414335</v>
+        <v>42456.94858017892</v>
       </c>
       <c r="H6">
-        <v>80848.92934914106</v>
+        <v>80792.45694866077</v>
       </c>
       <c r="I6">
-        <v>68905.79751055193</v>
+        <v>68857.66730247428</v>
       </c>
       <c r="J6">
-        <v>11943.13183858913</v>
+        <v>11934.7896461865</v>
       </c>
       <c r="K6">
-        <v>339.1148479716106</v>
+        <v>338.8779786691025</v>
       </c>
       <c r="L6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="M6">
-        <v>4905.919160147324</v>
+        <v>4902.492410606345</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74068.29972847273</v>
+        <v>74016.56354941837</v>
       </c>
       <c r="P6">
-        <v>44960.22367395221</v>
+        <v>44928.81927840313</v>
       </c>
       <c r="Q6">
-        <v>33505.05000403259</v>
+        <v>33481.6469655858</v>
       </c>
       <c r="R6">
-        <v>11455.17366991962</v>
+        <v>11447.17231281734</v>
       </c>
       <c r="S6">
-        <v>29108.07605452053</v>
+        <v>29087.74427101523</v>
       </c>
       <c r="T6">
-        <v>26423.88633491948</v>
+        <v>26405.42943878784</v>
       </c>
       <c r="U6">
-        <v>2196.231550931527</v>
+        <v>2194.697498858233</v>
       </c>
       <c r="V6">
-        <v>487.9581686695164</v>
+        <v>487.6173333691535</v>
       </c>
       <c r="W6">
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
-        <v>10762.07065085894</v>
+        <v>10818.54305133924</v>
       </c>
       <c r="AI6">
-        <v>-16241.79751055193</v>
+        <v>-16193.66730247428</v>
       </c>
       <c r="AJ6">
-        <v>27003.86816141087</v>
+        <v>27012.21035381351</v>
       </c>
       <c r="AK6">
-        <v>-46837.92934914106</v>
+        <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68666.79751055193</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21828.86816141087</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69652.79751055193</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
-        <v>139434.9293491411</v>
+        <v>139378.4569486608</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1270,10 +1270,10 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548523844684408</v>
+        <v>0.0001548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4394</v>
+        <v>7.4446</v>
       </c>
     </row>
     <row r="7">
@@ -1284,121 +1284,121 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52363.23865755962</v>
+        <v>52364.30885172918</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="F7">
-        <v>8702.247956951733</v>
+        <v>8696.179850616174</v>
       </c>
       <c r="G7">
-        <v>43660.99070060789</v>
+        <v>43668.129001113</v>
       </c>
       <c r="H7">
-        <v>79677.78854282686</v>
+        <v>79622.22895686104</v>
       </c>
       <c r="I7">
-        <v>67573.962238832</v>
+        <v>67526.84269105439</v>
       </c>
       <c r="J7">
-        <v>12103.82630399485</v>
+        <v>12095.38626580666</v>
       </c>
       <c r="K7">
-        <v>338.5414849505509</v>
+        <v>338.3054188513269</v>
       </c>
       <c r="L7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="M7">
-        <v>4905.285087425022</v>
+        <v>4901.864615879742</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72899.20062801091</v>
+        <v>72848.36777385917</v>
       </c>
       <c r="P7">
-        <v>44490.61754404799</v>
+        <v>44459.59408901345</v>
       </c>
       <c r="Q7">
-        <v>33292.187705479</v>
+        <v>33268.97295267724</v>
       </c>
       <c r="R7">
-        <v>11198.42983856899</v>
+        <v>11190.62113633621</v>
       </c>
       <c r="S7">
-        <v>28408.58308396291</v>
+        <v>28388.77368484572</v>
       </c>
       <c r="T7">
-        <v>25448.43815837147</v>
+        <v>25430.69287811943</v>
       </c>
       <c r="U7">
-        <v>2054.748460165591</v>
+        <v>2053.315677255843</v>
       </c>
       <c r="V7">
-        <v>905.3964654258532</v>
+        <v>904.7651294704517</v>
       </c>
       <c r="W7">
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
-        <v>13483.21145717314</v>
+        <v>13538.77104313896</v>
       </c>
       <c r="AI7">
-        <v>-13675.962238832</v>
+        <v>-13628.84269105439</v>
       </c>
       <c r="AJ7">
-        <v>27159.17369600515</v>
+        <v>27167.61373419334</v>
       </c>
       <c r="AK7">
-        <v>-48616.78854282686</v>
+        <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70526.962238832</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21910.17369600515</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71512.962238832</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
-        <v>142763.7885428269</v>
+        <v>142708.228956861</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1407,10 +1407,10 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711286424205766</v>
+        <v>0.0001711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4521</v>
+        <v>7.4573</v>
       </c>
     </row>
     <row r="8">
@@ -1421,121 +1421,121 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49367.53001146775</v>
+        <v>49368.60578775706</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="F8">
-        <v>8639.983743525765</v>
+        <v>8633.890742862901</v>
       </c>
       <c r="G8">
-        <v>40727.54626794198</v>
+        <v>40734.71504489415</v>
       </c>
       <c r="H8">
-        <v>78043.71428931483</v>
+        <v>77988.67710209171</v>
       </c>
       <c r="I8">
-        <v>66754.0167353471</v>
+        <v>66706.94115276607</v>
       </c>
       <c r="J8">
-        <v>11289.69755396772</v>
+        <v>11281.73594932564</v>
       </c>
       <c r="K8">
-        <v>334.3734956460373</v>
+        <v>334.1376922011359</v>
       </c>
       <c r="L8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="M8">
-        <v>4888.89040111905</v>
+        <v>4885.44270800539</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71294.98040401749</v>
+        <v>71244.70248964224</v>
       </c>
       <c r="P8">
-        <v>44270.31870250652</v>
+        <v>44239.09884270045</v>
       </c>
       <c r="Q8">
-        <v>33103.44360011593</v>
+        <v>33080.09872936317</v>
       </c>
       <c r="R8">
-        <v>11166.8749763714</v>
+        <v>11158.99998740697</v>
       </c>
       <c r="S8">
-        <v>27024.66170151097</v>
+        <v>27005.60364694179</v>
       </c>
       <c r="T8">
-        <v>25195.77382077552</v>
+        <v>25178.00551574759</v>
       </c>
       <c r="U8">
-        <v>1706.065429158318</v>
+        <v>1704.862295205833</v>
       </c>
       <c r="V8">
-        <v>122.8225775963102</v>
+        <v>122.7359619186742</v>
       </c>
       <c r="W8">
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
-        <v>12594.28571068517</v>
+        <v>12649.32289790829</v>
       </c>
       <c r="AI8">
-        <v>-15861.0167353471</v>
+        <v>-15813.94115276607</v>
       </c>
       <c r="AJ8">
-        <v>28455.30244603229</v>
+        <v>28463.26405067436</v>
       </c>
       <c r="AK8">
-        <v>-47405.71428931483</v>
+        <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70725.0167353471</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23319.30244603229</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71711.0167353471</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
-        <v>139029.7142893148</v>
+        <v>138974.6771020917</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1544,10 +1544,10 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.169458761099947</v>
+        <v>0.000169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9353</v>
+        <v>7.9409</v>
       </c>
     </row>
     <row r="9">
@@ -1558,121 +1558,121 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46564.48597672994</v>
+        <v>46565.54670958425</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="F9">
-        <v>8646.556766687079</v>
+        <v>8640.524802036545</v>
       </c>
       <c r="G9">
-        <v>37917.92921004287</v>
+        <v>37925.0219075477</v>
       </c>
       <c r="H9">
-        <v>76957.35492957747</v>
+        <v>76903.66835154883</v>
       </c>
       <c r="I9">
-        <v>65852.72541334966</v>
+        <v>65806.78558752616</v>
       </c>
       <c r="J9">
-        <v>11104.6295162278</v>
+        <v>11096.88276402267</v>
       </c>
       <c r="K9">
-        <v>331.9935088793632</v>
+        <v>331.7619053447073</v>
       </c>
       <c r="L9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="M9">
-        <v>4880.893570116351</v>
+        <v>4877.488587269145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70223.95382731171</v>
+        <v>70174.96456851922</v>
       </c>
       <c r="P9">
-        <v>44333.47299448868</v>
+        <v>44302.54531435495</v>
       </c>
       <c r="Q9">
-        <v>33240.53067973056</v>
+        <v>33217.34159863904</v>
       </c>
       <c r="R9">
-        <v>11092.94231475812</v>
+        <v>11085.20371571591</v>
       </c>
       <c r="S9">
-        <v>25890.48071034905</v>
+        <v>25872.41913177574</v>
       </c>
       <c r="T9">
-        <v>24617.59020208206</v>
+        <v>24600.41661057192</v>
       </c>
       <c r="U9">
-        <v>1261.20342927128</v>
+        <v>1260.323595285594</v>
       </c>
       <c r="V9">
-        <v>11.68720146968769</v>
+        <v>11.67904830675462</v>
       </c>
       <c r="W9">
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
-        <v>10488.64507042253</v>
+        <v>10542.33164845117</v>
       </c>
       <c r="AI9">
-        <v>-17767.72541334966</v>
+        <v>-17721.78558752616</v>
       </c>
       <c r="AJ9">
-        <v>28256.3704837722</v>
+        <v>28264.11723597733</v>
       </c>
       <c r="AK9">
-        <v>-49411.35492957747</v>
+        <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72479.72541334966</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23068.3704837722</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73319.72541334966</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
-        <v>137697.3549295775</v>
+        <v>137643.6683515488</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1681,10 +1681,10 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711120718583385</v>
+        <v>0.0001711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.164999999999999</v>
+        <v>8.1707</v>
       </c>
     </row>
     <row r="10">
@@ -1695,121 +1695,121 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47849.01274229386</v>
+        <v>47850.0811599892</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="F10">
-        <v>8670.700826162212</v>
+        <v>8664.637994062661</v>
       </c>
       <c r="G10">
-        <v>39178.31191613165</v>
+        <v>39185.44316592654</v>
       </c>
       <c r="H10">
-        <v>79586.61973214177</v>
+        <v>79530.97021516721</v>
       </c>
       <c r="I10">
-        <v>68301.73248548387</v>
+        <v>68253.9737235948</v>
       </c>
       <c r="J10">
-        <v>11284.88736941604</v>
+        <v>11276.99661424471</v>
       </c>
       <c r="K10">
-        <v>335.4784498103387</v>
+        <v>335.2438725189529</v>
       </c>
       <c r="L10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="M10">
-        <v>4897.168829255717</v>
+        <v>4893.744571751025</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72825.98519536956</v>
+        <v>72775.06293088643</v>
       </c>
       <c r="P10">
-        <v>44702.7993763887</v>
+        <v>44671.54174538139</v>
       </c>
       <c r="Q10">
-        <v>33429.78910153325</v>
+        <v>33406.41392085184</v>
       </c>
       <c r="R10">
-        <v>11273.01039761358</v>
+        <v>11265.12794720185</v>
       </c>
       <c r="S10">
-        <v>28123.18581898086</v>
+        <v>28103.52118550504</v>
       </c>
       <c r="T10">
-        <v>26455.31100772148</v>
+        <v>26436.81260580486</v>
       </c>
       <c r="U10">
-        <v>1655.997839456918</v>
+        <v>1654.839912657327</v>
       </c>
       <c r="V10">
-        <v>11.87697180245762</v>
+        <v>11.8686670428617</v>
       </c>
       <c r="W10">
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
-        <v>9733.380267858229</v>
+        <v>9789.02978483279</v>
       </c>
       <c r="AI10">
-        <v>-18924.73248548387</v>
+        <v>-18876.9737235948</v>
       </c>
       <c r="AJ10">
-        <v>28658.11263058396</v>
+        <v>28666.00338575529</v>
       </c>
       <c r="AK10">
-        <v>-49366.61973214177</v>
+        <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72822.73248548387</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23456.11263058396</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73662.73248548387</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
-        <v>139526.6197321418</v>
+        <v>139470.9702151672</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1818,10 +1818,10 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668596216735144</v>
+        <v>0.0001668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.146100000000001</v>
+        <v>8.1518</v>
       </c>
     </row>
     <row r="11">
@@ -1832,121 +1832,121 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48151.40566389269</v>
+        <v>48152.49065994762</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="F11">
-        <v>8200.697304682648</v>
+        <v>8194.895428649448</v>
       </c>
       <c r="G11">
-        <v>39950.70835921004</v>
+        <v>39957.59523129818</v>
       </c>
       <c r="H11">
-        <v>79149.44143584647</v>
+        <v>79093.44433825265</v>
       </c>
       <c r="I11">
-        <v>68195.3418208918</v>
+        <v>68147.09459207865</v>
       </c>
       <c r="J11">
-        <v>10954.09961495467</v>
+        <v>10946.34974617399</v>
       </c>
       <c r="K11">
-        <v>338.0721649484536</v>
+        <v>337.8329837278291</v>
       </c>
       <c r="L11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="M11">
-        <v>4908.665880014905</v>
+        <v>4905.193069122594</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72369.10905477581</v>
+        <v>72317.90894534985</v>
       </c>
       <c r="P11">
-        <v>43146.85504906223</v>
+        <v>43116.32926632493</v>
       </c>
       <c r="Q11">
-        <v>32327.04198236244</v>
+        <v>32304.17106259387</v>
       </c>
       <c r="R11">
-        <v>10819.81306669979</v>
+        <v>10812.15820373106</v>
       </c>
       <c r="S11">
-        <v>29222.25400571358</v>
+        <v>29201.57967902492</v>
       </c>
       <c r="T11">
-        <v>26855.37734442926</v>
+        <v>26836.37754912061</v>
       </c>
       <c r="U11">
-        <v>2232.590113029437</v>
+        <v>2231.010587461368</v>
       </c>
       <c r="V11">
-        <v>134.2865482548752</v>
+        <v>134.1915424429357</v>
       </c>
       <c r="W11">
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
-        <v>10390.55856415353</v>
+        <v>10446.55566174735</v>
       </c>
       <c r="AI11">
-        <v>-18510.3418208918</v>
+        <v>-18462.09459207865</v>
       </c>
       <c r="AJ11">
-        <v>28900.90038504534</v>
+        <v>28908.65025382601</v>
       </c>
       <c r="AK11">
-        <v>-49209.44143584647</v>
+        <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72841.3418208918</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23631.90038504534</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73681.3418208918</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
-        <v>139589.4414358465</v>
+        <v>139533.4443382527</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1955,10 +1955,10 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664977157503071</v>
+        <v>0.0001664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.051</v>
+        <v>8.056699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1969,121 +1969,121 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46431.33823031125</v>
+        <v>46432.40058529035</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="F12">
-        <v>8539.586983881118</v>
+        <v>8533.597479865528</v>
       </c>
       <c r="G12">
-        <v>37891.75124643013</v>
+        <v>37898.80310542482</v>
       </c>
       <c r="H12">
-        <v>76293.41921196572</v>
+        <v>76239.90845768737</v>
       </c>
       <c r="I12">
-        <v>65167.43949368314</v>
+        <v>65121.73229012988</v>
       </c>
       <c r="J12">
-        <v>11125.97971828259</v>
+        <v>11118.1761675575</v>
       </c>
       <c r="K12">
-        <v>333.6490149571615</v>
+        <v>333.4149998790722</v>
       </c>
       <c r="L12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="M12">
-        <v>4838.162786194878</v>
+        <v>4834.769390765957</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69606.94564112493</v>
+        <v>69558.1246523327</v>
       </c>
       <c r="P12">
-        <v>42739.44237378382</v>
+        <v>42709.46574116623</v>
       </c>
       <c r="Q12">
-        <v>31883.23273149717</v>
+        <v>31860.87043800034</v>
       </c>
       <c r="R12">
-        <v>10856.20964228665</v>
+        <v>10848.59530316589</v>
       </c>
       <c r="S12">
-        <v>26867.50326734111</v>
+        <v>26848.65891116647</v>
       </c>
       <c r="T12">
-        <v>24978.27218161576</v>
+        <v>24960.7528962198</v>
       </c>
       <c r="U12">
-        <v>1619.461009729416</v>
+        <v>1618.325150555058</v>
       </c>
       <c r="V12">
-        <v>269.770075995934</v>
+        <v>269.5808643916125</v>
       </c>
       <c r="W12">
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
-        <v>12382.58078803428</v>
+        <v>12436.09154231263</v>
       </c>
       <c r="AI12">
-        <v>-17221.43949368314</v>
+        <v>-17175.73229012988</v>
       </c>
       <c r="AJ12">
-        <v>29604.02028171741</v>
+        <v>29611.8238324425</v>
       </c>
       <c r="AK12">
-        <v>-47417.41921196572</v>
+        <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71869.43949368314</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24452.02028171741</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72709.43949368314</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
-        <v>136933.4192119657</v>
+        <v>136879.9084576874</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2092,10 +2092,10 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.2636</v>
+        <v>8.269399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2106,121 +2106,121 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45371.34075107717</v>
+        <v>45372.41632722959</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="F13">
-        <v>8714.338156090873</v>
+        <v>8708.262326764767</v>
       </c>
       <c r="G13">
-        <v>36657.00259498629</v>
+        <v>36664.15400046482</v>
       </c>
       <c r="H13">
-        <v>76081.21597140617</v>
+        <v>76028.17046469243</v>
       </c>
       <c r="I13">
-        <v>65034.56093321581</v>
+        <v>64989.21739874988</v>
       </c>
       <c r="J13">
-        <v>11046.65516059538</v>
+        <v>11038.9531882622</v>
       </c>
       <c r="K13">
-        <v>341.5631120250685</v>
+        <v>341.3249666678898</v>
       </c>
       <c r="L13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="M13">
-        <v>4927.984356639247</v>
+        <v>4924.54845693736</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69269.00925381902</v>
+        <v>69220.71336831676</v>
       </c>
       <c r="P13">
-        <v>43701.29553466509</v>
+        <v>43670.82602473304</v>
       </c>
       <c r="Q13">
-        <v>32771.75161574617</v>
+        <v>32748.90242559906</v>
       </c>
       <c r="R13">
-        <v>10929.54404132393</v>
+        <v>10921.92372145365</v>
       </c>
       <c r="S13">
-        <v>25567.71371915393</v>
+        <v>25549.88734358372</v>
       </c>
       <c r="T13">
-        <v>24359.49654817861</v>
+        <v>24342.51256834612</v>
       </c>
       <c r="U13">
-        <v>1091.106051703878</v>
+        <v>1090.345308429048</v>
       </c>
       <c r="V13">
-        <v>117.1111192714454</v>
+        <v>117.0294668085575</v>
       </c>
       <c r="W13">
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
-        <v>11768.78402859383</v>
+        <v>11821.82953530757</v>
       </c>
       <c r="AI13">
-        <v>-18120.56093321581</v>
+        <v>-18075.21739874988</v>
       </c>
       <c r="AJ13">
-        <v>29889.34483940463</v>
+        <v>29897.0468117378</v>
       </c>
       <c r="AK13">
-        <v>-48931.21597140617</v>
+        <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73236.56093321581</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24305.34483940463</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74154.56093321581</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
-        <v>137699.2159714062</v>
+        <v>137646.1704646924</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2229,10 +2229,10 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.169600000000001</v>
+        <v>8.1753</v>
       </c>
     </row>
     <row r="14">
@@ -2240,136 +2240,136 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90326</v>
+        <v>90325.99999999999</v>
       </c>
       <c r="C14">
-        <v>47319.68341284758</v>
+        <v>47320.75757867617</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="F14">
-        <v>8726.288130692497</v>
+        <v>8720.194794250077</v>
       </c>
       <c r="G14">
-        <v>38593.39528215508</v>
+        <v>38600.56278442609</v>
       </c>
       <c r="H14">
-        <v>78441.90195653221</v>
+        <v>78387.12804892729</v>
       </c>
       <c r="I14">
-        <v>66985.14216182353</v>
+        <v>66938.3682068816</v>
       </c>
       <c r="J14">
-        <v>11456.75979470869</v>
+        <v>11448.7598420457</v>
       </c>
       <c r="K14">
-        <v>339.0429376897499</v>
+        <v>338.8061929642917</v>
       </c>
       <c r="L14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="M14">
-        <v>4916.771119464122</v>
+        <v>4913.337868098529</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71647.77131222592</v>
+        <v>71597.74156654064</v>
       </c>
       <c r="P14">
-        <v>43704.02667341333</v>
+        <v>43673.50930630131</v>
       </c>
       <c r="Q14">
-        <v>32660.53503445617</v>
+        <v>32637.72904577303</v>
       </c>
       <c r="R14">
-        <v>11043.49163895716</v>
+        <v>11035.78026052828</v>
       </c>
       <c r="S14">
-        <v>27943.74451833647</v>
+        <v>27924.23213984734</v>
       </c>
       <c r="T14">
-        <v>25657.76179461231</v>
+        <v>25639.84565746069</v>
       </c>
       <c r="U14">
-        <v>1872.71468844875</v>
+        <v>1871.407021261226</v>
       </c>
       <c r="V14">
-        <v>413.2681557515301</v>
+        <v>412.9795815174207</v>
       </c>
       <c r="W14">
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
-        <v>11884.09804346779</v>
+        <v>11938.8719510727</v>
       </c>
       <c r="AI14">
-        <v>-18127.14216182353</v>
+        <v>-18080.3682068816</v>
       </c>
       <c r="AJ14">
-        <v>30011.24020529131</v>
+        <v>30019.2401579543</v>
       </c>
       <c r="AK14">
-        <v>-47915.90195653221</v>
+        <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72361.14216182353</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24445.24020529131</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72920.14216182353</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
-        <v>138800.9019565322</v>
+        <v>138746.1280489273</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875961</v>
+        <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.3004</v>
+        <v>8.306200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2377,124 +2377,124 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91974</v>
+        <v>91973.99999999999</v>
       </c>
       <c r="C15">
-        <v>48043.95064546124</v>
+        <v>48045.03345119287</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="F15">
-        <v>8783.798379403204</v>
+        <v>8777.650451928996</v>
       </c>
       <c r="G15">
-        <v>39260.15226605804</v>
+        <v>39267.38299926388</v>
       </c>
       <c r="H15">
-        <v>79458.4395415957</v>
+        <v>79402.82525009957</v>
       </c>
       <c r="I15">
-        <v>67720.53653588376</v>
+        <v>67673.1377991239</v>
       </c>
       <c r="J15">
-        <v>11737.90300571194</v>
+        <v>11729.68745097566</v>
       </c>
       <c r="K15">
-        <v>342.2626767621877</v>
+        <v>342.0231213872833</v>
       </c>
       <c r="L15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="M15">
-        <v>4930.673960559841</v>
+        <v>4927.222899344733</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72638.45354973491</v>
+        <v>72587.61268056043</v>
       </c>
       <c r="P15">
-        <v>44132.17295221533</v>
+        <v>44101.28410585638</v>
       </c>
       <c r="Q15">
-        <v>32817.67935852383</v>
+        <v>32794.70971556832</v>
       </c>
       <c r="R15">
-        <v>11314.49347293169</v>
+        <v>11306.57426961276</v>
       </c>
       <c r="S15">
-        <v>28506.28059751959</v>
+        <v>28486.32857470405</v>
       </c>
       <c r="T15">
-        <v>26477.85699622021</v>
+        <v>26459.32470102695</v>
       </c>
       <c r="U15">
-        <v>1605.014189278943</v>
+        <v>1603.890812989489</v>
       </c>
       <c r="V15">
-        <v>423.4095327802533</v>
+        <v>423.1131813629069</v>
       </c>
       <c r="W15">
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
-        <v>12515.5604584043</v>
+        <v>12571.17474990041</v>
       </c>
       <c r="AI15">
-        <v>-18129.53653588376</v>
+        <v>-18082.1377991239</v>
       </c>
       <c r="AJ15">
-        <v>30645.09699428806</v>
+        <v>30653.31254902434</v>
       </c>
       <c r="AK15">
-        <v>-47384.4395415957</v>
+        <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72453.53653588376</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25069.09699428806</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-73012.53653588376</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
-        <v>139917.4395415957</v>
+        <v>139861.8252500996</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2503,10 +2503,10 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.280900000000001</v>
+        <v>8.2867</v>
       </c>
     </row>
     <row r="16">
@@ -2514,136 +2514,136 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447.00000000002</v>
+        <v>92447</v>
       </c>
       <c r="C16">
-        <v>47649.97142173861</v>
+        <v>47651.06276810572</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="F16">
-        <v>8782.605763482005</v>
+        <v>8776.414104601561</v>
       </c>
       <c r="G16">
-        <v>38867.36565825661</v>
+        <v>38874.64866350417</v>
       </c>
       <c r="H16">
-        <v>79087.4731555662</v>
+        <v>79031.71719102869</v>
       </c>
       <c r="I16">
-        <v>67533.91139543227</v>
+        <v>67486.30058908578</v>
       </c>
       <c r="J16">
-        <v>11553.56176013392</v>
+        <v>11545.41660194291</v>
       </c>
       <c r="K16">
-        <v>342.6235800550042</v>
+        <v>342.3820334811027</v>
       </c>
       <c r="L16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="M16">
-        <v>4935.066124596437</v>
+        <v>4931.586946910586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72261.75487265336</v>
+        <v>72210.81097874272</v>
       </c>
       <c r="P16">
-        <v>43990.07305990673</v>
+        <v>43959.06044999941</v>
       </c>
       <c r="Q16">
-        <v>32603.00478297262</v>
+        <v>32580.01995483278</v>
       </c>
       <c r="R16">
-        <v>11387.06827693412</v>
+        <v>11379.04049516663</v>
       </c>
       <c r="S16">
-        <v>28271.68181274662</v>
+        <v>28251.75052874332</v>
       </c>
       <c r="T16">
-        <v>26312.2378333134</v>
+        <v>26293.68793987262</v>
       </c>
       <c r="U16">
-        <v>1792.950496233409</v>
+        <v>1791.686482094421</v>
       </c>
       <c r="V16">
-        <v>166.4934831998087</v>
+        <v>166.3761067762789</v>
       </c>
       <c r="W16">
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
-        <v>13359.52684443381</v>
+        <v>13415.28280897132</v>
       </c>
       <c r="AI16">
-        <v>-18335.91139543227</v>
+        <v>-18288.30058908578</v>
       </c>
       <c r="AJ16">
-        <v>31695.43823986608</v>
+        <v>31703.58339805709</v>
       </c>
       <c r="AK16">
-        <v>-46840.47315556619</v>
+        <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72859.91139543227</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26019.43823986608</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73418.91139543227</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
-        <v>139846.4731555662</v>
+        <v>139790.7171910287</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983211</v>
+        <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.363</v>
+        <v>8.3689</v>
       </c>
     </row>
     <row r="17">
@@ -2654,121 +2654,121 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47171.33264502041</v>
+        <v>47172.41693250951</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="F17">
-        <v>8803.854077660686</v>
+        <v>8797.694104811262</v>
       </c>
       <c r="G17">
-        <v>38367.47856735972</v>
+        <v>38374.72282769825</v>
       </c>
       <c r="H17">
-        <v>80455.20684990031</v>
+        <v>80398.91310793025</v>
       </c>
       <c r="I17">
-        <v>68845.63775752396</v>
+        <v>68797.46712047723</v>
       </c>
       <c r="J17">
-        <v>11609.56909237634</v>
+        <v>11601.44598745301</v>
       </c>
       <c r="K17">
-        <v>422.0606664767873</v>
+        <v>421.765354648198</v>
       </c>
       <c r="L17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="M17">
-        <v>4874.411136428368</v>
+        <v>4871.000557380549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73609.06769201557</v>
+        <v>73557.564128411</v>
       </c>
       <c r="P17">
-        <v>44113.0497009399</v>
+        <v>44082.1842202009</v>
       </c>
       <c r="Q17">
-        <v>32698.34816766354</v>
+        <v>32675.4694448727</v>
       </c>
       <c r="R17">
-        <v>11414.70153327637</v>
+        <v>11406.7147753282</v>
       </c>
       <c r="S17">
-        <v>29496.01799107567</v>
+        <v>29475.3799082101</v>
       </c>
       <c r="T17">
-        <v>27311.14283679863</v>
+        <v>27292.03349026956</v>
       </c>
       <c r="U17">
-        <v>1990.007595177063</v>
+        <v>1988.615205815733</v>
       </c>
       <c r="V17">
-        <v>194.8675590999715</v>
+        <v>194.7312121248058</v>
       </c>
       <c r="W17">
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
-        <v>12148.79315009969</v>
+        <v>12205.08689206975</v>
       </c>
       <c r="AI17">
-        <v>-20124.63775752396</v>
+        <v>-20076.46712047723</v>
       </c>
       <c r="AJ17">
-        <v>32273.43090762366</v>
+        <v>32281.55401254699</v>
       </c>
       <c r="AK17">
-        <v>-47851.20684990031</v>
+        <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74279.63775752396</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26428.43090762366</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74838.63775752396</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
-        <v>141014.2068499003</v>
+        <v>140957.9131079303</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2777,10 +2777,10 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.426399999999999</v>
+        <v>8.4323</v>
       </c>
     </row>
     <row r="18">
@@ -2788,136 +2788,136 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686</v>
+        <v>93686.00000000002</v>
       </c>
       <c r="C18">
-        <v>48089.41996727437</v>
+        <v>48090.49747770523</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="F18">
-        <v>8811.173132492369</v>
+        <v>8805.042270181257</v>
       </c>
       <c r="G18">
-        <v>39278.246834782</v>
+        <v>39285.45520752398</v>
       </c>
       <c r="H18">
-        <v>79203.26606398904</v>
+        <v>79148.15599958252</v>
       </c>
       <c r="I18">
-        <v>67385.55883069709</v>
+        <v>67338.67159142304</v>
       </c>
       <c r="J18">
-        <v>11817.70711724362</v>
+        <v>11809.4842921919</v>
       </c>
       <c r="K18">
-        <v>341.3431432848638</v>
+        <v>341.1056348644919</v>
       </c>
       <c r="L18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="M18">
-        <v>4875.463787120957</v>
+        <v>4872.071412832972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72437.87910085759</v>
+        <v>72387.47642959029</v>
       </c>
       <c r="P18">
-        <v>44082.47507862274</v>
+        <v>44051.80225209031</v>
       </c>
       <c r="Q18">
-        <v>32685.28576899421</v>
+        <v>32662.54316892997</v>
       </c>
       <c r="R18">
-        <v>11397.18930962853</v>
+        <v>11389.25908316035</v>
       </c>
       <c r="S18">
-        <v>28355.40390618653</v>
+        <v>28335.67406153239</v>
       </c>
       <c r="T18">
-        <v>26425.46935744044</v>
+        <v>26407.08237176885</v>
       </c>
       <c r="U18">
-        <v>1509.416741131007</v>
+        <v>1508.366480731987</v>
       </c>
       <c r="V18">
-        <v>420.5178076150909</v>
+        <v>420.2252090315548</v>
       </c>
       <c r="W18">
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
-        <v>14482.73393601096</v>
+        <v>14537.84400041749</v>
       </c>
       <c r="AI18">
-        <v>-17747.55883069709</v>
+        <v>-17700.67159142304</v>
       </c>
       <c r="AJ18">
-        <v>32230.29288275638</v>
+        <v>32238.5157078081</v>
       </c>
       <c r="AK18">
-        <v>-47617.26606398904</v>
+        <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73978.55883069709</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26361.29288275638</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74284.55883069709</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
-        <v>141609.266063989</v>
+        <v>141554.1559995825</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.6628525073116581</v>
+        <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.617100000000001</v>
+        <v>8.623100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,121 +2928,121 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50165.56985009501</v>
+        <v>50166.64000797065</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="F19">
-        <v>8802.646679334694</v>
+        <v>8796.559023829897</v>
       </c>
       <c r="G19">
-        <v>41362.92317076032</v>
+        <v>41370.08098414075</v>
       </c>
       <c r="H19">
-        <v>80150.16961081006</v>
+        <v>80094.74007478345</v>
       </c>
       <c r="I19">
-        <v>68568.60440565839</v>
+        <v>68521.18434470714</v>
       </c>
       <c r="J19">
-        <v>11581.56520515166</v>
+        <v>11573.55573007631</v>
       </c>
       <c r="K19">
-        <v>339.2421469960354</v>
+        <v>339.0075369521644</v>
       </c>
       <c r="L19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="M19">
-        <v>4873.284068782697</v>
+        <v>4869.913846658775</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73390.21324512633</v>
+        <v>73339.45869914316</v>
       </c>
       <c r="P19">
-        <v>43672.9169305839</v>
+        <v>43642.71400607177</v>
       </c>
       <c r="Q19">
-        <v>32891.98512679757</v>
+        <v>32869.23798248802</v>
       </c>
       <c r="R19">
-        <v>10780.93180378633</v>
+        <v>10773.47602358375</v>
       </c>
       <c r="S19">
-        <v>29717.29631454243</v>
+        <v>29696.7446930714</v>
       </c>
       <c r="T19">
-        <v>27345.11999436977</v>
+        <v>27326.20890133977</v>
       </c>
       <c r="U19">
-        <v>1571.542918807329</v>
+        <v>1570.456085239061</v>
       </c>
       <c r="V19">
-        <v>800.6334013653319</v>
+        <v>800.0797064925628</v>
       </c>
       <c r="W19">
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
-        <v>14715.83038918994</v>
+        <v>14771.25992521655</v>
       </c>
       <c r="AI19">
-        <v>-16855.60440565839</v>
+        <v>-16808.18434470714</v>
       </c>
       <c r="AJ19">
-        <v>31571.43479484833</v>
+        <v>31579.44426992369</v>
       </c>
       <c r="AK19">
-        <v>-48190.16961081006</v>
+        <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73800.60440565839</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25610.43479484833</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74106.60440565839</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
-        <v>143362.1696108101</v>
+        <v>143306.7400747835</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3051,10 +3051,10 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.525399999999999</v>
+        <v>8.5313</v>
       </c>
     </row>
     <row r="20">
@@ -3065,121 +3065,121 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54489.08041122276</v>
+        <v>54490.16606565171</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="F20">
-        <v>8726.340999280592</v>
+        <v>8720.168825295967</v>
       </c>
       <c r="G20">
-        <v>45762.73941194217</v>
+        <v>45769.99724035574</v>
       </c>
       <c r="H20">
-        <v>79069.06581420713</v>
+        <v>79013.13996498268</v>
       </c>
       <c r="I20">
-        <v>68091.49427954792</v>
+        <v>68043.33290817805</v>
       </c>
       <c r="J20">
-        <v>10977.5714186257</v>
+        <v>10969.80694085317</v>
       </c>
       <c r="K20">
-        <v>334.126035599081</v>
+        <v>333.8897069907123</v>
       </c>
       <c r="L20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="M20">
-        <v>4848.980877677473</v>
+        <v>4845.551175167841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72351.03931215334</v>
+        <v>72299.86514847583</v>
       </c>
       <c r="P20">
-        <v>42956.26592559931</v>
+        <v>42925.88279628492</v>
       </c>
       <c r="Q20">
-        <v>32606.23656912116</v>
+        <v>32583.17405470589</v>
       </c>
       <c r="R20">
-        <v>10350.02935647815</v>
+        <v>10342.70874157903</v>
       </c>
       <c r="S20">
-        <v>29394.77338655404</v>
+        <v>29373.98235219091</v>
       </c>
       <c r="T20">
-        <v>26702.84699821308</v>
+        <v>26683.95997356307</v>
       </c>
       <c r="U20">
-        <v>2064.384210159894</v>
+        <v>2062.924063402247</v>
       </c>
       <c r="V20">
-        <v>627.5420621475481</v>
+        <v>627.098199274144</v>
       </c>
       <c r="W20">
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
-        <v>18252.93418579287</v>
+        <v>18308.86003501732</v>
       </c>
       <c r="AI20">
-        <v>-12067.49427954792</v>
+        <v>-12019.33290817805</v>
       </c>
       <c r="AJ20">
-        <v>30320.4285813743</v>
+        <v>30328.19305914683</v>
       </c>
       <c r="AK20">
-        <v>-48159.06581420713</v>
+        <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72554.49427954792</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24395.4285813743</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72860.49427954792</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
-        <v>145787.0658142071</v>
+        <v>145731.1399649827</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3188,10 +3188,10 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6182</v>
+        <v>8.6243</v>
       </c>
     </row>
     <row r="21">
@@ -3202,121 +3202,121 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57707.03511954976</v>
+        <v>57708.09730578684</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="F21">
-        <v>8707.552032172698</v>
+        <v>8701.518598501034</v>
       </c>
       <c r="G21">
-        <v>48999.48308737707</v>
+        <v>49006.57870728581</v>
       </c>
       <c r="H21">
-        <v>79441.7629112593</v>
+        <v>79386.71797951337</v>
       </c>
       <c r="I21">
-        <v>68214.6851490183</v>
+        <v>68167.41942189324</v>
       </c>
       <c r="J21">
-        <v>11227.077762241</v>
+        <v>11219.29855762013</v>
       </c>
       <c r="K21">
-        <v>332.0097535044434</v>
+        <v>331.7797050569908</v>
       </c>
       <c r="L21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="M21">
-        <v>4905.702679902465</v>
+        <v>4902.303534927766</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72671.08559740215</v>
+        <v>72620.73204531545</v>
       </c>
       <c r="P21">
-        <v>43134.81585060035</v>
+        <v>43104.92788100655</v>
       </c>
       <c r="Q21">
-        <v>32922.89993412918</v>
+        <v>32900.08776690957</v>
       </c>
       <c r="R21">
-        <v>10211.91591647118</v>
+        <v>10204.84011409698</v>
       </c>
       <c r="S21">
-        <v>29536.2697468018</v>
+        <v>29515.8041643089</v>
       </c>
       <c r="T21">
-        <v>26357.86832769002</v>
+        <v>26339.60504890696</v>
       </c>
       <c r="U21">
-        <v>2163.239573341962</v>
+        <v>2161.740671878789</v>
       </c>
       <c r="V21">
-        <v>1015.161845769822</v>
+        <v>1014.458443523149</v>
       </c>
       <c r="W21">
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
-        <v>20716.2370887407</v>
+        <v>20771.28202048663</v>
       </c>
       <c r="AI21">
-        <v>-8974.685149018304</v>
+        <v>-8927.419421893239</v>
       </c>
       <c r="AJ21">
-        <v>29690.92223775901</v>
+        <v>29698.70144237987</v>
       </c>
       <c r="AK21">
-        <v>-45524.7629112593</v>
+        <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69599.6851490183</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24074.92223775901</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69905.6851490183</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
-        <v>145988.7629112593</v>
+        <v>145933.7179795134</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3325,10 +3325,10 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6533</v>
+        <v>8.6593</v>
       </c>
     </row>
     <row r="22">
@@ -3339,121 +3339,121 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58090.10075311105</v>
+        <v>58091.17490319011</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="F22">
-        <v>8381.990496730366</v>
+        <v>8376.097754932694</v>
       </c>
       <c r="G22">
-        <v>49708.11025638069</v>
+        <v>49715.07714825742</v>
       </c>
       <c r="H22">
-        <v>79982.47315672321</v>
+        <v>79926.24354600777</v>
       </c>
       <c r="I22">
-        <v>69028.85672437056</v>
+        <v>68980.32777060669</v>
       </c>
       <c r="J22">
-        <v>10953.61608635981</v>
+        <v>10945.91542965148</v>
       </c>
       <c r="K22">
-        <v>329.2706471219163</v>
+        <v>329.0391619030057</v>
       </c>
       <c r="L22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="M22">
-        <v>4898.285836206996</v>
+        <v>4894.842222939333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73227.01742650535</v>
+        <v>73175.53706435554</v>
       </c>
       <c r="P22">
-        <v>42994.79027068172</v>
+        <v>42964.56389452333</v>
       </c>
       <c r="Q22">
-        <v>32818.33681248342</v>
+        <v>32795.26472893233</v>
       </c>
       <c r="R22">
-        <v>10176.45334286736</v>
+        <v>10169.29905034114</v>
       </c>
       <c r="S22">
-        <v>30232.22704049269</v>
+        <v>30210.97305458234</v>
       </c>
       <c r="T22">
-        <v>27709.17826703726</v>
+        <v>27689.69804536235</v>
       </c>
       <c r="U22">
-        <v>1745.885914632037</v>
+        <v>1744.658514659783</v>
       </c>
       <c r="V22">
-        <v>777.1627434924516</v>
+        <v>776.6163793103449</v>
       </c>
       <c r="W22">
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
-        <v>20230.52684327679</v>
+        <v>20286.75645399223</v>
       </c>
       <c r="AI22">
-        <v>-9410.856724370562</v>
+        <v>-9362.327770606687</v>
       </c>
       <c r="AJ22">
-        <v>29641.38391364019</v>
+        <v>29649.08457034852</v>
       </c>
       <c r="AK22">
-        <v>-45013.47315672321</v>
+        <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69093.85672437056</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24080.38391364019</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69327.85672437056</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
-        <v>145460.4731567232</v>
+        <v>145404.2435460078</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3462,10 +3462,10 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6707</v>
+        <v>8.6768</v>
       </c>
     </row>
     <row r="23">
@@ -3476,121 +3476,121 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61054.61430529796</v>
+        <v>61055.66928753151</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="F23">
-        <v>8365.100625525591</v>
+        <v>8359.322757779133</v>
       </c>
       <c r="G23">
-        <v>52689.51367977237</v>
+        <v>52696.34652975238</v>
       </c>
       <c r="H23">
-        <v>81018.59815452668</v>
+        <v>80962.63771052298</v>
       </c>
       <c r="I23">
-        <v>69470.99865218242</v>
+        <v>69423.01426318394</v>
       </c>
       <c r="J23">
-        <v>11547.5993871462</v>
+        <v>11539.62333222052</v>
       </c>
       <c r="K23">
-        <v>325.0074302763602</v>
+        <v>324.7829440408901</v>
       </c>
       <c r="L23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="M23">
-        <v>4894.126280138698</v>
+        <v>4890.745852855514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74272.0787494096</v>
+        <v>74220.77820115809</v>
       </c>
       <c r="P23">
-        <v>43737.59604640178</v>
+        <v>43707.386003891</v>
       </c>
       <c r="Q23">
-        <v>33039.40638427776</v>
+        <v>33016.58569997812</v>
       </c>
       <c r="R23">
-        <v>10698.18954692594</v>
+        <v>10690.80018879436</v>
       </c>
       <c r="S23">
-        <v>30534.48270300782</v>
+        <v>30513.39219726708</v>
       </c>
       <c r="T23">
-        <v>28097.79476309514</v>
+        <v>28078.38730473022</v>
       </c>
       <c r="U23">
-        <v>1587.278099692421</v>
+        <v>1586.181749110709</v>
       </c>
       <c r="V23">
-        <v>849.4098402202586</v>
+        <v>848.8231434261571</v>
       </c>
       <c r="W23">
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
-        <v>23049.40184547332</v>
+        <v>23105.36228947702</v>
       </c>
       <c r="AI23">
-        <v>-6888.998652182418</v>
+        <v>-6841.014263183941</v>
       </c>
       <c r="AJ23">
-        <v>29938.4006128538</v>
+        <v>29946.37666777948</v>
       </c>
       <c r="AK23">
-        <v>-42256.59815452668</v>
+        <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66686.99865218242</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24430.4006128538</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66920.99865218242</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
-        <v>146558.5981545267</v>
+        <v>146502.637710523</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3599,10 +3599,10 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6807</v>
+        <v>8.6867</v>
       </c>
     </row>
     <row r="24">
@@ -3613,121 +3613,121 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61352.56390086332</v>
+        <v>61353.62733532274</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="F24">
-        <v>8394.448253023948</v>
+        <v>8388.600025544862</v>
       </c>
       <c r="G24">
-        <v>52958.11564783938</v>
+        <v>52965.02730977788</v>
       </c>
       <c r="H24">
-        <v>80952.81688995272</v>
+        <v>80896.41884281785</v>
       </c>
       <c r="I24">
-        <v>69163.31652394177</v>
+        <v>69115.13196242585</v>
       </c>
       <c r="J24">
-        <v>11789.50036601095</v>
+        <v>11781.286880392</v>
       </c>
       <c r="K24">
-        <v>322.7428744059585</v>
+        <v>322.5180265434321</v>
       </c>
       <c r="L24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="M24">
-        <v>4885.32458780196</v>
+        <v>4881.921089604403</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74218.31332860811</v>
+        <v>74166.60706199273</v>
       </c>
       <c r="P24">
-        <v>43821.3616769111</v>
+        <v>43790.83229799241</v>
       </c>
       <c r="Q24">
-        <v>32994.56967570269</v>
+        <v>32971.58308465799</v>
       </c>
       <c r="R24">
-        <v>10826.79211740237</v>
+        <v>10819.24932944742</v>
       </c>
       <c r="S24">
-        <v>30396.95153550306</v>
+        <v>30375.77464788733</v>
       </c>
       <c r="T24">
-        <v>27874.85713953732</v>
+        <v>27855.43733961892</v>
       </c>
       <c r="U24">
-        <v>1559.386147357169</v>
+        <v>1558.299757323828</v>
       </c>
       <c r="V24">
-        <v>962.7082486085775</v>
+        <v>962.0375509445794</v>
       </c>
       <c r="W24">
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
-        <v>23933.18311004728</v>
+        <v>23989.58115718215</v>
       </c>
       <c r="AI24">
-        <v>-6284.316523941772</v>
+        <v>-6236.131962425847</v>
       </c>
       <c r="AJ24">
-        <v>30217.49963398905</v>
+        <v>30225.713119608</v>
       </c>
       <c r="AK24">
-        <v>-41620.81688995272</v>
+        <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66313.31652394177</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24692.49963398905</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66547.31652394177</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
-        <v>146740.8168899527</v>
+        <v>146684.4188428178</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3736,10 +3736,10 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.606299999999999</v>
+        <v>8.612299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,121 +3750,121 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61133.74509342772</v>
+        <v>61134.82190154996</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="F25">
-        <v>8392.149837133551</v>
+        <v>8386.232858200448</v>
       </c>
       <c r="G25">
-        <v>52741.59525629417</v>
+        <v>52748.58904334951</v>
       </c>
       <c r="H25">
-        <v>80846.41388069005</v>
+        <v>80789.41221400957</v>
       </c>
       <c r="I25">
-        <v>69121.16828749164</v>
+        <v>69072.43363611795</v>
       </c>
       <c r="J25">
-        <v>11725.24559319842</v>
+        <v>11716.97857789163</v>
       </c>
       <c r="K25">
-        <v>323.1199802443585</v>
+        <v>322.8921608949577</v>
       </c>
       <c r="L25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="M25">
-        <v>4887.070520584673</v>
+        <v>4883.624836954606</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74108.96847328873</v>
+        <v>74056.71711770997</v>
       </c>
       <c r="P25">
-        <v>43783.78814426322</v>
+        <v>43752.91789562745</v>
       </c>
       <c r="Q25">
-        <v>33016.00395112831</v>
+        <v>32992.72564895005</v>
       </c>
       <c r="R25">
-        <v>10767.78419313492</v>
+        <v>10760.1922466774</v>
       </c>
       <c r="S25">
-        <v>30325.1802114324</v>
+        <v>30303.79910457233</v>
       </c>
       <c r="T25">
-        <v>27865.41069391691</v>
+        <v>27845.76387501616</v>
       </c>
       <c r="U25">
-        <v>1502.308235045097</v>
+        <v>1501.249015852125</v>
       </c>
       <c r="V25">
-        <v>957.4614000635003</v>
+        <v>956.7863312142329</v>
       </c>
       <c r="W25">
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
-        <v>23592.58611930996</v>
+        <v>23649.58778599043</v>
       </c>
       <c r="AI25">
-        <v>-6460.168287491644</v>
+        <v>-6411.433636117945</v>
       </c>
       <c r="AJ25">
-        <v>30052.75440680159</v>
+        <v>30061.02142210837</v>
       </c>
       <c r="AK25">
-        <v>-41807.41388069005</v>
+        <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66335.16828749164</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24527.75440680159</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66569.16828749164</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
-        <v>146480.4138806901</v>
+        <v>146423.4122140096</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3873,10 +3873,10 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
-        <v>8.5039</v>
+        <v>8.5099</v>
       </c>
     </row>
     <row r="26">
@@ -3887,121 +3887,121 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62596.56469923219</v>
+        <v>62597.62800823772</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="F26">
-        <v>8435.71717933016</v>
+        <v>8429.860076493087</v>
       </c>
       <c r="G26">
-        <v>54160.84751990203</v>
+        <v>54167.76793174463</v>
       </c>
       <c r="H26">
-        <v>81304.99564275284</v>
+        <v>81248.54380700206</v>
       </c>
       <c r="I26">
-        <v>69789.99740920439</v>
+        <v>69741.54068843779</v>
       </c>
       <c r="J26">
-        <v>11514.99811578501</v>
+        <v>11507.00300088261</v>
       </c>
       <c r="K26">
-        <v>322.4311083894672</v>
+        <v>322.2072374227714</v>
       </c>
       <c r="L26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="M26">
-        <v>4817.099133261105</v>
+        <v>4813.754516034128</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74634.03010033445</v>
+        <v>74582.21006178288</v>
       </c>
       <c r="P26">
-        <v>44084.38103537614</v>
+        <v>44053.77228596646</v>
       </c>
       <c r="Q26">
-        <v>33371.32107023411</v>
+        <v>33348.15063253899</v>
       </c>
       <c r="R26">
-        <v>10713.05996514202</v>
+        <v>10705.62165342748</v>
       </c>
       <c r="S26">
-        <v>30549.64894719487</v>
+        <v>30528.43765813475</v>
       </c>
       <c r="T26">
-        <v>27845.73990767347</v>
+        <v>27826.40600176523</v>
       </c>
       <c r="U26">
-        <v>1901.970888878421</v>
+        <v>1900.650308914387</v>
       </c>
       <c r="V26">
-        <v>801.9381506429884</v>
+        <v>801.3813474551339</v>
       </c>
       <c r="W26">
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
-        <v>24415.00435724716</v>
+        <v>24471.45619299794</v>
       </c>
       <c r="AI26">
-        <v>-5661.997409204385</v>
+        <v>-5613.540688437788</v>
       </c>
       <c r="AJ26">
-        <v>30077.00188421499</v>
+        <v>30084.99699911739</v>
       </c>
       <c r="AK26">
-        <v>-41581.99564275284</v>
+        <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66121.99740920439</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24540.00188421499</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66355.99740920439</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
-        <v>147535.9956427529</v>
+        <v>147479.5438070021</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4010,10 +4010,10 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.4916</v>
+        <v>8.497500000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4024,121 +4024,121 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66204.631346682</v>
+        <v>66205.7082873965</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="F27">
-        <v>8337.949813384661</v>
+        <v>8332.08228753724</v>
       </c>
       <c r="G27">
-        <v>57866.68153329734</v>
+        <v>57873.62599985926</v>
       </c>
       <c r="H27">
-        <v>84030.8419990141</v>
+        <v>83971.70838122495</v>
       </c>
       <c r="I27">
-        <v>72623.24569845777</v>
+        <v>72572.13975745351</v>
       </c>
       <c r="J27">
-        <v>11407.59630055632</v>
+        <v>11399.56862377143</v>
       </c>
       <c r="K27">
-        <v>317.848759418793</v>
+        <v>317.625085032019</v>
       </c>
       <c r="L27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="M27">
-        <v>4814.203539823008</v>
+        <v>4810.815720954236</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77368.4210464543</v>
+        <v>77313.97586263518</v>
       </c>
       <c r="P27">
-        <v>47229.02654867256</v>
+        <v>47195.79085641904</v>
       </c>
       <c r="Q27">
-        <v>36354.30236379428</v>
+        <v>36328.71935915179</v>
       </c>
       <c r="R27">
-        <v>10874.72406751015</v>
+        <v>10867.0713799817</v>
       </c>
       <c r="S27">
-        <v>30139.39461514988</v>
+        <v>30118.18512350168</v>
       </c>
       <c r="T27">
-        <v>28064.26703598507</v>
+        <v>28044.51783913115</v>
       </c>
       <c r="U27">
-        <v>1542.255346118636</v>
+        <v>1541.170040580798</v>
       </c>
       <c r="V27">
-        <v>532.8722330461726</v>
+        <v>532.4972437897305</v>
       </c>
       <c r="W27">
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
-        <v>24978.1580009859</v>
+        <v>25037.29161877505</v>
       </c>
       <c r="AI27">
-        <v>-4888.245698457773</v>
+        <v>-4837.139757453508</v>
       </c>
       <c r="AJ27">
-        <v>29866.40369944368</v>
+        <v>29874.43137622857</v>
       </c>
       <c r="AK27">
-        <v>-41418.8419990141</v>
+        <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65760.24569845777</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24341.40369944368</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65912.24569845777</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
-        <v>150579.8419990141</v>
+        <v>150520.708381225</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4147,10 +4147,10 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.520200000000001</v>
+        <v>8.526199999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4161,121 +4161,121 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65831.7284942157</v>
+        <v>65832.79537580346</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="F28">
-        <v>8256.618843608092</v>
+        <v>8250.839797953873</v>
       </c>
       <c r="G28">
-        <v>57575.10965060761</v>
+        <v>57581.95557784959</v>
       </c>
       <c r="H28">
-        <v>83183.13635992202</v>
+        <v>83124.91408373482</v>
       </c>
       <c r="I28">
-        <v>72283.05908034975</v>
+        <v>72232.46608261493</v>
       </c>
       <c r="J28">
-        <v>10900.07739630879</v>
+        <v>10892.44811777469</v>
       </c>
       <c r="K28">
-        <v>312.8811739023849</v>
+        <v>312.6621793450999</v>
       </c>
       <c r="L28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="M28">
-        <v>4885.042083513303</v>
+        <v>4881.622901671663</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76460.94159672204</v>
+        <v>76407.42437852151</v>
       </c>
       <c r="P28">
-        <v>46749.24424780827</v>
+        <v>46716.52310348448</v>
       </c>
       <c r="Q28">
-        <v>36208.99139651892</v>
+        <v>36183.64767915262</v>
       </c>
       <c r="R28">
-        <v>10540.25285128936</v>
+        <v>10532.87542433186</v>
       </c>
       <c r="S28">
-        <v>29711.69746565028</v>
+        <v>29690.90139169184</v>
       </c>
       <c r="T28">
-        <v>27787.51573024526</v>
+        <v>27768.06644657793</v>
       </c>
       <c r="U28">
-        <v>1564.357190385581</v>
+        <v>1563.26225167108</v>
       </c>
       <c r="V28">
-        <v>359.8245450194366</v>
+        <v>359.5726934428333</v>
       </c>
       <c r="W28">
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
-        <v>23914.86364007798</v>
+        <v>23973.08591626518</v>
       </c>
       <c r="AI28">
-        <v>-4927.059080349747</v>
+        <v>-4876.466082614934</v>
       </c>
       <c r="AJ28">
-        <v>28841.92260369121</v>
+        <v>28849.55188222531</v>
       </c>
       <c r="AK28">
-        <v>-41543.13635992202</v>
+        <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64957.05908034975</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23413.92260369121</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65109.05908034975</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
-        <v>148793.136359922</v>
+        <v>148734.9140837348</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4284,10 +4284,10 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5663</v>
+        <v>8.5723</v>
       </c>
     </row>
     <row r="29">
@@ -4298,121 +4298,121 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66648.04457325605</v>
+        <v>66649.11678866422</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="F29">
-        <v>8219.876074355387</v>
+        <v>8214.081376085347</v>
       </c>
       <c r="G29">
-        <v>58428.16849890066</v>
+        <v>58435.03541257887</v>
       </c>
       <c r="H29">
-        <v>82980.11087465168</v>
+        <v>82921.61306999096</v>
       </c>
       <c r="I29">
-        <v>71803.31318855746</v>
+        <v>71752.69459881801</v>
       </c>
       <c r="J29">
-        <v>11176.79768609423</v>
+        <v>11168.91847117294</v>
       </c>
       <c r="K29">
-        <v>307.1802800672538</v>
+        <v>306.9637297176628</v>
       </c>
       <c r="L29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="M29">
-        <v>4878.953804188075</v>
+        <v>4875.514328347687</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76273.0213636524</v>
+        <v>76219.25180058982</v>
       </c>
       <c r="P29">
-        <v>47258.55310343206</v>
+        <v>47225.23763085852</v>
       </c>
       <c r="Q29">
-        <v>36427.46987101856</v>
+        <v>36401.78989789804</v>
       </c>
       <c r="R29">
-        <v>10831.08323241349</v>
+        <v>10823.44773296049</v>
       </c>
       <c r="S29">
-        <v>29014.46837779685</v>
+        <v>28994.01428722492</v>
       </c>
       <c r="T29">
-        <v>26871.1943422182</v>
+        <v>26852.2511778736</v>
       </c>
       <c r="U29">
-        <v>1797.559464321407</v>
+        <v>1796.29225364524</v>
       </c>
       <c r="V29">
-        <v>345.7144536807327</v>
+        <v>345.470738212452</v>
       </c>
       <c r="W29">
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
-        <v>25574.88912534832</v>
+        <v>25633.38693000905</v>
       </c>
       <c r="AI29">
-        <v>-3634.313188557455</v>
+        <v>-3583.694598818009</v>
       </c>
       <c r="AJ29">
-        <v>29209.20231390578</v>
+        <v>29217.08152882706</v>
       </c>
       <c r="AK29">
-        <v>-40838.11087465168</v>
+        <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64834.31318855746</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>23996.20231390578</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64986.31318855746</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
-        <v>149545.1108746517</v>
+        <v>149486.6130699909</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4421,10 +4421,10 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.505100000000001</v>
+        <v>8.511100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,121 +4435,121 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70078.11446360154</v>
+        <v>70083.58142094809</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="F30">
-        <v>8246.681513409962</v>
+        <v>8240.958625475605</v>
       </c>
       <c r="G30">
-        <v>61831.43295019158</v>
+        <v>61842.62279547248</v>
       </c>
       <c r="H30">
-        <v>92022.06381704981</v>
+        <v>91958.20395319343</v>
       </c>
       <c r="I30">
-        <v>80907.15217911877</v>
+        <v>80851.00564741917</v>
       </c>
       <c r="J30">
-        <v>11114.91163793103</v>
+        <v>11107.19830577425</v>
       </c>
       <c r="K30">
-        <v>306.7800526819923</v>
+        <v>306.5671588216995</v>
       </c>
       <c r="L30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="M30">
-        <v>4888.089559386974</v>
+        <v>4884.697408408912</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78949.30866858238</v>
+        <v>78894.52080691092</v>
       </c>
       <c r="P30">
-        <v>47342.89894636015</v>
+        <v>47310.04474861806</v>
       </c>
       <c r="Q30">
-        <v>36538.58536877394</v>
+        <v>36513.2289597741</v>
       </c>
       <c r="R30">
-        <v>10804.31357758621</v>
+        <v>10796.81578884396</v>
       </c>
       <c r="S30">
-        <v>31606.40972222222</v>
+        <v>31584.47605829285</v>
       </c>
       <c r="T30">
-        <v>29398.13912835249</v>
+        <v>29377.73792146259</v>
       </c>
       <c r="U30">
-        <v>1897.672533524904</v>
+        <v>1896.355619899974</v>
       </c>
       <c r="V30">
-        <v>310.5980603448276</v>
+        <v>310.3825169302927</v>
       </c>
       <c r="W30">
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
-        <v>26241.93618295019</v>
+        <v>26305.79604680657</v>
       </c>
       <c r="AI30">
-        <v>-2951.15217911877</v>
+        <v>-2895.005647419166</v>
       </c>
       <c r="AJ30">
-        <v>29193.08836206896</v>
+        <v>29200.80169422575</v>
       </c>
       <c r="AK30">
-        <v>-40586.06381704981</v>
+        <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64534.15217911877</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23948.08836206896</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64686.15217911877</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
-        <v>159002.0638170498</v>
+        <v>158938.2039531934</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4558,10 +4558,10 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.352</v>
+        <v>8.357799999999999</v>
       </c>
     </row>
     <row r="31">
@@ -4572,121 +4572,121 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70144.56495834141</v>
+        <v>70150.01534495903</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="F31">
-        <v>8278.877882193374</v>
+        <v>8273.167136616123</v>
       </c>
       <c r="G31">
-        <v>61865.68707614803</v>
+        <v>61876.8482083429</v>
       </c>
       <c r="H31">
-        <v>91551.5252615772</v>
+        <v>91488.3732891218</v>
       </c>
       <c r="I31">
-        <v>80064.29919104825</v>
+        <v>80009.07107330005</v>
       </c>
       <c r="J31">
-        <v>11487.22607052897</v>
+        <v>11479.30221582177</v>
       </c>
       <c r="K31">
-        <v>306.5156946328231</v>
+        <v>306.3042610095241</v>
       </c>
       <c r="L31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="M31">
-        <v>4899.511117031583</v>
+        <v>4896.131448694832</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78444.06340825421</v>
+        <v>78389.95292437647</v>
       </c>
       <c r="P31">
-        <v>47969.70584673512</v>
+        <v>47936.61648493943</v>
       </c>
       <c r="Q31">
-        <v>36833.39917167216</v>
+        <v>36807.99160141833</v>
       </c>
       <c r="R31">
-        <v>11136.30667506297</v>
+        <v>11128.62488352111</v>
       </c>
       <c r="S31">
-        <v>30474.35756151909</v>
+        <v>30453.33643943703</v>
       </c>
       <c r="T31">
-        <v>28009.46449331525</v>
+        <v>27990.14364721116</v>
       </c>
       <c r="U31">
-        <v>2113.973672737841</v>
+        <v>2112.515459925212</v>
       </c>
       <c r="V31">
-        <v>350.919395465995</v>
+        <v>350.6773323006547</v>
       </c>
       <c r="W31">
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
-        <v>27645.4747384228</v>
+        <v>27708.62671087821</v>
       </c>
       <c r="AI31">
-        <v>-2018.299191048252</v>
+        <v>-1963.071073300045</v>
       </c>
       <c r="AJ31">
-        <v>29663.77392947103</v>
+        <v>29671.69778417824</v>
       </c>
       <c r="AK31">
-        <v>-39764.5252615772</v>
+        <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64231.29919104825</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24466.77392947103</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64274.29919104825</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
-        <v>159004.5252615772</v>
+        <v>158941.3732891218</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4695,10 +4695,10 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
-        <v>8.2576</v>
+        <v>8.263299999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4709,121 +4709,121 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71762.04591233628</v>
+        <v>71767.55106018546</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="F32">
-        <v>8272.254834743959</v>
+        <v>8266.489516271928</v>
       </c>
       <c r="G32">
-        <v>63489.79107759232</v>
+        <v>63501.06154391354</v>
       </c>
       <c r="H32">
-        <v>91486.96451368858</v>
+        <v>91423.20300041344</v>
       </c>
       <c r="I32">
-        <v>80010.01548536573</v>
+        <v>79954.25279073889</v>
       </c>
       <c r="J32">
-        <v>11476.94914653175</v>
+        <v>11468.95032780108</v>
       </c>
       <c r="K32">
-        <v>304.3643907513358</v>
+        <v>304.1522650758963</v>
       </c>
       <c r="L32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="M32">
-        <v>4897.256016832947</v>
+        <v>4893.84289173705</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78386.39001844058</v>
+        <v>78331.75890378596</v>
       </c>
       <c r="P32">
-        <v>47820.48560215613</v>
+        <v>47787.15728545272</v>
       </c>
       <c r="Q32">
-        <v>36805.57697763488</v>
+        <v>36779.92546216999</v>
       </c>
       <c r="R32">
-        <v>11014.90862452125</v>
+        <v>11007.23182328274</v>
       </c>
       <c r="S32">
-        <v>30565.90453449336</v>
+        <v>30544.60173645975</v>
       </c>
       <c r="T32">
-        <v>27839.69513925008</v>
+        <v>27820.2923631209</v>
       </c>
       <c r="U32">
-        <v>2264.168873232777</v>
+        <v>2262.590868820507</v>
       </c>
       <c r="V32">
-        <v>462.0405220104969</v>
+        <v>461.7185045183392</v>
       </c>
       <c r="W32">
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
-        <v>28654.03548631142</v>
+        <v>28717.79699958656</v>
       </c>
       <c r="AI32">
-        <v>-349.0154853657296</v>
+        <v>-293.2527907388867</v>
       </c>
       <c r="AJ32">
-        <v>29003.05085346825</v>
+        <v>29011.04967219893</v>
       </c>
       <c r="AK32">
-        <v>-39391.96451368858</v>
+        <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63304.01548536573</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23912.05085346825</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63347.01548536573</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
-        <v>159575.9645136886</v>
+        <v>159512.2030004134</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4832,10 +4832,10 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.4596</v>
+        <v>8.465500000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4846,121 +4846,121 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73526.28418481676</v>
+        <v>73531.80147389873</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="F33">
-        <v>8262.001588750696</v>
+        <v>8256.226155778299</v>
       </c>
       <c r="G33">
-        <v>65264.28259606606</v>
+        <v>65275.57531812043</v>
       </c>
       <c r="H33">
-        <v>92607.56909287076</v>
+        <v>92542.83310822018</v>
       </c>
       <c r="I33">
-        <v>81291.54274806444</v>
+        <v>81234.71706831591</v>
       </c>
       <c r="J33">
-        <v>11316.02634480633</v>
+        <v>11308.11603990427</v>
       </c>
       <c r="K33">
-        <v>301.4252516509965</v>
+        <v>301.214544679036</v>
       </c>
       <c r="L33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="M33">
-        <v>4889.630793308276</v>
+        <v>4886.212767469965</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79523.79723272825</v>
+        <v>79468.20726996991</v>
       </c>
       <c r="P33">
-        <v>48288.63343727398</v>
+        <v>48254.87796497713</v>
       </c>
       <c r="Q33">
-        <v>37287.25537388994</v>
+        <v>37261.19025615507</v>
       </c>
       <c r="R33">
-        <v>11001.37806338404</v>
+        <v>10993.68770882206</v>
       </c>
       <c r="S33">
-        <v>31235.16379545427</v>
+        <v>31213.32930499277</v>
       </c>
       <c r="T33">
-        <v>28814.00898711215</v>
+        <v>28793.86696997701</v>
       </c>
       <c r="U33">
-        <v>2106.506526919839</v>
+        <v>2105.034003933556</v>
       </c>
       <c r="V33">
-        <v>314.6482814222875</v>
+        <v>314.4283310822018</v>
       </c>
       <c r="W33">
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
-        <v>28178.43090712924</v>
+        <v>28243.16689177982</v>
       </c>
       <c r="AI33">
-        <v>127.457251935557</v>
+        <v>184.2829316840944</v>
       </c>
       <c r="AJ33">
-        <v>28050.97365519367</v>
+        <v>28058.88396009574</v>
       </c>
       <c r="AK33">
-        <v>-40374.56909287076</v>
+        <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-63008.54274806444</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22633.97365519367</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-63051.54274806444</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
-        <v>161203.5690928708</v>
+        <v>161138.8331082202</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4969,10 +4969,10 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.4343</v>
+        <v>8.440200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4983,121 +4983,121 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74970.80712865795</v>
+        <v>74976.2595398688</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="F34">
-        <v>8236.351416947899</v>
+        <v>8230.643883396471</v>
       </c>
       <c r="G34">
-        <v>66734.45571171005</v>
+        <v>66745.61565647234</v>
       </c>
       <c r="H34">
-        <v>91821.44260551986</v>
+        <v>91757.81322184237</v>
       </c>
       <c r="I34">
-        <v>80622.57234986824</v>
+        <v>80566.70343250486</v>
       </c>
       <c r="J34">
-        <v>11198.87014007674</v>
+        <v>11191.10967384274</v>
       </c>
       <c r="K34">
-        <v>298.0586889186815</v>
+        <v>297.85214358311</v>
       </c>
       <c r="L34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="M34">
-        <v>4882.873653552771</v>
+        <v>4879.489975053128</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78772.31739170635</v>
+        <v>78717.73064307493</v>
       </c>
       <c r="P34">
-        <v>48141.39591327262</v>
+        <v>48108.0354337984</v>
       </c>
       <c r="Q34">
-        <v>37204.30967130508</v>
+        <v>37178.5282500231</v>
       </c>
       <c r="R34">
-        <v>10937.08624196755</v>
+        <v>10929.50718377529</v>
       </c>
       <c r="S34">
-        <v>30630.92147843373</v>
+        <v>30609.69520927654</v>
       </c>
       <c r="T34">
-        <v>28337.2956636309</v>
+        <v>28317.658805322</v>
       </c>
       <c r="U34">
-        <v>2031.841801118765</v>
+        <v>2030.433798392313</v>
       </c>
       <c r="V34">
-        <v>261.7838981091952</v>
+        <v>261.602490067449</v>
       </c>
       <c r="W34">
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
-        <v>30221.55739448014</v>
+        <v>30285.18677815763</v>
       </c>
       <c r="AI34">
-        <v>2216.427650131765</v>
+        <v>2272.296567495141</v>
       </c>
       <c r="AJ34">
-        <v>28005.12985992326</v>
+        <v>28012.89032615726</v>
       </c>
       <c r="AK34">
-        <v>-37557.44260551986</v>
+        <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60169.57234986824</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22612.12985992326</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60212.57234986824</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
-        <v>159643.4426055198</v>
+        <v>159579.8132218424</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5106,10 +5106,10 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6524</v>
+        <v>8.6584</v>
       </c>
     </row>
     <row r="35">
@@ -5120,121 +5120,121 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75384.55273153522</v>
+        <v>75390.01317790167</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="F35">
-        <v>8191.138487201741</v>
+        <v>8185.418482851833</v>
       </c>
       <c r="G35">
-        <v>67193.41424433349</v>
+        <v>67204.59469504983</v>
       </c>
       <c r="H35">
-        <v>92641.96645740114</v>
+        <v>92577.27307540689</v>
       </c>
       <c r="I35">
-        <v>81236.04657191483</v>
+        <v>81179.31812806218</v>
       </c>
       <c r="J35">
-        <v>11405.91999819664</v>
+        <v>11397.95505997635</v>
       </c>
       <c r="K35">
-        <v>292.6103716060097</v>
+        <v>292.406037055809</v>
       </c>
       <c r="L35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="M35">
-        <v>4869.998647475853</v>
+        <v>4866.59784873571</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79659.9101698545</v>
+        <v>79604.28236751704</v>
       </c>
       <c r="P35">
-        <v>51499.69624561839</v>
+        <v>51463.73317564904</v>
       </c>
       <c r="Q35">
-        <v>40349.63436763861</v>
+        <v>40321.45756603029</v>
       </c>
       <c r="R35">
-        <v>11150.06199069013</v>
+        <v>11142.27572225038</v>
       </c>
       <c r="S35">
-        <v>28160.21392423611</v>
+        <v>28140.549191868</v>
       </c>
       <c r="T35">
-        <v>26270.9202799725</v>
+        <v>26252.57487188151</v>
       </c>
       <c r="U35">
-        <v>1633.435636757098</v>
+        <v>1632.294982260517</v>
       </c>
       <c r="V35">
-        <v>255.858007506509</v>
+        <v>255.6793377259672</v>
       </c>
       <c r="W35">
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
-        <v>29079.03354259886</v>
+        <v>29143.72692459311</v>
       </c>
       <c r="AI35">
-        <v>1967.953428085166</v>
+        <v>2024.681871937821</v>
       </c>
       <c r="AJ35">
-        <v>27111.08000180336</v>
+        <v>27119.04494002365</v>
       </c>
       <c r="AK35">
-        <v>-37536.96645740114</v>
+        <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59573.04657191483</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22036.08000180336</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59590.04657191483</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
-        <v>159274.9664574011</v>
+        <v>159210.2730754069</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5243,10 +5243,10 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.872299999999999</v>
+        <v>8.878500000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5257,121 +5257,121 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77529.45176008222</v>
+        <v>77534.92732115249</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="F36">
-        <v>8205.126430031511</v>
+        <v>8199.385276890607</v>
       </c>
       <c r="G36">
-        <v>69324.32533005071</v>
+        <v>69335.54204426188</v>
       </c>
       <c r="H36">
-        <v>94063.90052740354</v>
+        <v>93998.08371610107</v>
       </c>
       <c r="I36">
-        <v>82338.48171027818</v>
+        <v>82280.86921193104</v>
       </c>
       <c r="J36">
-        <v>11725.418704191</v>
+        <v>11717.21439131465</v>
       </c>
       <c r="K36">
-        <v>290.2253040758016</v>
+        <v>290.0222325045988</v>
       </c>
       <c r="L36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="M36">
-        <v>4866.554711057405</v>
+        <v>4863.149567199719</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81081.57227235254</v>
+        <v>81024.83923754923</v>
       </c>
       <c r="P36">
-        <v>51633.05645589349</v>
+        <v>51596.9286415601</v>
       </c>
       <c r="Q36">
-        <v>40305.19102849335</v>
+        <v>40276.98935774017</v>
       </c>
       <c r="R36">
-        <v>11327.86542740014</v>
+        <v>11319.93928381993</v>
       </c>
       <c r="S36">
-        <v>29448.51570352469</v>
+        <v>29427.91048313376</v>
       </c>
       <c r="T36">
-        <v>26808.28949597389</v>
+        <v>26789.53165028383</v>
       </c>
       <c r="U36">
-        <v>2242.672930759936</v>
+        <v>2241.103725355212</v>
       </c>
       <c r="V36">
-        <v>397.5532767908569</v>
+        <v>397.275107494724</v>
       </c>
       <c r="W36">
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
-        <v>29398.09947259646</v>
+        <v>29463.91628389893</v>
       </c>
       <c r="AI36">
-        <v>3016.518289721818</v>
+        <v>3074.130788068957</v>
       </c>
       <c r="AJ36">
-        <v>26381.581295809</v>
+        <v>26389.78560868535</v>
       </c>
       <c r="AK36">
-        <v>-37578.90052740354</v>
+        <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58880.48171027818</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21301.581295809</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58897.48171027818</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
-        <v>161057.9005274035</v>
+        <v>160992.0837161011</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5380,10 +5380,10 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.854699999999999</v>
+        <v>8.860900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5394,121 +5394,121 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78123.74266573256</v>
+        <v>78129.22529972871</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="F37">
-        <v>8169.930926525966</v>
+        <v>8164.211188413407</v>
       </c>
       <c r="G37">
-        <v>69953.81173920659</v>
+        <v>69965.01411131531</v>
       </c>
       <c r="H37">
-        <v>93822.57290480779</v>
+        <v>93756.88807210991</v>
       </c>
       <c r="I37">
-        <v>82012.99446098608</v>
+        <v>81955.57747002711</v>
       </c>
       <c r="J37">
-        <v>11809.5784438217</v>
+        <v>11801.31060208279</v>
       </c>
       <c r="K37">
-        <v>289.1214204396182</v>
+        <v>288.9190076135469</v>
       </c>
       <c r="L37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="M37">
-        <v>4871.766792188459</v>
+        <v>4868.356086461889</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80830.42735791227</v>
+        <v>80773.83827776319</v>
       </c>
       <c r="P37">
-        <v>51376.22164813032</v>
+        <v>51340.25334733526</v>
       </c>
       <c r="Q37">
-        <v>39900.23108415799</v>
+        <v>39872.2970814737</v>
       </c>
       <c r="R37">
-        <v>11475.99056397233</v>
+        <v>11467.95626586156</v>
       </c>
       <c r="S37">
-        <v>29454.20570978195</v>
+        <v>29433.58493042793</v>
       </c>
       <c r="T37">
-        <v>26915.8774848936</v>
+        <v>26897.0337796447</v>
       </c>
       <c r="U37">
-        <v>2204.74034503897</v>
+        <v>2203.196814562002</v>
       </c>
       <c r="V37">
-        <v>333.5878798493739</v>
+        <v>333.3543362212304</v>
       </c>
       <c r="W37">
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
-        <v>31904.42709519221</v>
+        <v>31970.11192789009</v>
       </c>
       <c r="AI37">
-        <v>3942.005539013917</v>
+        <v>3999.422529972886</v>
       </c>
       <c r="AJ37">
-        <v>27962.4215561783</v>
+        <v>27970.68939791721</v>
       </c>
       <c r="AK37">
-        <v>-36145.57290480779</v>
+        <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58876.99446098608</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22731.4215561783</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58893.99446098608</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
-        <v>161889.5729048078</v>
+        <v>161823.8880721099</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5517,10 +5517,10 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.135199999999999</v>
+        <v>9.1416</v>
       </c>
     </row>
     <row r="38">
@@ -5531,121 +5531,121 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77600.77454953014</v>
+        <v>77606.26621579418</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="F38">
-        <v>8263.873825329771</v>
+        <v>8258.089104752467</v>
       </c>
       <c r="G38">
-        <v>69336.90072420036</v>
+        <v>69348.17711104172</v>
       </c>
       <c r="H38">
-        <v>92933.61916975603</v>
+        <v>92868.56553625465</v>
       </c>
       <c r="I38">
-        <v>81201.9115872058</v>
+        <v>81145.07016164642</v>
       </c>
       <c r="J38">
-        <v>11731.70769031813</v>
+        <v>11723.49548230074</v>
       </c>
       <c r="K38">
-        <v>289.0980903526166</v>
+        <v>288.8957213780329</v>
       </c>
       <c r="L38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="M38">
-        <v>4874.639300801794</v>
+        <v>4871.227048041612</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79924.65632813175</v>
+        <v>79868.70898262919</v>
       </c>
       <c r="P38">
-        <v>51351.9017803259</v>
+        <v>51315.95539377753</v>
       </c>
       <c r="Q38">
-        <v>39951.58235623761</v>
+        <v>39923.61620556339</v>
       </c>
       <c r="R38">
-        <v>11400.31942408828</v>
+        <v>11392.33918821414</v>
       </c>
       <c r="S38">
-        <v>28572.75454780585</v>
+        <v>28552.75358885167</v>
       </c>
       <c r="T38">
-        <v>25803.03657642901</v>
+        <v>25784.97442303757</v>
       </c>
       <c r="U38">
-        <v>2438.329812914907</v>
+        <v>2436.622979419968</v>
       </c>
       <c r="V38">
-        <v>331.3882662298474</v>
+        <v>331.1562940866062</v>
       </c>
       <c r="W38">
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
-        <v>32207.38083024397</v>
+        <v>32272.43446374535</v>
       </c>
       <c r="AI38">
-        <v>4244.088412794197</v>
+        <v>4300.929838353579</v>
       </c>
       <c r="AJ38">
-        <v>27963.29230968187</v>
+        <v>27971.50451769926</v>
       </c>
       <c r="AK38">
-        <v>-36047.61916975603</v>
+        <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58708.9115872058</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22661.29230968187</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58725.9115872058</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
-        <v>161205.619169756</v>
+        <v>161140.5655362547</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5654,10 +5654,10 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.279199999999999</v>
+        <v>9.2857</v>
       </c>
     </row>
     <row r="39">
@@ -5668,121 +5668,121 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76269.64262343528</v>
+        <v>76275.17951124845</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="F39">
-        <v>8149.654655605514</v>
+        <v>8143.895668315527</v>
       </c>
       <c r="G39">
-        <v>68119.98796782977</v>
+        <v>68131.28384293293</v>
       </c>
       <c r="H39">
-        <v>91351.04384353958</v>
+        <v>91286.49024922743</v>
       </c>
       <c r="I39">
-        <v>79500.64593755937</v>
+        <v>79444.46647611614</v>
       </c>
       <c r="J39">
-        <v>11850.3979059802</v>
+        <v>11842.02377311128</v>
       </c>
       <c r="K39">
-        <v>286.9217697844764</v>
+        <v>286.7190153249027</v>
       </c>
       <c r="L39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="M39">
-        <v>4871.253773246363</v>
+        <v>4867.811481547889</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78357.51092394402</v>
+        <v>78302.13926360309</v>
       </c>
       <c r="P39">
-        <v>51278.32214552593</v>
+        <v>51242.08610633564</v>
       </c>
       <c r="Q39">
-        <v>39887.18605534798</v>
+        <v>39858.99960975816</v>
       </c>
       <c r="R39">
-        <v>11391.1359846326</v>
+        <v>11383.08639110671</v>
       </c>
       <c r="S39">
-        <v>27079.18877841808</v>
+        <v>27060.05315726747</v>
       </c>
       <c r="T39">
-        <v>24571.2160935554</v>
+        <v>24553.85274171264</v>
       </c>
       <c r="U39">
-        <v>2048.710869060435</v>
+        <v>2047.26313902102</v>
       </c>
       <c r="V39">
-        <v>459.2619213476031</v>
+        <v>458.9373820045774</v>
       </c>
       <c r="W39">
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
-        <v>32431.95615646042</v>
+        <v>32496.50975077257</v>
       </c>
       <c r="AI39">
-        <v>4604.354062440631</v>
+        <v>4660.53352388386</v>
       </c>
       <c r="AJ39">
-        <v>27827.6020940198</v>
+        <v>27835.97622688872</v>
       </c>
       <c r="AK39">
-        <v>-35897.04384353958</v>
+        <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58588.64593755937</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22691.6020940198</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58596.64593755937</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
-        <v>159688.0438435396</v>
+        <v>159623.4902492274</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5791,10 +5791,10 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.474600000000001</v>
+        <v>9.481299999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5805,121 +5805,121 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77970.22888778715</v>
+        <v>77975.71735271046</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="F40">
-        <v>8182.076929433151</v>
+        <v>8176.334172825234</v>
       </c>
       <c r="G40">
-        <v>69788.15195835399</v>
+        <v>69799.38317988522</v>
       </c>
       <c r="H40">
-        <v>93800.98351512147</v>
+        <v>93735.14739275834</v>
       </c>
       <c r="I40">
-        <v>82275.42575607338</v>
+        <v>82217.67908013707</v>
       </c>
       <c r="J40">
-        <v>11525.5578623368</v>
+        <v>11517.4684158375</v>
       </c>
       <c r="K40">
-        <v>285.2106056850107</v>
+        <v>285.0104248379506</v>
       </c>
       <c r="L40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="M40">
-        <v>4866.467732606181</v>
+        <v>4863.052103546509</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80829.53406461742</v>
+        <v>80772.80221708435</v>
       </c>
       <c r="P40">
-        <v>52934.50152867295</v>
+        <v>52897.34837537674</v>
       </c>
       <c r="Q40">
-        <v>41885.50714757891</v>
+        <v>41856.10895503902</v>
       </c>
       <c r="R40">
-        <v>11048.99448438275</v>
+        <v>11041.23952355394</v>
       </c>
       <c r="S40">
-        <v>27895.03253594447</v>
+        <v>27875.45384170761</v>
       </c>
       <c r="T40">
-        <v>24891.04042720212</v>
+        <v>24873.5701457413</v>
       </c>
       <c r="U40">
-        <v>2527.428730788299</v>
+        <v>2525.654803682755</v>
       </c>
       <c r="V40">
-        <v>476.5633779540572</v>
+        <v>476.2288922835556</v>
       </c>
       <c r="W40">
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
-        <v>31642.01648487854</v>
+        <v>31707.85260724166</v>
       </c>
       <c r="AI40">
-        <v>3514.574243926618</v>
+        <v>3572.320919862934</v>
       </c>
       <c r="AJ40">
-        <v>28127.44213766319</v>
+        <v>28135.53158416251</v>
       </c>
       <c r="AK40">
-        <v>-35410.98351512147</v>
+        <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58268.42575607338</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22857.44213766319</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58276.42575607338</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
-        <v>160861.9835151215</v>
+        <v>160796.1473927583</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5928,10 +5928,10 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
-        <v>9.6816</v>
+        <v>9.6884</v>
       </c>
     </row>
     <row r="41">
@@ -5942,121 +5942,121 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78906.98363285941</v>
+        <v>78912.40233941717</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="F41">
-        <v>8216.159877296899</v>
+        <v>8210.443279217505</v>
       </c>
       <c r="G41">
-        <v>70690.82375556251</v>
+        <v>70701.95906019966</v>
       </c>
       <c r="H41">
-        <v>99305.92617632516</v>
+        <v>99236.83160229906</v>
       </c>
       <c r="I41">
-        <v>89875.15090665077</v>
+        <v>89812.61802964604</v>
       </c>
       <c r="J41">
-        <v>9430.775269674374</v>
+        <v>9424.21357265302</v>
       </c>
       <c r="K41">
-        <v>281.3337907791042</v>
+        <v>281.1380457799738</v>
       </c>
       <c r="L41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="M41">
-        <v>4855.68702636704</v>
+        <v>4852.308561056771</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86380.88899203842</v>
+        <v>86320.7873348795</v>
       </c>
       <c r="P41">
-        <v>55710.68748044924</v>
+        <v>55671.92538065947</v>
       </c>
       <c r="Q41">
-        <v>47455.96230108677</v>
+        <v>47422.94363214682</v>
       </c>
       <c r="R41">
-        <v>8254.725179362469</v>
+        <v>8248.981748512655</v>
       </c>
       <c r="S41">
-        <v>30670.20161249634</v>
+        <v>30648.86205505697</v>
       </c>
       <c r="T41">
-        <v>27376.78045630216</v>
+        <v>27357.73237874357</v>
       </c>
       <c r="U41">
-        <v>2117.370964975126</v>
+        <v>2115.89775133609</v>
       </c>
       <c r="V41">
-        <v>1176.050090311904</v>
+        <v>1175.231824140365</v>
       </c>
       <c r="W41">
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>63647.65</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520</v>
+        <v>42.52</v>
       </c>
       <c r="AB41">
-        <v>35170</v>
+        <v>35.17</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AD41">
-        <v>21127</v>
+        <v>63604.48</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>63639.65</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AH41">
-        <v>28384.07382367484</v>
+        <v>28453.16839770094</v>
       </c>
       <c r="AI41">
-        <v>-3180.150906650772</v>
+        <v>-3117.618029646037</v>
       </c>
       <c r="AJ41">
-        <v>31564.22473032563</v>
+        <v>31570.78642734698</v>
       </c>
       <c r="AK41">
-        <v>-35262.92617632516</v>
+        <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59477.15090665077</v>
+        <v>-66757.26802964605</v>
       </c>
       <c r="AM41">
-        <v>24214.22473032563</v>
+        <v>31563.43642734698</v>
       </c>
       <c r="AN41">
-        <v>-59485.15090665077</v>
+        <v>-66765.26802964605</v>
       </c>
       <c r="AO41">
-        <v>162960.9261763252</v>
+        <v>162891.8316022991</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6065,10 +6065,10 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1620313209744438</v>
+        <v>0.0001620313209744439</v>
       </c>
       <c r="AS41">
-        <v>9.9101</v>
+        <v>9.917</v>
       </c>
     </row>
     <row r="42">
@@ -6079,121 +6079,121 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80155.14939001572</v>
+        <v>80160.59462617914</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="F42">
-        <v>8198.336576603548</v>
+        <v>8192.588091209109</v>
       </c>
       <c r="G42">
-        <v>71956.81281341218</v>
+        <v>71968.00653497003</v>
       </c>
       <c r="H42">
-        <v>103449.4652346381</v>
+        <v>103376.9288445537</v>
       </c>
       <c r="I42">
-        <v>92418.73315994309</v>
+        <v>92353.93126595175</v>
       </c>
       <c r="J42">
-        <v>11030.73216825088</v>
+        <v>11022.99767209222</v>
       </c>
       <c r="K42">
-        <v>277.9092133822318</v>
+        <v>277.714349821901</v>
       </c>
       <c r="L42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="M42">
-        <v>4839.787628171544</v>
+        <v>4836.394080195955</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90565.91778310006</v>
+        <v>90502.415040715</v>
       </c>
       <c r="P42">
-        <v>55465.38657286131</v>
+        <v>55426.49551714143</v>
       </c>
       <c r="Q42">
-        <v>47205.06698600404</v>
+        <v>47171.96787674242</v>
       </c>
       <c r="R42">
-        <v>8260.319586857271</v>
+        <v>8254.527640399016</v>
       </c>
       <c r="S42">
-        <v>35100.53130379463</v>
+        <v>35075.91961706384</v>
       </c>
       <c r="T42">
-        <v>29873.14413217573</v>
+        <v>29852.1977693221</v>
       </c>
       <c r="U42">
-        <v>2456.974590225282</v>
+        <v>2455.25181604854</v>
       </c>
       <c r="V42">
-        <v>2770.412581393608</v>
+        <v>2768.470031693202</v>
       </c>
       <c r="W42">
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>60518.789</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482</v>
+        <v>39.48200000000001</v>
       </c>
       <c r="AB42">
-        <v>34271</v>
+        <v>34.27100000000001</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AD42">
-        <v>21034</v>
+        <v>60476.518</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>60510.789</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AH42">
-        <v>24953.5347653619</v>
+        <v>25026.07115544631</v>
       </c>
       <c r="AI42">
-        <v>-4497.733159943091</v>
+        <v>-4432.931265951745</v>
       </c>
       <c r="AJ42">
-        <v>29451.26783174912</v>
+        <v>29459.00232790778</v>
       </c>
       <c r="AK42">
-        <v>-35562.4652346381</v>
+        <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59802.73315994309</v>
+        <v>-64943.72026595174</v>
       </c>
       <c r="AM42">
-        <v>24240.26783174912</v>
+        <v>29453.79132790778</v>
       </c>
       <c r="AN42">
-        <v>-59810.73315994309</v>
+        <v>-64951.72026595174</v>
       </c>
       <c r="AO42">
-        <v>163973.4652346381</v>
+        <v>163900.9288445537</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6202,10 +6202,10 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1506045007255962</v>
+        <v>0.0001506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6888</v>
+        <v>10.6963</v>
       </c>
     </row>
     <row r="43">
@@ -6216,121 +6216,121 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79296.91626708473</v>
+        <v>79302.32518062349</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="F43">
-        <v>8162.123802296589</v>
+        <v>8156.410363246972</v>
       </c>
       <c r="G43">
-        <v>71134.79246478815</v>
+        <v>71145.91481737651</v>
       </c>
       <c r="H43">
-        <v>101699.8914249022</v>
+        <v>101628.7020941492</v>
       </c>
       <c r="I43">
-        <v>92885.28724034125</v>
+        <v>92820.26808109933</v>
       </c>
       <c r="J43">
-        <v>8814.604267952002</v>
+        <v>8808.434096382529</v>
       </c>
       <c r="K43">
-        <v>274.3360824570328</v>
+        <v>274.1440487995934</v>
       </c>
       <c r="L43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="M43">
-        <v>4826.449210704071</v>
+        <v>4823.07072441063</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88872.02239882587</v>
+        <v>88809.81250156248</v>
       </c>
       <c r="P43">
-        <v>54063.16460551883</v>
+        <v>54025.32070566079</v>
       </c>
       <c r="Q43">
-        <v>46436.41927333073</v>
+        <v>46403.91405071625</v>
       </c>
       <c r="R43">
-        <v>7626.745332188098</v>
+        <v>7621.406654944542</v>
       </c>
       <c r="S43">
-        <v>34808.85779330704</v>
+        <v>34784.4917959017</v>
       </c>
       <c r="T43">
-        <v>31157.11467098077</v>
+        <v>31135.30487245939</v>
       </c>
       <c r="U43">
-        <v>2463.884269953385</v>
+        <v>2462.159565336955</v>
       </c>
       <c r="V43">
-        <v>1187.858935763903</v>
+        <v>1187.027441437988</v>
       </c>
       <c r="W43">
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>53951</v>
+        <v>60822.122</v>
       </c>
       <c r="Y43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980</v>
+        <v>39.98</v>
       </c>
       <c r="AB43">
-        <v>33102</v>
+        <v>33.102</v>
       </c>
       <c r="AC43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AD43">
-        <v>20841</v>
+        <v>60781.02</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>53943</v>
+        <v>60814.122</v>
       </c>
       <c r="AG43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AH43">
-        <v>24445.10857509777</v>
+        <v>24516.29790585078</v>
       </c>
       <c r="AI43">
-        <v>-5861.287240341248</v>
+        <v>-5796.268081099333</v>
       </c>
       <c r="AJ43">
-        <v>30306.395732048</v>
+        <v>30312.56590361747</v>
       </c>
       <c r="AK43">
-        <v>-36375.89142490224</v>
+        <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59804.28724034125</v>
+        <v>-66610.39008109934</v>
       </c>
       <c r="AM43">
-        <v>23428.395732048</v>
+        <v>30305.68790361747</v>
       </c>
       <c r="AN43">
-        <v>-59812.28724034125</v>
+        <v>-66618.39008109932</v>
       </c>
       <c r="AO43">
-        <v>162528.8914249023</v>
+        <v>162457.7020941492</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6339,10 +6339,10 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.154080134850564</v>
+        <v>0.0001540801348505641</v>
       </c>
       <c r="AS43">
-        <v>11.9917</v>
+        <v>12.0001</v>
       </c>
     </row>
     <row r="44">
@@ -6353,121 +6353,121 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77246.50209742189</v>
+        <v>77251.88611664317</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="F44">
-        <v>8335.640198844552</v>
+        <v>8329.857906867461</v>
       </c>
       <c r="G44">
-        <v>68910.86189857734</v>
+        <v>68922.02820977572</v>
       </c>
       <c r="H44">
-        <v>101774.4865421649</v>
+        <v>101703.8873100763</v>
       </c>
       <c r="I44">
-        <v>93005.29311657486</v>
+        <v>92940.77692497036</v>
       </c>
       <c r="J44">
-        <v>8769.19342559004</v>
+        <v>8763.110385105954</v>
       </c>
       <c r="K44">
-        <v>274.5364772269247</v>
+        <v>274.3460359372552</v>
       </c>
       <c r="L44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="M44">
-        <v>4840.790302596026</v>
+        <v>4837.432328611813</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88897.66185976384</v>
+        <v>88835.99506217041</v>
       </c>
       <c r="P44">
-        <v>54196.76362577813</v>
+        <v>54159.16825169505</v>
       </c>
       <c r="Q44">
-        <v>46633.74117366057</v>
+        <v>46601.39213975102</v>
       </c>
       <c r="R44">
-        <v>7563.022452117575</v>
+        <v>7557.776111944027</v>
       </c>
       <c r="S44">
-        <v>34700.8982339857</v>
+        <v>34676.82681047536</v>
       </c>
       <c r="T44">
-        <v>31231.05833967785</v>
+        <v>31209.39388514698</v>
       </c>
       <c r="U44">
-        <v>2263.668920835386</v>
+        <v>2262.098652166454</v>
       </c>
       <c r="V44">
-        <v>1206.170973472465</v>
+        <v>1205.334273161926</v>
       </c>
       <c r="W44">
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>54067</v>
+        <v>60785.27499999999</v>
       </c>
       <c r="Y44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39533</v>
+        <v>39.533</v>
       </c>
       <c r="AB44">
-        <v>32808</v>
+        <v>32.808</v>
       </c>
       <c r="AC44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AD44">
-        <v>20867</v>
+        <v>60360.467</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>53675</v>
+        <v>60393.275</v>
       </c>
       <c r="AG44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AH44">
-        <v>22250.5134578351</v>
+        <v>22321.1126899237</v>
       </c>
       <c r="AI44">
-        <v>-7997.29311657486</v>
+        <v>-7932.776924970356</v>
       </c>
       <c r="AJ44">
-        <v>30247.80657440996</v>
+        <v>30253.88961489405</v>
       </c>
       <c r="AK44">
-        <v>-38149.4865421649</v>
+        <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61672.29311657486</v>
+        <v>-68326.05192497035</v>
       </c>
       <c r="AM44">
-        <v>23522.80657440996</v>
+        <v>30247.16461489405</v>
       </c>
       <c r="AN44">
-        <v>-62064.29311657486</v>
+        <v>-68718.05192497035</v>
       </c>
       <c r="AO44">
-        <v>162566.4865421649</v>
+        <v>162495.8873100763</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6476,10 +6476,10 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.153450834966544</v>
+        <v>0.000153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.3974</v>
+        <v>13.4067</v>
       </c>
     </row>
     <row r="45">
@@ -6490,121 +6490,121 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76396.53347653548</v>
+        <v>76402.00801851097</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="F45">
-        <v>8303.434739869661</v>
+        <v>8297.574145759358</v>
       </c>
       <c r="G45">
-        <v>68093.09873666582</v>
+        <v>68104.43387275162</v>
       </c>
       <c r="H45">
-        <v>101935.0436523829</v>
+        <v>101863.0975318703</v>
       </c>
       <c r="I45">
-        <v>94293.3102996323</v>
+        <v>94226.7577420106</v>
       </c>
       <c r="J45">
-        <v>7641.733425565223</v>
+        <v>7636.339862622969</v>
       </c>
       <c r="K45">
-        <v>274.0099756070921</v>
+        <v>273.816578380581</v>
       </c>
       <c r="L45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="M45">
-        <v>4840.232424363782</v>
+        <v>4836.816170906339</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89064.33472894746</v>
+        <v>89001.47280109435</v>
       </c>
       <c r="P45">
-        <v>53584.31834565115</v>
+        <v>53546.49834099773</v>
       </c>
       <c r="Q45">
-        <v>46370.13871190884</v>
+        <v>46337.41050119331</v>
       </c>
       <c r="R45">
-        <v>7214.179706556959</v>
+        <v>7209.087912567669</v>
       </c>
       <c r="S45">
-        <v>35480.01638329632</v>
+        <v>35454.97446009663</v>
       </c>
       <c r="T45">
-        <v>33123.24585866676</v>
+        <v>33099.86735258164</v>
       </c>
       <c r="U45">
-        <v>1929.216805621291</v>
+        <v>1927.855157459689</v>
       </c>
       <c r="V45">
-        <v>427.5537190082645</v>
+        <v>427.2519500553</v>
       </c>
       <c r="W45">
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>53121</v>
+        <v>60340.773</v>
       </c>
       <c r="Y45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38991</v>
+        <v>38.991</v>
       </c>
       <c r="AB45">
-        <v>31764</v>
+        <v>31.764</v>
       </c>
       <c r="AC45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AD45">
-        <v>20965</v>
+        <v>59917.009</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>52729</v>
+        <v>59948.773</v>
       </c>
       <c r="AG45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AH45">
-        <v>20954.95634761715</v>
+        <v>21026.9024681297</v>
       </c>
       <c r="AI45">
-        <v>-10140.3102996323</v>
+        <v>-10073.7577420106</v>
       </c>
       <c r="AJ45">
-        <v>31095.26657443478</v>
+        <v>31100.66013737703</v>
       </c>
       <c r="AK45">
-        <v>-39001.04365238285</v>
+        <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62869.3102996323</v>
+        <v>-70022.5307420106</v>
       </c>
       <c r="AM45">
-        <v>23868.26657443478</v>
+        <v>31093.43313737703</v>
       </c>
       <c r="AN45">
-        <v>-63261.3102996323</v>
+        <v>-70414.5307420106</v>
       </c>
       <c r="AO45">
-        <v>162283.0436523829</v>
+        <v>162211.0975318703</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6613,10 +6613,10 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.1510540895364002</v>
+        <v>0.0001510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7335</v>
+        <v>13.7432</v>
       </c>
     </row>
     <row r="46">
@@ -6627,121 +6627,121 @@
         <v>116873</v>
       </c>
       <c r="C46">
-        <v>70615.72128516169</v>
+        <v>70621.12258904272</v>
       </c>
       <c r="D46">
         <v>38506</v>
       </c>
       <c r="E46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="F46">
-        <v>8204.612925295371</v>
+        <v>8198.895725686638</v>
       </c>
       <c r="G46">
-        <v>62411.10835986632</v>
+        <v>62422.22686335607</v>
       </c>
       <c r="H46">
-        <v>104932.1988395653</v>
+        <v>104859.0792016724</v>
       </c>
       <c r="I46">
-        <v>97342.4621740389</v>
+        <v>97274.63127309064</v>
       </c>
       <c r="J46">
-        <v>7589.736731310686</v>
+        <v>7584.447994320198</v>
       </c>
       <c r="K46">
-        <v>271.4653448411967</v>
+        <v>271.2761803336883</v>
       </c>
       <c r="L46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="M46">
-        <v>4836.989316632898</v>
+        <v>4833.618769639359</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>92072.4654632529</v>
+        <v>92008.30684074205</v>
       </c>
       <c r="P46">
-        <v>53561.15017235481</v>
+        <v>53523.8272919707</v>
       </c>
       <c r="Q46">
-        <v>46339.95631923795</v>
+        <v>46307.66536504556</v>
       </c>
       <c r="R46">
-        <v>7221.193918901139</v>
+        <v>7216.161992663589</v>
       </c>
       <c r="S46">
-        <v>38511.3152251138</v>
+        <v>38484.47948303291</v>
       </c>
       <c r="T46">
-        <v>35794.40682314554</v>
+        <v>35769.46429745329</v>
       </c>
       <c r="U46">
-        <v>2348.365655342999</v>
+        <v>2346.729249661447</v>
       </c>
       <c r="V46">
-        <v>368.5428124095466</v>
+        <v>368.2860016566087</v>
       </c>
       <c r="W46">
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>52088</v>
+        <v>59260.82</v>
       </c>
       <c r="Y46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="AB46">
-        <v>30720</v>
+        <v>30.72000000000001</v>
       </c>
       <c r="AC46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AD46">
-        <v>20967</v>
+        <v>58829.1</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>51687</v>
+        <v>58859.82</v>
       </c>
       <c r="AG46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AH46">
-        <v>11940.8011604347</v>
+        <v>12013.92079832761</v>
       </c>
       <c r="AI46">
-        <v>-18975.4621740389</v>
+        <v>-18907.63127309064</v>
       </c>
       <c r="AJ46">
-        <v>30916.26326868931</v>
+        <v>30921.5520056798</v>
       </c>
       <c r="AK46">
-        <v>-46926.1988395653</v>
+        <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70662.4621740389</v>
+        <v>-77767.45127309064</v>
       </c>
       <c r="AM46">
-        <v>23736.26326868931</v>
+        <v>30914.3720056798</v>
       </c>
       <c r="AN46">
-        <v>-71063.4621740389</v>
+        <v>-78168.45127309064</v>
       </c>
       <c r="AO46">
-        <v>164200.1988395653</v>
+        <v>164127.0792016724</v>
       </c>
       <c r="AP46">
         <v>264458</v>
@@ -6750,10 +6750,10 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.1433119814866633</v>
+        <v>0.0001433119814866633</v>
       </c>
       <c r="AS46">
-        <v>15.2012</v>
+        <v>15.2118</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039.00000000001</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480.00000000001</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15221.99999999999</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14333.27347522322</v>
@@ -704,13 +704,13 @@
         <v>-44927.72652477678</v>
       </c>
       <c r="AL2">
-        <v>-77658.59184567453</v>
+        <v>-72105.15084567452</v>
       </c>
       <c r="AM2">
-        <v>32730.86532089773</v>
+        <v>27177.42432089774</v>
       </c>
       <c r="AN2">
-        <v>-79055.59184567453</v>
+        <v>-73502.15084567452</v>
       </c>
       <c r="AO2">
         <v>139530.7265247768</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226788</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4142</v>
@@ -799,34 +799,34 @@
         <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>56996.065</v>
+        <v>51781.285</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
         <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-73406.31040106723</v>
+        <v>-68191.53040106723</v>
       </c>
       <c r="AO3">
         <v>139041.1351301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>57996.251</v>
+        <v>52826.426</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
         <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389.00000000001</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214.00000000001</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17610.99999999999</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-73552.21707530171</v>
+        <v>-68382.3920753017</v>
       </c>
       <c r="AO4">
         <v>139453.7919696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540216666830645</v>
+        <v>0.1540216666830646</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.0001552733834376522</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170.00000000001</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995.00000000001</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17429.99999999999</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548523844684408</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711286424205766</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.000169458761099947</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42720.99999999999</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37532.99999999999</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179.00000000001</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711120718583385</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668596216735144</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328.00000000001</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059.00000000001</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17271.99999999999</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664977157503071</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43216.99999999999</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37632.99999999999</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483.00000000001</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45848.99999999999</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40635.99999999999</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564.00000000001</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195908</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42.52</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35.17</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63604.48</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001620313209744439</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>60518.789</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39.48200000000001</v>
+        <v>39482.00000000001</v>
       </c>
       <c r="AB42">
-        <v>34.27100000000001</v>
+        <v>34271.00000000001</v>
       </c>
       <c r="AC42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>60476.518</v>
+        <v>21033.99999999999</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>60510.789</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-64943.72026595174</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>29453.79132790778</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-64951.72026595174</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.0001506045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>60822.122</v>
+        <v>53951</v>
       </c>
       <c r="Y43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39.98</v>
+        <v>39980.00000000001</v>
       </c>
       <c r="AB43">
-        <v>33.102</v>
+        <v>33102.00000000001</v>
       </c>
       <c r="AC43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AD43">
-        <v>60781.02</v>
+        <v>20840.99999999999</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>60814.122</v>
+        <v>53943</v>
       </c>
       <c r="AG43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-66610.39008109934</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>30305.68790361747</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-66618.39008109932</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.0001540801348505641</v>
+        <v>0.1540801348505641</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>60785.27499999999</v>
+        <v>54067</v>
       </c>
       <c r="Y44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39.533</v>
+        <v>39533</v>
       </c>
       <c r="AB44">
-        <v>32.808</v>
+        <v>32808</v>
       </c>
       <c r="AC44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AD44">
-        <v>60360.467</v>
+        <v>20867</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>60393.275</v>
+        <v>53675</v>
       </c>
       <c r="AG44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-68326.05192497035</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>30247.16461489405</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-68718.05192497035</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.000153450834966544</v>
+        <v>0.153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>60340.773</v>
+        <v>53121</v>
       </c>
       <c r="Y45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38.991</v>
+        <v>38991</v>
       </c>
       <c r="AB45">
-        <v>31.764</v>
+        <v>31764</v>
       </c>
       <c r="AC45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AD45">
-        <v>59917.009</v>
+        <v>20965</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>59948.773</v>
+        <v>52729</v>
       </c>
       <c r="AG45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-70022.5307420106</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>31093.43313737703</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-70414.5307420106</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.0001510540895364002</v>
+        <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>59260.82</v>
+        <v>52088</v>
       </c>
       <c r="Y46">
-        <v>7.180000000000001</v>
+        <v>7180.000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37.90000000000001</v>
+        <v>37900.00000000001</v>
       </c>
       <c r="AB46">
-        <v>30.72000000000001</v>
+        <v>30720.00000000001</v>
       </c>
       <c r="AC46">
-        <v>7.180000000000001</v>
+        <v>7180.000000000001</v>
       </c>
       <c r="AD46">
-        <v>58829.1</v>
+        <v>20966.99999999999</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>58859.82</v>
+        <v>51687</v>
       </c>
       <c r="AG46">
-        <v>7.180000000000001</v>
+        <v>7180.000000000001</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-77767.45127309064</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>30914.3720056798</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-78168.45127309064</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.0001433119814866633</v>
+        <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -671,16 +671,16 @@
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039.00000000001</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38480.00000000001</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
         <v>5559</v>
       </c>
       <c r="AD2">
-        <v>15221.99999999999</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
@@ -796,16 +796,16 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>57001.285</v>
+        <v>58285</v>
       </c>
       <c r="X3">
-        <v>51781.285</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
         <v>5220</v>
       </c>
       <c r="Z3">
-        <v>1.285</v>
+        <v>1285</v>
       </c>
       <c r="AA3">
         <v>39899</v>
@@ -847,10 +847,10 @@
         <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-68191.53040106723</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>139041.1351301653</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -933,28 +933,28 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>58001.426</v>
+        <v>59426</v>
       </c>
       <c r="X4">
-        <v>52826.426</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
         <v>5175</v>
       </c>
       <c r="Z4">
-        <v>1.426</v>
+        <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40389.00000000001</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35214.00000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
         <v>5175</v>
       </c>
       <c r="AD4">
-        <v>17610.99999999999</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
@@ -984,10 +984,10 @@
         <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-68382.3920753017</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>139453.7919696346</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830646</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1219,16 +1219,16 @@
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170.00000000001</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34995.00000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
         <v>5175</v>
       </c>
       <c r="AD6">
-        <v>17429.99999999999</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
@@ -1630,16 +1630,16 @@
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42720.99999999999</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37532.99999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
         <v>5188</v>
       </c>
       <c r="AD9">
-        <v>17179.00000000001</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
@@ -1904,16 +1904,16 @@
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328.00000000001</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37059.00000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
         <v>5269</v>
       </c>
       <c r="AD11">
-        <v>17271.99999999999</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
@@ -2178,16 +2178,16 @@
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43216.99999999999</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37632.99999999999</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
         <v>5584</v>
       </c>
       <c r="AD13">
-        <v>17483.00000000001</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
@@ -4090,7 +4090,7 @@
         <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
@@ -4102,7 +4102,7 @@
         <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
         <v>20791</v>
@@ -4114,7 +4114,7 @@
         <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4370,16 +4370,16 @@
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45848.99999999999</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40635.99999999999</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
         <v>5213</v>
       </c>
       <c r="AD29">
-        <v>20564.00000000001</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195908</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -6151,16 +6151,16 @@
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482.00000000001</v>
+        <v>39482</v>
       </c>
       <c r="AB42">
-        <v>34271.00000000001</v>
+        <v>34271</v>
       </c>
       <c r="AC42">
         <v>5211</v>
       </c>
       <c r="AD42">
-        <v>21033.99999999999</v>
+        <v>21034</v>
       </c>
       <c r="AE42">
         <v>60516</v>
@@ -6288,16 +6288,16 @@
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980.00000000001</v>
+        <v>39980</v>
       </c>
       <c r="AB43">
-        <v>33102.00000000001</v>
+        <v>33102</v>
       </c>
       <c r="AC43">
         <v>6878</v>
       </c>
       <c r="AD43">
-        <v>20840.99999999999</v>
+        <v>20841</v>
       </c>
       <c r="AE43">
         <v>60821</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.1540801348505641</v>
+        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6693,22 +6693,22 @@
         <v>52088</v>
       </c>
       <c r="Y46">
-        <v>7180.000000000001</v>
+        <v>7180</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900.00000000001</v>
+        <v>37900</v>
       </c>
       <c r="AB46">
-        <v>30720.00000000001</v>
+        <v>30720</v>
       </c>
       <c r="AC46">
-        <v>7180.000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AD46">
-        <v>20966.99999999999</v>
+        <v>20967</v>
       </c>
       <c r="AE46">
         <v>58867</v>
@@ -6717,7 +6717,7 @@
         <v>51687</v>
       </c>
       <c r="AG46">
-        <v>7180.000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,64 +736,64 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52321.66853164957</v>
+        <v>52320.58078816316</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="F3">
-        <v>8876.629654666533</v>
+        <v>8882.889979561876</v>
       </c>
       <c r="G3">
-        <v>43445.03887698304</v>
+        <v>43437.69080860129</v>
       </c>
       <c r="H3">
-        <v>82039.85013016526</v>
+        <v>82097.70949077405</v>
       </c>
       <c r="I3">
-        <v>70274.24540106722</v>
+        <v>70323.80696047669</v>
       </c>
       <c r="J3">
-        <v>11765.60487292706</v>
+        <v>11773.90267422781</v>
       </c>
       <c r="K3">
-        <v>342.488961123017</v>
+        <v>342.7305046201676</v>
       </c>
       <c r="L3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="M3">
-        <v>4913.384009089994</v>
+        <v>4916.849218457641</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75241.64569160182</v>
+        <v>75294.71055585941</v>
       </c>
       <c r="P3">
-        <v>45911.31215211357</v>
+        <v>45943.69152825355</v>
       </c>
       <c r="Q3">
-        <v>34936.71782185338</v>
+        <v>34961.35726416995</v>
       </c>
       <c r="R3">
-        <v>10974.5944740892</v>
+        <v>10982.33440801405</v>
       </c>
       <c r="S3">
-        <v>29330.33339565924</v>
+        <v>29351.01888367541</v>
       </c>
       <c r="T3">
-        <v>25497.94151912207</v>
+        <v>25515.92417743746</v>
       </c>
       <c r="U3">
-        <v>3041.381621528327</v>
+        <v>3043.526583954633</v>
       </c>
       <c r="V3">
-        <v>791.0103988378615</v>
+        <v>791.5682662137655</v>
       </c>
       <c r="W3">
         <v>58285</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>12008.14986983474</v>
+        <v>11950.29050922595</v>
       </c>
       <c r="AI3">
-        <v>-16410.24540106722</v>
+        <v>-16459.80696047669</v>
       </c>
       <c r="AJ3">
-        <v>28418.39512707294</v>
+        <v>28410.09732577219</v>
       </c>
       <c r="AK3">
-        <v>-44991.85013016526</v>
+        <v>-45049.70949077405</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-68239.80696047669</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>23190.09732577219</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-69524.80696047669</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>140382.7094907741</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9527</v>
+        <v>6.9478</v>
       </c>
     </row>
     <row r="4">
@@ -870,67 +870,67 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213.00000000002</v>
+        <v>95213</v>
       </c>
       <c r="C4">
-        <v>52943.16064178856</v>
+        <v>52942.0817820074</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="F4">
-        <v>8945.758995606473</v>
+        <v>8951.982218883044</v>
       </c>
       <c r="G4">
-        <v>43997.40164618209</v>
+        <v>43990.09956312436</v>
       </c>
       <c r="H4">
-        <v>81452.36596963462</v>
+        <v>81509.02927345075</v>
       </c>
       <c r="I4">
-        <v>70049.96607530171</v>
+        <v>70098.69716448228</v>
       </c>
       <c r="J4">
-        <v>11402.39989433291</v>
+        <v>11410.33210896847</v>
       </c>
       <c r="K4">
-        <v>370.3677492909181</v>
+        <v>370.6254000055653</v>
       </c>
       <c r="L4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="M4">
-        <v>4932.295200489405</v>
+        <v>4935.726410106575</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74598.86366164284</v>
+        <v>74650.75924534601</v>
       </c>
       <c r="P4">
-        <v>46171.38048495634</v>
+        <v>46203.50015304561</v>
       </c>
       <c r="Q4">
-        <v>35139.53701128969</v>
+        <v>35163.98224670952</v>
       </c>
       <c r="R4">
-        <v>11031.84347366665</v>
+        <v>11039.51790633609</v>
       </c>
       <c r="S4">
-        <v>28427.4831766865</v>
+        <v>28447.25909230041</v>
       </c>
       <c r="T4">
-        <v>24889.26464045381</v>
+        <v>24906.5791524056</v>
       </c>
       <c r="U4">
-        <v>3167.662115566431</v>
+        <v>3169.865737262431</v>
       </c>
       <c r="V4">
-        <v>370.5564206662588</v>
+        <v>370.8142026323844</v>
       </c>
       <c r="W4">
         <v>59426</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>13760.6340303654</v>
+        <v>13703.97072654925</v>
       </c>
       <c r="AI4">
-        <v>-15555.96607530171</v>
+        <v>-15604.69716448228</v>
       </c>
       <c r="AJ4">
-        <v>29316.60010566709</v>
+        <v>29308.66789103153</v>
       </c>
       <c r="AK4">
-        <v>-44239.3659696346</v>
+        <v>-44296.02927345075</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-68429.69716448228</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>24133.66789103153</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-69855.69716448228</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>140935.0292734508</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953849</v>
+        <v>0.6091605137953851</v>
       </c>
       <c r="AR4">
         <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1924</v>
+        <v>7.1874</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51706.75148945306</v>
+        <v>51705.67601246106</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="F5">
-        <v>8869.395094197842</v>
+        <v>8875.588140509184</v>
       </c>
       <c r="G5">
-        <v>42837.35639525522</v>
+        <v>42830.08787195187</v>
       </c>
       <c r="H5">
-        <v>80223.69800332779</v>
+        <v>80279.71412074337</v>
       </c>
       <c r="I5">
-        <v>68458.74027159036</v>
+        <v>68506.54151896015</v>
       </c>
       <c r="J5">
-        <v>11764.95786592239</v>
+        <v>11773.17273606188</v>
       </c>
       <c r="K5">
-        <v>341.452149643068</v>
+        <v>341.6905682672683</v>
       </c>
       <c r="L5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="M5">
-        <v>4913.17132735763</v>
+        <v>4916.601944354926</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73428.82601578016</v>
+        <v>73480.09762058224</v>
       </c>
       <c r="P5">
-        <v>44873.82105093661</v>
+        <v>44905.15415189602</v>
       </c>
       <c r="Q5">
-        <v>33600.03582738447</v>
+        <v>33623.49701901386</v>
       </c>
       <c r="R5">
-        <v>11273.78535773711</v>
+        <v>11281.65726716081</v>
       </c>
       <c r="S5">
-        <v>28555.00496484354</v>
+        <v>28574.94346868622</v>
       </c>
       <c r="T5">
-        <v>25287.92214588589</v>
+        <v>25305.5794123966</v>
       </c>
       <c r="U5">
-        <v>2775.910310772369</v>
+        <v>2777.848587388549</v>
       </c>
       <c r="V5">
-        <v>491.1725081852826</v>
+        <v>491.5154689010635</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>11439.30199667221</v>
+        <v>11383.28587925663</v>
       </c>
       <c r="AI5">
-        <v>-15211.74027159036</v>
+        <v>-15259.54151896015</v>
       </c>
       <c r="AJ5">
-        <v>26651.04213407761</v>
+        <v>26642.82726393813</v>
       </c>
       <c r="AK5">
-        <v>-46260.69800332779</v>
+        <v>-46316.71412074337</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-67763.54151896015</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>21446.82726393813</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-68749.54151896015</v>
       </c>
       <c r="AO5">
-        <v>138909.6980033278</v>
+        <v>138965.7141207434</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1136,7 +1136,7 @@
         <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4524</v>
+        <v>7.4472</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51129.47699003304</v>
+        <v>51128.4043874506</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="F6">
-        <v>8672.528409854122</v>
+        <v>8678.590343307256</v>
       </c>
       <c r="G6">
-        <v>42456.94858017892</v>
+        <v>42449.81404414335</v>
       </c>
       <c r="H6">
-        <v>80792.45694866077</v>
+        <v>80848.92934914106</v>
       </c>
       <c r="I6">
-        <v>68857.66730247428</v>
+        <v>68905.79751055193</v>
       </c>
       <c r="J6">
-        <v>11934.7896461865</v>
+        <v>11943.13183858913</v>
       </c>
       <c r="K6">
-        <v>338.8779786691025</v>
+        <v>339.1148479716106</v>
       </c>
       <c r="L6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="M6">
-        <v>4902.492410606345</v>
+        <v>4905.919160147324</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74016.56354941837</v>
+        <v>74068.29972847273</v>
       </c>
       <c r="P6">
-        <v>44928.81927840313</v>
+        <v>44960.22367395221</v>
       </c>
       <c r="Q6">
-        <v>33481.6469655858</v>
+        <v>33505.05000403259</v>
       </c>
       <c r="R6">
-        <v>11447.17231281734</v>
+        <v>11455.17366991962</v>
       </c>
       <c r="S6">
-        <v>29087.74427101523</v>
+        <v>29108.07605452053</v>
       </c>
       <c r="T6">
-        <v>26405.42943878784</v>
+        <v>26423.88633491948</v>
       </c>
       <c r="U6">
-        <v>2194.697498858233</v>
+        <v>2196.231550931527</v>
       </c>
       <c r="V6">
-        <v>487.6173333691535</v>
+        <v>487.9581686695164</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10818.54305133924</v>
+        <v>10762.07065085894</v>
       </c>
       <c r="AI6">
-        <v>-16193.66730247428</v>
+        <v>-16241.79751055193</v>
       </c>
       <c r="AJ6">
-        <v>27012.21035381351</v>
+        <v>27003.86816141087</v>
       </c>
       <c r="AK6">
-        <v>-46781.45694866077</v>
+        <v>-46837.92934914106</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-68666.79751055193</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>21828.86816141087</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-69652.79751055193</v>
       </c>
       <c r="AO6">
-        <v>139378.4569486608</v>
+        <v>139434.9293491411</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4446</v>
+        <v>7.4394</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52364.30885172918</v>
+        <v>52363.23865755962</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="F7">
-        <v>8696.179850616174</v>
+        <v>8702.247956951733</v>
       </c>
       <c r="G7">
-        <v>43668.129001113</v>
+        <v>43660.99070060789</v>
       </c>
       <c r="H7">
-        <v>79622.22895686104</v>
+        <v>79677.78854282686</v>
       </c>
       <c r="I7">
-        <v>67526.84269105439</v>
+        <v>67573.962238832</v>
       </c>
       <c r="J7">
-        <v>12095.38626580666</v>
+        <v>12103.82630399485</v>
       </c>
       <c r="K7">
-        <v>338.3054188513269</v>
+        <v>338.5414849505509</v>
       </c>
       <c r="L7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="M7">
-        <v>4901.864615879742</v>
+        <v>4905.285087425022</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72848.36777385917</v>
+        <v>72899.20062801091</v>
       </c>
       <c r="P7">
-        <v>44459.59408901345</v>
+        <v>44490.61754404799</v>
       </c>
       <c r="Q7">
-        <v>33268.97295267724</v>
+        <v>33292.187705479</v>
       </c>
       <c r="R7">
-        <v>11190.62113633621</v>
+        <v>11198.42983856899</v>
       </c>
       <c r="S7">
-        <v>28388.77368484572</v>
+        <v>28408.58308396291</v>
       </c>
       <c r="T7">
-        <v>25430.69287811943</v>
+        <v>25448.43815837147</v>
       </c>
       <c r="U7">
-        <v>2053.315677255843</v>
+        <v>2054.748460165591</v>
       </c>
       <c r="V7">
-        <v>904.7651294704517</v>
+        <v>905.3964654258532</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>13538.77104313896</v>
+        <v>13483.21145717314</v>
       </c>
       <c r="AI7">
-        <v>-13628.84269105439</v>
+        <v>-13675.962238832</v>
       </c>
       <c r="AJ7">
-        <v>27167.61373419334</v>
+        <v>27159.17369600515</v>
       </c>
       <c r="AK7">
-        <v>-48561.22895686104</v>
+        <v>-48616.78854282686</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-70526.962238832</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>21910.17369600515</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-71512.962238832</v>
       </c>
       <c r="AO7">
-        <v>142708.228956861</v>
+        <v>142763.7885428269</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4573</v>
+        <v>7.4521</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49368.60578775706</v>
+        <v>49367.53001146775</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="F8">
-        <v>8633.890742862901</v>
+        <v>8639.983743525765</v>
       </c>
       <c r="G8">
-        <v>40734.71504489415</v>
+        <v>40727.54626794198</v>
       </c>
       <c r="H8">
-        <v>77988.67710209171</v>
+        <v>78043.71428931483</v>
       </c>
       <c r="I8">
-        <v>66706.94115276607</v>
+        <v>66754.0167353471</v>
       </c>
       <c r="J8">
-        <v>11281.73594932564</v>
+        <v>11289.69755396772</v>
       </c>
       <c r="K8">
-        <v>334.1376922011359</v>
+        <v>334.3734956460373</v>
       </c>
       <c r="L8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="M8">
-        <v>4885.44270800539</v>
+        <v>4888.89040111905</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71244.70248964224</v>
+        <v>71294.98040401749</v>
       </c>
       <c r="P8">
-        <v>44239.09884270045</v>
+        <v>44270.31870250652</v>
       </c>
       <c r="Q8">
-        <v>33080.09872936317</v>
+        <v>33103.44360011593</v>
       </c>
       <c r="R8">
-        <v>11158.99998740697</v>
+        <v>11166.8749763714</v>
       </c>
       <c r="S8">
-        <v>27005.60364694179</v>
+        <v>27024.66170151097</v>
       </c>
       <c r="T8">
-        <v>25178.00551574759</v>
+        <v>25195.77382077552</v>
       </c>
       <c r="U8">
-        <v>1704.862295205833</v>
+        <v>1706.065429158318</v>
       </c>
       <c r="V8">
-        <v>122.7359619186742</v>
+        <v>122.8225775963102</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>12649.32289790829</v>
+        <v>12594.28571068517</v>
       </c>
       <c r="AI8">
-        <v>-15813.94115276607</v>
+        <v>-15861.0167353471</v>
       </c>
       <c r="AJ8">
-        <v>28463.26405067436</v>
+        <v>28455.30244603229</v>
       </c>
       <c r="AK8">
-        <v>-47350.67710209171</v>
+        <v>-47405.71428931483</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-70725.0167353471</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>23319.30244603229</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-71711.0167353471</v>
       </c>
       <c r="AO8">
-        <v>138974.6771020917</v>
+        <v>139029.7142893148</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1547,7 +1547,7 @@
         <v>0.169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9409</v>
+        <v>7.9353</v>
       </c>
     </row>
     <row r="9">
@@ -1558,64 +1558,64 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46565.54670958425</v>
+        <v>46564.48597672994</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="F9">
-        <v>8640.524802036545</v>
+        <v>8646.556766687079</v>
       </c>
       <c r="G9">
-        <v>37925.0219075477</v>
+        <v>37917.92921004287</v>
       </c>
       <c r="H9">
-        <v>76903.66835154883</v>
+        <v>76957.35492957747</v>
       </c>
       <c r="I9">
-        <v>65806.78558752616</v>
+        <v>65852.72541334966</v>
       </c>
       <c r="J9">
-        <v>11096.88276402267</v>
+        <v>11104.6295162278</v>
       </c>
       <c r="K9">
-        <v>331.7619053447073</v>
+        <v>331.9935088793632</v>
       </c>
       <c r="L9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="M9">
-        <v>4877.488587269145</v>
+        <v>4880.893570116351</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70174.96456851922</v>
+        <v>70223.95382731171</v>
       </c>
       <c r="P9">
-        <v>44302.54531435495</v>
+        <v>44333.47299448868</v>
       </c>
       <c r="Q9">
-        <v>33217.34159863904</v>
+        <v>33240.53067973056</v>
       </c>
       <c r="R9">
-        <v>11085.20371571591</v>
+        <v>11092.94231475812</v>
       </c>
       <c r="S9">
-        <v>25872.41913177574</v>
+        <v>25890.48071034905</v>
       </c>
       <c r="T9">
-        <v>24600.41661057192</v>
+        <v>24617.59020208206</v>
       </c>
       <c r="U9">
-        <v>1260.323595285594</v>
+        <v>1261.20342927128</v>
       </c>
       <c r="V9">
-        <v>11.67904830675462</v>
+        <v>11.68720146968769</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1651,28 +1651,28 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10542.33164845117</v>
+        <v>10488.64507042253</v>
       </c>
       <c r="AI9">
-        <v>-17721.78558752616</v>
+        <v>-17767.72541334966</v>
       </c>
       <c r="AJ9">
-        <v>28264.11723597733</v>
+        <v>28256.3704837722</v>
       </c>
       <c r="AK9">
-        <v>-49357.66835154883</v>
+        <v>-49411.35492957747</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-72479.72541334966</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>23068.3704837722</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-73319.72541334966</v>
       </c>
       <c r="AO9">
-        <v>137643.6683515488</v>
+        <v>137697.3549295775</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1684,7 +1684,7 @@
         <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.1707</v>
+        <v>8.164999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47850.0811599892</v>
+        <v>47849.01274229386</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="F10">
-        <v>8664.637994062661</v>
+        <v>8670.700826162212</v>
       </c>
       <c r="G10">
-        <v>39185.44316592654</v>
+        <v>39178.31191613165</v>
       </c>
       <c r="H10">
-        <v>79530.97021516721</v>
+        <v>79586.61973214177</v>
       </c>
       <c r="I10">
-        <v>68253.9737235948</v>
+        <v>68301.73248548387</v>
       </c>
       <c r="J10">
-        <v>11276.99661424471</v>
+        <v>11284.88736941604</v>
       </c>
       <c r="K10">
-        <v>335.2438725189529</v>
+        <v>335.4784498103387</v>
       </c>
       <c r="L10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="M10">
-        <v>4893.744571751025</v>
+        <v>4897.168829255717</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72775.06293088643</v>
+        <v>72825.98519536956</v>
       </c>
       <c r="P10">
-        <v>44671.54174538139</v>
+        <v>44702.7993763887</v>
       </c>
       <c r="Q10">
-        <v>33406.41392085184</v>
+        <v>33429.78910153325</v>
       </c>
       <c r="R10">
-        <v>11265.12794720185</v>
+        <v>11273.01039761358</v>
       </c>
       <c r="S10">
-        <v>28103.52118550504</v>
+        <v>28123.18581898086</v>
       </c>
       <c r="T10">
-        <v>26436.81260580486</v>
+        <v>26455.31100772148</v>
       </c>
       <c r="U10">
-        <v>1654.839912657327</v>
+        <v>1655.997839456918</v>
       </c>
       <c r="V10">
-        <v>11.8686670428617</v>
+        <v>11.87697180245762</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9789.02978483279</v>
+        <v>9733.380267858229</v>
       </c>
       <c r="AI10">
-        <v>-18876.9737235948</v>
+        <v>-18924.73248548387</v>
       </c>
       <c r="AJ10">
-        <v>28666.00338575529</v>
+        <v>28658.11263058396</v>
       </c>
       <c r="AK10">
-        <v>-49310.97021516721</v>
+        <v>-49366.61973214177</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-72822.73248548387</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>23456.11263058396</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-73662.73248548387</v>
       </c>
       <c r="AO10">
-        <v>139470.9702151672</v>
+        <v>139526.6197321418</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.1518</v>
+        <v>8.146100000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1832,64 +1832,64 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48152.49065994762</v>
+        <v>48151.40566389269</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="F11">
-        <v>8194.895428649448</v>
+        <v>8200.697304682648</v>
       </c>
       <c r="G11">
-        <v>39957.59523129818</v>
+        <v>39950.70835921004</v>
       </c>
       <c r="H11">
-        <v>79093.44433825265</v>
+        <v>79149.44143584647</v>
       </c>
       <c r="I11">
-        <v>68147.09459207865</v>
+        <v>68195.3418208918</v>
       </c>
       <c r="J11">
-        <v>10946.34974617399</v>
+        <v>10954.09961495467</v>
       </c>
       <c r="K11">
-        <v>337.8329837278291</v>
+        <v>338.0721649484536</v>
       </c>
       <c r="L11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="M11">
-        <v>4905.193069122594</v>
+        <v>4908.665880014905</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72317.90894534985</v>
+        <v>72369.10905477581</v>
       </c>
       <c r="P11">
-        <v>43116.32926632493</v>
+        <v>43146.85504906223</v>
       </c>
       <c r="Q11">
-        <v>32304.17106259387</v>
+        <v>32327.04198236244</v>
       </c>
       <c r="R11">
-        <v>10812.15820373106</v>
+        <v>10819.81306669979</v>
       </c>
       <c r="S11">
-        <v>29201.57967902492</v>
+        <v>29222.25400571358</v>
       </c>
       <c r="T11">
-        <v>26836.37754912061</v>
+        <v>26855.37734442926</v>
       </c>
       <c r="U11">
-        <v>2231.010587461368</v>
+        <v>2232.590113029437</v>
       </c>
       <c r="V11">
-        <v>134.1915424429357</v>
+        <v>134.2865482548752</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1925,28 +1925,28 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>10446.55566174735</v>
+        <v>10390.55856415353</v>
       </c>
       <c r="AI11">
-        <v>-18462.09459207865</v>
+        <v>-18510.3418208918</v>
       </c>
       <c r="AJ11">
-        <v>28908.65025382601</v>
+        <v>28900.90038504534</v>
       </c>
       <c r="AK11">
-        <v>-49153.44433825265</v>
+        <v>-49209.44143584647</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-72841.3418208918</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>23631.90038504534</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-73681.3418208918</v>
       </c>
       <c r="AO11">
-        <v>139533.4443382527</v>
+        <v>139589.4414358465</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1958,7 +1958,7 @@
         <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.056699999999999</v>
+        <v>8.051</v>
       </c>
     </row>
     <row r="12">
@@ -1969,64 +1969,64 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46432.40058529035</v>
+        <v>46431.33823031125</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="F12">
-        <v>8533.597479865528</v>
+        <v>8539.586983881118</v>
       </c>
       <c r="G12">
-        <v>37898.80310542482</v>
+        <v>37891.75124643013</v>
       </c>
       <c r="H12">
-        <v>76239.90845768737</v>
+        <v>76293.41921196572</v>
       </c>
       <c r="I12">
-        <v>65121.73229012988</v>
+        <v>65167.43949368314</v>
       </c>
       <c r="J12">
-        <v>11118.1761675575</v>
+        <v>11125.97971828259</v>
       </c>
       <c r="K12">
-        <v>333.4149998790722</v>
+        <v>333.6490149571615</v>
       </c>
       <c r="L12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="M12">
-        <v>4834.769390765957</v>
+        <v>4838.162786194878</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69558.1246523327</v>
+        <v>69606.94564112493</v>
       </c>
       <c r="P12">
-        <v>42709.46574116623</v>
+        <v>42739.44237378382</v>
       </c>
       <c r="Q12">
-        <v>31860.87043800034</v>
+        <v>31883.23273149717</v>
       </c>
       <c r="R12">
-        <v>10848.59530316589</v>
+        <v>10856.20964228665</v>
       </c>
       <c r="S12">
-        <v>26848.65891116647</v>
+        <v>26867.50326734111</v>
       </c>
       <c r="T12">
-        <v>24960.7528962198</v>
+        <v>24978.27218161576</v>
       </c>
       <c r="U12">
-        <v>1618.325150555058</v>
+        <v>1619.461009729416</v>
       </c>
       <c r="V12">
-        <v>269.5808643916125</v>
+        <v>269.770075995934</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,28 +2062,28 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12436.09154231263</v>
+        <v>12382.58078803428</v>
       </c>
       <c r="AI12">
-        <v>-17175.73229012988</v>
+        <v>-17221.43949368314</v>
       </c>
       <c r="AJ12">
-        <v>29611.8238324425</v>
+        <v>29604.02028171741</v>
       </c>
       <c r="AK12">
-        <v>-47363.90845768737</v>
+        <v>-47417.41921196572</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-71869.43949368314</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>24452.02028171741</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-72709.43949368314</v>
       </c>
       <c r="AO12">
-        <v>136879.9084576874</v>
+        <v>136933.4192119657</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2095,7 +2095,7 @@
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.269399999999999</v>
+        <v>8.2636</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45372.41632722959</v>
+        <v>45371.34075107717</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="F13">
-        <v>8708.262326764767</v>
+        <v>8714.338156090873</v>
       </c>
       <c r="G13">
-        <v>36664.15400046482</v>
+        <v>36657.00259498629</v>
       </c>
       <c r="H13">
-        <v>76028.17046469243</v>
+        <v>76081.21597140617</v>
       </c>
       <c r="I13">
-        <v>64989.21739874988</v>
+        <v>65034.56093321581</v>
       </c>
       <c r="J13">
-        <v>11038.9531882622</v>
+        <v>11046.65516059538</v>
       </c>
       <c r="K13">
-        <v>341.3249666678898</v>
+        <v>341.5631120250685</v>
       </c>
       <c r="L13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="M13">
-        <v>4924.54845693736</v>
+        <v>4927.984356639247</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69220.71336831676</v>
+        <v>69269.00925381902</v>
       </c>
       <c r="P13">
-        <v>43670.82602473304</v>
+        <v>43701.29553466509</v>
       </c>
       <c r="Q13">
-        <v>32748.90242559906</v>
+        <v>32771.75161574617</v>
       </c>
       <c r="R13">
-        <v>10921.92372145365</v>
+        <v>10929.54404132393</v>
       </c>
       <c r="S13">
-        <v>25549.88734358372</v>
+        <v>25567.71371915393</v>
       </c>
       <c r="T13">
-        <v>24342.51256834612</v>
+        <v>24359.49654817861</v>
       </c>
       <c r="U13">
-        <v>1090.345308429048</v>
+        <v>1091.106051703878</v>
       </c>
       <c r="V13">
-        <v>117.0294668085575</v>
+        <v>117.1111192714454</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>11821.82953530757</v>
+        <v>11768.78402859383</v>
       </c>
       <c r="AI13">
-        <v>-18075.21739874988</v>
+        <v>-18120.56093321581</v>
       </c>
       <c r="AJ13">
-        <v>29897.0468117378</v>
+        <v>29889.34483940463</v>
       </c>
       <c r="AK13">
-        <v>-48878.17046469243</v>
+        <v>-48931.21597140617</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-73236.56093321581</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>24305.34483940463</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-74154.56093321581</v>
       </c>
       <c r="AO13">
-        <v>137646.1704646924</v>
+        <v>137699.2159714062</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.1753</v>
+        <v>8.169600000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90325.99999999999</v>
+        <v>90326</v>
       </c>
       <c r="C14">
-        <v>47320.75757867617</v>
+        <v>47319.68341284758</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="F14">
-        <v>8720.194794250077</v>
+        <v>8726.288130692497</v>
       </c>
       <c r="G14">
-        <v>38600.56278442609</v>
+        <v>38593.39528215508</v>
       </c>
       <c r="H14">
-        <v>78387.12804892729</v>
+        <v>78441.90195653221</v>
       </c>
       <c r="I14">
-        <v>66938.3682068816</v>
+        <v>66985.14216182353</v>
       </c>
       <c r="J14">
-        <v>11448.7598420457</v>
+        <v>11456.75979470869</v>
       </c>
       <c r="K14">
-        <v>338.8061929642917</v>
+        <v>339.0429376897499</v>
       </c>
       <c r="L14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="M14">
-        <v>4913.337868098529</v>
+        <v>4916.771119464122</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71597.74156654064</v>
+        <v>71647.77131222592</v>
       </c>
       <c r="P14">
-        <v>43673.50930630131</v>
+        <v>43704.02667341333</v>
       </c>
       <c r="Q14">
-        <v>32637.72904577303</v>
+        <v>32660.53503445617</v>
       </c>
       <c r="R14">
-        <v>11035.78026052828</v>
+        <v>11043.49163895716</v>
       </c>
       <c r="S14">
-        <v>27924.23213984734</v>
+        <v>27943.74451833647</v>
       </c>
       <c r="T14">
-        <v>25639.84565746069</v>
+        <v>25657.76179461231</v>
       </c>
       <c r="U14">
-        <v>1871.407021261226</v>
+        <v>1872.71468844875</v>
       </c>
       <c r="V14">
-        <v>412.9795815174207</v>
+        <v>413.2681557515301</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11938.8719510727</v>
+        <v>11884.09804346779</v>
       </c>
       <c r="AI14">
-        <v>-18080.3682068816</v>
+        <v>-18127.14216182353</v>
       </c>
       <c r="AJ14">
-        <v>30019.2401579543</v>
+        <v>30011.24020529131</v>
       </c>
       <c r="AK14">
-        <v>-47861.12804892731</v>
+        <v>-47915.90195653221</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-72361.14216182353</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>24445.24020529131</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-72920.14216182353</v>
       </c>
       <c r="AO14">
-        <v>138746.1280489273</v>
+        <v>138800.9019565322</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875962</v>
+        <v>0.6620463653875961</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.306200000000001</v>
+        <v>8.3004</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91973.99999999999</v>
+        <v>91974</v>
       </c>
       <c r="C15">
-        <v>48045.03345119287</v>
+        <v>48043.95064546124</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="F15">
-        <v>8777.650451928996</v>
+        <v>8783.798379403204</v>
       </c>
       <c r="G15">
-        <v>39267.38299926388</v>
+        <v>39260.15226605804</v>
       </c>
       <c r="H15">
-        <v>79402.82525009957</v>
+        <v>79458.4395415957</v>
       </c>
       <c r="I15">
-        <v>67673.1377991239</v>
+        <v>67720.53653588376</v>
       </c>
       <c r="J15">
-        <v>11729.68745097566</v>
+        <v>11737.90300571194</v>
       </c>
       <c r="K15">
-        <v>342.0231213872833</v>
+        <v>342.2626767621877</v>
       </c>
       <c r="L15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="M15">
-        <v>4927.222899344733</v>
+        <v>4930.673960559841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72587.61268056043</v>
+        <v>72638.45354973491</v>
       </c>
       <c r="P15">
-        <v>44101.28410585638</v>
+        <v>44132.17295221533</v>
       </c>
       <c r="Q15">
-        <v>32794.70971556832</v>
+        <v>32817.67935852383</v>
       </c>
       <c r="R15">
-        <v>11306.57426961276</v>
+        <v>11314.49347293169</v>
       </c>
       <c r="S15">
-        <v>28486.32857470405</v>
+        <v>28506.28059751959</v>
       </c>
       <c r="T15">
-        <v>26459.32470102695</v>
+        <v>26477.85699622021</v>
       </c>
       <c r="U15">
-        <v>1603.890812989489</v>
+        <v>1605.014189278943</v>
       </c>
       <c r="V15">
-        <v>423.1131813629069</v>
+        <v>423.4095327802533</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,28 +2473,28 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12571.17474990041</v>
+        <v>12515.5604584043</v>
       </c>
       <c r="AI15">
-        <v>-18082.1377991239</v>
+        <v>-18129.53653588376</v>
       </c>
       <c r="AJ15">
-        <v>30653.31254902434</v>
+        <v>30645.09699428806</v>
       </c>
       <c r="AK15">
-        <v>-47328.82525009959</v>
+        <v>-47384.4395415957</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-72453.53653588376</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>25069.09699428806</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-73012.53653588376</v>
       </c>
       <c r="AO15">
-        <v>139861.8252500996</v>
+        <v>139917.4395415957</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2506,7 +2506,7 @@
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.2867</v>
+        <v>8.280900000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2514,67 +2514,67 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447</v>
+        <v>92447.00000000002</v>
       </c>
       <c r="C16">
-        <v>47651.06276810572</v>
+        <v>47649.97142173861</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="F16">
-        <v>8776.414104601561</v>
+        <v>8782.605763482005</v>
       </c>
       <c r="G16">
-        <v>38874.64866350417</v>
+        <v>38867.36565825661</v>
       </c>
       <c r="H16">
-        <v>79031.71719102869</v>
+        <v>79087.4731555662</v>
       </c>
       <c r="I16">
-        <v>67486.30058908578</v>
+        <v>67533.91139543227</v>
       </c>
       <c r="J16">
-        <v>11545.41660194291</v>
+        <v>11553.56176013392</v>
       </c>
       <c r="K16">
-        <v>342.3820334811027</v>
+        <v>342.6235800550042</v>
       </c>
       <c r="L16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="M16">
-        <v>4931.586946910586</v>
+        <v>4935.066124596437</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72210.81097874272</v>
+        <v>72261.75487265336</v>
       </c>
       <c r="P16">
-        <v>43959.06044999941</v>
+        <v>43990.07305990673</v>
       </c>
       <c r="Q16">
-        <v>32580.01995483278</v>
+        <v>32603.00478297262</v>
       </c>
       <c r="R16">
-        <v>11379.04049516663</v>
+        <v>11387.06827693412</v>
       </c>
       <c r="S16">
-        <v>28251.75052874332</v>
+        <v>28271.68181274662</v>
       </c>
       <c r="T16">
-        <v>26293.68793987262</v>
+        <v>26312.2378333134</v>
       </c>
       <c r="U16">
-        <v>1791.686482094421</v>
+        <v>1792.950496233409</v>
       </c>
       <c r="V16">
-        <v>166.3761067762789</v>
+        <v>166.4934831998087</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,40 +2610,40 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13415.28280897132</v>
+        <v>13359.52684443381</v>
       </c>
       <c r="AI16">
-        <v>-18288.30058908578</v>
+        <v>-18335.91139543227</v>
       </c>
       <c r="AJ16">
-        <v>31703.58339805709</v>
+        <v>31695.43823986608</v>
       </c>
       <c r="AK16">
-        <v>-46784.71719102869</v>
+        <v>-46840.47315556619</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-72859.91139543227</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>26019.43823986608</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-73418.91139543227</v>
       </c>
       <c r="AO16">
-        <v>139790.7171910287</v>
+        <v>139846.4731555662</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983212</v>
+        <v>0.6511839215983211</v>
       </c>
       <c r="AR16">
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.3689</v>
+        <v>8.363</v>
       </c>
     </row>
     <row r="17">
@@ -2654,64 +2654,64 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47172.41693250951</v>
+        <v>47171.33264502041</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="F17">
-        <v>8797.694104811262</v>
+        <v>8803.854077660686</v>
       </c>
       <c r="G17">
-        <v>38374.72282769825</v>
+        <v>38367.47856735972</v>
       </c>
       <c r="H17">
-        <v>80398.91310793025</v>
+        <v>80455.20684990031</v>
       </c>
       <c r="I17">
-        <v>68797.46712047723</v>
+        <v>68845.63775752396</v>
       </c>
       <c r="J17">
-        <v>11601.44598745301</v>
+        <v>11609.56909237634</v>
       </c>
       <c r="K17">
-        <v>421.765354648198</v>
+        <v>422.0606664767873</v>
       </c>
       <c r="L17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="M17">
-        <v>4871.000557380549</v>
+        <v>4874.411136428368</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73557.564128411</v>
+        <v>73609.06769201557</v>
       </c>
       <c r="P17">
-        <v>44082.1842202009</v>
+        <v>44113.0497009399</v>
       </c>
       <c r="Q17">
-        <v>32675.4694448727</v>
+        <v>32698.34816766354</v>
       </c>
       <c r="R17">
-        <v>11406.7147753282</v>
+        <v>11414.70153327637</v>
       </c>
       <c r="S17">
-        <v>29475.3799082101</v>
+        <v>29496.01799107567</v>
       </c>
       <c r="T17">
-        <v>27292.03349026956</v>
+        <v>27311.14283679863</v>
       </c>
       <c r="U17">
-        <v>1988.615205815733</v>
+        <v>1990.007595177063</v>
       </c>
       <c r="V17">
-        <v>194.7312121248058</v>
+        <v>194.8675590999715</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>12205.08689206975</v>
+        <v>12148.79315009969</v>
       </c>
       <c r="AI17">
-        <v>-20076.46712047723</v>
+        <v>-20124.63775752396</v>
       </c>
       <c r="AJ17">
-        <v>32281.55401254699</v>
+        <v>32273.43090762366</v>
       </c>
       <c r="AK17">
-        <v>-47794.91310793025</v>
+        <v>-47851.20684990031</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-74279.63775752396</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>26428.43090762366</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-74838.63775752396</v>
       </c>
       <c r="AO17">
-        <v>140957.9131079303</v>
+        <v>141014.2068499003</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.4323</v>
+        <v>8.426399999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686.00000000002</v>
+        <v>93686</v>
       </c>
       <c r="C18">
-        <v>48090.49747770523</v>
+        <v>48089.41996727437</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="F18">
-        <v>8805.042270181257</v>
+        <v>8811.173132492369</v>
       </c>
       <c r="G18">
-        <v>39285.45520752398</v>
+        <v>39278.246834782</v>
       </c>
       <c r="H18">
-        <v>79148.15599958252</v>
+        <v>79203.26606398904</v>
       </c>
       <c r="I18">
-        <v>67338.67159142304</v>
+        <v>67385.55883069709</v>
       </c>
       <c r="J18">
-        <v>11809.4842921919</v>
+        <v>11817.70711724362</v>
       </c>
       <c r="K18">
-        <v>341.1056348644919</v>
+        <v>341.3431432848638</v>
       </c>
       <c r="L18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="M18">
-        <v>4872.071412832972</v>
+        <v>4875.463787120957</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72387.47642959029</v>
+        <v>72437.87910085759</v>
       </c>
       <c r="P18">
-        <v>44051.80225209031</v>
+        <v>44082.47507862274</v>
       </c>
       <c r="Q18">
-        <v>32662.54316892997</v>
+        <v>32685.28576899421</v>
       </c>
       <c r="R18">
-        <v>11389.25908316035</v>
+        <v>11397.18930962853</v>
       </c>
       <c r="S18">
-        <v>28335.67406153239</v>
+        <v>28355.40390618653</v>
       </c>
       <c r="T18">
-        <v>26407.08237176885</v>
+        <v>26425.46935744044</v>
       </c>
       <c r="U18">
-        <v>1508.366480731987</v>
+        <v>1509.416741131007</v>
       </c>
       <c r="V18">
-        <v>420.2252090315548</v>
+        <v>420.5178076150909</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>14537.84400041749</v>
+        <v>14482.73393601096</v>
       </c>
       <c r="AI18">
-        <v>-17700.67159142304</v>
+        <v>-17747.55883069709</v>
       </c>
       <c r="AJ18">
-        <v>32238.5157078081</v>
+        <v>32230.29288275638</v>
       </c>
       <c r="AK18">
-        <v>-47562.15599958251</v>
+        <v>-47617.26606398904</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-73978.55883069709</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>26361.29288275638</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-74284.55883069709</v>
       </c>
       <c r="AO18">
-        <v>141554.1559995825</v>
+        <v>141609.266063989</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.662852507311658</v>
+        <v>0.6628525073116581</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.623100000000001</v>
+        <v>8.617100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50166.64000797065</v>
+        <v>50165.56985009501</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="F19">
-        <v>8796.559023829897</v>
+        <v>8802.646679334694</v>
       </c>
       <c r="G19">
-        <v>41370.08098414075</v>
+        <v>41362.92317076032</v>
       </c>
       <c r="H19">
-        <v>80094.74007478345</v>
+        <v>80150.16961081006</v>
       </c>
       <c r="I19">
-        <v>68521.18434470714</v>
+        <v>68568.60440565839</v>
       </c>
       <c r="J19">
-        <v>11573.55573007631</v>
+        <v>11581.56520515166</v>
       </c>
       <c r="K19">
-        <v>339.0075369521644</v>
+        <v>339.2421469960354</v>
       </c>
       <c r="L19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="M19">
-        <v>4869.913846658775</v>
+        <v>4873.284068782697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73339.45869914316</v>
+        <v>73390.21324512633</v>
       </c>
       <c r="P19">
-        <v>43642.71400607177</v>
+        <v>43672.9169305839</v>
       </c>
       <c r="Q19">
-        <v>32869.23798248802</v>
+        <v>32891.98512679757</v>
       </c>
       <c r="R19">
-        <v>10773.47602358375</v>
+        <v>10780.93180378633</v>
       </c>
       <c r="S19">
-        <v>29696.7446930714</v>
+        <v>29717.29631454243</v>
       </c>
       <c r="T19">
-        <v>27326.20890133977</v>
+        <v>27345.11999436977</v>
       </c>
       <c r="U19">
-        <v>1570.456085239061</v>
+        <v>1571.542918807329</v>
       </c>
       <c r="V19">
-        <v>800.0797064925628</v>
+        <v>800.6334013653319</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>14771.25992521655</v>
+        <v>14715.83038918994</v>
       </c>
       <c r="AI19">
-        <v>-16808.18434470714</v>
+        <v>-16855.60440565839</v>
       </c>
       <c r="AJ19">
-        <v>31579.44426992369</v>
+        <v>31571.43479484833</v>
       </c>
       <c r="AK19">
-        <v>-48134.74007478345</v>
+        <v>-48190.16961081006</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-73800.60440565839</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>25610.43479484833</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-74106.60440565839</v>
       </c>
       <c r="AO19">
-        <v>143306.7400747835</v>
+        <v>143362.1696108101</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.5313</v>
+        <v>8.525399999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54490.16606565171</v>
+        <v>54489.08041122276</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="F20">
-        <v>8720.168825295967</v>
+        <v>8726.340999280592</v>
       </c>
       <c r="G20">
-        <v>45769.99724035574</v>
+        <v>45762.73941194217</v>
       </c>
       <c r="H20">
-        <v>79013.13996498268</v>
+        <v>79069.06581420713</v>
       </c>
       <c r="I20">
-        <v>68043.33290817805</v>
+        <v>68091.49427954792</v>
       </c>
       <c r="J20">
-        <v>10969.80694085317</v>
+        <v>10977.5714186257</v>
       </c>
       <c r="K20">
-        <v>333.8897069907123</v>
+        <v>334.126035599081</v>
       </c>
       <c r="L20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="M20">
-        <v>4845.551175167841</v>
+        <v>4848.980877677473</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72299.86514847583</v>
+        <v>72351.03931215334</v>
       </c>
       <c r="P20">
-        <v>42925.88279628492</v>
+        <v>42956.26592559931</v>
       </c>
       <c r="Q20">
-        <v>32583.17405470589</v>
+        <v>32606.23656912116</v>
       </c>
       <c r="R20">
-        <v>10342.70874157903</v>
+        <v>10350.02935647815</v>
       </c>
       <c r="S20">
-        <v>29373.98235219091</v>
+        <v>29394.77338655404</v>
       </c>
       <c r="T20">
-        <v>26683.95997356307</v>
+        <v>26702.84699821308</v>
       </c>
       <c r="U20">
-        <v>2062.924063402247</v>
+        <v>2064.384210159894</v>
       </c>
       <c r="V20">
-        <v>627.098199274144</v>
+        <v>627.5420621475481</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>18308.86003501732</v>
+        <v>18252.93418579287</v>
       </c>
       <c r="AI20">
-        <v>-12019.33290817805</v>
+        <v>-12067.49427954792</v>
       </c>
       <c r="AJ20">
-        <v>30328.19305914683</v>
+        <v>30320.4285813743</v>
       </c>
       <c r="AK20">
-        <v>-48103.13996498268</v>
+        <v>-48159.06581420713</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-72554.49427954792</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>24395.4285813743</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-72860.49427954792</v>
       </c>
       <c r="AO20">
-        <v>145731.1399649827</v>
+        <v>145787.0658142071</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6243</v>
+        <v>8.6182</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57708.09730578684</v>
+        <v>57707.03511954976</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="F21">
-        <v>8701.518598501034</v>
+        <v>8707.552032172698</v>
       </c>
       <c r="G21">
-        <v>49006.57870728581</v>
+        <v>48999.48308737707</v>
       </c>
       <c r="H21">
-        <v>79386.71797951337</v>
+        <v>79441.7629112593</v>
       </c>
       <c r="I21">
-        <v>68167.41942189324</v>
+        <v>68214.6851490183</v>
       </c>
       <c r="J21">
-        <v>11219.29855762013</v>
+        <v>11227.077762241</v>
       </c>
       <c r="K21">
-        <v>331.7797050569908</v>
+        <v>332.0097535044434</v>
       </c>
       <c r="L21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="M21">
-        <v>4902.303534927766</v>
+        <v>4905.702679902465</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72620.73204531545</v>
+        <v>72671.08559740215</v>
       </c>
       <c r="P21">
-        <v>43104.92788100655</v>
+        <v>43134.81585060035</v>
       </c>
       <c r="Q21">
-        <v>32900.08776690957</v>
+        <v>32922.89993412918</v>
       </c>
       <c r="R21">
-        <v>10204.84011409698</v>
+        <v>10211.91591647118</v>
       </c>
       <c r="S21">
-        <v>29515.8041643089</v>
+        <v>29536.2697468018</v>
       </c>
       <c r="T21">
-        <v>26339.60504890696</v>
+        <v>26357.86832769002</v>
       </c>
       <c r="U21">
-        <v>2161.740671878789</v>
+        <v>2163.239573341962</v>
       </c>
       <c r="V21">
-        <v>1014.458443523149</v>
+        <v>1015.161845769822</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20771.28202048663</v>
+        <v>20716.2370887407</v>
       </c>
       <c r="AI21">
-        <v>-8927.419421893239</v>
+        <v>-8974.685149018304</v>
       </c>
       <c r="AJ21">
-        <v>29698.70144237987</v>
+        <v>29690.92223775901</v>
       </c>
       <c r="AK21">
-        <v>-45469.71797951337</v>
+        <v>-45524.7629112593</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-69599.6851490183</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>24074.92223775901</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-69905.6851490183</v>
       </c>
       <c r="AO21">
-        <v>145933.7179795134</v>
+        <v>145988.7629112593</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6593</v>
+        <v>8.6533</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58091.17490319011</v>
+        <v>58090.10075311105</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="F22">
-        <v>8376.097754932694</v>
+        <v>8381.990496730366</v>
       </c>
       <c r="G22">
-        <v>49715.07714825742</v>
+        <v>49708.11025638069</v>
       </c>
       <c r="H22">
-        <v>79926.24354600777</v>
+        <v>79982.47315672321</v>
       </c>
       <c r="I22">
-        <v>68980.32777060669</v>
+        <v>69028.85672437056</v>
       </c>
       <c r="J22">
-        <v>10945.91542965148</v>
+        <v>10953.61608635981</v>
       </c>
       <c r="K22">
-        <v>329.0391619030057</v>
+        <v>329.2706471219163</v>
       </c>
       <c r="L22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="M22">
-        <v>4894.842222939333</v>
+        <v>4898.285836206996</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73175.53706435554</v>
+        <v>73227.01742650535</v>
       </c>
       <c r="P22">
-        <v>42964.56389452333</v>
+        <v>42994.79027068172</v>
       </c>
       <c r="Q22">
-        <v>32795.26472893233</v>
+        <v>32818.33681248342</v>
       </c>
       <c r="R22">
-        <v>10169.29905034114</v>
+        <v>10176.45334286736</v>
       </c>
       <c r="S22">
-        <v>30210.97305458234</v>
+        <v>30232.22704049269</v>
       </c>
       <c r="T22">
-        <v>27689.69804536235</v>
+        <v>27709.17826703726</v>
       </c>
       <c r="U22">
-        <v>1744.658514659783</v>
+        <v>1745.885914632037</v>
       </c>
       <c r="V22">
-        <v>776.6163793103449</v>
+        <v>777.1627434924516</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20286.75645399223</v>
+        <v>20230.52684327679</v>
       </c>
       <c r="AI22">
-        <v>-9362.327770606687</v>
+        <v>-9410.856724370562</v>
       </c>
       <c r="AJ22">
-        <v>29649.08457034852</v>
+        <v>29641.38391364019</v>
       </c>
       <c r="AK22">
-        <v>-44957.24354600777</v>
+        <v>-45013.47315672321</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-69093.85672437056</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>24080.38391364019</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-69327.85672437056</v>
       </c>
       <c r="AO22">
-        <v>145404.2435460078</v>
+        <v>145460.4731567232</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6768</v>
+        <v>8.6707</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61055.66928753151</v>
+        <v>61054.61430529796</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="F23">
-        <v>8359.322757779133</v>
+        <v>8365.100625525591</v>
       </c>
       <c r="G23">
-        <v>52696.34652975238</v>
+        <v>52689.51367977237</v>
       </c>
       <c r="H23">
-        <v>80962.63771052298</v>
+        <v>81018.59815452668</v>
       </c>
       <c r="I23">
-        <v>69423.01426318394</v>
+        <v>69470.99865218242</v>
       </c>
       <c r="J23">
-        <v>11539.62333222052</v>
+        <v>11547.5993871462</v>
       </c>
       <c r="K23">
-        <v>324.7829440408901</v>
+        <v>325.0074302763602</v>
       </c>
       <c r="L23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="M23">
-        <v>4890.745852855514</v>
+        <v>4894.126280138698</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74220.77820115809</v>
+        <v>74272.0787494096</v>
       </c>
       <c r="P23">
-        <v>43707.386003891</v>
+        <v>43737.59604640178</v>
       </c>
       <c r="Q23">
-        <v>33016.58569997812</v>
+        <v>33039.40638427776</v>
       </c>
       <c r="R23">
-        <v>10690.80018879436</v>
+        <v>10698.18954692594</v>
       </c>
       <c r="S23">
-        <v>30513.39219726708</v>
+        <v>30534.48270300782</v>
       </c>
       <c r="T23">
-        <v>28078.38730473022</v>
+        <v>28097.79476309514</v>
       </c>
       <c r="U23">
-        <v>1586.181749110709</v>
+        <v>1587.278099692421</v>
       </c>
       <c r="V23">
-        <v>848.8231434261571</v>
+        <v>849.4098402202586</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>23105.36228947702</v>
+        <v>23049.40184547332</v>
       </c>
       <c r="AI23">
-        <v>-6841.014263183941</v>
+        <v>-6888.998652182418</v>
       </c>
       <c r="AJ23">
-        <v>29946.37666777948</v>
+        <v>29938.4006128538</v>
       </c>
       <c r="AK23">
-        <v>-42200.63771052298</v>
+        <v>-42256.59815452668</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-66686.99865218242</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>24430.4006128538</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-66920.99865218242</v>
       </c>
       <c r="AO23">
-        <v>146502.637710523</v>
+        <v>146558.5981545267</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6867</v>
+        <v>8.6807</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61353.62733532274</v>
+        <v>61352.56390086332</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="F24">
-        <v>8388.600025544862</v>
+        <v>8394.448253023948</v>
       </c>
       <c r="G24">
-        <v>52965.02730977788</v>
+        <v>52958.11564783938</v>
       </c>
       <c r="H24">
-        <v>80896.41884281785</v>
+        <v>80952.81688995272</v>
       </c>
       <c r="I24">
-        <v>69115.13196242585</v>
+        <v>69163.31652394177</v>
       </c>
       <c r="J24">
-        <v>11781.286880392</v>
+        <v>11789.50036601095</v>
       </c>
       <c r="K24">
-        <v>322.5180265434321</v>
+        <v>322.7428744059585</v>
       </c>
       <c r="L24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="M24">
-        <v>4881.921089604403</v>
+        <v>4885.32458780196</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74166.60706199273</v>
+        <v>74218.31332860811</v>
       </c>
       <c r="P24">
-        <v>43790.83229799241</v>
+        <v>43821.3616769111</v>
       </c>
       <c r="Q24">
-        <v>32971.58308465799</v>
+        <v>32994.56967570269</v>
       </c>
       <c r="R24">
-        <v>10819.24932944742</v>
+        <v>10826.79211740237</v>
       </c>
       <c r="S24">
-        <v>30375.77464788733</v>
+        <v>30396.95153550306</v>
       </c>
       <c r="T24">
-        <v>27855.43733961892</v>
+        <v>27874.85713953732</v>
       </c>
       <c r="U24">
-        <v>1558.299757323828</v>
+        <v>1559.386147357169</v>
       </c>
       <c r="V24">
-        <v>962.0375509445794</v>
+        <v>962.7082486085775</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>23989.58115718215</v>
+        <v>23933.18311004728</v>
       </c>
       <c r="AI24">
-        <v>-6236.131962425847</v>
+        <v>-6284.316523941772</v>
       </c>
       <c r="AJ24">
-        <v>30225.713119608</v>
+        <v>30217.49963398905</v>
       </c>
       <c r="AK24">
-        <v>-41564.41884281785</v>
+        <v>-41620.81688995272</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-66313.31652394177</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>24692.49963398905</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-66547.31652394177</v>
       </c>
       <c r="AO24">
-        <v>146684.4188428178</v>
+        <v>146740.8168899527</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.612299999999999</v>
+        <v>8.606299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,64 +3750,64 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61134.82190154996</v>
+        <v>61133.74509342772</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="F25">
-        <v>8386.232858200448</v>
+        <v>8392.149837133551</v>
       </c>
       <c r="G25">
-        <v>52748.58904334951</v>
+        <v>52741.59525629417</v>
       </c>
       <c r="H25">
-        <v>80789.41221400957</v>
+        <v>80846.41388069005</v>
       </c>
       <c r="I25">
-        <v>69072.43363611795</v>
+        <v>69121.16828749164</v>
       </c>
       <c r="J25">
-        <v>11716.97857789163</v>
+        <v>11725.24559319842</v>
       </c>
       <c r="K25">
-        <v>322.8921608949577</v>
+        <v>323.1199802443585</v>
       </c>
       <c r="L25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="M25">
-        <v>4883.624836954606</v>
+        <v>4887.070520584673</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74056.71711770997</v>
+        <v>74108.96847328873</v>
       </c>
       <c r="P25">
-        <v>43752.91789562745</v>
+        <v>43783.78814426322</v>
       </c>
       <c r="Q25">
-        <v>32992.72564895005</v>
+        <v>33016.00395112831</v>
       </c>
       <c r="R25">
-        <v>10760.1922466774</v>
+        <v>10767.78419313492</v>
       </c>
       <c r="S25">
-        <v>30303.79910457233</v>
+        <v>30325.1802114324</v>
       </c>
       <c r="T25">
-        <v>27845.76387501616</v>
+        <v>27865.41069391691</v>
       </c>
       <c r="U25">
-        <v>1501.249015852125</v>
+        <v>1502.308235045097</v>
       </c>
       <c r="V25">
-        <v>956.7863312142329</v>
+        <v>957.4614000635003</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,28 +3843,28 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23649.58778599043</v>
+        <v>23592.58611930996</v>
       </c>
       <c r="AI25">
-        <v>-6411.433636117945</v>
+        <v>-6460.168287491644</v>
       </c>
       <c r="AJ25">
-        <v>30061.02142210837</v>
+        <v>30052.75440680159</v>
       </c>
       <c r="AK25">
-        <v>-41750.41221400957</v>
+        <v>-41807.41388069005</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-66335.16828749164</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>24527.75440680159</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-66569.16828749164</v>
       </c>
       <c r="AO25">
-        <v>146423.4122140096</v>
+        <v>146480.4138806901</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3876,7 +3876,7 @@
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5099</v>
+        <v>8.5039</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62597.62800823772</v>
+        <v>62596.56469923219</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="F26">
-        <v>8429.860076493087</v>
+        <v>8435.71717933016</v>
       </c>
       <c r="G26">
-        <v>54167.76793174463</v>
+        <v>54160.84751990203</v>
       </c>
       <c r="H26">
-        <v>81248.54380700206</v>
+        <v>81304.99564275284</v>
       </c>
       <c r="I26">
-        <v>69741.54068843779</v>
+        <v>69789.99740920439</v>
       </c>
       <c r="J26">
-        <v>11507.00300088261</v>
+        <v>11514.99811578501</v>
       </c>
       <c r="K26">
-        <v>322.2072374227714</v>
+        <v>322.4311083894672</v>
       </c>
       <c r="L26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="M26">
-        <v>4813.754516034128</v>
+        <v>4817.099133261105</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74582.21006178288</v>
+        <v>74634.03010033445</v>
       </c>
       <c r="P26">
-        <v>44053.77228596646</v>
+        <v>44084.38103537614</v>
       </c>
       <c r="Q26">
-        <v>33348.15063253899</v>
+        <v>33371.32107023411</v>
       </c>
       <c r="R26">
-        <v>10705.62165342748</v>
+        <v>10713.05996514202</v>
       </c>
       <c r="S26">
-        <v>30528.43765813475</v>
+        <v>30549.64894719487</v>
       </c>
       <c r="T26">
-        <v>27826.40600176523</v>
+        <v>27845.73990767347</v>
       </c>
       <c r="U26">
-        <v>1900.650308914387</v>
+        <v>1901.970888878421</v>
       </c>
       <c r="V26">
-        <v>801.3813474551339</v>
+        <v>801.9381506429884</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24471.45619299794</v>
+        <v>24415.00435724716</v>
       </c>
       <c r="AI26">
-        <v>-5613.540688437788</v>
+        <v>-5661.997409204385</v>
       </c>
       <c r="AJ26">
-        <v>30084.99699911739</v>
+        <v>30077.00188421499</v>
       </c>
       <c r="AK26">
-        <v>-41525.54380700206</v>
+        <v>-41581.99564275284</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-66121.99740920439</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>24540.00188421499</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-66355.99740920439</v>
       </c>
       <c r="AO26">
-        <v>147479.5438070021</v>
+        <v>147535.9956427529</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.497500000000001</v>
+        <v>8.4916</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66205.7082873965</v>
+        <v>66204.631346682</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="F27">
-        <v>8332.08228753724</v>
+        <v>8337.949813384661</v>
       </c>
       <c r="G27">
-        <v>57873.62599985926</v>
+        <v>57866.68153329734</v>
       </c>
       <c r="H27">
-        <v>83971.70838122495</v>
+        <v>84030.8419990141</v>
       </c>
       <c r="I27">
-        <v>72572.13975745351</v>
+        <v>72623.24569845777</v>
       </c>
       <c r="J27">
-        <v>11399.56862377143</v>
+        <v>11407.59630055632</v>
       </c>
       <c r="K27">
-        <v>317.625085032019</v>
+        <v>317.848759418793</v>
       </c>
       <c r="L27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="M27">
-        <v>4810.815720954236</v>
+        <v>4814.203539823008</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77313.97586263518</v>
+        <v>77368.4210464543</v>
       </c>
       <c r="P27">
-        <v>47195.79085641904</v>
+        <v>47229.02654867256</v>
       </c>
       <c r="Q27">
-        <v>36328.71935915179</v>
+        <v>36354.30236379428</v>
       </c>
       <c r="R27">
-        <v>10867.0713799817</v>
+        <v>10874.72406751015</v>
       </c>
       <c r="S27">
-        <v>30118.18512350168</v>
+        <v>30139.39461514988</v>
       </c>
       <c r="T27">
-        <v>28044.51783913115</v>
+        <v>28064.26703598507</v>
       </c>
       <c r="U27">
-        <v>1541.170040580798</v>
+        <v>1542.255346118636</v>
       </c>
       <c r="V27">
-        <v>532.4972437897305</v>
+        <v>532.8722330461726</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4117,28 +4117,28 @@
         <v>5525</v>
       </c>
       <c r="AH27">
-        <v>25037.29161877505</v>
+        <v>24978.1580009859</v>
       </c>
       <c r="AI27">
-        <v>-4837.139757453508</v>
+        <v>-4888.245698457773</v>
       </c>
       <c r="AJ27">
-        <v>29874.43137622857</v>
+        <v>29866.40369944368</v>
       </c>
       <c r="AK27">
-        <v>-41359.70838122495</v>
+        <v>-41418.8419990141</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-65760.24569845777</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>24341.40369944368</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-65912.24569845777</v>
       </c>
       <c r="AO27">
-        <v>150520.708381225</v>
+        <v>150579.8419990141</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.526199999999999</v>
+        <v>8.520200000000001</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65832.79537580346</v>
+        <v>65831.7284942157</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="F28">
-        <v>8250.839797953873</v>
+        <v>8256.618843608092</v>
       </c>
       <c r="G28">
-        <v>57581.95557784959</v>
+        <v>57575.10965060761</v>
       </c>
       <c r="H28">
-        <v>83124.91408373482</v>
+        <v>83183.13635992202</v>
       </c>
       <c r="I28">
-        <v>72232.46608261493</v>
+        <v>72283.05908034975</v>
       </c>
       <c r="J28">
-        <v>10892.44811777469</v>
+        <v>10900.07739630879</v>
       </c>
       <c r="K28">
-        <v>312.6621793450999</v>
+        <v>312.8811739023849</v>
       </c>
       <c r="L28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="M28">
-        <v>4881.622901671663</v>
+        <v>4885.042083513303</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76407.42437852151</v>
+        <v>76460.94159672204</v>
       </c>
       <c r="P28">
-        <v>46716.52310348448</v>
+        <v>46749.24424780827</v>
       </c>
       <c r="Q28">
-        <v>36183.64767915262</v>
+        <v>36208.99139651892</v>
       </c>
       <c r="R28">
-        <v>10532.87542433186</v>
+        <v>10540.25285128936</v>
       </c>
       <c r="S28">
-        <v>29690.90139169184</v>
+        <v>29711.69746565028</v>
       </c>
       <c r="T28">
-        <v>27768.06644657793</v>
+        <v>27787.51573024526</v>
       </c>
       <c r="U28">
-        <v>1563.26225167108</v>
+        <v>1564.357190385581</v>
       </c>
       <c r="V28">
-        <v>359.5726934428333</v>
+        <v>359.8245450194366</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>23973.08591626518</v>
+        <v>23914.86364007798</v>
       </c>
       <c r="AI28">
-        <v>-4876.466082614934</v>
+        <v>-4927.059080349747</v>
       </c>
       <c r="AJ28">
-        <v>28849.55188222531</v>
+        <v>28841.92260369121</v>
       </c>
       <c r="AK28">
-        <v>-41484.91408373482</v>
+        <v>-41543.13635992202</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-64957.05908034975</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>23413.92260369121</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-65109.05908034975</v>
       </c>
       <c r="AO28">
-        <v>148734.9140837348</v>
+        <v>148793.136359922</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5723</v>
+        <v>8.5663</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66649.11678866422</v>
+        <v>66648.04457325605</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="F29">
-        <v>8214.081376085347</v>
+        <v>8219.876074355387</v>
       </c>
       <c r="G29">
-        <v>58435.03541257887</v>
+        <v>58428.16849890066</v>
       </c>
       <c r="H29">
-        <v>82921.61306999096</v>
+        <v>82980.11087465168</v>
       </c>
       <c r="I29">
-        <v>71752.69459881801</v>
+        <v>71803.31318855746</v>
       </c>
       <c r="J29">
-        <v>11168.91847117294</v>
+        <v>11176.79768609423</v>
       </c>
       <c r="K29">
-        <v>306.9637297176628</v>
+        <v>307.1802800672538</v>
       </c>
       <c r="L29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="M29">
-        <v>4875.514328347687</v>
+        <v>4878.953804188075</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76219.25180058982</v>
+        <v>76273.0213636524</v>
       </c>
       <c r="P29">
-        <v>47225.23763085852</v>
+        <v>47258.55310343206</v>
       </c>
       <c r="Q29">
-        <v>36401.78989789804</v>
+        <v>36427.46987101856</v>
       </c>
       <c r="R29">
-        <v>10823.44773296049</v>
+        <v>10831.08323241349</v>
       </c>
       <c r="S29">
-        <v>28994.01428722492</v>
+        <v>29014.46837779685</v>
       </c>
       <c r="T29">
-        <v>26852.2511778736</v>
+        <v>26871.1943422182</v>
       </c>
       <c r="U29">
-        <v>1796.29225364524</v>
+        <v>1797.559464321407</v>
       </c>
       <c r="V29">
-        <v>345.470738212452</v>
+        <v>345.7144536807327</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25633.38693000905</v>
+        <v>25574.88912534832</v>
       </c>
       <c r="AI29">
-        <v>-3583.694598818009</v>
+        <v>-3634.313188557455</v>
       </c>
       <c r="AJ29">
-        <v>29217.08152882706</v>
+        <v>29209.20231390578</v>
       </c>
       <c r="AK29">
-        <v>-40779.61306999096</v>
+        <v>-40838.11087465168</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-64834.31318855746</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>23996.20231390578</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-64986.31318855746</v>
       </c>
       <c r="AO29">
-        <v>149486.6130699909</v>
+        <v>149545.1108746517</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4424,7 +4424,7 @@
         <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.511100000000001</v>
+        <v>8.505100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70083.58142094809</v>
+        <v>70078.11446360154</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="F30">
-        <v>8240.958625475605</v>
+        <v>8246.681513409962</v>
       </c>
       <c r="G30">
-        <v>61842.62279547248</v>
+        <v>61831.43295019158</v>
       </c>
       <c r="H30">
-        <v>91958.20395319343</v>
+        <v>92022.06381704981</v>
       </c>
       <c r="I30">
-        <v>80851.00564741917</v>
+        <v>80907.15217911877</v>
       </c>
       <c r="J30">
-        <v>11107.19830577425</v>
+        <v>11114.91163793103</v>
       </c>
       <c r="K30">
-        <v>306.5671588216995</v>
+        <v>306.7800526819923</v>
       </c>
       <c r="L30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="M30">
-        <v>4884.697408408912</v>
+        <v>4888.089559386974</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78894.52080691092</v>
+        <v>78949.30866858238</v>
       </c>
       <c r="P30">
-        <v>47310.04474861806</v>
+        <v>47342.89894636015</v>
       </c>
       <c r="Q30">
-        <v>36513.2289597741</v>
+        <v>36538.58536877394</v>
       </c>
       <c r="R30">
-        <v>10796.81578884396</v>
+        <v>10804.31357758621</v>
       </c>
       <c r="S30">
-        <v>31584.47605829285</v>
+        <v>31606.40972222222</v>
       </c>
       <c r="T30">
-        <v>29377.73792146259</v>
+        <v>29398.13912835249</v>
       </c>
       <c r="U30">
-        <v>1896.355619899974</v>
+        <v>1897.672533524904</v>
       </c>
       <c r="V30">
-        <v>310.3825169302927</v>
+        <v>310.5980603448276</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>26305.79604680657</v>
+        <v>26241.93618295019</v>
       </c>
       <c r="AI30">
-        <v>-2895.005647419166</v>
+        <v>-2951.15217911877</v>
       </c>
       <c r="AJ30">
-        <v>29200.80169422575</v>
+        <v>29193.08836206896</v>
       </c>
       <c r="AK30">
-        <v>-40522.20395319343</v>
+        <v>-40586.06381704981</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-64534.15217911877</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>23948.08836206896</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-64686.15217911877</v>
       </c>
       <c r="AO30">
-        <v>158938.2039531934</v>
+        <v>159002.0638170498</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.357799999999999</v>
+        <v>8.352</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70150.01534495903</v>
+        <v>70144.56495834141</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="F31">
-        <v>8273.167136616123</v>
+        <v>8278.877882193374</v>
       </c>
       <c r="G31">
-        <v>61876.8482083429</v>
+        <v>61865.68707614803</v>
       </c>
       <c r="H31">
-        <v>91488.3732891218</v>
+        <v>91551.5252615772</v>
       </c>
       <c r="I31">
-        <v>80009.07107330005</v>
+        <v>80064.29919104825</v>
       </c>
       <c r="J31">
-        <v>11479.30221582177</v>
+        <v>11487.22607052897</v>
       </c>
       <c r="K31">
-        <v>306.3042610095241</v>
+        <v>306.5156946328231</v>
       </c>
       <c r="L31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="M31">
-        <v>4896.131448694832</v>
+        <v>4899.511117031583</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78389.95292437647</v>
+        <v>78444.06340825421</v>
       </c>
       <c r="P31">
-        <v>47936.61648493943</v>
+        <v>47969.70584673512</v>
       </c>
       <c r="Q31">
-        <v>36807.99160141833</v>
+        <v>36833.39917167216</v>
       </c>
       <c r="R31">
-        <v>11128.62488352111</v>
+        <v>11136.30667506297</v>
       </c>
       <c r="S31">
-        <v>30453.33643943703</v>
+        <v>30474.35756151909</v>
       </c>
       <c r="T31">
-        <v>27990.14364721116</v>
+        <v>28009.46449331525</v>
       </c>
       <c r="U31">
-        <v>2112.515459925212</v>
+        <v>2113.973672737841</v>
       </c>
       <c r="V31">
-        <v>350.6773323006547</v>
+        <v>350.919395465995</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27708.62671087821</v>
+        <v>27645.4747384228</v>
       </c>
       <c r="AI31">
-        <v>-1963.071073300045</v>
+        <v>-2018.299191048252</v>
       </c>
       <c r="AJ31">
-        <v>29671.69778417824</v>
+        <v>29663.77392947103</v>
       </c>
       <c r="AK31">
-        <v>-39701.3732891218</v>
+        <v>-39764.5252615772</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-64231.29919104825</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>24466.77392947103</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-64274.29919104825</v>
       </c>
       <c r="AO31">
-        <v>158941.3732891218</v>
+        <v>159004.5252615772</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.263299999999999</v>
+        <v>8.2576</v>
       </c>
     </row>
     <row r="32">
@@ -4709,64 +4709,64 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71767.55106018546</v>
+        <v>71762.04591233628</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="F32">
-        <v>8266.489516271928</v>
+        <v>8272.254834743959</v>
       </c>
       <c r="G32">
-        <v>63501.06154391354</v>
+        <v>63489.79107759232</v>
       </c>
       <c r="H32">
-        <v>91423.20300041344</v>
+        <v>91486.96451368858</v>
       </c>
       <c r="I32">
-        <v>79954.25279073889</v>
+        <v>80010.01548536573</v>
       </c>
       <c r="J32">
-        <v>11468.95032780108</v>
+        <v>11476.94914653175</v>
       </c>
       <c r="K32">
-        <v>304.1522650758963</v>
+        <v>304.3643907513358</v>
       </c>
       <c r="L32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="M32">
-        <v>4893.84289173705</v>
+        <v>4897.256016832947</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78331.75890378596</v>
+        <v>78386.39001844058</v>
       </c>
       <c r="P32">
-        <v>47787.15728545272</v>
+        <v>47820.48560215613</v>
       </c>
       <c r="Q32">
-        <v>36779.92546216999</v>
+        <v>36805.57697763488</v>
       </c>
       <c r="R32">
-        <v>11007.23182328274</v>
+        <v>11014.90862452125</v>
       </c>
       <c r="S32">
-        <v>30544.60173645975</v>
+        <v>30565.90453449336</v>
       </c>
       <c r="T32">
-        <v>27820.2923631209</v>
+        <v>27839.69513925008</v>
       </c>
       <c r="U32">
-        <v>2262.590868820507</v>
+        <v>2264.168873232777</v>
       </c>
       <c r="V32">
-        <v>461.7185045183392</v>
+        <v>462.0405220104969</v>
       </c>
       <c r="W32">
         <v>68089</v>
@@ -4802,28 +4802,28 @@
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>28717.79699958656</v>
+        <v>28654.03548631142</v>
       </c>
       <c r="AI32">
-        <v>-293.2527907388867</v>
+        <v>-349.0154853657296</v>
       </c>
       <c r="AJ32">
-        <v>29011.04967219893</v>
+        <v>29003.05085346825</v>
       </c>
       <c r="AK32">
-        <v>-39328.20300041344</v>
+        <v>-39391.96451368858</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-63304.01548536573</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>23912.05085346825</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-63347.01548536573</v>
       </c>
       <c r="AO32">
-        <v>159512.2030004134</v>
+        <v>159575.9645136886</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.465500000000001</v>
+        <v>8.4596</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73531.80147389873</v>
+        <v>73526.28418481676</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="F33">
-        <v>8256.226155778299</v>
+        <v>8262.001588750696</v>
       </c>
       <c r="G33">
-        <v>65275.57531812043</v>
+        <v>65264.28259606606</v>
       </c>
       <c r="H33">
-        <v>92542.83310822018</v>
+        <v>92607.56909287076</v>
       </c>
       <c r="I33">
-        <v>81234.71706831591</v>
+        <v>81291.54274806444</v>
       </c>
       <c r="J33">
-        <v>11308.11603990427</v>
+        <v>11316.02634480633</v>
       </c>
       <c r="K33">
-        <v>301.214544679036</v>
+        <v>301.4252516509965</v>
       </c>
       <c r="L33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="M33">
-        <v>4886.212767469965</v>
+        <v>4889.630793308276</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79468.20726996991</v>
+        <v>79523.79723272825</v>
       </c>
       <c r="P33">
-        <v>48254.87796497713</v>
+        <v>48288.63343727398</v>
       </c>
       <c r="Q33">
-        <v>37261.19025615507</v>
+        <v>37287.25537388994</v>
       </c>
       <c r="R33">
-        <v>10993.68770882206</v>
+        <v>11001.37806338404</v>
       </c>
       <c r="S33">
-        <v>31213.32930499277</v>
+        <v>31235.16379545427</v>
       </c>
       <c r="T33">
-        <v>28793.86696997701</v>
+        <v>28814.00898711215</v>
       </c>
       <c r="U33">
-        <v>2105.034003933556</v>
+        <v>2106.506526919839</v>
       </c>
       <c r="V33">
-        <v>314.4283310822018</v>
+        <v>314.6482814222875</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28243.16689177982</v>
+        <v>28178.43090712924</v>
       </c>
       <c r="AI33">
-        <v>184.2829316840944</v>
+        <v>127.457251935557</v>
       </c>
       <c r="AJ33">
-        <v>28058.88396009574</v>
+        <v>28050.97365519367</v>
       </c>
       <c r="AK33">
-        <v>-40309.83310822018</v>
+        <v>-40374.56909287076</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-63008.54274806444</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>22633.97365519367</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-63051.54274806444</v>
       </c>
       <c r="AO33">
-        <v>161138.8331082202</v>
+        <v>161203.5690928708</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.440200000000001</v>
+        <v>8.4343</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74976.2595398688</v>
+        <v>74970.80712865795</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="F34">
-        <v>8230.643883396471</v>
+        <v>8236.351416947899</v>
       </c>
       <c r="G34">
-        <v>66745.61565647234</v>
+        <v>66734.45571171005</v>
       </c>
       <c r="H34">
-        <v>91757.81322184237</v>
+        <v>91821.44260551986</v>
       </c>
       <c r="I34">
-        <v>80566.70343250486</v>
+        <v>80622.57234986824</v>
       </c>
       <c r="J34">
-        <v>11191.10967384274</v>
+        <v>11198.87014007674</v>
       </c>
       <c r="K34">
-        <v>297.85214358311</v>
+        <v>298.0586889186815</v>
       </c>
       <c r="L34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="M34">
-        <v>4879.489975053128</v>
+        <v>4882.873653552771</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78717.73064307493</v>
+        <v>78772.31739170635</v>
       </c>
       <c r="P34">
-        <v>48108.0354337984</v>
+        <v>48141.39591327262</v>
       </c>
       <c r="Q34">
-        <v>37178.5282500231</v>
+        <v>37204.30967130508</v>
       </c>
       <c r="R34">
-        <v>10929.50718377529</v>
+        <v>10937.08624196755</v>
       </c>
       <c r="S34">
-        <v>30609.69520927654</v>
+        <v>30630.92147843373</v>
       </c>
       <c r="T34">
-        <v>28317.658805322</v>
+        <v>28337.2956636309</v>
       </c>
       <c r="U34">
-        <v>2030.433798392313</v>
+        <v>2031.841801118765</v>
       </c>
       <c r="V34">
-        <v>261.602490067449</v>
+        <v>261.7838981091952</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>30285.18677815763</v>
+        <v>30221.55739448014</v>
       </c>
       <c r="AI34">
-        <v>2272.296567495141</v>
+        <v>2216.427650131765</v>
       </c>
       <c r="AJ34">
-        <v>28012.89032615726</v>
+        <v>28005.12985992326</v>
       </c>
       <c r="AK34">
-        <v>-37493.81322184237</v>
+        <v>-37557.44260551986</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-60169.57234986824</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>22612.12985992326</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-60212.57234986824</v>
       </c>
       <c r="AO34">
-        <v>159579.8132218424</v>
+        <v>159643.4426055198</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,7 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6584</v>
+        <v>8.6524</v>
       </c>
     </row>
     <row r="35">
@@ -5120,64 +5120,64 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75390.01317790167</v>
+        <v>75384.55273153522</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="F35">
-        <v>8185.418482851833</v>
+        <v>8191.138487201741</v>
       </c>
       <c r="G35">
-        <v>67204.59469504983</v>
+        <v>67193.41424433349</v>
       </c>
       <c r="H35">
-        <v>92577.27307540689</v>
+        <v>92641.96645740114</v>
       </c>
       <c r="I35">
-        <v>81179.31812806218</v>
+        <v>81236.04657191483</v>
       </c>
       <c r="J35">
-        <v>11397.95505997635</v>
+        <v>11405.91999819664</v>
       </c>
       <c r="K35">
-        <v>292.406037055809</v>
+        <v>292.6103716060097</v>
       </c>
       <c r="L35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="M35">
-        <v>4866.59784873571</v>
+        <v>4869.998647475853</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79604.28236751704</v>
+        <v>79659.9101698545</v>
       </c>
       <c r="P35">
-        <v>51463.73317564904</v>
+        <v>51499.69624561839</v>
       </c>
       <c r="Q35">
-        <v>40321.45756603029</v>
+        <v>40349.63436763861</v>
       </c>
       <c r="R35">
-        <v>11142.27572225038</v>
+        <v>11150.06199069013</v>
       </c>
       <c r="S35">
-        <v>28140.549191868</v>
+        <v>28160.21392423611</v>
       </c>
       <c r="T35">
-        <v>26252.57487188151</v>
+        <v>26270.9202799725</v>
       </c>
       <c r="U35">
-        <v>1632.294982260517</v>
+        <v>1633.435636757098</v>
       </c>
       <c r="V35">
-        <v>255.6793377259672</v>
+        <v>255.858007506509</v>
       </c>
       <c r="W35">
         <v>66633</v>
@@ -5213,28 +5213,28 @@
         <v>5075</v>
       </c>
       <c r="AH35">
-        <v>29143.72692459311</v>
+        <v>29079.03354259886</v>
       </c>
       <c r="AI35">
-        <v>2024.681871937821</v>
+        <v>1967.953428085166</v>
       </c>
       <c r="AJ35">
-        <v>27119.04494002365</v>
+        <v>27111.08000180336</v>
       </c>
       <c r="AK35">
-        <v>-37472.27307540689</v>
+        <v>-37536.96645740114</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-59573.04657191483</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>22036.08000180336</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-59590.04657191483</v>
       </c>
       <c r="AO35">
-        <v>159210.2730754069</v>
+        <v>159274.9664574011</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5246,7 +5246,7 @@
         <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.878500000000001</v>
+        <v>8.872299999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77534.92732115249</v>
+        <v>77529.45176008222</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="F36">
-        <v>8199.385276890607</v>
+        <v>8205.126430031511</v>
       </c>
       <c r="G36">
-        <v>69335.54204426188</v>
+        <v>69324.32533005071</v>
       </c>
       <c r="H36">
-        <v>93998.08371610107</v>
+        <v>94063.90052740354</v>
       </c>
       <c r="I36">
-        <v>82280.86921193104</v>
+        <v>82338.48171027818</v>
       </c>
       <c r="J36">
-        <v>11717.21439131465</v>
+        <v>11725.418704191</v>
       </c>
       <c r="K36">
-        <v>290.0222325045988</v>
+        <v>290.2253040758016</v>
       </c>
       <c r="L36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="M36">
-        <v>4863.149567199719</v>
+        <v>4866.554711057405</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81024.83923754923</v>
+        <v>81081.57227235254</v>
       </c>
       <c r="P36">
-        <v>51596.9286415601</v>
+        <v>51633.05645589349</v>
       </c>
       <c r="Q36">
-        <v>40276.98935774017</v>
+        <v>40305.19102849335</v>
       </c>
       <c r="R36">
-        <v>11319.93928381993</v>
+        <v>11327.86542740014</v>
       </c>
       <c r="S36">
-        <v>29427.91048313376</v>
+        <v>29448.51570352469</v>
       </c>
       <c r="T36">
-        <v>26789.53165028383</v>
+        <v>26808.28949597389</v>
       </c>
       <c r="U36">
-        <v>2241.103725355212</v>
+        <v>2242.672930759936</v>
       </c>
       <c r="V36">
-        <v>397.275107494724</v>
+        <v>397.5532767908569</v>
       </c>
       <c r="W36">
         <v>66994</v>
@@ -5350,28 +5350,28 @@
         <v>5080</v>
       </c>
       <c r="AH36">
-        <v>29463.91628389893</v>
+        <v>29398.09947259646</v>
       </c>
       <c r="AI36">
-        <v>3074.130788068957</v>
+        <v>3016.518289721818</v>
       </c>
       <c r="AJ36">
-        <v>26389.78560868535</v>
+        <v>26381.581295809</v>
       </c>
       <c r="AK36">
-        <v>-37513.08371610107</v>
+        <v>-37578.90052740354</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-58880.48171027818</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>21301.581295809</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-58897.48171027818</v>
       </c>
       <c r="AO36">
-        <v>160992.0837161011</v>
+        <v>161057.9005274035</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5383,7 +5383,7 @@
         <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.860900000000001</v>
+        <v>8.854699999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5394,64 +5394,64 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78129.22529972871</v>
+        <v>78123.74266573256</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="F37">
-        <v>8164.211188413407</v>
+        <v>8169.930926525966</v>
       </c>
       <c r="G37">
-        <v>69965.01411131531</v>
+        <v>69953.81173920659</v>
       </c>
       <c r="H37">
-        <v>93756.88807210991</v>
+        <v>93822.57290480779</v>
       </c>
       <c r="I37">
-        <v>81955.57747002711</v>
+        <v>82012.99446098608</v>
       </c>
       <c r="J37">
-        <v>11801.31060208279</v>
+        <v>11809.5784438217</v>
       </c>
       <c r="K37">
-        <v>288.9190076135469</v>
+        <v>289.1214204396182</v>
       </c>
       <c r="L37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="M37">
-        <v>4868.356086461889</v>
+        <v>4871.766792188459</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80773.83827776319</v>
+        <v>80830.42735791227</v>
       </c>
       <c r="P37">
-        <v>51340.25334733526</v>
+        <v>51376.22164813032</v>
       </c>
       <c r="Q37">
-        <v>39872.2970814737</v>
+        <v>39900.23108415799</v>
       </c>
       <c r="R37">
-        <v>11467.95626586156</v>
+        <v>11475.99056397233</v>
       </c>
       <c r="S37">
-        <v>29433.58493042793</v>
+        <v>29454.20570978195</v>
       </c>
       <c r="T37">
-        <v>26897.0337796447</v>
+        <v>26915.8774848936</v>
       </c>
       <c r="U37">
-        <v>2203.196814562002</v>
+        <v>2204.74034503897</v>
       </c>
       <c r="V37">
-        <v>333.3543362212304</v>
+        <v>333.5878798493739</v>
       </c>
       <c r="W37">
         <v>68067</v>
@@ -5487,28 +5487,28 @@
         <v>5231</v>
       </c>
       <c r="AH37">
-        <v>31970.11192789009</v>
+        <v>31904.42709519221</v>
       </c>
       <c r="AI37">
-        <v>3999.422529972886</v>
+        <v>3942.005539013917</v>
       </c>
       <c r="AJ37">
-        <v>27970.68939791721</v>
+        <v>27962.4215561783</v>
       </c>
       <c r="AK37">
-        <v>-36079.88807210991</v>
+        <v>-36145.57290480779</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-58876.99446098608</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>22731.4215561783</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-58893.99446098608</v>
       </c>
       <c r="AO37">
-        <v>161823.8880721099</v>
+        <v>161889.5729048078</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5520,7 +5520,7 @@
         <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.1416</v>
+        <v>9.135199999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5531,64 +5531,64 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77606.26621579418</v>
+        <v>77600.77454953014</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="F38">
-        <v>8258.089104752467</v>
+        <v>8263.873825329771</v>
       </c>
       <c r="G38">
-        <v>69348.17711104172</v>
+        <v>69336.90072420036</v>
       </c>
       <c r="H38">
-        <v>92868.56553625465</v>
+        <v>92933.61916975603</v>
       </c>
       <c r="I38">
-        <v>81145.07016164642</v>
+        <v>81201.9115872058</v>
       </c>
       <c r="J38">
-        <v>11723.49548230074</v>
+        <v>11731.70769031813</v>
       </c>
       <c r="K38">
-        <v>288.8957213780329</v>
+        <v>289.0980903526166</v>
       </c>
       <c r="L38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="M38">
-        <v>4871.227048041612</v>
+        <v>4874.639300801794</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79868.70898262919</v>
+        <v>79924.65632813175</v>
       </c>
       <c r="P38">
-        <v>51315.95539377753</v>
+        <v>51351.9017803259</v>
       </c>
       <c r="Q38">
-        <v>39923.61620556339</v>
+        <v>39951.58235623761</v>
       </c>
       <c r="R38">
-        <v>11392.33918821414</v>
+        <v>11400.31942408828</v>
       </c>
       <c r="S38">
-        <v>28552.75358885167</v>
+        <v>28572.75454780585</v>
       </c>
       <c r="T38">
-        <v>25784.97442303757</v>
+        <v>25803.03657642901</v>
       </c>
       <c r="U38">
-        <v>2436.622979419968</v>
+        <v>2438.329812914907</v>
       </c>
       <c r="V38">
-        <v>331.1562940866062</v>
+        <v>331.3882662298474</v>
       </c>
       <c r="W38">
         <v>68272</v>
@@ -5624,28 +5624,28 @@
         <v>5302</v>
       </c>
       <c r="AH38">
-        <v>32272.43446374535</v>
+        <v>32207.38083024397</v>
       </c>
       <c r="AI38">
-        <v>4300.929838353579</v>
+        <v>4244.088412794197</v>
       </c>
       <c r="AJ38">
-        <v>27971.50451769926</v>
+        <v>27963.29230968187</v>
       </c>
       <c r="AK38">
-        <v>-35982.56553625465</v>
+        <v>-36047.61916975603</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-58708.9115872058</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>22661.29230968187</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-58725.9115872058</v>
       </c>
       <c r="AO38">
-        <v>161140.5655362547</v>
+        <v>161205.619169756</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5657,7 +5657,7 @@
         <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.2857</v>
+        <v>9.279199999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5668,64 +5668,64 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76275.17951124845</v>
+        <v>76269.64262343528</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="F39">
-        <v>8143.895668315527</v>
+        <v>8149.654655605514</v>
       </c>
       <c r="G39">
-        <v>68131.28384293293</v>
+        <v>68119.98796782977</v>
       </c>
       <c r="H39">
-        <v>91286.49024922743</v>
+        <v>91351.04384353958</v>
       </c>
       <c r="I39">
-        <v>79444.46647611614</v>
+        <v>79500.64593755937</v>
       </c>
       <c r="J39">
-        <v>11842.02377311128</v>
+        <v>11850.3979059802</v>
       </c>
       <c r="K39">
-        <v>286.7190153249027</v>
+        <v>286.9217697844764</v>
       </c>
       <c r="L39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="M39">
-        <v>4867.811481547889</v>
+        <v>4871.253773246363</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78302.13926360309</v>
+        <v>78357.51092394402</v>
       </c>
       <c r="P39">
-        <v>51242.08610633564</v>
+        <v>51278.32214552593</v>
       </c>
       <c r="Q39">
-        <v>39858.99960975816</v>
+        <v>39887.18605534798</v>
       </c>
       <c r="R39">
-        <v>11383.08639110671</v>
+        <v>11391.1359846326</v>
       </c>
       <c r="S39">
-        <v>27060.05315726747</v>
+        <v>27079.18877841808</v>
       </c>
       <c r="T39">
-        <v>24553.85274171264</v>
+        <v>24571.2160935554</v>
       </c>
       <c r="U39">
-        <v>2047.26313902102</v>
+        <v>2048.710869060435</v>
       </c>
       <c r="V39">
-        <v>458.9373820045774</v>
+        <v>459.2619213476031</v>
       </c>
       <c r="W39">
         <v>68337</v>
@@ -5761,28 +5761,28 @@
         <v>5136</v>
       </c>
       <c r="AH39">
-        <v>32496.50975077257</v>
+        <v>32431.95615646042</v>
       </c>
       <c r="AI39">
-        <v>4660.53352388386</v>
+        <v>4604.354062440631</v>
       </c>
       <c r="AJ39">
-        <v>27835.97622688872</v>
+        <v>27827.6020940198</v>
       </c>
       <c r="AK39">
-        <v>-35832.49024922743</v>
+        <v>-35897.04384353958</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-58588.64593755937</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>22691.6020940198</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-58596.64593755937</v>
       </c>
       <c r="AO39">
-        <v>159623.4902492274</v>
+        <v>159688.0438435396</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5794,7 +5794,7 @@
         <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.481299999999999</v>
+        <v>9.474600000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5805,64 +5805,64 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77975.71735271046</v>
+        <v>77970.22888778715</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="F40">
-        <v>8176.334172825234</v>
+        <v>8182.076929433151</v>
       </c>
       <c r="G40">
-        <v>69799.38317988522</v>
+        <v>69788.15195835399</v>
       </c>
       <c r="H40">
-        <v>93735.14739275834</v>
+        <v>93800.98351512147</v>
       </c>
       <c r="I40">
-        <v>82217.67908013707</v>
+        <v>82275.42575607338</v>
       </c>
       <c r="J40">
-        <v>11517.4684158375</v>
+        <v>11525.5578623368</v>
       </c>
       <c r="K40">
-        <v>285.0104248379506</v>
+        <v>285.2106056850107</v>
       </c>
       <c r="L40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="M40">
-        <v>4863.052103546509</v>
+        <v>4866.467732606181</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80772.80221708435</v>
+        <v>80829.53406461742</v>
       </c>
       <c r="P40">
-        <v>52897.34837537674</v>
+        <v>52934.50152867295</v>
       </c>
       <c r="Q40">
-        <v>41856.10895503902</v>
+        <v>41885.50714757891</v>
       </c>
       <c r="R40">
-        <v>11041.23952355394</v>
+        <v>11048.99448438275</v>
       </c>
       <c r="S40">
-        <v>27875.45384170761</v>
+        <v>27895.03253594447</v>
       </c>
       <c r="T40">
-        <v>24873.5701457413</v>
+        <v>24891.04042720212</v>
       </c>
       <c r="U40">
-        <v>2525.654803682755</v>
+        <v>2527.428730788299</v>
       </c>
       <c r="V40">
-        <v>476.2288922835556</v>
+        <v>476.5633779540572</v>
       </c>
       <c r="W40">
         <v>67061</v>
@@ -5898,28 +5898,28 @@
         <v>5270</v>
       </c>
       <c r="AH40">
-        <v>31707.85260724166</v>
+        <v>31642.01648487854</v>
       </c>
       <c r="AI40">
-        <v>3572.320919862934</v>
+        <v>3514.574243926618</v>
       </c>
       <c r="AJ40">
-        <v>28135.53158416251</v>
+        <v>28127.44213766319</v>
       </c>
       <c r="AK40">
-        <v>-35345.14739275834</v>
+        <v>-35410.98351512147</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-58268.42575607338</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>22857.44213766319</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-58276.42575607338</v>
       </c>
       <c r="AO40">
-        <v>160796.1473927583</v>
+        <v>160861.9835151215</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5931,7 +5931,7 @@
         <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
-        <v>9.6884</v>
+        <v>9.6816</v>
       </c>
     </row>
     <row r="41">
@@ -5942,64 +5942,64 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78912.40233941717</v>
+        <v>78906.98363285941</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="F41">
-        <v>8210.443279217505</v>
+        <v>8216.159877296899</v>
       </c>
       <c r="G41">
-        <v>70701.95906019966</v>
+        <v>70690.82375556251</v>
       </c>
       <c r="H41">
-        <v>99236.83160229906</v>
+        <v>99305.92617632516</v>
       </c>
       <c r="I41">
-        <v>89812.61802964604</v>
+        <v>89875.15090665077</v>
       </c>
       <c r="J41">
-        <v>9424.21357265302</v>
+        <v>9430.775269674374</v>
       </c>
       <c r="K41">
-        <v>281.1380457799738</v>
+        <v>281.3337907791042</v>
       </c>
       <c r="L41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="M41">
-        <v>4852.308561056771</v>
+        <v>4855.68702636704</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86320.7873348795</v>
+        <v>86380.88899203842</v>
       </c>
       <c r="P41">
-        <v>55671.92538065947</v>
+        <v>55710.68748044924</v>
       </c>
       <c r="Q41">
-        <v>47422.94363214682</v>
+        <v>47455.96230108677</v>
       </c>
       <c r="R41">
-        <v>8248.981748512655</v>
+        <v>8254.725179362469</v>
       </c>
       <c r="S41">
-        <v>30648.86205505697</v>
+        <v>30670.20161249634</v>
       </c>
       <c r="T41">
-        <v>27357.73237874357</v>
+        <v>27376.78045630216</v>
       </c>
       <c r="U41">
-        <v>2115.89775133609</v>
+        <v>2117.370964975126</v>
       </c>
       <c r="V41">
-        <v>1175.231824140365</v>
+        <v>1176.050090311904</v>
       </c>
       <c r="W41">
         <v>63655</v>
@@ -6035,28 +6035,28 @@
         <v>7350</v>
       </c>
       <c r="AH41">
-        <v>28453.16839770094</v>
+        <v>28384.07382367484</v>
       </c>
       <c r="AI41">
-        <v>-3117.618029646037</v>
+        <v>-3180.150906650772</v>
       </c>
       <c r="AJ41">
-        <v>31570.78642734698</v>
+        <v>31564.22473032563</v>
       </c>
       <c r="AK41">
-        <v>-35193.83160229906</v>
+        <v>-35262.92617632516</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-59477.15090665077</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>24214.22473032563</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-59485.15090665077</v>
       </c>
       <c r="AO41">
-        <v>162891.8316022991</v>
+        <v>162960.9261763252</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6068,7 +6068,7 @@
         <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
-        <v>9.917</v>
+        <v>9.9101</v>
       </c>
     </row>
     <row r="42">
@@ -6079,64 +6079,64 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80160.59462617914</v>
+        <v>80155.14939001572</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="F42">
-        <v>8192.588091209109</v>
+        <v>8198.336576603548</v>
       </c>
       <c r="G42">
-        <v>71968.00653497003</v>
+        <v>71956.81281341218</v>
       </c>
       <c r="H42">
-        <v>103376.9288445537</v>
+        <v>103449.4652346381</v>
       </c>
       <c r="I42">
-        <v>92353.93126595175</v>
+        <v>92418.73315994309</v>
       </c>
       <c r="J42">
-        <v>11022.99767209222</v>
+        <v>11030.73216825088</v>
       </c>
       <c r="K42">
-        <v>277.714349821901</v>
+        <v>277.9092133822318</v>
       </c>
       <c r="L42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="M42">
-        <v>4836.394080195955</v>
+        <v>4839.787628171544</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90502.415040715</v>
+        <v>90565.91778310006</v>
       </c>
       <c r="P42">
-        <v>55426.49551714143</v>
+        <v>55465.38657286131</v>
       </c>
       <c r="Q42">
-        <v>47171.96787674242</v>
+        <v>47205.06698600404</v>
       </c>
       <c r="R42">
-        <v>8254.527640399016</v>
+        <v>8260.319586857271</v>
       </c>
       <c r="S42">
-        <v>35075.91961706384</v>
+        <v>35100.53130379463</v>
       </c>
       <c r="T42">
-        <v>29852.1977693221</v>
+        <v>29873.14413217573</v>
       </c>
       <c r="U42">
-        <v>2455.25181604854</v>
+        <v>2456.974590225282</v>
       </c>
       <c r="V42">
-        <v>2768.470031693202</v>
+        <v>2770.412581393608</v>
       </c>
       <c r="W42">
         <v>60524</v>
@@ -6172,28 +6172,28 @@
         <v>5211</v>
       </c>
       <c r="AH42">
-        <v>25026.07115544631</v>
+        <v>24953.5347653619</v>
       </c>
       <c r="AI42">
-        <v>-4432.931265951745</v>
+        <v>-4497.733159943091</v>
       </c>
       <c r="AJ42">
-        <v>29459.00232790778</v>
+        <v>29451.26783174912</v>
       </c>
       <c r="AK42">
-        <v>-35489.9288445537</v>
+        <v>-35562.4652346381</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-59802.73315994309</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>24240.26783174912</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-59810.73315994309</v>
       </c>
       <c r="AO42">
-        <v>163900.9288445537</v>
+        <v>163973.4652346381</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6205,7 +6205,7 @@
         <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6963</v>
+        <v>10.6888</v>
       </c>
     </row>
     <row r="43">
@@ -6216,64 +6216,64 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79302.32518062349</v>
+        <v>79296.91626708473</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="F43">
-        <v>8156.410363246972</v>
+        <v>8162.123802296589</v>
       </c>
       <c r="G43">
-        <v>71145.91481737651</v>
+        <v>71134.79246478815</v>
       </c>
       <c r="H43">
-        <v>101628.7020941492</v>
+        <v>101699.8914249022</v>
       </c>
       <c r="I43">
-        <v>92820.26808109933</v>
+        <v>92885.28724034125</v>
       </c>
       <c r="J43">
-        <v>8808.434096382529</v>
+        <v>8814.604267952002</v>
       </c>
       <c r="K43">
-        <v>274.1440487995934</v>
+        <v>274.3360824570328</v>
       </c>
       <c r="L43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="M43">
-        <v>4823.07072441063</v>
+        <v>4826.449210704071</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88809.81250156248</v>
+        <v>88872.02239882587</v>
       </c>
       <c r="P43">
-        <v>54025.32070566079</v>
+        <v>54063.16460551883</v>
       </c>
       <c r="Q43">
-        <v>46403.91405071625</v>
+        <v>46436.41927333073</v>
       </c>
       <c r="R43">
-        <v>7621.406654944542</v>
+        <v>7626.745332188098</v>
       </c>
       <c r="S43">
-        <v>34784.4917959017</v>
+        <v>34808.85779330704</v>
       </c>
       <c r="T43">
-        <v>31135.30487245939</v>
+        <v>31157.11467098077</v>
       </c>
       <c r="U43">
-        <v>2462.159565336955</v>
+        <v>2463.884269953385</v>
       </c>
       <c r="V43">
-        <v>1187.027441437988</v>
+        <v>1187.858935763903</v>
       </c>
       <c r="W43">
         <v>60829</v>
@@ -6309,28 +6309,28 @@
         <v>6878</v>
       </c>
       <c r="AH43">
-        <v>24516.29790585078</v>
+        <v>24445.10857509777</v>
       </c>
       <c r="AI43">
-        <v>-5796.268081099333</v>
+        <v>-5861.287240341248</v>
       </c>
       <c r="AJ43">
-        <v>30312.56590361747</v>
+        <v>30306.395732048</v>
       </c>
       <c r="AK43">
-        <v>-36304.70209414922</v>
+        <v>-36375.89142490224</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-59804.28724034125</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>23428.395732048</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-59812.28724034125</v>
       </c>
       <c r="AO43">
-        <v>162457.7020941492</v>
+        <v>162528.8914249023</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6342,7 +6342,7 @@
         <v>0.154080134850564</v>
       </c>
       <c r="AS43">
-        <v>12.0001</v>
+        <v>11.9917</v>
       </c>
     </row>
     <row r="44">
@@ -6353,64 +6353,64 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77251.88611664317</v>
+        <v>77246.50209742189</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="F44">
-        <v>8329.857906867461</v>
+        <v>8335.640198844552</v>
       </c>
       <c r="G44">
-        <v>68922.02820977572</v>
+        <v>68910.86189857734</v>
       </c>
       <c r="H44">
-        <v>101703.8873100763</v>
+        <v>101774.4865421649</v>
       </c>
       <c r="I44">
-        <v>92940.77692497036</v>
+        <v>93005.29311657486</v>
       </c>
       <c r="J44">
-        <v>8763.110385105954</v>
+        <v>8769.19342559004</v>
       </c>
       <c r="K44">
-        <v>274.3460359372552</v>
+        <v>274.5364772269247</v>
       </c>
       <c r="L44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="M44">
-        <v>4837.432328611813</v>
+        <v>4840.790302596026</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88835.99506217041</v>
+        <v>88897.66185976384</v>
       </c>
       <c r="P44">
-        <v>54159.16825169505</v>
+        <v>54196.76362577813</v>
       </c>
       <c r="Q44">
-        <v>46601.39213975102</v>
+        <v>46633.74117366057</v>
       </c>
       <c r="R44">
-        <v>7557.776111944027</v>
+        <v>7563.022452117575</v>
       </c>
       <c r="S44">
-        <v>34676.82681047536</v>
+        <v>34700.8982339857</v>
       </c>
       <c r="T44">
-        <v>31209.39388514698</v>
+        <v>31231.05833967785</v>
       </c>
       <c r="U44">
-        <v>2262.098652166454</v>
+        <v>2263.668920835386</v>
       </c>
       <c r="V44">
-        <v>1205.334273161926</v>
+        <v>1206.170973472465</v>
       </c>
       <c r="W44">
         <v>60792</v>
@@ -6446,28 +6446,28 @@
         <v>6725</v>
       </c>
       <c r="AH44">
-        <v>22321.1126899237</v>
+        <v>22250.5134578351</v>
       </c>
       <c r="AI44">
-        <v>-7932.776924970356</v>
+        <v>-7997.29311657486</v>
       </c>
       <c r="AJ44">
-        <v>30253.88961489405</v>
+        <v>30247.80657440996</v>
       </c>
       <c r="AK44">
-        <v>-38078.8873100763</v>
+        <v>-38149.4865421649</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-61672.29311657486</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>23522.80657440996</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-62064.29311657486</v>
       </c>
       <c r="AO44">
-        <v>162495.8873100763</v>
+        <v>162566.4865421649</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6479,7 +6479,7 @@
         <v>0.153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.4067</v>
+        <v>13.3974</v>
       </c>
     </row>
     <row r="45">
@@ -6490,64 +6490,64 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76402.00801851097</v>
+        <v>76396.53347653548</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="F45">
-        <v>8297.574145759358</v>
+        <v>8303.434739869661</v>
       </c>
       <c r="G45">
-        <v>68104.43387275162</v>
+        <v>68093.09873666582</v>
       </c>
       <c r="H45">
-        <v>101863.0975318703</v>
+        <v>101935.0436523829</v>
       </c>
       <c r="I45">
-        <v>94226.7577420106</v>
+        <v>94293.3102996323</v>
       </c>
       <c r="J45">
-        <v>7636.339862622969</v>
+        <v>7641.733425565223</v>
       </c>
       <c r="K45">
-        <v>273.816578380581</v>
+        <v>274.0099756070921</v>
       </c>
       <c r="L45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="M45">
-        <v>4836.816170906339</v>
+        <v>4840.232424363782</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89001.47280109435</v>
+        <v>89064.33472894746</v>
       </c>
       <c r="P45">
-        <v>53546.49834099773</v>
+        <v>53584.31834565115</v>
       </c>
       <c r="Q45">
-        <v>46337.41050119331</v>
+        <v>46370.13871190884</v>
       </c>
       <c r="R45">
-        <v>7209.087912567669</v>
+        <v>7214.179706556959</v>
       </c>
       <c r="S45">
-        <v>35454.97446009663</v>
+        <v>35480.01638329632</v>
       </c>
       <c r="T45">
-        <v>33099.86735258164</v>
+        <v>33123.24585866676</v>
       </c>
       <c r="U45">
-        <v>1927.855157459689</v>
+        <v>1929.216805621291</v>
       </c>
       <c r="V45">
-        <v>427.2519500553</v>
+        <v>427.5537190082645</v>
       </c>
       <c r="W45">
         <v>60348</v>
@@ -6583,28 +6583,28 @@
         <v>7227</v>
       </c>
       <c r="AH45">
-        <v>21026.9024681297</v>
+        <v>20954.95634761715</v>
       </c>
       <c r="AI45">
-        <v>-10073.7577420106</v>
+        <v>-10140.3102996323</v>
       </c>
       <c r="AJ45">
-        <v>31100.66013737703</v>
+        <v>31095.26657443478</v>
       </c>
       <c r="AK45">
-        <v>-38929.0975318703</v>
+        <v>-39001.04365238285</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-62869.3102996323</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>23868.26657443478</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-63261.3102996323</v>
       </c>
       <c r="AO45">
-        <v>162211.0975318703</v>
+        <v>162283.0436523829</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6616,7 +6616,7 @@
         <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7432</v>
+        <v>13.7335</v>
       </c>
     </row>
     <row r="46">
@@ -6627,64 +6627,64 @@
         <v>116873</v>
       </c>
       <c r="C46">
-        <v>70621.12258904272</v>
+        <v>70615.72128516169</v>
       </c>
       <c r="D46">
         <v>38506</v>
       </c>
       <c r="E46">
-        <v>7745.877410957282</v>
+        <v>7751.278714838302</v>
       </c>
       <c r="F46">
-        <v>8198.895725686638</v>
+        <v>8204.612925295371</v>
       </c>
       <c r="G46">
-        <v>62422.22686335607</v>
+        <v>62411.10835986632</v>
       </c>
       <c r="H46">
-        <v>104859.0792016724</v>
+        <v>104932.1988395653</v>
       </c>
       <c r="I46">
-        <v>97274.63127309064</v>
+        <v>97342.4621740389</v>
       </c>
       <c r="J46">
-        <v>7584.447994320198</v>
+        <v>7589.736731310686</v>
       </c>
       <c r="K46">
-        <v>271.2761803336883</v>
+        <v>271.4653448411967</v>
       </c>
       <c r="L46">
-        <v>7745.877410957282</v>
+        <v>7751.278714838302</v>
       </c>
       <c r="M46">
-        <v>4833.618769639359</v>
+        <v>4836.989316632898</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>92008.30684074205</v>
+        <v>92072.4654632529</v>
       </c>
       <c r="P46">
-        <v>53523.8272919707</v>
+        <v>53561.15017235481</v>
       </c>
       <c r="Q46">
-        <v>46307.66536504556</v>
+        <v>46339.95631923795</v>
       </c>
       <c r="R46">
-        <v>7216.161992663589</v>
+        <v>7221.193918901139</v>
       </c>
       <c r="S46">
-        <v>38484.47948303291</v>
+        <v>38511.3152251138</v>
       </c>
       <c r="T46">
-        <v>35769.46429745329</v>
+        <v>35794.40682314554</v>
       </c>
       <c r="U46">
-        <v>2346.729249661447</v>
+        <v>2348.365655342999</v>
       </c>
       <c r="V46">
-        <v>368.2860016566087</v>
+        <v>368.5428124095466</v>
       </c>
       <c r="W46">
         <v>59268</v>
@@ -6720,28 +6720,28 @@
         <v>7180</v>
       </c>
       <c r="AH46">
-        <v>12013.92079832761</v>
+        <v>11940.8011604347</v>
       </c>
       <c r="AI46">
-        <v>-18907.63127309064</v>
+        <v>-18975.4621740389</v>
       </c>
       <c r="AJ46">
-        <v>30921.5520056798</v>
+        <v>30916.26326868931</v>
       </c>
       <c r="AK46">
-        <v>-46853.07920167239</v>
+        <v>-46926.1988395653</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-70662.4621740389</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>23736.26326868931</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-71063.4621740389</v>
       </c>
       <c r="AO46">
-        <v>164127.0792016724</v>
+        <v>164200.1988395653</v>
       </c>
       <c r="AP46">
         <v>264458</v>
@@ -6753,7 +6753,281 @@
         <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
-        <v>15.2118</v>
+        <v>15.2012</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B47">
+        <v>110925</v>
+      </c>
+      <c r="C47">
+        <v>64794.87328276296</v>
+      </c>
+      <c r="D47">
+        <v>38370</v>
+      </c>
+      <c r="E47">
+        <v>7760.126717237041</v>
+      </c>
+      <c r="F47">
+        <v>8212.951812493446</v>
+      </c>
+      <c r="G47">
+        <v>56581.92147026951</v>
+      </c>
+      <c r="H47">
+        <v>102520.0259551858</v>
+      </c>
+      <c r="I47">
+        <v>93872.65573111476</v>
+      </c>
+      <c r="J47">
+        <v>8647.370136679834</v>
+      </c>
+      <c r="K47">
+        <v>271.2992449400497</v>
+      </c>
+      <c r="L47">
+        <v>7760.126717237041</v>
+      </c>
+      <c r="M47">
+        <v>4839.474079770685</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>89649.12591323802</v>
+      </c>
+      <c r="P47">
+        <v>53043.62559862971</v>
+      </c>
+      <c r="Q47">
+        <v>44853.69813332401</v>
+      </c>
+      <c r="R47">
+        <v>8189.927377914497</v>
+      </c>
+      <c r="S47">
+        <v>36605.50031460832</v>
+      </c>
+      <c r="T47">
+        <v>33894.85930017129</v>
+      </c>
+      <c r="U47">
+        <v>2253.198255671689</v>
+      </c>
+      <c r="V47">
+        <v>457.4427587653372</v>
+      </c>
+      <c r="W47">
+        <v>65292</v>
+      </c>
+      <c r="X47">
+        <v>59035</v>
+      </c>
+      <c r="Y47">
+        <v>6257</v>
+      </c>
+      <c r="Z47">
+        <v>978</v>
+      </c>
+      <c r="AA47">
+        <v>43317</v>
+      </c>
+      <c r="AB47">
+        <v>37060</v>
+      </c>
+      <c r="AC47">
+        <v>6257</v>
+      </c>
+      <c r="AD47">
+        <v>20997</v>
+      </c>
+      <c r="AE47">
+        <v>64314</v>
+      </c>
+      <c r="AF47">
+        <v>58057</v>
+      </c>
+      <c r="AG47">
+        <v>6257</v>
+      </c>
+      <c r="AH47">
+        <v>8404.974044814197</v>
+      </c>
+      <c r="AI47">
+        <v>-21317.65573111476</v>
+      </c>
+      <c r="AJ47">
+        <v>29722.62986332017</v>
+      </c>
+      <c r="AK47">
+        <v>-55909.0259551858</v>
+      </c>
+      <c r="AL47">
+        <v>-79374.65573111476</v>
+      </c>
+      <c r="AM47">
+        <v>23465.62986332017</v>
+      </c>
+      <c r="AN47">
+        <v>-80352.65573111476</v>
+      </c>
+      <c r="AO47">
+        <v>167812.0259551858</v>
+      </c>
+      <c r="AP47">
+        <v>265603.11</v>
+      </c>
+      <c r="AQ47">
+        <v>0.5797971602434077</v>
+      </c>
+      <c r="AR47">
+        <v>0.1630892047913144</v>
+      </c>
+      <c r="AS47">
+        <v>11.4428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B48">
+        <v>111051</v>
+      </c>
+      <c r="C48">
+        <v>64806.23324388514</v>
+      </c>
+      <c r="D48">
+        <v>38488</v>
+      </c>
+      <c r="E48">
+        <v>7756.766756114863</v>
+      </c>
+      <c r="F48">
+        <v>8211.373800931495</v>
+      </c>
+      <c r="G48">
+        <v>56594.85944295365</v>
+      </c>
+      <c r="H48">
+        <v>102962.7595539928</v>
+      </c>
+      <c r="I48">
+        <v>94249.73312050829</v>
+      </c>
+      <c r="J48">
+        <v>8713.026433484469</v>
+      </c>
+      <c r="K48">
+        <v>270.3722895654051</v>
+      </c>
+      <c r="L48">
+        <v>7756.766756114863</v>
+      </c>
+      <c r="M48">
+        <v>4839.927207674038</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>90095.69330063846</v>
+      </c>
+      <c r="P48">
+        <v>53089.9056938404</v>
+      </c>
+      <c r="Q48">
+        <v>44833.95862249776</v>
+      </c>
+      <c r="R48">
+        <v>8255.947071342647</v>
+      </c>
+      <c r="S48">
+        <v>37005.78760679806</v>
+      </c>
+      <c r="T48">
+        <v>34160.62575182752</v>
+      </c>
+      <c r="U48">
+        <v>2388.082492828722</v>
+      </c>
+      <c r="V48">
+        <v>457.0793621418216</v>
+      </c>
+      <c r="W48">
+        <v>65768</v>
+      </c>
+      <c r="X48">
+        <v>59642</v>
+      </c>
+      <c r="Y48">
+        <v>6126</v>
+      </c>
+      <c r="Z48">
+        <v>1074</v>
+      </c>
+      <c r="AA48">
+        <v>43704</v>
+      </c>
+      <c r="AB48">
+        <v>37578</v>
+      </c>
+      <c r="AC48">
+        <v>6126</v>
+      </c>
+      <c r="AD48">
+        <v>20990</v>
+      </c>
+      <c r="AE48">
+        <v>64694</v>
+      </c>
+      <c r="AF48">
+        <v>58568</v>
+      </c>
+      <c r="AG48">
+        <v>6126</v>
+      </c>
+      <c r="AH48">
+        <v>8088.240446007214</v>
+      </c>
+      <c r="AI48">
+        <v>-21686.73312050829</v>
+      </c>
+      <c r="AJ48">
+        <v>29774.97356651553</v>
+      </c>
+      <c r="AK48">
+        <v>-56605.75955399279</v>
+      </c>
+      <c r="AL48">
+        <v>-80254.73312050829</v>
+      </c>
+      <c r="AM48">
+        <v>23648.97356651553</v>
+      </c>
+      <c r="AN48">
+        <v>-81328.73312050829</v>
+      </c>
+      <c r="AO48">
+        <v>168730.7595539928</v>
+      </c>
+      <c r="AP48">
+        <v>263842.17</v>
+      </c>
+      <c r="AQ48">
+        <v>0.5825611655905845</v>
+      </c>
+      <c r="AR48">
+        <v>0.1656444835941124</v>
+      </c>
+      <c r="AS48">
+        <v>12.9684</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -596,67 +596,67 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>93206</v>
+        <v>93206.00000000002</v>
       </c>
       <c r="C2">
-        <v>48431.13538884842</v>
+        <v>48432.21042132787</v>
       </c>
       <c r="D2">
         <v>43241</v>
       </c>
       <c r="E2">
-        <v>1533.864611151574</v>
+        <v>1532.78957867213</v>
       </c>
       <c r="F2">
-        <v>8790.733727172183</v>
+        <v>8784.572606949349</v>
       </c>
       <c r="G2">
-        <v>39640.40166167624</v>
+        <v>39647.63781437853</v>
       </c>
       <c r="H2">
-        <v>78872.72652477678</v>
+        <v>78817.44736771168</v>
       </c>
       <c r="I2">
-        <v>68368.15084567452</v>
+        <v>68320.23398118447</v>
       </c>
       <c r="J2">
-        <v>10504.57567910227</v>
+        <v>10497.21338652721</v>
       </c>
       <c r="K2">
-        <v>347.2667314072995</v>
+        <v>347.0233442057309</v>
       </c>
       <c r="L2">
-        <v>1533.864611151574</v>
+        <v>1532.78957867213</v>
       </c>
       <c r="M2">
-        <v>3526.756764047369</v>
+        <v>3524.284982613149</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>73464.83841817053</v>
+        <v>73413.34946222066</v>
       </c>
       <c r="P2">
-        <v>42969.4375657522</v>
+        <v>42939.32177804135</v>
       </c>
       <c r="Q2">
-        <v>32679.08607806642</v>
+        <v>32656.18244062862</v>
       </c>
       <c r="R2">
-        <v>10290.35162256211</v>
+        <v>10283.13947219452</v>
       </c>
       <c r="S2">
-        <v>30495.40085241833</v>
+        <v>30474.02768417931</v>
       </c>
       <c r="T2">
-        <v>25552.25513204392</v>
+        <v>25534.34644310861</v>
       </c>
       <c r="U2">
-        <v>4728.921528957946</v>
+        <v>4725.607191956223</v>
       </c>
       <c r="V2">
-        <v>214.2240565401527</v>
+        <v>214.0739143326954</v>
       </c>
       <c r="W2">
         <v>60658</v>
@@ -692,40 +692,40 @@
         <v>5559</v>
       </c>
       <c r="AH2">
-        <v>14333.27347522322</v>
+        <v>14388.55263228834</v>
       </c>
       <c r="AI2">
-        <v>-18403.15084567452</v>
+        <v>-18355.23398118447</v>
       </c>
       <c r="AJ2">
-        <v>32736.42432089774</v>
+        <v>32743.78661347279</v>
       </c>
       <c r="AK2">
-        <v>-44927.72652477678</v>
+        <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72105.15084567452</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>27177.42432089774</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-73502.15084567452</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
-        <v>139530.7265247768</v>
+        <v>139475.4473677117</v>
       </c>
       <c r="AP2">
         <v>263769.22</v>
       </c>
       <c r="AQ2">
-        <v>0.6358067077226788</v>
+        <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
         <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
-        <v>7.4142</v>
+        <v>7.4194</v>
       </c>
     </row>
     <row r="3">
@@ -736,64 +736,64 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52320.58078816316</v>
+        <v>52321.66853164957</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="F3">
-        <v>8882.889979561876</v>
+        <v>8876.629654666533</v>
       </c>
       <c r="G3">
-        <v>43437.69080860129</v>
+        <v>43445.03887698304</v>
       </c>
       <c r="H3">
-        <v>82097.70949077405</v>
+        <v>82039.85013016526</v>
       </c>
       <c r="I3">
-        <v>70323.80696047669</v>
+        <v>70274.24540106722</v>
       </c>
       <c r="J3">
-        <v>11773.90267422781</v>
+        <v>11765.60487292706</v>
       </c>
       <c r="K3">
-        <v>342.7305046201676</v>
+        <v>342.488961123017</v>
       </c>
       <c r="L3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="M3">
-        <v>4916.849218457641</v>
+        <v>4913.384009089994</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75294.71055585941</v>
+        <v>75241.64569160182</v>
       </c>
       <c r="P3">
-        <v>45943.69152825355</v>
+        <v>45911.31215211357</v>
       </c>
       <c r="Q3">
-        <v>34961.35726416995</v>
+        <v>34936.71782185338</v>
       </c>
       <c r="R3">
-        <v>10982.33440801405</v>
+        <v>10974.5944740892</v>
       </c>
       <c r="S3">
-        <v>29351.01888367541</v>
+        <v>29330.33339565924</v>
       </c>
       <c r="T3">
-        <v>25515.92417743746</v>
+        <v>25497.94151912207</v>
       </c>
       <c r="U3">
-        <v>3043.526583954633</v>
+        <v>3041.381621528327</v>
       </c>
       <c r="V3">
-        <v>791.5682662137655</v>
+        <v>791.0103988378615</v>
       </c>
       <c r="W3">
         <v>58285</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>11950.29050922595</v>
+        <v>12008.14986983474</v>
       </c>
       <c r="AI3">
-        <v>-16459.80696047669</v>
+        <v>-16410.24540106722</v>
       </c>
       <c r="AJ3">
-        <v>28410.09732577219</v>
+        <v>28418.39512707294</v>
       </c>
       <c r="AK3">
-        <v>-45049.70949077405</v>
+        <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68239.80696047669</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>23190.09732577219</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-69524.80696047669</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>140382.7094907741</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9478</v>
+        <v>6.9527</v>
       </c>
     </row>
     <row r="4">
@@ -870,67 +870,67 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213</v>
+        <v>95213.00000000002</v>
       </c>
       <c r="C4">
-        <v>52942.0817820074</v>
+        <v>52943.16064178856</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="F4">
-        <v>8951.982218883044</v>
+        <v>8945.758995606473</v>
       </c>
       <c r="G4">
-        <v>43990.09956312436</v>
+        <v>43997.40164618209</v>
       </c>
       <c r="H4">
-        <v>81509.02927345075</v>
+        <v>81452.36596963462</v>
       </c>
       <c r="I4">
-        <v>70098.69716448228</v>
+        <v>70049.96607530171</v>
       </c>
       <c r="J4">
-        <v>11410.33210896847</v>
+        <v>11402.39989433291</v>
       </c>
       <c r="K4">
-        <v>370.6254000055653</v>
+        <v>370.3677492909181</v>
       </c>
       <c r="L4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="M4">
-        <v>4935.726410106575</v>
+        <v>4932.295200489405</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74650.75924534601</v>
+        <v>74598.86366164284</v>
       </c>
       <c r="P4">
-        <v>46203.50015304561</v>
+        <v>46171.38048495634</v>
       </c>
       <c r="Q4">
-        <v>35163.98224670952</v>
+        <v>35139.53701128969</v>
       </c>
       <c r="R4">
-        <v>11039.51790633609</v>
+        <v>11031.84347366665</v>
       </c>
       <c r="S4">
-        <v>28447.25909230041</v>
+        <v>28427.4831766865</v>
       </c>
       <c r="T4">
-        <v>24906.5791524056</v>
+        <v>24889.26464045381</v>
       </c>
       <c r="U4">
-        <v>3169.865737262431</v>
+        <v>3167.662115566431</v>
       </c>
       <c r="V4">
-        <v>370.8142026323844</v>
+        <v>370.5564206662588</v>
       </c>
       <c r="W4">
         <v>59426</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>13703.97072654925</v>
+        <v>13760.6340303654</v>
       </c>
       <c r="AI4">
-        <v>-15604.69716448228</v>
+        <v>-15555.96607530171</v>
       </c>
       <c r="AJ4">
-        <v>29308.66789103153</v>
+        <v>29316.60010566709</v>
       </c>
       <c r="AK4">
-        <v>-44296.02927345075</v>
+        <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68429.69716448228</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>24133.66789103153</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-69855.69716448228</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>140935.0292734508</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953851</v>
+        <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
         <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1874</v>
+        <v>7.1924</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51705.67601246106</v>
+        <v>51706.75148945306</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="F5">
-        <v>8875.588140509184</v>
+        <v>8869.395094197842</v>
       </c>
       <c r="G5">
-        <v>42830.08787195187</v>
+        <v>42837.35639525522</v>
       </c>
       <c r="H5">
-        <v>80279.71412074337</v>
+        <v>80223.69800332779</v>
       </c>
       <c r="I5">
-        <v>68506.54151896015</v>
+        <v>68458.74027159036</v>
       </c>
       <c r="J5">
-        <v>11773.17273606188</v>
+        <v>11764.95786592239</v>
       </c>
       <c r="K5">
-        <v>341.6905682672683</v>
+        <v>341.452149643068</v>
       </c>
       <c r="L5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="M5">
-        <v>4916.601944354926</v>
+        <v>4913.17132735763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73480.09762058224</v>
+        <v>73428.82601578016</v>
       </c>
       <c r="P5">
-        <v>44905.15415189602</v>
+        <v>44873.82105093661</v>
       </c>
       <c r="Q5">
-        <v>33623.49701901386</v>
+        <v>33600.03582738447</v>
       </c>
       <c r="R5">
-        <v>11281.65726716081</v>
+        <v>11273.78535773711</v>
       </c>
       <c r="S5">
-        <v>28574.94346868622</v>
+        <v>28555.00496484354</v>
       </c>
       <c r="T5">
-        <v>25305.5794123966</v>
+        <v>25287.92214588589</v>
       </c>
       <c r="U5">
-        <v>2777.848587388549</v>
+        <v>2775.910310772369</v>
       </c>
       <c r="V5">
-        <v>491.5154689010635</v>
+        <v>491.1725081852826</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>11383.28587925663</v>
+        <v>11439.30199667221</v>
       </c>
       <c r="AI5">
-        <v>-15259.54151896015</v>
+        <v>-15211.74027159036</v>
       </c>
       <c r="AJ5">
-        <v>26642.82726393813</v>
+        <v>26651.04213407761</v>
       </c>
       <c r="AK5">
-        <v>-46316.71412074337</v>
+        <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67763.54151896015</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>21446.82726393813</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-68749.54151896015</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
-        <v>138965.7141207434</v>
+        <v>138909.6980033278</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1136,7 +1136,7 @@
         <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4472</v>
+        <v>7.4524</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51128.4043874506</v>
+        <v>51129.47699003304</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="F6">
-        <v>8678.590343307256</v>
+        <v>8672.528409854122</v>
       </c>
       <c r="G6">
-        <v>42449.81404414335</v>
+        <v>42456.94858017892</v>
       </c>
       <c r="H6">
-        <v>80848.92934914106</v>
+        <v>80792.45694866077</v>
       </c>
       <c r="I6">
-        <v>68905.79751055193</v>
+        <v>68857.66730247428</v>
       </c>
       <c r="J6">
-        <v>11943.13183858913</v>
+        <v>11934.7896461865</v>
       </c>
       <c r="K6">
-        <v>339.1148479716106</v>
+        <v>338.8779786691025</v>
       </c>
       <c r="L6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="M6">
-        <v>4905.919160147324</v>
+        <v>4902.492410606345</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74068.29972847273</v>
+        <v>74016.56354941837</v>
       </c>
       <c r="P6">
-        <v>44960.22367395221</v>
+        <v>44928.81927840313</v>
       </c>
       <c r="Q6">
-        <v>33505.05000403259</v>
+        <v>33481.6469655858</v>
       </c>
       <c r="R6">
-        <v>11455.17366991962</v>
+        <v>11447.17231281734</v>
       </c>
       <c r="S6">
-        <v>29108.07605452053</v>
+        <v>29087.74427101523</v>
       </c>
       <c r="T6">
-        <v>26423.88633491948</v>
+        <v>26405.42943878784</v>
       </c>
       <c r="U6">
-        <v>2196.231550931527</v>
+        <v>2194.697498858233</v>
       </c>
       <c r="V6">
-        <v>487.9581686695164</v>
+        <v>487.6173333691535</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10762.07065085894</v>
+        <v>10818.54305133924</v>
       </c>
       <c r="AI6">
-        <v>-16241.79751055193</v>
+        <v>-16193.66730247428</v>
       </c>
       <c r="AJ6">
-        <v>27003.86816141087</v>
+        <v>27012.21035381351</v>
       </c>
       <c r="AK6">
-        <v>-46837.92934914106</v>
+        <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68666.79751055193</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>21828.86816141087</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-69652.79751055193</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
-        <v>139434.9293491411</v>
+        <v>139378.4569486608</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4394</v>
+        <v>7.4446</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52363.23865755962</v>
+        <v>52364.30885172918</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="F7">
-        <v>8702.247956951733</v>
+        <v>8696.179850616174</v>
       </c>
       <c r="G7">
-        <v>43660.99070060789</v>
+        <v>43668.129001113</v>
       </c>
       <c r="H7">
-        <v>79677.78854282686</v>
+        <v>79622.22895686104</v>
       </c>
       <c r="I7">
-        <v>67573.962238832</v>
+        <v>67526.84269105439</v>
       </c>
       <c r="J7">
-        <v>12103.82630399485</v>
+        <v>12095.38626580666</v>
       </c>
       <c r="K7">
-        <v>338.5414849505509</v>
+        <v>338.3054188513269</v>
       </c>
       <c r="L7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="M7">
-        <v>4905.285087425022</v>
+        <v>4901.864615879742</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72899.20062801091</v>
+        <v>72848.36777385917</v>
       </c>
       <c r="P7">
-        <v>44490.61754404799</v>
+        <v>44459.59408901345</v>
       </c>
       <c r="Q7">
-        <v>33292.187705479</v>
+        <v>33268.97295267724</v>
       </c>
       <c r="R7">
-        <v>11198.42983856899</v>
+        <v>11190.62113633621</v>
       </c>
       <c r="S7">
-        <v>28408.58308396291</v>
+        <v>28388.77368484572</v>
       </c>
       <c r="T7">
-        <v>25448.43815837147</v>
+        <v>25430.69287811943</v>
       </c>
       <c r="U7">
-        <v>2054.748460165591</v>
+        <v>2053.315677255843</v>
       </c>
       <c r="V7">
-        <v>905.3964654258532</v>
+        <v>904.7651294704517</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>13483.21145717314</v>
+        <v>13538.77104313896</v>
       </c>
       <c r="AI7">
-        <v>-13675.962238832</v>
+        <v>-13628.84269105439</v>
       </c>
       <c r="AJ7">
-        <v>27159.17369600515</v>
+        <v>27167.61373419334</v>
       </c>
       <c r="AK7">
-        <v>-48616.78854282686</v>
+        <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70526.962238832</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>21910.17369600515</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-71512.962238832</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
-        <v>142763.7885428269</v>
+        <v>142708.228956861</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4521</v>
+        <v>7.4573</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49367.53001146775</v>
+        <v>49368.60578775706</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="F8">
-        <v>8639.983743525765</v>
+        <v>8633.890742862901</v>
       </c>
       <c r="G8">
-        <v>40727.54626794198</v>
+        <v>40734.71504489415</v>
       </c>
       <c r="H8">
-        <v>78043.71428931483</v>
+        <v>77988.67710209171</v>
       </c>
       <c r="I8">
-        <v>66754.0167353471</v>
+        <v>66706.94115276607</v>
       </c>
       <c r="J8">
-        <v>11289.69755396772</v>
+        <v>11281.73594932564</v>
       </c>
       <c r="K8">
-        <v>334.3734956460373</v>
+        <v>334.1376922011359</v>
       </c>
       <c r="L8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="M8">
-        <v>4888.89040111905</v>
+        <v>4885.44270800539</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71294.98040401749</v>
+        <v>71244.70248964224</v>
       </c>
       <c r="P8">
-        <v>44270.31870250652</v>
+        <v>44239.09884270045</v>
       </c>
       <c r="Q8">
-        <v>33103.44360011593</v>
+        <v>33080.09872936317</v>
       </c>
       <c r="R8">
-        <v>11166.8749763714</v>
+        <v>11158.99998740697</v>
       </c>
       <c r="S8">
-        <v>27024.66170151097</v>
+        <v>27005.60364694179</v>
       </c>
       <c r="T8">
-        <v>25195.77382077552</v>
+        <v>25178.00551574759</v>
       </c>
       <c r="U8">
-        <v>1706.065429158318</v>
+        <v>1704.862295205833</v>
       </c>
       <c r="V8">
-        <v>122.8225775963102</v>
+        <v>122.7359619186742</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>12594.28571068517</v>
+        <v>12649.32289790829</v>
       </c>
       <c r="AI8">
-        <v>-15861.0167353471</v>
+        <v>-15813.94115276607</v>
       </c>
       <c r="AJ8">
-        <v>28455.30244603229</v>
+        <v>28463.26405067436</v>
       </c>
       <c r="AK8">
-        <v>-47405.71428931483</v>
+        <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70725.0167353471</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>23319.30244603229</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-71711.0167353471</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
-        <v>139029.7142893148</v>
+        <v>138974.6771020917</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1547,7 +1547,7 @@
         <v>0.169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9353</v>
+        <v>7.9409</v>
       </c>
     </row>
     <row r="9">
@@ -1558,64 +1558,64 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46564.48597672994</v>
+        <v>46565.54670958425</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="F9">
-        <v>8646.556766687079</v>
+        <v>8640.524802036545</v>
       </c>
       <c r="G9">
-        <v>37917.92921004287</v>
+        <v>37925.0219075477</v>
       </c>
       <c r="H9">
-        <v>76957.35492957747</v>
+        <v>76903.66835154883</v>
       </c>
       <c r="I9">
-        <v>65852.72541334966</v>
+        <v>65806.78558752616</v>
       </c>
       <c r="J9">
-        <v>11104.6295162278</v>
+        <v>11096.88276402267</v>
       </c>
       <c r="K9">
-        <v>331.9935088793632</v>
+        <v>331.7619053447073</v>
       </c>
       <c r="L9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="M9">
-        <v>4880.893570116351</v>
+        <v>4877.488587269145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70223.95382731171</v>
+        <v>70174.96456851922</v>
       </c>
       <c r="P9">
-        <v>44333.47299448868</v>
+        <v>44302.54531435495</v>
       </c>
       <c r="Q9">
-        <v>33240.53067973056</v>
+        <v>33217.34159863904</v>
       </c>
       <c r="R9">
-        <v>11092.94231475812</v>
+        <v>11085.20371571591</v>
       </c>
       <c r="S9">
-        <v>25890.48071034905</v>
+        <v>25872.41913177574</v>
       </c>
       <c r="T9">
-        <v>24617.59020208206</v>
+        <v>24600.41661057192</v>
       </c>
       <c r="U9">
-        <v>1261.20342927128</v>
+        <v>1260.323595285594</v>
       </c>
       <c r="V9">
-        <v>11.68720146968769</v>
+        <v>11.67904830675462</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1651,28 +1651,28 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10488.64507042253</v>
+        <v>10542.33164845117</v>
       </c>
       <c r="AI9">
-        <v>-17767.72541334966</v>
+        <v>-17721.78558752616</v>
       </c>
       <c r="AJ9">
-        <v>28256.3704837722</v>
+        <v>28264.11723597733</v>
       </c>
       <c r="AK9">
-        <v>-49411.35492957747</v>
+        <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72479.72541334966</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>23068.3704837722</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-73319.72541334966</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
-        <v>137697.3549295775</v>
+        <v>137643.6683515488</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1684,7 +1684,7 @@
         <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.164999999999999</v>
+        <v>8.1707</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47849.01274229386</v>
+        <v>47850.0811599892</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="F10">
-        <v>8670.700826162212</v>
+        <v>8664.637994062661</v>
       </c>
       <c r="G10">
-        <v>39178.31191613165</v>
+        <v>39185.44316592654</v>
       </c>
       <c r="H10">
-        <v>79586.61973214177</v>
+        <v>79530.97021516721</v>
       </c>
       <c r="I10">
-        <v>68301.73248548387</v>
+        <v>68253.9737235948</v>
       </c>
       <c r="J10">
-        <v>11284.88736941604</v>
+        <v>11276.99661424471</v>
       </c>
       <c r="K10">
-        <v>335.4784498103387</v>
+        <v>335.2438725189529</v>
       </c>
       <c r="L10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="M10">
-        <v>4897.168829255717</v>
+        <v>4893.744571751025</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72825.98519536956</v>
+        <v>72775.06293088643</v>
       </c>
       <c r="P10">
-        <v>44702.7993763887</v>
+        <v>44671.54174538139</v>
       </c>
       <c r="Q10">
-        <v>33429.78910153325</v>
+        <v>33406.41392085184</v>
       </c>
       <c r="R10">
-        <v>11273.01039761358</v>
+        <v>11265.12794720185</v>
       </c>
       <c r="S10">
-        <v>28123.18581898086</v>
+        <v>28103.52118550504</v>
       </c>
       <c r="T10">
-        <v>26455.31100772148</v>
+        <v>26436.81260580486</v>
       </c>
       <c r="U10">
-        <v>1655.997839456918</v>
+        <v>1654.839912657327</v>
       </c>
       <c r="V10">
-        <v>11.87697180245762</v>
+        <v>11.8686670428617</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9733.380267858229</v>
+        <v>9789.02978483279</v>
       </c>
       <c r="AI10">
-        <v>-18924.73248548387</v>
+        <v>-18876.9737235948</v>
       </c>
       <c r="AJ10">
-        <v>28658.11263058396</v>
+        <v>28666.00338575529</v>
       </c>
       <c r="AK10">
-        <v>-49366.61973214177</v>
+        <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72822.73248548387</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>23456.11263058396</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-73662.73248548387</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
-        <v>139526.6197321418</v>
+        <v>139470.9702151672</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.146100000000001</v>
+        <v>8.1518</v>
       </c>
     </row>
     <row r="11">
@@ -1832,64 +1832,64 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48151.40566389269</v>
+        <v>48152.49065994762</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="F11">
-        <v>8200.697304682648</v>
+        <v>8194.895428649448</v>
       </c>
       <c r="G11">
-        <v>39950.70835921004</v>
+        <v>39957.59523129818</v>
       </c>
       <c r="H11">
-        <v>79149.44143584647</v>
+        <v>79093.44433825265</v>
       </c>
       <c r="I11">
-        <v>68195.3418208918</v>
+        <v>68147.09459207865</v>
       </c>
       <c r="J11">
-        <v>10954.09961495467</v>
+        <v>10946.34974617399</v>
       </c>
       <c r="K11">
-        <v>338.0721649484536</v>
+        <v>337.8329837278291</v>
       </c>
       <c r="L11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="M11">
-        <v>4908.665880014905</v>
+        <v>4905.193069122594</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72369.10905477581</v>
+        <v>72317.90894534985</v>
       </c>
       <c r="P11">
-        <v>43146.85504906223</v>
+        <v>43116.32926632493</v>
       </c>
       <c r="Q11">
-        <v>32327.04198236244</v>
+        <v>32304.17106259387</v>
       </c>
       <c r="R11">
-        <v>10819.81306669979</v>
+        <v>10812.15820373106</v>
       </c>
       <c r="S11">
-        <v>29222.25400571358</v>
+        <v>29201.57967902492</v>
       </c>
       <c r="T11">
-        <v>26855.37734442926</v>
+        <v>26836.37754912061</v>
       </c>
       <c r="U11">
-        <v>2232.590113029437</v>
+        <v>2231.010587461368</v>
       </c>
       <c r="V11">
-        <v>134.2865482548752</v>
+        <v>134.1915424429357</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1925,28 +1925,28 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>10390.55856415353</v>
+        <v>10446.55566174735</v>
       </c>
       <c r="AI11">
-        <v>-18510.3418208918</v>
+        <v>-18462.09459207865</v>
       </c>
       <c r="AJ11">
-        <v>28900.90038504534</v>
+        <v>28908.65025382601</v>
       </c>
       <c r="AK11">
-        <v>-49209.44143584647</v>
+        <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72841.3418208918</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>23631.90038504534</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-73681.3418208918</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
-        <v>139589.4414358465</v>
+        <v>139533.4443382527</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1958,7 +1958,7 @@
         <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.051</v>
+        <v>8.056699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1969,64 +1969,64 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46431.33823031125</v>
+        <v>46432.40058529035</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="F12">
-        <v>8539.586983881118</v>
+        <v>8533.597479865528</v>
       </c>
       <c r="G12">
-        <v>37891.75124643013</v>
+        <v>37898.80310542482</v>
       </c>
       <c r="H12">
-        <v>76293.41921196572</v>
+        <v>76239.90845768737</v>
       </c>
       <c r="I12">
-        <v>65167.43949368314</v>
+        <v>65121.73229012988</v>
       </c>
       <c r="J12">
-        <v>11125.97971828259</v>
+        <v>11118.1761675575</v>
       </c>
       <c r="K12">
-        <v>333.6490149571615</v>
+        <v>333.4149998790722</v>
       </c>
       <c r="L12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="M12">
-        <v>4838.162786194878</v>
+        <v>4834.769390765957</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69606.94564112493</v>
+        <v>69558.1246523327</v>
       </c>
       <c r="P12">
-        <v>42739.44237378382</v>
+        <v>42709.46574116623</v>
       </c>
       <c r="Q12">
-        <v>31883.23273149717</v>
+        <v>31860.87043800034</v>
       </c>
       <c r="R12">
-        <v>10856.20964228665</v>
+        <v>10848.59530316589</v>
       </c>
       <c r="S12">
-        <v>26867.50326734111</v>
+        <v>26848.65891116647</v>
       </c>
       <c r="T12">
-        <v>24978.27218161576</v>
+        <v>24960.7528962198</v>
       </c>
       <c r="U12">
-        <v>1619.461009729416</v>
+        <v>1618.325150555058</v>
       </c>
       <c r="V12">
-        <v>269.770075995934</v>
+        <v>269.5808643916125</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,28 +2062,28 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12382.58078803428</v>
+        <v>12436.09154231263</v>
       </c>
       <c r="AI12">
-        <v>-17221.43949368314</v>
+        <v>-17175.73229012988</v>
       </c>
       <c r="AJ12">
-        <v>29604.02028171741</v>
+        <v>29611.8238324425</v>
       </c>
       <c r="AK12">
-        <v>-47417.41921196572</v>
+        <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71869.43949368314</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>24452.02028171741</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-72709.43949368314</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
-        <v>136933.4192119657</v>
+        <v>136879.9084576874</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2095,7 +2095,7 @@
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.2636</v>
+        <v>8.269399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45371.34075107717</v>
+        <v>45372.41632722959</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="F13">
-        <v>8714.338156090873</v>
+        <v>8708.262326764767</v>
       </c>
       <c r="G13">
-        <v>36657.00259498629</v>
+        <v>36664.15400046482</v>
       </c>
       <c r="H13">
-        <v>76081.21597140617</v>
+        <v>76028.17046469243</v>
       </c>
       <c r="I13">
-        <v>65034.56093321581</v>
+        <v>64989.21739874988</v>
       </c>
       <c r="J13">
-        <v>11046.65516059538</v>
+        <v>11038.9531882622</v>
       </c>
       <c r="K13">
-        <v>341.5631120250685</v>
+        <v>341.3249666678898</v>
       </c>
       <c r="L13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="M13">
-        <v>4927.984356639247</v>
+        <v>4924.54845693736</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69269.00925381902</v>
+        <v>69220.71336831676</v>
       </c>
       <c r="P13">
-        <v>43701.29553466509</v>
+        <v>43670.82602473304</v>
       </c>
       <c r="Q13">
-        <v>32771.75161574617</v>
+        <v>32748.90242559906</v>
       </c>
       <c r="R13">
-        <v>10929.54404132393</v>
+        <v>10921.92372145365</v>
       </c>
       <c r="S13">
-        <v>25567.71371915393</v>
+        <v>25549.88734358372</v>
       </c>
       <c r="T13">
-        <v>24359.49654817861</v>
+        <v>24342.51256834612</v>
       </c>
       <c r="U13">
-        <v>1091.106051703878</v>
+        <v>1090.345308429048</v>
       </c>
       <c r="V13">
-        <v>117.1111192714454</v>
+        <v>117.0294668085575</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>11768.78402859383</v>
+        <v>11821.82953530757</v>
       </c>
       <c r="AI13">
-        <v>-18120.56093321581</v>
+        <v>-18075.21739874988</v>
       </c>
       <c r="AJ13">
-        <v>29889.34483940463</v>
+        <v>29897.0468117378</v>
       </c>
       <c r="AK13">
-        <v>-48931.21597140617</v>
+        <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73236.56093321581</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>24305.34483940463</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-74154.56093321581</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
-        <v>137699.2159714062</v>
+        <v>137646.1704646924</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.169600000000001</v>
+        <v>8.1753</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90326</v>
+        <v>90325.99999999999</v>
       </c>
       <c r="C14">
-        <v>47319.68341284758</v>
+        <v>47320.75757867617</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="F14">
-        <v>8726.288130692497</v>
+        <v>8720.194794250077</v>
       </c>
       <c r="G14">
-        <v>38593.39528215508</v>
+        <v>38600.56278442609</v>
       </c>
       <c r="H14">
-        <v>78441.90195653221</v>
+        <v>78387.12804892729</v>
       </c>
       <c r="I14">
-        <v>66985.14216182353</v>
+        <v>66938.3682068816</v>
       </c>
       <c r="J14">
-        <v>11456.75979470869</v>
+        <v>11448.7598420457</v>
       </c>
       <c r="K14">
-        <v>339.0429376897499</v>
+        <v>338.8061929642917</v>
       </c>
       <c r="L14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="M14">
-        <v>4916.771119464122</v>
+        <v>4913.337868098529</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71647.77131222592</v>
+        <v>71597.74156654064</v>
       </c>
       <c r="P14">
-        <v>43704.02667341333</v>
+        <v>43673.50930630131</v>
       </c>
       <c r="Q14">
-        <v>32660.53503445617</v>
+        <v>32637.72904577303</v>
       </c>
       <c r="R14">
-        <v>11043.49163895716</v>
+        <v>11035.78026052828</v>
       </c>
       <c r="S14">
-        <v>27943.74451833647</v>
+        <v>27924.23213984734</v>
       </c>
       <c r="T14">
-        <v>25657.76179461231</v>
+        <v>25639.84565746069</v>
       </c>
       <c r="U14">
-        <v>1872.71468844875</v>
+        <v>1871.407021261226</v>
       </c>
       <c r="V14">
-        <v>413.2681557515301</v>
+        <v>412.9795815174207</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11884.09804346779</v>
+        <v>11938.8719510727</v>
       </c>
       <c r="AI14">
-        <v>-18127.14216182353</v>
+        <v>-18080.3682068816</v>
       </c>
       <c r="AJ14">
-        <v>30011.24020529131</v>
+        <v>30019.2401579543</v>
       </c>
       <c r="AK14">
-        <v>-47915.90195653221</v>
+        <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72361.14216182353</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>24445.24020529131</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-72920.14216182353</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
-        <v>138800.9019565322</v>
+        <v>138746.1280489273</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875961</v>
+        <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.3004</v>
+        <v>8.306200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91974</v>
+        <v>91973.99999999999</v>
       </c>
       <c r="C15">
-        <v>48043.95064546124</v>
+        <v>48045.03345119287</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="F15">
-        <v>8783.798379403204</v>
+        <v>8777.650451928996</v>
       </c>
       <c r="G15">
-        <v>39260.15226605804</v>
+        <v>39267.38299926388</v>
       </c>
       <c r="H15">
-        <v>79458.4395415957</v>
+        <v>79402.82525009957</v>
       </c>
       <c r="I15">
-        <v>67720.53653588376</v>
+        <v>67673.1377991239</v>
       </c>
       <c r="J15">
-        <v>11737.90300571194</v>
+        <v>11729.68745097566</v>
       </c>
       <c r="K15">
-        <v>342.2626767621877</v>
+        <v>342.0231213872833</v>
       </c>
       <c r="L15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="M15">
-        <v>4930.673960559841</v>
+        <v>4927.222899344733</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72638.45354973491</v>
+        <v>72587.61268056043</v>
       </c>
       <c r="P15">
-        <v>44132.17295221533</v>
+        <v>44101.28410585638</v>
       </c>
       <c r="Q15">
-        <v>32817.67935852383</v>
+        <v>32794.70971556832</v>
       </c>
       <c r="R15">
-        <v>11314.49347293169</v>
+        <v>11306.57426961276</v>
       </c>
       <c r="S15">
-        <v>28506.28059751959</v>
+        <v>28486.32857470405</v>
       </c>
       <c r="T15">
-        <v>26477.85699622021</v>
+        <v>26459.32470102695</v>
       </c>
       <c r="U15">
-        <v>1605.014189278943</v>
+        <v>1603.890812989489</v>
       </c>
       <c r="V15">
-        <v>423.4095327802533</v>
+        <v>423.1131813629069</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,28 +2473,28 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12515.5604584043</v>
+        <v>12571.17474990041</v>
       </c>
       <c r="AI15">
-        <v>-18129.53653588376</v>
+        <v>-18082.1377991239</v>
       </c>
       <c r="AJ15">
-        <v>30645.09699428806</v>
+        <v>30653.31254902434</v>
       </c>
       <c r="AK15">
-        <v>-47384.4395415957</v>
+        <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72453.53653588376</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>25069.09699428806</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-73012.53653588376</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
-        <v>139917.4395415957</v>
+        <v>139861.8252500996</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2506,7 +2506,7 @@
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.280900000000001</v>
+        <v>8.2867</v>
       </c>
     </row>
     <row r="16">
@@ -2514,67 +2514,67 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447.00000000002</v>
+        <v>92447</v>
       </c>
       <c r="C16">
-        <v>47649.97142173861</v>
+        <v>47651.06276810572</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="F16">
-        <v>8782.605763482005</v>
+        <v>8776.414104601561</v>
       </c>
       <c r="G16">
-        <v>38867.36565825661</v>
+        <v>38874.64866350417</v>
       </c>
       <c r="H16">
-        <v>79087.4731555662</v>
+        <v>79031.71719102869</v>
       </c>
       <c r="I16">
-        <v>67533.91139543227</v>
+        <v>67486.30058908578</v>
       </c>
       <c r="J16">
-        <v>11553.56176013392</v>
+        <v>11545.41660194291</v>
       </c>
       <c r="K16">
-        <v>342.6235800550042</v>
+        <v>342.3820334811027</v>
       </c>
       <c r="L16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="M16">
-        <v>4935.066124596437</v>
+        <v>4931.586946910586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72261.75487265336</v>
+        <v>72210.81097874272</v>
       </c>
       <c r="P16">
-        <v>43990.07305990673</v>
+        <v>43959.06044999941</v>
       </c>
       <c r="Q16">
-        <v>32603.00478297262</v>
+        <v>32580.01995483278</v>
       </c>
       <c r="R16">
-        <v>11387.06827693412</v>
+        <v>11379.04049516663</v>
       </c>
       <c r="S16">
-        <v>28271.68181274662</v>
+        <v>28251.75052874332</v>
       </c>
       <c r="T16">
-        <v>26312.2378333134</v>
+        <v>26293.68793987262</v>
       </c>
       <c r="U16">
-        <v>1792.950496233409</v>
+        <v>1791.686482094421</v>
       </c>
       <c r="V16">
-        <v>166.4934831998087</v>
+        <v>166.3761067762789</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,40 +2610,40 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13359.52684443381</v>
+        <v>13415.28280897132</v>
       </c>
       <c r="AI16">
-        <v>-18335.91139543227</v>
+        <v>-18288.30058908578</v>
       </c>
       <c r="AJ16">
-        <v>31695.43823986608</v>
+        <v>31703.58339805709</v>
       </c>
       <c r="AK16">
-        <v>-46840.47315556619</v>
+        <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72859.91139543227</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>26019.43823986608</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-73418.91139543227</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
-        <v>139846.4731555662</v>
+        <v>139790.7171910287</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983211</v>
+        <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.363</v>
+        <v>8.3689</v>
       </c>
     </row>
     <row r="17">
@@ -2654,64 +2654,64 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47171.33264502041</v>
+        <v>47172.41693250951</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="F17">
-        <v>8803.854077660686</v>
+        <v>8797.694104811262</v>
       </c>
       <c r="G17">
-        <v>38367.47856735972</v>
+        <v>38374.72282769825</v>
       </c>
       <c r="H17">
-        <v>80455.20684990031</v>
+        <v>80398.91310793025</v>
       </c>
       <c r="I17">
-        <v>68845.63775752396</v>
+        <v>68797.46712047723</v>
       </c>
       <c r="J17">
-        <v>11609.56909237634</v>
+        <v>11601.44598745301</v>
       </c>
       <c r="K17">
-        <v>422.0606664767873</v>
+        <v>421.765354648198</v>
       </c>
       <c r="L17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="M17">
-        <v>4874.411136428368</v>
+        <v>4871.000557380549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73609.06769201557</v>
+        <v>73557.564128411</v>
       </c>
       <c r="P17">
-        <v>44113.0497009399</v>
+        <v>44082.1842202009</v>
       </c>
       <c r="Q17">
-        <v>32698.34816766354</v>
+        <v>32675.4694448727</v>
       </c>
       <c r="R17">
-        <v>11414.70153327637</v>
+        <v>11406.7147753282</v>
       </c>
       <c r="S17">
-        <v>29496.01799107567</v>
+        <v>29475.3799082101</v>
       </c>
       <c r="T17">
-        <v>27311.14283679863</v>
+        <v>27292.03349026956</v>
       </c>
       <c r="U17">
-        <v>1990.007595177063</v>
+        <v>1988.615205815733</v>
       </c>
       <c r="V17">
-        <v>194.8675590999715</v>
+        <v>194.7312121248058</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>12148.79315009969</v>
+        <v>12205.08689206975</v>
       </c>
       <c r="AI17">
-        <v>-20124.63775752396</v>
+        <v>-20076.46712047723</v>
       </c>
       <c r="AJ17">
-        <v>32273.43090762366</v>
+        <v>32281.55401254699</v>
       </c>
       <c r="AK17">
-        <v>-47851.20684990031</v>
+        <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74279.63775752396</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>26428.43090762366</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-74838.63775752396</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
-        <v>141014.2068499003</v>
+        <v>140957.9131079303</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.426399999999999</v>
+        <v>8.4323</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686</v>
+        <v>93686.00000000002</v>
       </c>
       <c r="C18">
-        <v>48089.41996727437</v>
+        <v>48090.49747770523</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="F18">
-        <v>8811.173132492369</v>
+        <v>8805.042270181257</v>
       </c>
       <c r="G18">
-        <v>39278.246834782</v>
+        <v>39285.45520752398</v>
       </c>
       <c r="H18">
-        <v>79203.26606398904</v>
+        <v>79148.15599958252</v>
       </c>
       <c r="I18">
-        <v>67385.55883069709</v>
+        <v>67338.67159142304</v>
       </c>
       <c r="J18">
-        <v>11817.70711724362</v>
+        <v>11809.4842921919</v>
       </c>
       <c r="K18">
-        <v>341.3431432848638</v>
+        <v>341.1056348644919</v>
       </c>
       <c r="L18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="M18">
-        <v>4875.463787120957</v>
+        <v>4872.071412832972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72437.87910085759</v>
+        <v>72387.47642959029</v>
       </c>
       <c r="P18">
-        <v>44082.47507862274</v>
+        <v>44051.80225209031</v>
       </c>
       <c r="Q18">
-        <v>32685.28576899421</v>
+        <v>32662.54316892997</v>
       </c>
       <c r="R18">
-        <v>11397.18930962853</v>
+        <v>11389.25908316035</v>
       </c>
       <c r="S18">
-        <v>28355.40390618653</v>
+        <v>28335.67406153239</v>
       </c>
       <c r="T18">
-        <v>26425.46935744044</v>
+        <v>26407.08237176885</v>
       </c>
       <c r="U18">
-        <v>1509.416741131007</v>
+        <v>1508.366480731987</v>
       </c>
       <c r="V18">
-        <v>420.5178076150909</v>
+        <v>420.2252090315548</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>14482.73393601096</v>
+        <v>14537.84400041749</v>
       </c>
       <c r="AI18">
-        <v>-17747.55883069709</v>
+        <v>-17700.67159142304</v>
       </c>
       <c r="AJ18">
-        <v>32230.29288275638</v>
+        <v>32238.5157078081</v>
       </c>
       <c r="AK18">
-        <v>-47617.26606398904</v>
+        <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73978.55883069709</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>26361.29288275638</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-74284.55883069709</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
-        <v>141609.266063989</v>
+        <v>141554.1559995825</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.6628525073116581</v>
+        <v>0.662852507311658</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.617100000000001</v>
+        <v>8.623100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50165.56985009501</v>
+        <v>50166.64000797065</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="F19">
-        <v>8802.646679334694</v>
+        <v>8796.559023829897</v>
       </c>
       <c r="G19">
-        <v>41362.92317076032</v>
+        <v>41370.08098414075</v>
       </c>
       <c r="H19">
-        <v>80150.16961081006</v>
+        <v>80094.74007478345</v>
       </c>
       <c r="I19">
-        <v>68568.60440565839</v>
+        <v>68521.18434470714</v>
       </c>
       <c r="J19">
-        <v>11581.56520515166</v>
+        <v>11573.55573007631</v>
       </c>
       <c r="K19">
-        <v>339.2421469960354</v>
+        <v>339.0075369521644</v>
       </c>
       <c r="L19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="M19">
-        <v>4873.284068782697</v>
+        <v>4869.913846658775</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73390.21324512633</v>
+        <v>73339.45869914316</v>
       </c>
       <c r="P19">
-        <v>43672.9169305839</v>
+        <v>43642.71400607177</v>
       </c>
       <c r="Q19">
-        <v>32891.98512679757</v>
+        <v>32869.23798248802</v>
       </c>
       <c r="R19">
-        <v>10780.93180378633</v>
+        <v>10773.47602358375</v>
       </c>
       <c r="S19">
-        <v>29717.29631454243</v>
+        <v>29696.7446930714</v>
       </c>
       <c r="T19">
-        <v>27345.11999436977</v>
+        <v>27326.20890133977</v>
       </c>
       <c r="U19">
-        <v>1571.542918807329</v>
+        <v>1570.456085239061</v>
       </c>
       <c r="V19">
-        <v>800.6334013653319</v>
+        <v>800.0797064925628</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>14715.83038918994</v>
+        <v>14771.25992521655</v>
       </c>
       <c r="AI19">
-        <v>-16855.60440565839</v>
+        <v>-16808.18434470714</v>
       </c>
       <c r="AJ19">
-        <v>31571.43479484833</v>
+        <v>31579.44426992369</v>
       </c>
       <c r="AK19">
-        <v>-48190.16961081006</v>
+        <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73800.60440565839</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>25610.43479484833</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-74106.60440565839</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
-        <v>143362.1696108101</v>
+        <v>143306.7400747835</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.525399999999999</v>
+        <v>8.5313</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54489.08041122276</v>
+        <v>54490.16606565171</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="F20">
-        <v>8726.340999280592</v>
+        <v>8720.168825295967</v>
       </c>
       <c r="G20">
-        <v>45762.73941194217</v>
+        <v>45769.99724035574</v>
       </c>
       <c r="H20">
-        <v>79069.06581420713</v>
+        <v>79013.13996498268</v>
       </c>
       <c r="I20">
-        <v>68091.49427954792</v>
+        <v>68043.33290817805</v>
       </c>
       <c r="J20">
-        <v>10977.5714186257</v>
+        <v>10969.80694085317</v>
       </c>
       <c r="K20">
-        <v>334.126035599081</v>
+        <v>333.8897069907123</v>
       </c>
       <c r="L20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="M20">
-        <v>4848.980877677473</v>
+        <v>4845.551175167841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72351.03931215334</v>
+        <v>72299.86514847583</v>
       </c>
       <c r="P20">
-        <v>42956.26592559931</v>
+        <v>42925.88279628492</v>
       </c>
       <c r="Q20">
-        <v>32606.23656912116</v>
+        <v>32583.17405470589</v>
       </c>
       <c r="R20">
-        <v>10350.02935647815</v>
+        <v>10342.70874157903</v>
       </c>
       <c r="S20">
-        <v>29394.77338655404</v>
+        <v>29373.98235219091</v>
       </c>
       <c r="T20">
-        <v>26702.84699821308</v>
+        <v>26683.95997356307</v>
       </c>
       <c r="U20">
-        <v>2064.384210159894</v>
+        <v>2062.924063402247</v>
       </c>
       <c r="V20">
-        <v>627.5420621475481</v>
+        <v>627.098199274144</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>18252.93418579287</v>
+        <v>18308.86003501732</v>
       </c>
       <c r="AI20">
-        <v>-12067.49427954792</v>
+        <v>-12019.33290817805</v>
       </c>
       <c r="AJ20">
-        <v>30320.4285813743</v>
+        <v>30328.19305914683</v>
       </c>
       <c r="AK20">
-        <v>-48159.06581420713</v>
+        <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72554.49427954792</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>24395.4285813743</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-72860.49427954792</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
-        <v>145787.0658142071</v>
+        <v>145731.1399649827</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6182</v>
+        <v>8.6243</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57707.03511954976</v>
+        <v>57708.09730578684</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="F21">
-        <v>8707.552032172698</v>
+        <v>8701.518598501034</v>
       </c>
       <c r="G21">
-        <v>48999.48308737707</v>
+        <v>49006.57870728581</v>
       </c>
       <c r="H21">
-        <v>79441.7629112593</v>
+        <v>79386.71797951337</v>
       </c>
       <c r="I21">
-        <v>68214.6851490183</v>
+        <v>68167.41942189324</v>
       </c>
       <c r="J21">
-        <v>11227.077762241</v>
+        <v>11219.29855762013</v>
       </c>
       <c r="K21">
-        <v>332.0097535044434</v>
+        <v>331.7797050569908</v>
       </c>
       <c r="L21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="M21">
-        <v>4905.702679902465</v>
+        <v>4902.303534927766</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72671.08559740215</v>
+        <v>72620.73204531545</v>
       </c>
       <c r="P21">
-        <v>43134.81585060035</v>
+        <v>43104.92788100655</v>
       </c>
       <c r="Q21">
-        <v>32922.89993412918</v>
+        <v>32900.08776690957</v>
       </c>
       <c r="R21">
-        <v>10211.91591647118</v>
+        <v>10204.84011409698</v>
       </c>
       <c r="S21">
-        <v>29536.2697468018</v>
+        <v>29515.8041643089</v>
       </c>
       <c r="T21">
-        <v>26357.86832769002</v>
+        <v>26339.60504890696</v>
       </c>
       <c r="U21">
-        <v>2163.239573341962</v>
+        <v>2161.740671878789</v>
       </c>
       <c r="V21">
-        <v>1015.161845769822</v>
+        <v>1014.458443523149</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20716.2370887407</v>
+        <v>20771.28202048663</v>
       </c>
       <c r="AI21">
-        <v>-8974.685149018304</v>
+        <v>-8927.419421893239</v>
       </c>
       <c r="AJ21">
-        <v>29690.92223775901</v>
+        <v>29698.70144237987</v>
       </c>
       <c r="AK21">
-        <v>-45524.7629112593</v>
+        <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69599.6851490183</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>24074.92223775901</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-69905.6851490183</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
-        <v>145988.7629112593</v>
+        <v>145933.7179795134</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6533</v>
+        <v>8.6593</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58090.10075311105</v>
+        <v>58091.17490319011</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="F22">
-        <v>8381.990496730366</v>
+        <v>8376.097754932694</v>
       </c>
       <c r="G22">
-        <v>49708.11025638069</v>
+        <v>49715.07714825742</v>
       </c>
       <c r="H22">
-        <v>79982.47315672321</v>
+        <v>79926.24354600777</v>
       </c>
       <c r="I22">
-        <v>69028.85672437056</v>
+        <v>68980.32777060669</v>
       </c>
       <c r="J22">
-        <v>10953.61608635981</v>
+        <v>10945.91542965148</v>
       </c>
       <c r="K22">
-        <v>329.2706471219163</v>
+        <v>329.0391619030057</v>
       </c>
       <c r="L22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="M22">
-        <v>4898.285836206996</v>
+        <v>4894.842222939333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73227.01742650535</v>
+        <v>73175.53706435554</v>
       </c>
       <c r="P22">
-        <v>42994.79027068172</v>
+        <v>42964.56389452333</v>
       </c>
       <c r="Q22">
-        <v>32818.33681248342</v>
+        <v>32795.26472893233</v>
       </c>
       <c r="R22">
-        <v>10176.45334286736</v>
+        <v>10169.29905034114</v>
       </c>
       <c r="S22">
-        <v>30232.22704049269</v>
+        <v>30210.97305458234</v>
       </c>
       <c r="T22">
-        <v>27709.17826703726</v>
+        <v>27689.69804536235</v>
       </c>
       <c r="U22">
-        <v>1745.885914632037</v>
+        <v>1744.658514659783</v>
       </c>
       <c r="V22">
-        <v>777.1627434924516</v>
+        <v>776.6163793103449</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20230.52684327679</v>
+        <v>20286.75645399223</v>
       </c>
       <c r="AI22">
-        <v>-9410.856724370562</v>
+        <v>-9362.327770606687</v>
       </c>
       <c r="AJ22">
-        <v>29641.38391364019</v>
+        <v>29649.08457034852</v>
       </c>
       <c r="AK22">
-        <v>-45013.47315672321</v>
+        <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69093.85672437056</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>24080.38391364019</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-69327.85672437056</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
-        <v>145460.4731567232</v>
+        <v>145404.2435460078</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6707</v>
+        <v>8.6768</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61054.61430529796</v>
+        <v>61055.66928753151</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="F23">
-        <v>8365.100625525591</v>
+        <v>8359.322757779133</v>
       </c>
       <c r="G23">
-        <v>52689.51367977237</v>
+        <v>52696.34652975238</v>
       </c>
       <c r="H23">
-        <v>81018.59815452668</v>
+        <v>80962.63771052298</v>
       </c>
       <c r="I23">
-        <v>69470.99865218242</v>
+        <v>69423.01426318394</v>
       </c>
       <c r="J23">
-        <v>11547.5993871462</v>
+        <v>11539.62333222052</v>
       </c>
       <c r="K23">
-        <v>325.0074302763602</v>
+        <v>324.7829440408901</v>
       </c>
       <c r="L23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="M23">
-        <v>4894.126280138698</v>
+        <v>4890.745852855514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74272.0787494096</v>
+        <v>74220.77820115809</v>
       </c>
       <c r="P23">
-        <v>43737.59604640178</v>
+        <v>43707.386003891</v>
       </c>
       <c r="Q23">
-        <v>33039.40638427776</v>
+        <v>33016.58569997812</v>
       </c>
       <c r="R23">
-        <v>10698.18954692594</v>
+        <v>10690.80018879436</v>
       </c>
       <c r="S23">
-        <v>30534.48270300782</v>
+        <v>30513.39219726708</v>
       </c>
       <c r="T23">
-        <v>28097.79476309514</v>
+        <v>28078.38730473022</v>
       </c>
       <c r="U23">
-        <v>1587.278099692421</v>
+        <v>1586.181749110709</v>
       </c>
       <c r="V23">
-        <v>849.4098402202586</v>
+        <v>848.8231434261571</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>23049.40184547332</v>
+        <v>23105.36228947702</v>
       </c>
       <c r="AI23">
-        <v>-6888.998652182418</v>
+        <v>-6841.014263183941</v>
       </c>
       <c r="AJ23">
-        <v>29938.4006128538</v>
+        <v>29946.37666777948</v>
       </c>
       <c r="AK23">
-        <v>-42256.59815452668</v>
+        <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66686.99865218242</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>24430.4006128538</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-66920.99865218242</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
-        <v>146558.5981545267</v>
+        <v>146502.637710523</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6807</v>
+        <v>8.6867</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61352.56390086332</v>
+        <v>61353.62733532274</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="F24">
-        <v>8394.448253023948</v>
+        <v>8388.600025544862</v>
       </c>
       <c r="G24">
-        <v>52958.11564783938</v>
+        <v>52965.02730977788</v>
       </c>
       <c r="H24">
-        <v>80952.81688995272</v>
+        <v>80896.41884281785</v>
       </c>
       <c r="I24">
-        <v>69163.31652394177</v>
+        <v>69115.13196242585</v>
       </c>
       <c r="J24">
-        <v>11789.50036601095</v>
+        <v>11781.286880392</v>
       </c>
       <c r="K24">
-        <v>322.7428744059585</v>
+        <v>322.5180265434321</v>
       </c>
       <c r="L24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="M24">
-        <v>4885.32458780196</v>
+        <v>4881.921089604403</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74218.31332860811</v>
+        <v>74166.60706199273</v>
       </c>
       <c r="P24">
-        <v>43821.3616769111</v>
+        <v>43790.83229799241</v>
       </c>
       <c r="Q24">
-        <v>32994.56967570269</v>
+        <v>32971.58308465799</v>
       </c>
       <c r="R24">
-        <v>10826.79211740237</v>
+        <v>10819.24932944742</v>
       </c>
       <c r="S24">
-        <v>30396.95153550306</v>
+        <v>30375.77464788733</v>
       </c>
       <c r="T24">
-        <v>27874.85713953732</v>
+        <v>27855.43733961892</v>
       </c>
       <c r="U24">
-        <v>1559.386147357169</v>
+        <v>1558.299757323828</v>
       </c>
       <c r="V24">
-        <v>962.7082486085775</v>
+        <v>962.0375509445794</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>23933.18311004728</v>
+        <v>23989.58115718215</v>
       </c>
       <c r="AI24">
-        <v>-6284.316523941772</v>
+        <v>-6236.131962425847</v>
       </c>
       <c r="AJ24">
-        <v>30217.49963398905</v>
+        <v>30225.713119608</v>
       </c>
       <c r="AK24">
-        <v>-41620.81688995272</v>
+        <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66313.31652394177</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>24692.49963398905</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-66547.31652394177</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
-        <v>146740.8168899527</v>
+        <v>146684.4188428178</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.606299999999999</v>
+        <v>8.612299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,64 +3750,64 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61133.74509342772</v>
+        <v>61134.82190154996</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="F25">
-        <v>8392.149837133551</v>
+        <v>8386.232858200448</v>
       </c>
       <c r="G25">
-        <v>52741.59525629417</v>
+        <v>52748.58904334951</v>
       </c>
       <c r="H25">
-        <v>80846.41388069005</v>
+        <v>80789.41221400957</v>
       </c>
       <c r="I25">
-        <v>69121.16828749164</v>
+        <v>69072.43363611795</v>
       </c>
       <c r="J25">
-        <v>11725.24559319842</v>
+        <v>11716.97857789163</v>
       </c>
       <c r="K25">
-        <v>323.1199802443585</v>
+        <v>322.8921608949577</v>
       </c>
       <c r="L25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="M25">
-        <v>4887.070520584673</v>
+        <v>4883.624836954606</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74108.96847328873</v>
+        <v>74056.71711770997</v>
       </c>
       <c r="P25">
-        <v>43783.78814426322</v>
+        <v>43752.91789562745</v>
       </c>
       <c r="Q25">
-        <v>33016.00395112831</v>
+        <v>32992.72564895005</v>
       </c>
       <c r="R25">
-        <v>10767.78419313492</v>
+        <v>10760.1922466774</v>
       </c>
       <c r="S25">
-        <v>30325.1802114324</v>
+        <v>30303.79910457233</v>
       </c>
       <c r="T25">
-        <v>27865.41069391691</v>
+        <v>27845.76387501616</v>
       </c>
       <c r="U25">
-        <v>1502.308235045097</v>
+        <v>1501.249015852125</v>
       </c>
       <c r="V25">
-        <v>957.4614000635003</v>
+        <v>956.7863312142329</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,28 +3843,28 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23592.58611930996</v>
+        <v>23649.58778599043</v>
       </c>
       <c r="AI25">
-        <v>-6460.168287491644</v>
+        <v>-6411.433636117945</v>
       </c>
       <c r="AJ25">
-        <v>30052.75440680159</v>
+        <v>30061.02142210837</v>
       </c>
       <c r="AK25">
-        <v>-41807.41388069005</v>
+        <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66335.16828749164</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>24527.75440680159</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-66569.16828749164</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
-        <v>146480.4138806901</v>
+        <v>146423.4122140096</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3876,7 +3876,7 @@
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5039</v>
+        <v>8.5099</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62596.56469923219</v>
+        <v>62597.62800823772</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="F26">
-        <v>8435.71717933016</v>
+        <v>8429.860076493087</v>
       </c>
       <c r="G26">
-        <v>54160.84751990203</v>
+        <v>54167.76793174463</v>
       </c>
       <c r="H26">
-        <v>81304.99564275284</v>
+        <v>81248.54380700206</v>
       </c>
       <c r="I26">
-        <v>69789.99740920439</v>
+        <v>69741.54068843779</v>
       </c>
       <c r="J26">
-        <v>11514.99811578501</v>
+        <v>11507.00300088261</v>
       </c>
       <c r="K26">
-        <v>322.4311083894672</v>
+        <v>322.2072374227714</v>
       </c>
       <c r="L26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="M26">
-        <v>4817.099133261105</v>
+        <v>4813.754516034128</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74634.03010033445</v>
+        <v>74582.21006178288</v>
       </c>
       <c r="P26">
-        <v>44084.38103537614</v>
+        <v>44053.77228596646</v>
       </c>
       <c r="Q26">
-        <v>33371.32107023411</v>
+        <v>33348.15063253899</v>
       </c>
       <c r="R26">
-        <v>10713.05996514202</v>
+        <v>10705.62165342748</v>
       </c>
       <c r="S26">
-        <v>30549.64894719487</v>
+        <v>30528.43765813475</v>
       </c>
       <c r="T26">
-        <v>27845.73990767347</v>
+        <v>27826.40600176523</v>
       </c>
       <c r="U26">
-        <v>1901.970888878421</v>
+        <v>1900.650308914387</v>
       </c>
       <c r="V26">
-        <v>801.9381506429884</v>
+        <v>801.3813474551339</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24415.00435724716</v>
+        <v>24471.45619299794</v>
       </c>
       <c r="AI26">
-        <v>-5661.997409204385</v>
+        <v>-5613.540688437788</v>
       </c>
       <c r="AJ26">
-        <v>30077.00188421499</v>
+        <v>30084.99699911739</v>
       </c>
       <c r="AK26">
-        <v>-41581.99564275284</v>
+        <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66121.99740920439</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>24540.00188421499</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-66355.99740920439</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
-        <v>147535.9956427529</v>
+        <v>147479.5438070021</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.4916</v>
+        <v>8.497500000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66204.631346682</v>
+        <v>66205.7082873965</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="F27">
-        <v>8337.949813384661</v>
+        <v>8332.08228753724</v>
       </c>
       <c r="G27">
-        <v>57866.68153329734</v>
+        <v>57873.62599985926</v>
       </c>
       <c r="H27">
-        <v>84030.8419990141</v>
+        <v>83971.70838122495</v>
       </c>
       <c r="I27">
-        <v>72623.24569845777</v>
+        <v>72572.13975745351</v>
       </c>
       <c r="J27">
-        <v>11407.59630055632</v>
+        <v>11399.56862377143</v>
       </c>
       <c r="K27">
-        <v>317.848759418793</v>
+        <v>317.625085032019</v>
       </c>
       <c r="L27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="M27">
-        <v>4814.203539823008</v>
+        <v>4810.815720954236</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77368.4210464543</v>
+        <v>77313.97586263518</v>
       </c>
       <c r="P27">
-        <v>47229.02654867256</v>
+        <v>47195.79085641904</v>
       </c>
       <c r="Q27">
-        <v>36354.30236379428</v>
+        <v>36328.71935915179</v>
       </c>
       <c r="R27">
-        <v>10874.72406751015</v>
+        <v>10867.0713799817</v>
       </c>
       <c r="S27">
-        <v>30139.39461514988</v>
+        <v>30118.18512350168</v>
       </c>
       <c r="T27">
-        <v>28064.26703598507</v>
+        <v>28044.51783913115</v>
       </c>
       <c r="U27">
-        <v>1542.255346118636</v>
+        <v>1541.170040580798</v>
       </c>
       <c r="V27">
-        <v>532.8722330461726</v>
+        <v>532.4972437897305</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4117,28 +4117,28 @@
         <v>5525</v>
       </c>
       <c r="AH27">
-        <v>24978.1580009859</v>
+        <v>25037.29161877505</v>
       </c>
       <c r="AI27">
-        <v>-4888.245698457773</v>
+        <v>-4837.139757453508</v>
       </c>
       <c r="AJ27">
-        <v>29866.40369944368</v>
+        <v>29874.43137622857</v>
       </c>
       <c r="AK27">
-        <v>-41418.8419990141</v>
+        <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65760.24569845777</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>24341.40369944368</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-65912.24569845777</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
-        <v>150579.8419990141</v>
+        <v>150520.708381225</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.520200000000001</v>
+        <v>8.526199999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65831.7284942157</v>
+        <v>65832.79537580346</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="F28">
-        <v>8256.618843608092</v>
+        <v>8250.839797953873</v>
       </c>
       <c r="G28">
-        <v>57575.10965060761</v>
+        <v>57581.95557784959</v>
       </c>
       <c r="H28">
-        <v>83183.13635992202</v>
+        <v>83124.91408373482</v>
       </c>
       <c r="I28">
-        <v>72283.05908034975</v>
+        <v>72232.46608261493</v>
       </c>
       <c r="J28">
-        <v>10900.07739630879</v>
+        <v>10892.44811777469</v>
       </c>
       <c r="K28">
-        <v>312.8811739023849</v>
+        <v>312.6621793450999</v>
       </c>
       <c r="L28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="M28">
-        <v>4885.042083513303</v>
+        <v>4881.622901671663</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76460.94159672204</v>
+        <v>76407.42437852151</v>
       </c>
       <c r="P28">
-        <v>46749.24424780827</v>
+        <v>46716.52310348448</v>
       </c>
       <c r="Q28">
-        <v>36208.99139651892</v>
+        <v>36183.64767915262</v>
       </c>
       <c r="R28">
-        <v>10540.25285128936</v>
+        <v>10532.87542433186</v>
       </c>
       <c r="S28">
-        <v>29711.69746565028</v>
+        <v>29690.90139169184</v>
       </c>
       <c r="T28">
-        <v>27787.51573024526</v>
+        <v>27768.06644657793</v>
       </c>
       <c r="U28">
-        <v>1564.357190385581</v>
+        <v>1563.26225167108</v>
       </c>
       <c r="V28">
-        <v>359.8245450194366</v>
+        <v>359.5726934428333</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>23914.86364007798</v>
+        <v>23973.08591626518</v>
       </c>
       <c r="AI28">
-        <v>-4927.059080349747</v>
+        <v>-4876.466082614934</v>
       </c>
       <c r="AJ28">
-        <v>28841.92260369121</v>
+        <v>28849.55188222531</v>
       </c>
       <c r="AK28">
-        <v>-41543.13635992202</v>
+        <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64957.05908034975</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>23413.92260369121</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-65109.05908034975</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
-        <v>148793.136359922</v>
+        <v>148734.9140837348</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5663</v>
+        <v>8.5723</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66648.04457325605</v>
+        <v>66649.11678866422</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="F29">
-        <v>8219.876074355387</v>
+        <v>8214.081376085347</v>
       </c>
       <c r="G29">
-        <v>58428.16849890066</v>
+        <v>58435.03541257887</v>
       </c>
       <c r="H29">
-        <v>82980.11087465168</v>
+        <v>82921.61306999096</v>
       </c>
       <c r="I29">
-        <v>71803.31318855746</v>
+        <v>71752.69459881801</v>
       </c>
       <c r="J29">
-        <v>11176.79768609423</v>
+        <v>11168.91847117294</v>
       </c>
       <c r="K29">
-        <v>307.1802800672538</v>
+        <v>306.9637297176628</v>
       </c>
       <c r="L29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="M29">
-        <v>4878.953804188075</v>
+        <v>4875.514328347687</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76273.0213636524</v>
+        <v>76219.25180058982</v>
       </c>
       <c r="P29">
-        <v>47258.55310343206</v>
+        <v>47225.23763085852</v>
       </c>
       <c r="Q29">
-        <v>36427.46987101856</v>
+        <v>36401.78989789804</v>
       </c>
       <c r="R29">
-        <v>10831.08323241349</v>
+        <v>10823.44773296049</v>
       </c>
       <c r="S29">
-        <v>29014.46837779685</v>
+        <v>28994.01428722492</v>
       </c>
       <c r="T29">
-        <v>26871.1943422182</v>
+        <v>26852.2511778736</v>
       </c>
       <c r="U29">
-        <v>1797.559464321407</v>
+        <v>1796.29225364524</v>
       </c>
       <c r="V29">
-        <v>345.7144536807327</v>
+        <v>345.470738212452</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25574.88912534832</v>
+        <v>25633.38693000905</v>
       </c>
       <c r="AI29">
-        <v>-3634.313188557455</v>
+        <v>-3583.694598818009</v>
       </c>
       <c r="AJ29">
-        <v>29209.20231390578</v>
+        <v>29217.08152882706</v>
       </c>
       <c r="AK29">
-        <v>-40838.11087465168</v>
+        <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64834.31318855746</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>23996.20231390578</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-64986.31318855746</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
-        <v>149545.1108746517</v>
+        <v>149486.6130699909</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4424,7 +4424,7 @@
         <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.505100000000001</v>
+        <v>8.511100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70078.11446360154</v>
+        <v>70083.58142094809</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="F30">
-        <v>8246.681513409962</v>
+        <v>8240.958625475605</v>
       </c>
       <c r="G30">
-        <v>61831.43295019158</v>
+        <v>61842.62279547248</v>
       </c>
       <c r="H30">
-        <v>92022.06381704981</v>
+        <v>91958.20395319343</v>
       </c>
       <c r="I30">
-        <v>80907.15217911877</v>
+        <v>80851.00564741917</v>
       </c>
       <c r="J30">
-        <v>11114.91163793103</v>
+        <v>11107.19830577425</v>
       </c>
       <c r="K30">
-        <v>306.7800526819923</v>
+        <v>306.5671588216995</v>
       </c>
       <c r="L30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="M30">
-        <v>4888.089559386974</v>
+        <v>4884.697408408912</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78949.30866858238</v>
+        <v>78894.52080691092</v>
       </c>
       <c r="P30">
-        <v>47342.89894636015</v>
+        <v>47310.04474861806</v>
       </c>
       <c r="Q30">
-        <v>36538.58536877394</v>
+        <v>36513.2289597741</v>
       </c>
       <c r="R30">
-        <v>10804.31357758621</v>
+        <v>10796.81578884396</v>
       </c>
       <c r="S30">
-        <v>31606.40972222222</v>
+        <v>31584.47605829285</v>
       </c>
       <c r="T30">
-        <v>29398.13912835249</v>
+        <v>29377.73792146259</v>
       </c>
       <c r="U30">
-        <v>1897.672533524904</v>
+        <v>1896.355619899974</v>
       </c>
       <c r="V30">
-        <v>310.5980603448276</v>
+        <v>310.3825169302927</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>26241.93618295019</v>
+        <v>26305.79604680657</v>
       </c>
       <c r="AI30">
-        <v>-2951.15217911877</v>
+        <v>-2895.005647419166</v>
       </c>
       <c r="AJ30">
-        <v>29193.08836206896</v>
+        <v>29200.80169422575</v>
       </c>
       <c r="AK30">
-        <v>-40586.06381704981</v>
+        <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64534.15217911877</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>23948.08836206896</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-64686.15217911877</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
-        <v>159002.0638170498</v>
+        <v>158938.2039531934</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.352</v>
+        <v>8.357799999999999</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70144.56495834141</v>
+        <v>70150.01534495903</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="F31">
-        <v>8278.877882193374</v>
+        <v>8273.167136616123</v>
       </c>
       <c r="G31">
-        <v>61865.68707614803</v>
+        <v>61876.8482083429</v>
       </c>
       <c r="H31">
-        <v>91551.5252615772</v>
+        <v>91488.3732891218</v>
       </c>
       <c r="I31">
-        <v>80064.29919104825</v>
+        <v>80009.07107330005</v>
       </c>
       <c r="J31">
-        <v>11487.22607052897</v>
+        <v>11479.30221582177</v>
       </c>
       <c r="K31">
-        <v>306.5156946328231</v>
+        <v>306.3042610095241</v>
       </c>
       <c r="L31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="M31">
-        <v>4899.511117031583</v>
+        <v>4896.131448694832</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78444.06340825421</v>
+        <v>78389.95292437647</v>
       </c>
       <c r="P31">
-        <v>47969.70584673512</v>
+        <v>47936.61648493943</v>
       </c>
       <c r="Q31">
-        <v>36833.39917167216</v>
+        <v>36807.99160141833</v>
       </c>
       <c r="R31">
-        <v>11136.30667506297</v>
+        <v>11128.62488352111</v>
       </c>
       <c r="S31">
-        <v>30474.35756151909</v>
+        <v>30453.33643943703</v>
       </c>
       <c r="T31">
-        <v>28009.46449331525</v>
+        <v>27990.14364721116</v>
       </c>
       <c r="U31">
-        <v>2113.973672737841</v>
+        <v>2112.515459925212</v>
       </c>
       <c r="V31">
-        <v>350.919395465995</v>
+        <v>350.6773323006547</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27645.4747384228</v>
+        <v>27708.62671087821</v>
       </c>
       <c r="AI31">
-        <v>-2018.299191048252</v>
+        <v>-1963.071073300045</v>
       </c>
       <c r="AJ31">
-        <v>29663.77392947103</v>
+        <v>29671.69778417824</v>
       </c>
       <c r="AK31">
-        <v>-39764.5252615772</v>
+        <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64231.29919104825</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>24466.77392947103</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-64274.29919104825</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
-        <v>159004.5252615772</v>
+        <v>158941.3732891218</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.2576</v>
+        <v>8.263299999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4709,64 +4709,64 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71762.04591233628</v>
+        <v>71767.55106018546</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="F32">
-        <v>8272.254834743959</v>
+        <v>8266.489516271928</v>
       </c>
       <c r="G32">
-        <v>63489.79107759232</v>
+        <v>63501.06154391354</v>
       </c>
       <c r="H32">
-        <v>91486.96451368858</v>
+        <v>91423.20300041344</v>
       </c>
       <c r="I32">
-        <v>80010.01548536573</v>
+        <v>79954.25279073889</v>
       </c>
       <c r="J32">
-        <v>11476.94914653175</v>
+        <v>11468.95032780108</v>
       </c>
       <c r="K32">
-        <v>304.3643907513358</v>
+        <v>304.1522650758963</v>
       </c>
       <c r="L32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="M32">
-        <v>4897.256016832947</v>
+        <v>4893.84289173705</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78386.39001844058</v>
+        <v>78331.75890378596</v>
       </c>
       <c r="P32">
-        <v>47820.48560215613</v>
+        <v>47787.15728545272</v>
       </c>
       <c r="Q32">
-        <v>36805.57697763488</v>
+        <v>36779.92546216999</v>
       </c>
       <c r="R32">
-        <v>11014.90862452125</v>
+        <v>11007.23182328274</v>
       </c>
       <c r="S32">
-        <v>30565.90453449336</v>
+        <v>30544.60173645975</v>
       </c>
       <c r="T32">
-        <v>27839.69513925008</v>
+        <v>27820.2923631209</v>
       </c>
       <c r="U32">
-        <v>2264.168873232777</v>
+        <v>2262.590868820507</v>
       </c>
       <c r="V32">
-        <v>462.0405220104969</v>
+        <v>461.7185045183392</v>
       </c>
       <c r="W32">
         <v>68089</v>
@@ -4802,28 +4802,28 @@
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>28654.03548631142</v>
+        <v>28717.79699958656</v>
       </c>
       <c r="AI32">
-        <v>-349.0154853657296</v>
+        <v>-293.2527907388867</v>
       </c>
       <c r="AJ32">
-        <v>29003.05085346825</v>
+        <v>29011.04967219893</v>
       </c>
       <c r="AK32">
-        <v>-39391.96451368858</v>
+        <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63304.01548536573</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>23912.05085346825</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-63347.01548536573</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
-        <v>159575.9645136886</v>
+        <v>159512.2030004134</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.4596</v>
+        <v>8.465500000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73526.28418481676</v>
+        <v>73531.80147389873</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="F33">
-        <v>8262.001588750696</v>
+        <v>8256.226155778299</v>
       </c>
       <c r="G33">
-        <v>65264.28259606606</v>
+        <v>65275.57531812043</v>
       </c>
       <c r="H33">
-        <v>92607.56909287076</v>
+        <v>92542.83310822018</v>
       </c>
       <c r="I33">
-        <v>81291.54274806444</v>
+        <v>81234.71706831591</v>
       </c>
       <c r="J33">
-        <v>11316.02634480633</v>
+        <v>11308.11603990427</v>
       </c>
       <c r="K33">
-        <v>301.4252516509965</v>
+        <v>301.214544679036</v>
       </c>
       <c r="L33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="M33">
-        <v>4889.630793308276</v>
+        <v>4886.212767469965</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79523.79723272825</v>
+        <v>79468.20726996991</v>
       </c>
       <c r="P33">
-        <v>48288.63343727398</v>
+        <v>48254.87796497713</v>
       </c>
       <c r="Q33">
-        <v>37287.25537388994</v>
+        <v>37261.19025615507</v>
       </c>
       <c r="R33">
-        <v>11001.37806338404</v>
+        <v>10993.68770882206</v>
       </c>
       <c r="S33">
-        <v>31235.16379545427</v>
+        <v>31213.32930499277</v>
       </c>
       <c r="T33">
-        <v>28814.00898711215</v>
+        <v>28793.86696997701</v>
       </c>
       <c r="U33">
-        <v>2106.506526919839</v>
+        <v>2105.034003933556</v>
       </c>
       <c r="V33">
-        <v>314.6482814222875</v>
+        <v>314.4283310822018</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28178.43090712924</v>
+        <v>28243.16689177982</v>
       </c>
       <c r="AI33">
-        <v>127.457251935557</v>
+        <v>184.2829316840944</v>
       </c>
       <c r="AJ33">
-        <v>28050.97365519367</v>
+        <v>28058.88396009574</v>
       </c>
       <c r="AK33">
-        <v>-40374.56909287076</v>
+        <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-63008.54274806444</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>22633.97365519367</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-63051.54274806444</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
-        <v>161203.5690928708</v>
+        <v>161138.8331082202</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.4343</v>
+        <v>8.440200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74970.80712865795</v>
+        <v>74976.2595398688</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="F34">
-        <v>8236.351416947899</v>
+        <v>8230.643883396471</v>
       </c>
       <c r="G34">
-        <v>66734.45571171005</v>
+        <v>66745.61565647234</v>
       </c>
       <c r="H34">
-        <v>91821.44260551986</v>
+        <v>91757.81322184237</v>
       </c>
       <c r="I34">
-        <v>80622.57234986824</v>
+        <v>80566.70343250486</v>
       </c>
       <c r="J34">
-        <v>11198.87014007674</v>
+        <v>11191.10967384274</v>
       </c>
       <c r="K34">
-        <v>298.0586889186815</v>
+        <v>297.85214358311</v>
       </c>
       <c r="L34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="M34">
-        <v>4882.873653552771</v>
+        <v>4879.489975053128</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78772.31739170635</v>
+        <v>78717.73064307493</v>
       </c>
       <c r="P34">
-        <v>48141.39591327262</v>
+        <v>48108.0354337984</v>
       </c>
       <c r="Q34">
-        <v>37204.30967130508</v>
+        <v>37178.5282500231</v>
       </c>
       <c r="R34">
-        <v>10937.08624196755</v>
+        <v>10929.50718377529</v>
       </c>
       <c r="S34">
-        <v>30630.92147843373</v>
+        <v>30609.69520927654</v>
       </c>
       <c r="T34">
-        <v>28337.2956636309</v>
+        <v>28317.658805322</v>
       </c>
       <c r="U34">
-        <v>2031.841801118765</v>
+        <v>2030.433798392313</v>
       </c>
       <c r="V34">
-        <v>261.7838981091952</v>
+        <v>261.602490067449</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>30221.55739448014</v>
+        <v>30285.18677815763</v>
       </c>
       <c r="AI34">
-        <v>2216.427650131765</v>
+        <v>2272.296567495141</v>
       </c>
       <c r="AJ34">
-        <v>28005.12985992326</v>
+        <v>28012.89032615726</v>
       </c>
       <c r="AK34">
-        <v>-37557.44260551986</v>
+        <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60169.57234986824</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>22612.12985992326</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-60212.57234986824</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
-        <v>159643.4426055198</v>
+        <v>159579.8132218424</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,7 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6524</v>
+        <v>8.6584</v>
       </c>
     </row>
     <row r="35">
@@ -5120,64 +5120,64 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75384.55273153522</v>
+        <v>75390.01317790167</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="F35">
-        <v>8191.138487201741</v>
+        <v>8185.418482851833</v>
       </c>
       <c r="G35">
-        <v>67193.41424433349</v>
+        <v>67204.59469504983</v>
       </c>
       <c r="H35">
-        <v>92641.96645740114</v>
+        <v>92577.27307540689</v>
       </c>
       <c r="I35">
-        <v>81236.04657191483</v>
+        <v>81179.31812806218</v>
       </c>
       <c r="J35">
-        <v>11405.91999819664</v>
+        <v>11397.95505997635</v>
       </c>
       <c r="K35">
-        <v>292.6103716060097</v>
+        <v>292.406037055809</v>
       </c>
       <c r="L35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="M35">
-        <v>4869.998647475853</v>
+        <v>4866.59784873571</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79659.9101698545</v>
+        <v>79604.28236751704</v>
       </c>
       <c r="P35">
-        <v>51499.69624561839</v>
+        <v>51463.73317564904</v>
       </c>
       <c r="Q35">
-        <v>40349.63436763861</v>
+        <v>40321.45756603029</v>
       </c>
       <c r="R35">
-        <v>11150.06199069013</v>
+        <v>11142.27572225038</v>
       </c>
       <c r="S35">
-        <v>28160.21392423611</v>
+        <v>28140.549191868</v>
       </c>
       <c r="T35">
-        <v>26270.9202799725</v>
+        <v>26252.57487188151</v>
       </c>
       <c r="U35">
-        <v>1633.435636757098</v>
+        <v>1632.294982260517</v>
       </c>
       <c r="V35">
-        <v>255.858007506509</v>
+        <v>255.6793377259672</v>
       </c>
       <c r="W35">
         <v>66633</v>
@@ -5213,28 +5213,28 @@
         <v>5075</v>
       </c>
       <c r="AH35">
-        <v>29079.03354259886</v>
+        <v>29143.72692459311</v>
       </c>
       <c r="AI35">
-        <v>1967.953428085166</v>
+        <v>2024.681871937821</v>
       </c>
       <c r="AJ35">
-        <v>27111.08000180336</v>
+        <v>27119.04494002365</v>
       </c>
       <c r="AK35">
-        <v>-37536.96645740114</v>
+        <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59573.04657191483</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>22036.08000180336</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-59590.04657191483</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
-        <v>159274.9664574011</v>
+        <v>159210.2730754069</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5246,7 +5246,7 @@
         <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.872299999999999</v>
+        <v>8.878500000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77529.45176008222</v>
+        <v>77534.92732115249</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="F36">
-        <v>8205.126430031511</v>
+        <v>8199.385276890607</v>
       </c>
       <c r="G36">
-        <v>69324.32533005071</v>
+        <v>69335.54204426188</v>
       </c>
       <c r="H36">
-        <v>94063.90052740354</v>
+        <v>93998.08371610107</v>
       </c>
       <c r="I36">
-        <v>82338.48171027818</v>
+        <v>82280.86921193104</v>
       </c>
       <c r="J36">
-        <v>11725.418704191</v>
+        <v>11717.21439131465</v>
       </c>
       <c r="K36">
-        <v>290.2253040758016</v>
+        <v>290.0222325045988</v>
       </c>
       <c r="L36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="M36">
-        <v>4866.554711057405</v>
+        <v>4863.149567199719</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81081.57227235254</v>
+        <v>81024.83923754923</v>
       </c>
       <c r="P36">
-        <v>51633.05645589349</v>
+        <v>51596.9286415601</v>
       </c>
       <c r="Q36">
-        <v>40305.19102849335</v>
+        <v>40276.98935774017</v>
       </c>
       <c r="R36">
-        <v>11327.86542740014</v>
+        <v>11319.93928381993</v>
       </c>
       <c r="S36">
-        <v>29448.51570352469</v>
+        <v>29427.91048313376</v>
       </c>
       <c r="T36">
-        <v>26808.28949597389</v>
+        <v>26789.53165028383</v>
       </c>
       <c r="U36">
-        <v>2242.672930759936</v>
+        <v>2241.103725355212</v>
       </c>
       <c r="V36">
-        <v>397.5532767908569</v>
+        <v>397.275107494724</v>
       </c>
       <c r="W36">
         <v>66994</v>
@@ -5350,28 +5350,28 @@
         <v>5080</v>
       </c>
       <c r="AH36">
-        <v>29398.09947259646</v>
+        <v>29463.91628389893</v>
       </c>
       <c r="AI36">
-        <v>3016.518289721818</v>
+        <v>3074.130788068957</v>
       </c>
       <c r="AJ36">
-        <v>26381.581295809</v>
+        <v>26389.78560868535</v>
       </c>
       <c r="AK36">
-        <v>-37578.90052740354</v>
+        <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58880.48171027818</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>21301.581295809</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-58897.48171027818</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
-        <v>161057.9005274035</v>
+        <v>160992.0837161011</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5383,7 +5383,7 @@
         <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.854699999999999</v>
+        <v>8.860900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5394,64 +5394,64 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78123.74266573256</v>
+        <v>78129.22529972871</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="F37">
-        <v>8169.930926525966</v>
+        <v>8164.211188413407</v>
       </c>
       <c r="G37">
-        <v>69953.81173920659</v>
+        <v>69965.01411131531</v>
       </c>
       <c r="H37">
-        <v>93822.57290480779</v>
+        <v>93756.88807210991</v>
       </c>
       <c r="I37">
-        <v>82012.99446098608</v>
+        <v>81955.57747002711</v>
       </c>
       <c r="J37">
-        <v>11809.5784438217</v>
+        <v>11801.31060208279</v>
       </c>
       <c r="K37">
-        <v>289.1214204396182</v>
+        <v>288.9190076135469</v>
       </c>
       <c r="L37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="M37">
-        <v>4871.766792188459</v>
+        <v>4868.356086461889</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80830.42735791227</v>
+        <v>80773.83827776319</v>
       </c>
       <c r="P37">
-        <v>51376.22164813032</v>
+        <v>51340.25334733526</v>
       </c>
       <c r="Q37">
-        <v>39900.23108415799</v>
+        <v>39872.2970814737</v>
       </c>
       <c r="R37">
-        <v>11475.99056397233</v>
+        <v>11467.95626586156</v>
       </c>
       <c r="S37">
-        <v>29454.20570978195</v>
+        <v>29433.58493042793</v>
       </c>
       <c r="T37">
-        <v>26915.8774848936</v>
+        <v>26897.0337796447</v>
       </c>
       <c r="U37">
-        <v>2204.74034503897</v>
+        <v>2203.196814562002</v>
       </c>
       <c r="V37">
-        <v>333.5878798493739</v>
+        <v>333.3543362212304</v>
       </c>
       <c r="W37">
         <v>68067</v>
@@ -5487,28 +5487,28 @@
         <v>5231</v>
       </c>
       <c r="AH37">
-        <v>31904.42709519221</v>
+        <v>31970.11192789009</v>
       </c>
       <c r="AI37">
-        <v>3942.005539013917</v>
+        <v>3999.422529972886</v>
       </c>
       <c r="AJ37">
-        <v>27962.4215561783</v>
+        <v>27970.68939791721</v>
       </c>
       <c r="AK37">
-        <v>-36145.57290480779</v>
+        <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58876.99446098608</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>22731.4215561783</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-58893.99446098608</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
-        <v>161889.5729048078</v>
+        <v>161823.8880721099</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5520,7 +5520,7 @@
         <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.135199999999999</v>
+        <v>9.1416</v>
       </c>
     </row>
     <row r="38">
@@ -5531,64 +5531,64 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77600.77454953014</v>
+        <v>77606.26621579418</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="F38">
-        <v>8263.873825329771</v>
+        <v>8258.089104752467</v>
       </c>
       <c r="G38">
-        <v>69336.90072420036</v>
+        <v>69348.17711104172</v>
       </c>
       <c r="H38">
-        <v>92933.61916975603</v>
+        <v>92868.56553625465</v>
       </c>
       <c r="I38">
-        <v>81201.9115872058</v>
+        <v>81145.07016164642</v>
       </c>
       <c r="J38">
-        <v>11731.70769031813</v>
+        <v>11723.49548230074</v>
       </c>
       <c r="K38">
-        <v>289.0980903526166</v>
+        <v>288.8957213780329</v>
       </c>
       <c r="L38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="M38">
-        <v>4874.639300801794</v>
+        <v>4871.227048041612</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79924.65632813175</v>
+        <v>79868.70898262919</v>
       </c>
       <c r="P38">
-        <v>51351.9017803259</v>
+        <v>51315.95539377753</v>
       </c>
       <c r="Q38">
-        <v>39951.58235623761</v>
+        <v>39923.61620556339</v>
       </c>
       <c r="R38">
-        <v>11400.31942408828</v>
+        <v>11392.33918821414</v>
       </c>
       <c r="S38">
-        <v>28572.75454780585</v>
+        <v>28552.75358885167</v>
       </c>
       <c r="T38">
-        <v>25803.03657642901</v>
+        <v>25784.97442303757</v>
       </c>
       <c r="U38">
-        <v>2438.329812914907</v>
+        <v>2436.622979419968</v>
       </c>
       <c r="V38">
-        <v>331.3882662298474</v>
+        <v>331.1562940866062</v>
       </c>
       <c r="W38">
         <v>68272</v>
@@ -5624,28 +5624,28 @@
         <v>5302</v>
       </c>
       <c r="AH38">
-        <v>32207.38083024397</v>
+        <v>32272.43446374535</v>
       </c>
       <c r="AI38">
-        <v>4244.088412794197</v>
+        <v>4300.929838353579</v>
       </c>
       <c r="AJ38">
-        <v>27963.29230968187</v>
+        <v>27971.50451769926</v>
       </c>
       <c r="AK38">
-        <v>-36047.61916975603</v>
+        <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58708.9115872058</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>22661.29230968187</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-58725.9115872058</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
-        <v>161205.619169756</v>
+        <v>161140.5655362547</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5657,7 +5657,7 @@
         <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.279199999999999</v>
+        <v>9.2857</v>
       </c>
     </row>
     <row r="39">
@@ -5668,64 +5668,64 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76269.64262343528</v>
+        <v>76275.17951124845</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="F39">
-        <v>8149.654655605514</v>
+        <v>8143.895668315527</v>
       </c>
       <c r="G39">
-        <v>68119.98796782977</v>
+        <v>68131.28384293293</v>
       </c>
       <c r="H39">
-        <v>91351.04384353958</v>
+        <v>91286.49024922743</v>
       </c>
       <c r="I39">
-        <v>79500.64593755937</v>
+        <v>79444.46647611614</v>
       </c>
       <c r="J39">
-        <v>11850.3979059802</v>
+        <v>11842.02377311128</v>
       </c>
       <c r="K39">
-        <v>286.9217697844764</v>
+        <v>286.7190153249027</v>
       </c>
       <c r="L39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="M39">
-        <v>4871.253773246363</v>
+        <v>4867.811481547889</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78357.51092394402</v>
+        <v>78302.13926360309</v>
       </c>
       <c r="P39">
-        <v>51278.32214552593</v>
+        <v>51242.08610633564</v>
       </c>
       <c r="Q39">
-        <v>39887.18605534798</v>
+        <v>39858.99960975816</v>
       </c>
       <c r="R39">
-        <v>11391.1359846326</v>
+        <v>11383.08639110671</v>
       </c>
       <c r="S39">
-        <v>27079.18877841808</v>
+        <v>27060.05315726747</v>
       </c>
       <c r="T39">
-        <v>24571.2160935554</v>
+        <v>24553.85274171264</v>
       </c>
       <c r="U39">
-        <v>2048.710869060435</v>
+        <v>2047.26313902102</v>
       </c>
       <c r="V39">
-        <v>459.2619213476031</v>
+        <v>458.9373820045774</v>
       </c>
       <c r="W39">
         <v>68337</v>
@@ -5761,28 +5761,28 @@
         <v>5136</v>
       </c>
       <c r="AH39">
-        <v>32431.95615646042</v>
+        <v>32496.50975077257</v>
       </c>
       <c r="AI39">
-        <v>4604.354062440631</v>
+        <v>4660.53352388386</v>
       </c>
       <c r="AJ39">
-        <v>27827.6020940198</v>
+        <v>27835.97622688872</v>
       </c>
       <c r="AK39">
-        <v>-35897.04384353958</v>
+        <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58588.64593755937</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>22691.6020940198</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-58596.64593755937</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
-        <v>159688.0438435396</v>
+        <v>159623.4902492274</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5794,7 +5794,7 @@
         <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.474600000000001</v>
+        <v>9.481299999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5805,64 +5805,64 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77970.22888778715</v>
+        <v>77975.71735271046</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="F40">
-        <v>8182.076929433151</v>
+        <v>8176.334172825234</v>
       </c>
       <c r="G40">
-        <v>69788.15195835399</v>
+        <v>69799.38317988522</v>
       </c>
       <c r="H40">
-        <v>93800.98351512147</v>
+        <v>93735.14739275834</v>
       </c>
       <c r="I40">
-        <v>82275.42575607338</v>
+        <v>82217.67908013707</v>
       </c>
       <c r="J40">
-        <v>11525.5578623368</v>
+        <v>11517.4684158375</v>
       </c>
       <c r="K40">
-        <v>285.2106056850107</v>
+        <v>285.0104248379506</v>
       </c>
       <c r="L40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="M40">
-        <v>4866.467732606181</v>
+        <v>4863.052103546509</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80829.53406461742</v>
+        <v>80772.80221708435</v>
       </c>
       <c r="P40">
-        <v>52934.50152867295</v>
+        <v>52897.34837537674</v>
       </c>
       <c r="Q40">
-        <v>41885.50714757891</v>
+        <v>41856.10895503902</v>
       </c>
       <c r="R40">
-        <v>11048.99448438275</v>
+        <v>11041.23952355394</v>
       </c>
       <c r="S40">
-        <v>27895.03253594447</v>
+        <v>27875.45384170761</v>
       </c>
       <c r="T40">
-        <v>24891.04042720212</v>
+        <v>24873.5701457413</v>
       </c>
       <c r="U40">
-        <v>2527.428730788299</v>
+        <v>2525.654803682755</v>
       </c>
       <c r="V40">
-        <v>476.5633779540572</v>
+        <v>476.2288922835556</v>
       </c>
       <c r="W40">
         <v>67061</v>
@@ -5898,28 +5898,28 @@
         <v>5270</v>
       </c>
       <c r="AH40">
-        <v>31642.01648487854</v>
+        <v>31707.85260724166</v>
       </c>
       <c r="AI40">
-        <v>3514.574243926618</v>
+        <v>3572.320919862934</v>
       </c>
       <c r="AJ40">
-        <v>28127.44213766319</v>
+        <v>28135.53158416251</v>
       </c>
       <c r="AK40">
-        <v>-35410.98351512147</v>
+        <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58268.42575607338</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>22857.44213766319</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-58276.42575607338</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
-        <v>160861.9835151215</v>
+        <v>160796.1473927583</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5931,7 +5931,7 @@
         <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
-        <v>9.6816</v>
+        <v>9.6884</v>
       </c>
     </row>
     <row r="41">
@@ -5942,64 +5942,64 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78906.98363285941</v>
+        <v>78912.40233941717</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="F41">
-        <v>8216.159877296899</v>
+        <v>8210.443279217505</v>
       </c>
       <c r="G41">
-        <v>70690.82375556251</v>
+        <v>70701.95906019966</v>
       </c>
       <c r="H41">
-        <v>99305.92617632516</v>
+        <v>99236.83160229906</v>
       </c>
       <c r="I41">
-        <v>89875.15090665077</v>
+        <v>89812.61802964604</v>
       </c>
       <c r="J41">
-        <v>9430.775269674374</v>
+        <v>9424.21357265302</v>
       </c>
       <c r="K41">
-        <v>281.3337907791042</v>
+        <v>281.1380457799738</v>
       </c>
       <c r="L41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="M41">
-        <v>4855.68702636704</v>
+        <v>4852.308561056771</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86380.88899203842</v>
+        <v>86320.7873348795</v>
       </c>
       <c r="P41">
-        <v>55710.68748044924</v>
+        <v>55671.92538065947</v>
       </c>
       <c r="Q41">
-        <v>47455.96230108677</v>
+        <v>47422.94363214682</v>
       </c>
       <c r="R41">
-        <v>8254.725179362469</v>
+        <v>8248.981748512655</v>
       </c>
       <c r="S41">
-        <v>30670.20161249634</v>
+        <v>30648.86205505697</v>
       </c>
       <c r="T41">
-        <v>27376.78045630216</v>
+        <v>27357.73237874357</v>
       </c>
       <c r="U41">
-        <v>2117.370964975126</v>
+        <v>2115.89775133609</v>
       </c>
       <c r="V41">
-        <v>1176.050090311904</v>
+        <v>1175.231824140365</v>
       </c>
       <c r="W41">
         <v>63655</v>
@@ -6035,28 +6035,28 @@
         <v>7350</v>
       </c>
       <c r="AH41">
-        <v>28384.07382367484</v>
+        <v>28453.16839770094</v>
       </c>
       <c r="AI41">
-        <v>-3180.150906650772</v>
+        <v>-3117.618029646037</v>
       </c>
       <c r="AJ41">
-        <v>31564.22473032563</v>
+        <v>31570.78642734698</v>
       </c>
       <c r="AK41">
-        <v>-35262.92617632516</v>
+        <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59477.15090665077</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>24214.22473032563</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-59485.15090665077</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
-        <v>162960.9261763252</v>
+        <v>162891.8316022991</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6068,7 +6068,7 @@
         <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
-        <v>9.9101</v>
+        <v>9.917</v>
       </c>
     </row>
     <row r="42">
@@ -6079,64 +6079,64 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80155.14939001572</v>
+        <v>80160.59462617914</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="F42">
-        <v>8198.336576603548</v>
+        <v>8192.588091209109</v>
       </c>
       <c r="G42">
-        <v>71956.81281341218</v>
+        <v>71968.00653497003</v>
       </c>
       <c r="H42">
-        <v>103449.4652346381</v>
+        <v>103376.9288445537</v>
       </c>
       <c r="I42">
-        <v>92418.73315994309</v>
+        <v>92353.93126595175</v>
       </c>
       <c r="J42">
-        <v>11030.73216825088</v>
+        <v>11022.99767209222</v>
       </c>
       <c r="K42">
-        <v>277.9092133822318</v>
+        <v>277.714349821901</v>
       </c>
       <c r="L42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="M42">
-        <v>4839.787628171544</v>
+        <v>4836.394080195955</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90565.91778310006</v>
+        <v>90502.415040715</v>
       </c>
       <c r="P42">
-        <v>55465.38657286131</v>
+        <v>55426.49551714143</v>
       </c>
       <c r="Q42">
-        <v>47205.06698600404</v>
+        <v>47171.96787674242</v>
       </c>
       <c r="R42">
-        <v>8260.319586857271</v>
+        <v>8254.527640399016</v>
       </c>
       <c r="S42">
-        <v>35100.53130379463</v>
+        <v>35075.91961706384</v>
       </c>
       <c r="T42">
-        <v>29873.14413217573</v>
+        <v>29852.1977693221</v>
       </c>
       <c r="U42">
-        <v>2456.974590225282</v>
+        <v>2455.25181604854</v>
       </c>
       <c r="V42">
-        <v>2770.412581393608</v>
+        <v>2768.470031693202</v>
       </c>
       <c r="W42">
         <v>60524</v>
@@ -6172,28 +6172,28 @@
         <v>5211</v>
       </c>
       <c r="AH42">
-        <v>24953.5347653619</v>
+        <v>25026.07115544631</v>
       </c>
       <c r="AI42">
-        <v>-4497.733159943091</v>
+        <v>-4432.931265951745</v>
       </c>
       <c r="AJ42">
-        <v>29451.26783174912</v>
+        <v>29459.00232790778</v>
       </c>
       <c r="AK42">
-        <v>-35562.4652346381</v>
+        <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59802.73315994309</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>24240.26783174912</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-59810.73315994309</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
-        <v>163973.4652346381</v>
+        <v>163900.9288445537</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6205,7 +6205,7 @@
         <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6888</v>
+        <v>10.6963</v>
       </c>
     </row>
     <row r="43">
@@ -6216,64 +6216,64 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79296.91626708473</v>
+        <v>79302.32518062349</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="F43">
-        <v>8162.123802296589</v>
+        <v>8156.410363246972</v>
       </c>
       <c r="G43">
-        <v>71134.79246478815</v>
+        <v>71145.91481737651</v>
       </c>
       <c r="H43">
-        <v>101699.8914249022</v>
+        <v>101628.7020941492</v>
       </c>
       <c r="I43">
-        <v>92885.28724034125</v>
+        <v>92820.26808109933</v>
       </c>
       <c r="J43">
-        <v>8814.604267952002</v>
+        <v>8808.434096382529</v>
       </c>
       <c r="K43">
-        <v>274.3360824570328</v>
+        <v>274.1440487995934</v>
       </c>
       <c r="L43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="M43">
-        <v>4826.449210704071</v>
+        <v>4823.07072441063</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88872.02239882587</v>
+        <v>88809.81250156248</v>
       </c>
       <c r="P43">
-        <v>54063.16460551883</v>
+        <v>54025.32070566079</v>
       </c>
       <c r="Q43">
-        <v>46436.41927333073</v>
+        <v>46403.91405071625</v>
       </c>
       <c r="R43">
-        <v>7626.745332188098</v>
+        <v>7621.406654944542</v>
       </c>
       <c r="S43">
-        <v>34808.85779330704</v>
+        <v>34784.4917959017</v>
       </c>
       <c r="T43">
-        <v>31157.11467098077</v>
+        <v>31135.30487245939</v>
       </c>
       <c r="U43">
-        <v>2463.884269953385</v>
+        <v>2462.159565336955</v>
       </c>
       <c r="V43">
-        <v>1187.858935763903</v>
+        <v>1187.027441437988</v>
       </c>
       <c r="W43">
         <v>60829</v>
@@ -6309,28 +6309,28 @@
         <v>6878</v>
       </c>
       <c r="AH43">
-        <v>24445.10857509777</v>
+        <v>24516.29790585078</v>
       </c>
       <c r="AI43">
-        <v>-5861.287240341248</v>
+        <v>-5796.268081099333</v>
       </c>
       <c r="AJ43">
-        <v>30306.395732048</v>
+        <v>30312.56590361747</v>
       </c>
       <c r="AK43">
-        <v>-36375.89142490224</v>
+        <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59804.28724034125</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>23428.395732048</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-59812.28724034125</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
-        <v>162528.8914249023</v>
+        <v>162457.7020941492</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6342,7 +6342,7 @@
         <v>0.154080134850564</v>
       </c>
       <c r="AS43">
-        <v>11.9917</v>
+        <v>12.0001</v>
       </c>
     </row>
     <row r="44">
@@ -6353,64 +6353,64 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77246.50209742189</v>
+        <v>77251.88611664317</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="F44">
-        <v>8335.640198844552</v>
+        <v>8329.857906867461</v>
       </c>
       <c r="G44">
-        <v>68910.86189857734</v>
+        <v>68922.02820977572</v>
       </c>
       <c r="H44">
-        <v>101774.4865421649</v>
+        <v>101703.8873100763</v>
       </c>
       <c r="I44">
-        <v>93005.29311657486</v>
+        <v>92940.77692497036</v>
       </c>
       <c r="J44">
-        <v>8769.19342559004</v>
+        <v>8763.110385105954</v>
       </c>
       <c r="K44">
-        <v>274.5364772269247</v>
+        <v>274.3460359372552</v>
       </c>
       <c r="L44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="M44">
-        <v>4840.790302596026</v>
+        <v>4837.432328611813</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88897.66185976384</v>
+        <v>88835.99506217041</v>
       </c>
       <c r="P44">
-        <v>54196.76362577813</v>
+        <v>54159.16825169505</v>
       </c>
       <c r="Q44">
-        <v>46633.74117366057</v>
+        <v>46601.39213975102</v>
       </c>
       <c r="R44">
-        <v>7563.022452117575</v>
+        <v>7557.776111944027</v>
       </c>
       <c r="S44">
-        <v>34700.8982339857</v>
+        <v>34676.82681047536</v>
       </c>
       <c r="T44">
-        <v>31231.05833967785</v>
+        <v>31209.39388514698</v>
       </c>
       <c r="U44">
-        <v>2263.668920835386</v>
+        <v>2262.098652166454</v>
       </c>
       <c r="V44">
-        <v>1206.170973472465</v>
+        <v>1205.334273161926</v>
       </c>
       <c r="W44">
         <v>60792</v>
@@ -6446,28 +6446,28 @@
         <v>6725</v>
       </c>
       <c r="AH44">
-        <v>22250.5134578351</v>
+        <v>22321.1126899237</v>
       </c>
       <c r="AI44">
-        <v>-7997.29311657486</v>
+        <v>-7932.776924970356</v>
       </c>
       <c r="AJ44">
-        <v>30247.80657440996</v>
+        <v>30253.88961489405</v>
       </c>
       <c r="AK44">
-        <v>-38149.4865421649</v>
+        <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61672.29311657486</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>23522.80657440996</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-62064.29311657486</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
-        <v>162566.4865421649</v>
+        <v>162495.8873100763</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6479,7 +6479,7 @@
         <v>0.153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.3974</v>
+        <v>13.4067</v>
       </c>
     </row>
     <row r="45">
@@ -6490,64 +6490,64 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76396.53347653548</v>
+        <v>76402.00801851097</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="F45">
-        <v>8303.434739869661</v>
+        <v>8297.574145759358</v>
       </c>
       <c r="G45">
-        <v>68093.09873666582</v>
+        <v>68104.43387275162</v>
       </c>
       <c r="H45">
-        <v>101935.0436523829</v>
+        <v>101863.0975318703</v>
       </c>
       <c r="I45">
-        <v>94293.3102996323</v>
+        <v>94226.7577420106</v>
       </c>
       <c r="J45">
-        <v>7641.733425565223</v>
+        <v>7636.339862622969</v>
       </c>
       <c r="K45">
-        <v>274.0099756070921</v>
+        <v>273.816578380581</v>
       </c>
       <c r="L45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="M45">
-        <v>4840.232424363782</v>
+        <v>4836.816170906339</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89064.33472894746</v>
+        <v>89001.47280109435</v>
       </c>
       <c r="P45">
-        <v>53584.31834565115</v>
+        <v>53546.49834099773</v>
       </c>
       <c r="Q45">
-        <v>46370.13871190884</v>
+        <v>46337.41050119331</v>
       </c>
       <c r="R45">
-        <v>7214.179706556959</v>
+        <v>7209.087912567669</v>
       </c>
       <c r="S45">
-        <v>35480.01638329632</v>
+        <v>35454.97446009663</v>
       </c>
       <c r="T45">
-        <v>33123.24585866676</v>
+        <v>33099.86735258164</v>
       </c>
       <c r="U45">
-        <v>1929.216805621291</v>
+        <v>1927.855157459689</v>
       </c>
       <c r="V45">
-        <v>427.5537190082645</v>
+        <v>427.2519500553</v>
       </c>
       <c r="W45">
         <v>60348</v>
@@ -6583,28 +6583,28 @@
         <v>7227</v>
       </c>
       <c r="AH45">
-        <v>20954.95634761715</v>
+        <v>21026.9024681297</v>
       </c>
       <c r="AI45">
-        <v>-10140.3102996323</v>
+        <v>-10073.7577420106</v>
       </c>
       <c r="AJ45">
-        <v>31095.26657443478</v>
+        <v>31100.66013737703</v>
       </c>
       <c r="AK45">
-        <v>-39001.04365238285</v>
+        <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62869.3102996323</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>23868.26657443478</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-63261.3102996323</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
-        <v>162283.0436523829</v>
+        <v>162211.0975318703</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6616,7 +6616,7 @@
         <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7335</v>
+        <v>13.7432</v>
       </c>
     </row>
     <row r="46">
@@ -6627,64 +6627,64 @@
         <v>116873</v>
       </c>
       <c r="C46">
-        <v>70615.72128516169</v>
+        <v>70621.12258904272</v>
       </c>
       <c r="D46">
         <v>38506</v>
       </c>
       <c r="E46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="F46">
-        <v>8204.612925295371</v>
+        <v>8198.895725686638</v>
       </c>
       <c r="G46">
-        <v>62411.10835986632</v>
+        <v>62422.22686335607</v>
       </c>
       <c r="H46">
-        <v>104932.1988395653</v>
+        <v>104859.0792016724</v>
       </c>
       <c r="I46">
-        <v>97342.4621740389</v>
+        <v>97274.63127309064</v>
       </c>
       <c r="J46">
-        <v>7589.736731310686</v>
+        <v>7584.447994320198</v>
       </c>
       <c r="K46">
-        <v>271.4653448411967</v>
+        <v>271.2761803336883</v>
       </c>
       <c r="L46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="M46">
-        <v>4836.989316632898</v>
+        <v>4833.618769639359</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>92072.4654632529</v>
+        <v>92008.30684074205</v>
       </c>
       <c r="P46">
-        <v>53561.15017235481</v>
+        <v>53523.8272919707</v>
       </c>
       <c r="Q46">
-        <v>46339.95631923795</v>
+        <v>46307.66536504556</v>
       </c>
       <c r="R46">
-        <v>7221.193918901139</v>
+        <v>7216.161992663589</v>
       </c>
       <c r="S46">
-        <v>38511.3152251138</v>
+        <v>38484.47948303291</v>
       </c>
       <c r="T46">
-        <v>35794.40682314554</v>
+        <v>35769.46429745329</v>
       </c>
       <c r="U46">
-        <v>2348.365655342999</v>
+        <v>2346.729249661447</v>
       </c>
       <c r="V46">
-        <v>368.5428124095466</v>
+        <v>368.2860016566087</v>
       </c>
       <c r="W46">
         <v>59268</v>
@@ -6720,28 +6720,28 @@
         <v>7180</v>
       </c>
       <c r="AH46">
-        <v>11940.8011604347</v>
+        <v>12013.92079832761</v>
       </c>
       <c r="AI46">
-        <v>-18975.4621740389</v>
+        <v>-18907.63127309064</v>
       </c>
       <c r="AJ46">
-        <v>30916.26326868931</v>
+        <v>30921.5520056798</v>
       </c>
       <c r="AK46">
-        <v>-46926.1988395653</v>
+        <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70662.4621740389</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>23736.26326868931</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-71063.4621740389</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
-        <v>164200.1988395653</v>
+        <v>164127.0792016724</v>
       </c>
       <c r="AP46">
         <v>264458</v>
@@ -6753,7 +6753,7 @@
         <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
-        <v>15.2012</v>
+        <v>15.2118</v>
       </c>
     </row>
     <row r="47">
@@ -6764,64 +6764,64 @@
         <v>110925</v>
       </c>
       <c r="C47">
-        <v>64794.87328276296</v>
+        <v>64800.29482656233</v>
       </c>
       <c r="D47">
         <v>38370</v>
       </c>
       <c r="E47">
-        <v>7760.126717237041</v>
+        <v>7754.705173437665</v>
       </c>
       <c r="F47">
-        <v>8212.951812493446</v>
+        <v>8207.213906451951</v>
       </c>
       <c r="G47">
-        <v>56581.92147026951</v>
+        <v>56593.08092011038</v>
       </c>
       <c r="H47">
-        <v>102520.0259551858</v>
+        <v>102448.4012470744</v>
       </c>
       <c r="I47">
-        <v>93872.65573111476</v>
+        <v>93807.0724316205</v>
       </c>
       <c r="J47">
-        <v>8647.370136679834</v>
+        <v>8641.328728123801</v>
       </c>
       <c r="K47">
-        <v>271.2992449400497</v>
+        <v>271.109704125476</v>
       </c>
       <c r="L47">
-        <v>7760.126717237041</v>
+        <v>7754.705173437665</v>
       </c>
       <c r="M47">
-        <v>4839.474079770685</v>
+        <v>4836.093024068187</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>89649.12591323802</v>
+        <v>89586.49334544312</v>
       </c>
       <c r="P47">
-        <v>53043.62559862971</v>
+        <v>53006.56713941384</v>
       </c>
       <c r="Q47">
-        <v>44853.69813332401</v>
+        <v>44822.36149439341</v>
       </c>
       <c r="R47">
-        <v>8189.927377914497</v>
+        <v>8184.205557690293</v>
       </c>
       <c r="S47">
-        <v>36605.50031460832</v>
+        <v>36579.92620602928</v>
       </c>
       <c r="T47">
-        <v>33894.85930017129</v>
+        <v>33871.17895692877</v>
       </c>
       <c r="U47">
-        <v>2253.198255671689</v>
+        <v>2251.624078666993</v>
       </c>
       <c r="V47">
-        <v>457.4427587653372</v>
+        <v>457.1231704335069</v>
       </c>
       <c r="W47">
         <v>65292</v>
@@ -6857,28 +6857,28 @@
         <v>6257</v>
       </c>
       <c r="AH47">
-        <v>8404.974044814197</v>
+        <v>8476.598752925565</v>
       </c>
       <c r="AI47">
-        <v>-21317.65573111476</v>
+        <v>-21252.0724316205</v>
       </c>
       <c r="AJ47">
-        <v>29722.62986332017</v>
+        <v>29728.6712718762</v>
       </c>
       <c r="AK47">
-        <v>-55909.0259551858</v>
+        <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-79374.65573111476</v>
+        <v>-79309.0724316205</v>
       </c>
       <c r="AM47">
-        <v>23465.62986332017</v>
+        <v>23471.6712718762</v>
       </c>
       <c r="AN47">
-        <v>-80352.65573111476</v>
+        <v>-80287.0724316205</v>
       </c>
       <c r="AO47">
-        <v>167812.0259551858</v>
+        <v>167740.4012470744</v>
       </c>
       <c r="AP47">
         <v>265603.11</v>
@@ -6890,7 +6890,7 @@
         <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
-        <v>11.4428</v>
+        <v>11.4508</v>
       </c>
     </row>
     <row r="48">
@@ -6901,64 +6901,64 @@
         <v>111051</v>
       </c>
       <c r="C48">
-        <v>64806.23324388514</v>
+        <v>64811.67239452899</v>
       </c>
       <c r="D48">
         <v>38488</v>
       </c>
       <c r="E48">
-        <v>7756.766756114863</v>
+        <v>7751.327605471008</v>
       </c>
       <c r="F48">
-        <v>8211.373800931495</v>
+        <v>8205.615873627432</v>
       </c>
       <c r="G48">
-        <v>56594.85944295365</v>
+        <v>56606.05652090156</v>
       </c>
       <c r="H48">
-        <v>102962.7595539928</v>
+        <v>102890.5606626854</v>
       </c>
       <c r="I48">
-        <v>94249.73312050829</v>
+        <v>94183.64392217298</v>
       </c>
       <c r="J48">
-        <v>8713.026433484469</v>
+        <v>8706.916740512426</v>
       </c>
       <c r="K48">
-        <v>270.3722895654051</v>
+        <v>270.1827008283568</v>
       </c>
       <c r="L48">
-        <v>7756.766756114863</v>
+        <v>7751.327605471008</v>
       </c>
       <c r="M48">
-        <v>4839.927207674038</v>
+        <v>4836.533384704296</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>90095.69330063846</v>
+        <v>90032.51697168176</v>
       </c>
       <c r="P48">
-        <v>53089.9056938404</v>
+        <v>53052.67832787517</v>
       </c>
       <c r="Q48">
-        <v>44833.95862249776</v>
+        <v>44802.52043922173</v>
       </c>
       <c r="R48">
-        <v>8255.947071342647</v>
+        <v>8250.157888653439</v>
       </c>
       <c r="S48">
-        <v>37005.78760679806</v>
+        <v>36979.83864380659</v>
       </c>
       <c r="T48">
-        <v>34160.62575182752</v>
+        <v>34136.67185513389</v>
       </c>
       <c r="U48">
-        <v>2388.082492828722</v>
+        <v>2386.407936813716</v>
       </c>
       <c r="V48">
-        <v>457.0793621418216</v>
+        <v>456.7588518589867</v>
       </c>
       <c r="W48">
         <v>65768</v>
@@ -6994,28 +6994,28 @@
         <v>6126</v>
       </c>
       <c r="AH48">
-        <v>8088.240446007214</v>
+        <v>8160.439337314572</v>
       </c>
       <c r="AI48">
-        <v>-21686.73312050829</v>
+        <v>-21620.64392217298</v>
       </c>
       <c r="AJ48">
-        <v>29774.97356651553</v>
+        <v>29781.08325948758</v>
       </c>
       <c r="AK48">
-        <v>-56605.75955399279</v>
+        <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-80254.73312050829</v>
+        <v>-80188.64392217298</v>
       </c>
       <c r="AM48">
-        <v>23648.97356651553</v>
+        <v>23655.08325948758</v>
       </c>
       <c r="AN48">
-        <v>-81328.73312050829</v>
+        <v>-81262.64392217298</v>
       </c>
       <c r="AO48">
-        <v>168730.7595539928</v>
+        <v>168658.5606626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7027,7 +7027,7 @@
         <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
-        <v>12.9684</v>
+        <v>12.9775</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7030,6 +7030,143 @@
         <v>12.9775</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B49">
+        <v>109443</v>
+      </c>
+      <c r="C49">
+        <v>63240.94619807557</v>
+      </c>
+      <c r="D49">
+        <v>38455</v>
+      </c>
+      <c r="E49">
+        <v>7747.053801924431</v>
+      </c>
+      <c r="F49">
+        <v>8201.814788195259</v>
+      </c>
+      <c r="G49">
+        <v>55039.13140988031</v>
+      </c>
+      <c r="H49">
+        <v>101667.5975416569</v>
+      </c>
+      <c r="I49">
+        <v>92671.23980579675</v>
+      </c>
+      <c r="J49">
+        <v>8996.357735860127</v>
+      </c>
+      <c r="K49">
+        <v>269.1300457639052</v>
+      </c>
+      <c r="L49">
+        <v>7747.053801924431</v>
+      </c>
+      <c r="M49">
+        <v>4830.500542712978</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>88820.91315125558</v>
+      </c>
+      <c r="P49">
+        <v>54591.06709105845</v>
+      </c>
+      <c r="Q49">
+        <v>45929.92966733161</v>
+      </c>
+      <c r="R49">
+        <v>8661.137423726825</v>
+      </c>
+      <c r="S49">
+        <v>34229.84606019714</v>
+      </c>
+      <c r="T49">
+        <v>31718.68377434875</v>
+      </c>
+      <c r="U49">
+        <v>2175.941973715091</v>
+      </c>
+      <c r="V49">
+        <v>335.2203121333021</v>
+      </c>
+      <c r="W49">
+        <v>65402</v>
+      </c>
+      <c r="X49">
+        <v>59320</v>
+      </c>
+      <c r="Y49">
+        <v>6082</v>
+      </c>
+      <c r="Z49">
+        <v>559</v>
+      </c>
+      <c r="AA49">
+        <v>43911</v>
+      </c>
+      <c r="AB49">
+        <v>37829</v>
+      </c>
+      <c r="AC49">
+        <v>6082</v>
+      </c>
+      <c r="AD49">
+        <v>20932</v>
+      </c>
+      <c r="AE49">
+        <v>64843</v>
+      </c>
+      <c r="AF49">
+        <v>58761</v>
+      </c>
+      <c r="AG49">
+        <v>6082</v>
+      </c>
+      <c r="AH49">
+        <v>7775.402458343117</v>
+      </c>
+      <c r="AI49">
+        <v>-21683.23980579675</v>
+      </c>
+      <c r="AJ49">
+        <v>29458.64226413988</v>
+      </c>
+      <c r="AK49">
+        <v>-57067.59754165688</v>
+      </c>
+      <c r="AL49">
+        <v>-80444.23980579675</v>
+      </c>
+      <c r="AM49">
+        <v>23376.64226413988</v>
+      </c>
+      <c r="AN49">
+        <v>-81003.23980579675</v>
+      </c>
+      <c r="AO49">
+        <v>167069.5975416569</v>
+      </c>
+      <c r="AP49">
+        <v>260689.82</v>
+      </c>
+      <c r="AQ49">
+        <v>0.5924819312336102</v>
+      </c>
+      <c r="AR49">
+        <v>0.1684415601652569</v>
+      </c>
+      <c r="AS49">
+        <v>13.6352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS49"/>
+  <dimension ref="A1:AS50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2771,13 +2771,13 @@
         <v>140957.9131079303</v>
       </c>
       <c r="AP17">
-        <v>256544.5</v>
+        <v>256544.49</v>
       </c>
       <c r="AQ17">
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.1649499468883545</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -3593,13 +3593,13 @@
         <v>146502.637710523</v>
       </c>
       <c r="AP23">
-        <v>255865.25</v>
+        <v>255865.24</v>
       </c>
       <c r="AQ23">
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.1739509438640434</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -7155,16 +7155,153 @@
         <v>167069.5975416569</v>
       </c>
       <c r="AP49">
-        <v>260689.82</v>
+        <v>260689.81</v>
       </c>
       <c r="AQ49">
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.1684415601652569</v>
+        <v>0.1684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B50">
+        <v>109911</v>
+      </c>
+      <c r="C50">
+        <v>60111.80993149523</v>
+      </c>
+      <c r="D50">
+        <v>42194</v>
+      </c>
+      <c r="E50">
+        <v>7605.190068504777</v>
+      </c>
+      <c r="F50">
+        <v>7334.498027687065</v>
+      </c>
+      <c r="G50">
+        <v>52777.31190380816</v>
+      </c>
+      <c r="H50">
+        <v>91791.50737665406</v>
+      </c>
+      <c r="I50">
+        <v>82573.62382798444</v>
+      </c>
+      <c r="J50">
+        <v>9217.88348077589</v>
+      </c>
+      <c r="K50">
+        <v>255.4627976291509</v>
+      </c>
+      <c r="L50">
+        <v>7605.190068504777</v>
+      </c>
+      <c r="M50">
+        <v>5872.126295921624</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>78058.72821459851</v>
+      </c>
+      <c r="P50">
+        <v>49986.10629442796</v>
+      </c>
+      <c r="Q50">
+        <v>41397.71985688002</v>
+      </c>
+      <c r="R50">
+        <v>8588.38643754795</v>
+      </c>
+      <c r="S50">
+        <v>28072.62192017055</v>
+      </c>
+      <c r="T50">
+        <v>26803.25774497756</v>
+      </c>
+      <c r="U50">
+        <v>639.8670640713156</v>
+      </c>
+      <c r="V50">
+        <v>629.4970432279397</v>
+      </c>
+      <c r="W50">
+        <v>64165</v>
+      </c>
+      <c r="X50">
+        <v>60380</v>
+      </c>
+      <c r="Y50">
+        <v>3785</v>
+      </c>
+      <c r="Z50">
+        <v>1115</v>
+      </c>
+      <c r="AA50">
+        <v>39406</v>
+      </c>
+      <c r="AB50">
+        <v>35621</v>
+      </c>
+      <c r="AC50">
+        <v>3785</v>
+      </c>
+      <c r="AD50">
+        <v>23644</v>
+      </c>
+      <c r="AE50">
+        <v>63050</v>
+      </c>
+      <c r="AF50">
+        <v>59265</v>
+      </c>
+      <c r="AG50">
+        <v>3785</v>
+      </c>
+      <c r="AH50">
+        <v>18119.49262334594</v>
+      </c>
+      <c r="AI50">
+        <v>-14856.62382798444</v>
+      </c>
+      <c r="AJ50">
+        <v>32976.11651922411</v>
+      </c>
+      <c r="AK50">
+        <v>-44930.50737665406</v>
+      </c>
+      <c r="AL50">
+        <v>-74121.62382798444</v>
+      </c>
+      <c r="AM50">
+        <v>29191.11651922411</v>
+      </c>
+      <c r="AN50">
+        <v>-75236.62382798444</v>
+      </c>
+      <c r="AO50">
+        <v>155956.5073766541</v>
+      </c>
+      <c r="AP50">
+        <v>243040.03</v>
+      </c>
+      <c r="AQ50">
+        <v>0.5736459499049231</v>
+      </c>
+      <c r="AR50">
+        <v>0.1621378996702724</v>
+      </c>
+      <c r="AS50">
+        <v>14.7289</v>
       </c>
     </row>
   </sheetData>

--- a/Tablo.xlsx
+++ b/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS50"/>
+  <dimension ref="A1:AS51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +596,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>93206.00000000002</v>
+        <v>93206.00000000001</v>
       </c>
       <c r="C2">
         <v>48432.21042132787</v>
@@ -608,7 +608,7 @@
         <v>1532.78957867213</v>
       </c>
       <c r="F2">
-        <v>8784.572606949349</v>
+        <v>8784.572606949348</v>
       </c>
       <c r="G2">
         <v>39647.63781437853</v>
@@ -870,7 +870,7 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213.00000000002</v>
+        <v>95213.00000000001</v>
       </c>
       <c r="C4">
         <v>52943.16064178856</v>
@@ -888,7 +888,7 @@
         <v>43997.40164618209</v>
       </c>
       <c r="H4">
-        <v>81452.36596963462</v>
+        <v>81452.36596963461</v>
       </c>
       <c r="I4">
         <v>70049.96607530171</v>
@@ -1156,7 +1156,7 @@
         <v>1534.523009966956</v>
       </c>
       <c r="F6">
-        <v>8672.528409854122</v>
+        <v>8672.528409854121</v>
       </c>
       <c r="G6">
         <v>42456.94858017892</v>
@@ -1171,7 +1171,7 @@
         <v>11934.7896461865</v>
       </c>
       <c r="K6">
-        <v>338.8779786691025</v>
+        <v>338.8779786691024</v>
       </c>
       <c r="L6">
         <v>1534.523009966956</v>
@@ -1189,7 +1189,7 @@
         <v>44928.81927840313</v>
       </c>
       <c r="Q6">
-        <v>33481.6469655858</v>
+        <v>33481.64696558579</v>
       </c>
       <c r="R6">
         <v>11447.17231281734</v>
@@ -1240,7 +1240,7 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10818.54305133924</v>
+        <v>10818.54305133923</v>
       </c>
       <c r="AI6">
         <v>-16193.66730247428</v>
@@ -1469,7 +1469,7 @@
         <v>11158.99998740697</v>
       </c>
       <c r="S8">
-        <v>27005.60364694179</v>
+        <v>27005.60364694178</v>
       </c>
       <c r="T8">
         <v>25178.00551574759</v>
@@ -1746,7 +1746,7 @@
         <v>28103.52118550504</v>
       </c>
       <c r="T10">
-        <v>26436.81260580486</v>
+        <v>26436.81260580485</v>
       </c>
       <c r="U10">
         <v>1654.839912657327</v>
@@ -2106,7 +2106,7 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45372.41632722959</v>
+        <v>45372.41632722958</v>
       </c>
       <c r="D13">
         <v>40936</v>
@@ -2345,7 +2345,7 @@
         <v>30019.2401579543</v>
       </c>
       <c r="AK14">
-        <v>-47861.12804892731</v>
+        <v>-47861.1280489273</v>
       </c>
       <c r="AL14">
         <v>-72314.3682068816</v>
@@ -2369,7 +2369,7 @@
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.306200000000001</v>
+        <v>8.3062</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>32794.70971556832</v>
       </c>
       <c r="R15">
-        <v>11306.57426961276</v>
+        <v>11306.57426961275</v>
       </c>
       <c r="S15">
         <v>28486.32857470405</v>
@@ -2535,7 +2535,7 @@
         <v>79031.71719102869</v>
       </c>
       <c r="I16">
-        <v>67486.30058908578</v>
+        <v>67486.30058908577</v>
       </c>
       <c r="J16">
         <v>11545.41660194291</v>
@@ -2574,7 +2574,7 @@
         <v>1791.686482094421</v>
       </c>
       <c r="V16">
-        <v>166.3761067762789</v>
+        <v>166.3761067762788</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,10 +2610,10 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13415.28280897132</v>
+        <v>13415.28280897131</v>
       </c>
       <c r="AI16">
-        <v>-18288.30058908578</v>
+        <v>-18288.30058908577</v>
       </c>
       <c r="AJ16">
         <v>31703.58339805709</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-72812.30058908577</v>
       </c>
       <c r="AM16">
         <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-73371.30058908577</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2708,7 +2708,7 @@
         <v>27292.03349026956</v>
       </c>
       <c r="U17">
-        <v>1988.615205815733</v>
+        <v>1988.615205815732</v>
       </c>
       <c r="V17">
         <v>194.7312121248058</v>
@@ -2768,7 +2768,7 @@
         <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
-        <v>140957.9131079303</v>
+        <v>140957.9131079302</v>
       </c>
       <c r="AP17">
         <v>256544.49</v>
@@ -2788,7 +2788,7 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686.00000000002</v>
+        <v>93686.00000000001</v>
       </c>
       <c r="C18">
         <v>48090.49747770523</v>
@@ -2967,7 +2967,7 @@
         <v>73339.45869914316</v>
       </c>
       <c r="P19">
-        <v>43642.71400607177</v>
+        <v>43642.71400607176</v>
       </c>
       <c r="Q19">
         <v>32869.23798248802</v>
@@ -3042,7 +3042,7 @@
         <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
-        <v>143306.7400747835</v>
+        <v>143306.7400747834</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3095,7 +3095,7 @@
         <v>1533.833934348295</v>
       </c>
       <c r="M20">
-        <v>4845.551175167841</v>
+        <v>4845.55117516784</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>10204.84011409698</v>
       </c>
       <c r="S21">
-        <v>29515.8041643089</v>
+        <v>29515.80416430889</v>
       </c>
       <c r="T21">
         <v>26339.60504890696</v>
@@ -3768,7 +3768,7 @@
         <v>80789.41221400957</v>
       </c>
       <c r="I25">
-        <v>69072.43363611795</v>
+        <v>69072.43363611794</v>
       </c>
       <c r="J25">
         <v>11716.97857789163</v>
@@ -3798,7 +3798,7 @@
         <v>10760.1922466774</v>
       </c>
       <c r="S25">
-        <v>30303.79910457233</v>
+        <v>30303.79910457232</v>
       </c>
       <c r="T25">
         <v>27845.76387501616</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-66286.43363611794</v>
       </c>
       <c r="AM25">
         <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-66520.43363611794</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.497500000000001</v>
+        <v>8.4975</v>
       </c>
     </row>
     <row r="27">
@@ -4138,7 +4138,7 @@
         <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
-        <v>150520.708381225</v>
+        <v>150520.7083812249</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4191,7 +4191,7 @@
         <v>1523.20462419654</v>
       </c>
       <c r="M28">
-        <v>4881.622901671663</v>
+        <v>4881.622901671662</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>46716.52310348448</v>
       </c>
       <c r="Q28">
-        <v>36183.64767915262</v>
+        <v>36183.64767915261</v>
       </c>
       <c r="R28">
         <v>10532.87542433186</v>
@@ -4391,7 +4391,7 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25633.38693000905</v>
+        <v>25633.38693000904</v>
       </c>
       <c r="AI29">
         <v>-3583.694598818009</v>
@@ -4480,7 +4480,7 @@
         <v>36513.2289597741</v>
       </c>
       <c r="R30">
-        <v>10796.81578884396</v>
+        <v>10796.81578884395</v>
       </c>
       <c r="S30">
         <v>31584.47605829285</v>
@@ -4665,7 +4665,7 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27708.62671087821</v>
+        <v>27708.6267108782</v>
       </c>
       <c r="AI31">
         <v>-1963.071073300045</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.465500000000001</v>
+        <v>8.4655</v>
       </c>
     </row>
     <row r="33">
@@ -5168,7 +5168,7 @@
         <v>11142.27572225038</v>
       </c>
       <c r="S35">
-        <v>28140.549191868</v>
+        <v>28140.54919186799</v>
       </c>
       <c r="T35">
         <v>26252.57487188151</v>
@@ -5263,7 +5263,7 @@
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7820.07267884752</v>
+        <v>7820.072678847519</v>
       </c>
       <c r="F36">
         <v>8199.385276890607</v>
@@ -5284,7 +5284,7 @@
         <v>290.0222325045988</v>
       </c>
       <c r="L36">
-        <v>7820.07267884752</v>
+        <v>7820.072678847519</v>
       </c>
       <c r="M36">
         <v>4863.149567199719</v>
@@ -5353,7 +5353,7 @@
         <v>29463.91628389893</v>
       </c>
       <c r="AI36">
-        <v>3074.130788068957</v>
+        <v>3074.130788068956</v>
       </c>
       <c r="AJ36">
         <v>26389.78560868535</v>
@@ -5403,7 +5403,7 @@
         <v>7825.774700271287</v>
       </c>
       <c r="F37">
-        <v>8164.211188413407</v>
+        <v>8164.211188413406</v>
       </c>
       <c r="G37">
         <v>69965.01411131531</v>
@@ -5424,7 +5424,7 @@
         <v>7825.774700271287</v>
       </c>
       <c r="M37">
-        <v>4868.356086461889</v>
+        <v>4868.356086461888</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -5511,13 +5511,13 @@
         <v>161823.8880721099</v>
       </c>
       <c r="AP37">
-        <v>262219.59</v>
+        <v>262219.58</v>
       </c>
       <c r="AQ37">
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.1795289276262284</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5576,7 +5576,7 @@
         <v>39923.61620556339</v>
       </c>
       <c r="R38">
-        <v>11392.33918821414</v>
+        <v>11392.33918821413</v>
       </c>
       <c r="S38">
         <v>28552.75358885167</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.1820010170791942</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -6181,7 +6181,7 @@
         <v>29459.00232790778</v>
       </c>
       <c r="AK42">
-        <v>-35489.9288445537</v>
+        <v>-35489.92884455369</v>
       </c>
       <c r="AL42">
         <v>-59737.93126595175</v>
@@ -6199,7 +6199,7 @@
         <v>262156.84</v>
       </c>
       <c r="AQ42">
-        <v>0.4712973995934675</v>
+        <v>0.4712973995934674</v>
       </c>
       <c r="AR42">
         <v>0.1506045007255962</v>
@@ -6240,7 +6240,7 @@
         <v>8808.434096382529</v>
       </c>
       <c r="K43">
-        <v>274.1440487995934</v>
+        <v>274.1440487995933</v>
       </c>
       <c r="L43">
         <v>7721.674819376505</v>
@@ -6258,7 +6258,7 @@
         <v>54025.32070566079</v>
       </c>
       <c r="Q43">
-        <v>46403.91405071625</v>
+        <v>46403.91405071624</v>
       </c>
       <c r="R43">
         <v>7621.406654944542</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88835.99506217041</v>
+        <v>88835.9950621704</v>
       </c>
       <c r="P44">
         <v>54159.16825169505</v>
@@ -6514,7 +6514,7 @@
         <v>7636.339862622969</v>
       </c>
       <c r="K45">
-        <v>273.816578380581</v>
+        <v>273.8165783805809</v>
       </c>
       <c r="L45">
         <v>7750.991981489027</v>
@@ -6675,7 +6675,7 @@
         <v>7216.161992663589</v>
       </c>
       <c r="S46">
-        <v>38484.47948303291</v>
+        <v>38484.4794830329</v>
       </c>
       <c r="T46">
         <v>35769.46429745329</v>
@@ -6812,7 +6812,7 @@
         <v>8184.205557690293</v>
       </c>
       <c r="S47">
-        <v>36579.92620602928</v>
+        <v>36579.92620602927</v>
       </c>
       <c r="T47">
         <v>33871.17895692877</v>
@@ -6866,7 +6866,7 @@
         <v>29728.6712718762</v>
       </c>
       <c r="AK47">
-        <v>-55837.40124707444</v>
+        <v>-55837.40124707443</v>
       </c>
       <c r="AL47">
         <v>-79309.0724316205</v>
@@ -7077,7 +7077,7 @@
         <v>88820.91315125558</v>
       </c>
       <c r="P49">
-        <v>54591.06709105845</v>
+        <v>54591.06709105844</v>
       </c>
       <c r="Q49">
         <v>45929.92966733161</v>
@@ -7131,13 +7131,13 @@
         <v>6082</v>
       </c>
       <c r="AH49">
-        <v>7775.402458343117</v>
+        <v>7775.402458343116</v>
       </c>
       <c r="AI49">
         <v>-21683.23980579675</v>
       </c>
       <c r="AJ49">
-        <v>29458.64226413988</v>
+        <v>29458.64226413987</v>
       </c>
       <c r="AK49">
         <v>-57067.59754165688</v>
@@ -7146,7 +7146,7 @@
         <v>-80444.23980579675</v>
       </c>
       <c r="AM49">
-        <v>23376.64226413988</v>
+        <v>23376.64226413987</v>
       </c>
       <c r="AN49">
         <v>-81003.23980579675</v>
@@ -7158,7 +7158,7 @@
         <v>260689.81</v>
       </c>
       <c r="AQ49">
-        <v>0.5924819312336102</v>
+        <v>0.5924819312336101</v>
       </c>
       <c r="AR49">
         <v>0.1684415666266357</v>
@@ -7302,6 +7302,143 @@
       </c>
       <c r="AS50">
         <v>14.7289</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B51">
+        <v>124988</v>
+      </c>
+      <c r="C51">
+        <v>73984.21447107558</v>
+      </c>
+      <c r="D51">
+        <v>43688</v>
+      </c>
+      <c r="E51">
+        <v>7315.78552892442</v>
+      </c>
+      <c r="F51">
+        <v>6574.878386873196</v>
+      </c>
+      <c r="G51">
+        <v>67409.33608420238</v>
+      </c>
+      <c r="H51">
+        <v>102086.933640657</v>
+      </c>
+      <c r="I51">
+        <v>92165.66130999391</v>
+      </c>
+      <c r="J51">
+        <v>9921.272330663056</v>
+      </c>
+      <c r="K51">
+        <v>225.2278332070727</v>
+      </c>
+      <c r="L51">
+        <v>7315.78552892442</v>
+      </c>
+      <c r="M51">
+        <v>8776.212504634032</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>85769.70777389145</v>
+      </c>
+      <c r="P51">
+        <v>51925.66560822681</v>
+      </c>
+      <c r="Q51">
+        <v>42876.12358494113</v>
+      </c>
+      <c r="R51">
+        <v>9049.542023285676</v>
+      </c>
+      <c r="S51">
+        <v>33844.04216566464</v>
+      </c>
+      <c r="T51">
+        <v>26510.1155687368</v>
+      </c>
+      <c r="U51">
+        <v>6462.196289550458</v>
+      </c>
+      <c r="V51">
+        <v>871.7303073773793</v>
+      </c>
+      <c r="W51">
+        <v>70034</v>
+      </c>
+      <c r="X51">
+        <v>67044</v>
+      </c>
+      <c r="Y51">
+        <v>2990</v>
+      </c>
+      <c r="Z51">
+        <v>500</v>
+      </c>
+      <c r="AA51">
+        <v>45679</v>
+      </c>
+      <c r="AB51">
+        <v>42689</v>
+      </c>
+      <c r="AC51">
+        <v>2990</v>
+      </c>
+      <c r="AD51">
+        <v>23855</v>
+      </c>
+      <c r="AE51">
+        <v>69534</v>
+      </c>
+      <c r="AF51">
+        <v>66544</v>
+      </c>
+      <c r="AG51">
+        <v>2990</v>
+      </c>
+      <c r="AH51">
+        <v>22901.06635934302</v>
+      </c>
+      <c r="AI51">
+        <v>-10865.66130999391</v>
+      </c>
+      <c r="AJ51">
+        <v>33766.72766933694</v>
+      </c>
+      <c r="AK51">
+        <v>-46632.93364065698</v>
+      </c>
+      <c r="AL51">
+        <v>-77409.66130999391</v>
+      </c>
+      <c r="AM51">
+        <v>30776.72766933694</v>
+      </c>
+      <c r="AN51">
+        <v>-77909.66130999391</v>
+      </c>
+      <c r="AO51">
+        <v>172120.933640657</v>
+      </c>
+      <c r="AP51">
+        <v>237912.63</v>
+      </c>
+      <c r="AQ51">
+        <v>0.556325407239095</v>
+      </c>
+      <c r="AR51">
+        <v>0.1919990544428011</v>
+      </c>
+      <c r="AS51">
+        <v>18.6123</v>
       </c>
     </row>
   </sheetData>
